--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7725" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="QMRReporting" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:H25"/>
 </workbook>
 </file>
 
@@ -2005,20 +2006,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="13" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2422,7 +2423,7 @@
       <c r="BP2" s="28"/>
       <c r="BQ2" s="28"/>
     </row>
-    <row r="3" spans="1:69" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -2611,27 +2612,27 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B4" s="23"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B5" s="23"/>
       <c r="D5" s="23"/>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B8" s="23"/>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="D9" s="23"/>
     </row>
@@ -2643,27 +2644,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2694,7 +2695,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>281</v>
       </c>
@@ -2723,7 +2724,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>283</v>
       </c>
@@ -2752,7 +2753,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>285</v>
       </c>
@@ -2781,6 +2782,15 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
+    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2788,34 +2798,34 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="52" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2874,7 +2884,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>380</v>
       </c>
@@ -2933,6 +2943,10 @@
         <v>303</v>
       </c>
     </row>
+    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -2943,27 +2957,27 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2994,7 +3008,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>274</v>
       </c>
@@ -3025,7 +3039,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>278</v>
       </c>
@@ -3056,6 +3070,16 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
+    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3069,35 +3093,35 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3213,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>310</v>
       </c>
@@ -3294,12 +3318,12 @@
       <selection activeCell="B1" sqref="B1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3356,7 +3380,7 @@
       </c>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -3412,7 +3436,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>339</v>
       </c>
@@ -3468,7 +3492,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>346</v>
       </c>
@@ -3524,7 +3548,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>347</v>
       </c>
@@ -3580,7 +3604,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>348</v>
       </c>
@@ -3636,7 +3660,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>355</v>
       </c>
@@ -3692,7 +3716,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -3748,7 +3772,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -3811,27 +3835,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV8"/>
+  <dimension ref="A1:CV177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.42578125" customWidth="1"/>
-    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.5703125" customWidth="1"/>
-    <col min="100" max="100" width="10.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="22" max="22" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.44140625" customWidth="1"/>
+    <col min="69" max="69" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.5546875" customWidth="1"/>
+    <col min="100" max="100" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:100" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4133,7 +4159,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>129</v>
       </c>
@@ -4421,7 +4447,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
@@ -4705,7 +4731,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -4991,7 +5017,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
@@ -5275,7 +5301,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>161</v>
       </c>
@@ -5559,7 +5585,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
@@ -5843,7 +5869,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:100" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
@@ -6134,6 +6160,515 @@
       <c r="CV8" s="13" t="s">
         <v>255</v>
       </c>
+    </row>
+    <row r="9" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="B9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="CV9"/>
+    </row>
+    <row r="10" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="CV10"/>
+    </row>
+    <row r="11" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="CV11"/>
+    </row>
+    <row r="12" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="CV12"/>
+    </row>
+    <row r="13" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="CV13"/>
+    </row>
+    <row r="14" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="CV14"/>
+    </row>
+    <row r="15" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="CV15"/>
+    </row>
+    <row r="16" spans="1:100" x14ac:dyDescent="0.3">
+      <c r="CV16"/>
+    </row>
+    <row r="17" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV17"/>
+    </row>
+    <row r="18" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV18"/>
+    </row>
+    <row r="19" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV19"/>
+    </row>
+    <row r="20" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV20"/>
+    </row>
+    <row r="21" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV21"/>
+    </row>
+    <row r="22" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV22"/>
+    </row>
+    <row r="23" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV23"/>
+    </row>
+    <row r="24" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV24"/>
+    </row>
+    <row r="25" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV25"/>
+    </row>
+    <row r="26" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV26"/>
+    </row>
+    <row r="27" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV27"/>
+    </row>
+    <row r="28" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV28"/>
+    </row>
+    <row r="29" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV29"/>
+    </row>
+    <row r="30" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV30"/>
+    </row>
+    <row r="31" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV31"/>
+    </row>
+    <row r="32" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV32"/>
+    </row>
+    <row r="33" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV33"/>
+    </row>
+    <row r="34" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV34"/>
+    </row>
+    <row r="35" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV35"/>
+    </row>
+    <row r="36" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV36"/>
+    </row>
+    <row r="37" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV37"/>
+    </row>
+    <row r="38" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV38"/>
+    </row>
+    <row r="39" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV39"/>
+    </row>
+    <row r="40" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV40"/>
+    </row>
+    <row r="41" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV41"/>
+    </row>
+    <row r="42" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV42"/>
+    </row>
+    <row r="43" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV43"/>
+    </row>
+    <row r="44" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV44"/>
+    </row>
+    <row r="45" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV45"/>
+    </row>
+    <row r="46" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV46"/>
+    </row>
+    <row r="47" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV47"/>
+    </row>
+    <row r="48" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV48"/>
+    </row>
+    <row r="49" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV49"/>
+    </row>
+    <row r="50" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV50"/>
+    </row>
+    <row r="51" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV51"/>
+    </row>
+    <row r="52" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV52"/>
+    </row>
+    <row r="53" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV53"/>
+    </row>
+    <row r="54" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV54"/>
+    </row>
+    <row r="55" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV55"/>
+    </row>
+    <row r="56" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV56"/>
+    </row>
+    <row r="57" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV57"/>
+    </row>
+    <row r="58" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV58"/>
+    </row>
+    <row r="59" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV59"/>
+    </row>
+    <row r="60" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV60"/>
+    </row>
+    <row r="61" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV61"/>
+    </row>
+    <row r="62" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV62"/>
+    </row>
+    <row r="63" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV63"/>
+    </row>
+    <row r="64" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV64"/>
+    </row>
+    <row r="65" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV65"/>
+    </row>
+    <row r="66" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV66"/>
+    </row>
+    <row r="67" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV67"/>
+    </row>
+    <row r="68" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV68"/>
+    </row>
+    <row r="69" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV69"/>
+    </row>
+    <row r="70" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV70"/>
+    </row>
+    <row r="71" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV71"/>
+    </row>
+    <row r="72" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV72"/>
+    </row>
+    <row r="73" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV73"/>
+    </row>
+    <row r="74" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV74"/>
+    </row>
+    <row r="75" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV75"/>
+    </row>
+    <row r="76" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV76"/>
+    </row>
+    <row r="77" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV77"/>
+    </row>
+    <row r="78" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV78"/>
+    </row>
+    <row r="79" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV79"/>
+    </row>
+    <row r="80" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV80"/>
+    </row>
+    <row r="81" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV81"/>
+    </row>
+    <row r="82" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV82"/>
+    </row>
+    <row r="83" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV83"/>
+    </row>
+    <row r="84" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV84"/>
+    </row>
+    <row r="85" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV85"/>
+    </row>
+    <row r="86" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV86"/>
+    </row>
+    <row r="87" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV87"/>
+    </row>
+    <row r="88" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV88"/>
+    </row>
+    <row r="89" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV89"/>
+    </row>
+    <row r="90" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV90"/>
+    </row>
+    <row r="91" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV91"/>
+    </row>
+    <row r="92" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV92"/>
+    </row>
+    <row r="93" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV93"/>
+    </row>
+    <row r="94" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV94"/>
+    </row>
+    <row r="95" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV95"/>
+    </row>
+    <row r="96" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV96"/>
+    </row>
+    <row r="97" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV97"/>
+    </row>
+    <row r="98" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV98"/>
+    </row>
+    <row r="99" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV99"/>
+    </row>
+    <row r="100" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV100"/>
+    </row>
+    <row r="101" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV101"/>
+    </row>
+    <row r="102" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV102"/>
+    </row>
+    <row r="103" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV103"/>
+    </row>
+    <row r="104" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV104"/>
+    </row>
+    <row r="105" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV105"/>
+    </row>
+    <row r="106" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV106"/>
+    </row>
+    <row r="107" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV107"/>
+    </row>
+    <row r="108" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV108"/>
+    </row>
+    <row r="109" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV109"/>
+    </row>
+    <row r="110" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV110"/>
+    </row>
+    <row r="111" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV111"/>
+    </row>
+    <row r="112" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV112"/>
+    </row>
+    <row r="113" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV113"/>
+    </row>
+    <row r="114" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV114"/>
+    </row>
+    <row r="115" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV115"/>
+    </row>
+    <row r="116" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV116"/>
+    </row>
+    <row r="117" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV117"/>
+    </row>
+    <row r="118" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV118"/>
+    </row>
+    <row r="119" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV119"/>
+    </row>
+    <row r="120" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV120"/>
+    </row>
+    <row r="121" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV121"/>
+    </row>
+    <row r="122" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV122"/>
+    </row>
+    <row r="123" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV123"/>
+    </row>
+    <row r="124" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV124"/>
+    </row>
+    <row r="125" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV125"/>
+    </row>
+    <row r="126" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV126"/>
+    </row>
+    <row r="127" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV127"/>
+    </row>
+    <row r="128" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV128"/>
+    </row>
+    <row r="129" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV129"/>
+    </row>
+    <row r="130" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV130"/>
+    </row>
+    <row r="131" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV131"/>
+    </row>
+    <row r="132" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV132"/>
+    </row>
+    <row r="133" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV133"/>
+    </row>
+    <row r="134" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV134"/>
+    </row>
+    <row r="135" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV135"/>
+    </row>
+    <row r="136" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV136"/>
+    </row>
+    <row r="137" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV137"/>
+    </row>
+    <row r="138" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV138"/>
+    </row>
+    <row r="139" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV139"/>
+    </row>
+    <row r="140" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV140"/>
+    </row>
+    <row r="141" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV141"/>
+    </row>
+    <row r="142" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV142"/>
+    </row>
+    <row r="143" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV143"/>
+    </row>
+    <row r="144" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV144"/>
+    </row>
+    <row r="145" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV145"/>
+    </row>
+    <row r="146" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV146"/>
+    </row>
+    <row r="147" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV147"/>
+    </row>
+    <row r="148" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV148"/>
+    </row>
+    <row r="149" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV149"/>
+    </row>
+    <row r="150" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV150"/>
+    </row>
+    <row r="151" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV151"/>
+    </row>
+    <row r="152" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV152"/>
+    </row>
+    <row r="153" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV153"/>
+    </row>
+    <row r="154" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV154"/>
+    </row>
+    <row r="155" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV155"/>
+    </row>
+    <row r="156" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV156"/>
+    </row>
+    <row r="157" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV157"/>
+    </row>
+    <row r="158" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV158"/>
+    </row>
+    <row r="159" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV159"/>
+    </row>
+    <row r="160" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV160"/>
+    </row>
+    <row r="161" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV161"/>
+    </row>
+    <row r="162" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV162"/>
+    </row>
+    <row r="163" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV163"/>
+    </row>
+    <row r="164" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV164"/>
+    </row>
+    <row r="165" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV165"/>
+    </row>
+    <row r="166" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV166"/>
+    </row>
+    <row r="167" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV167"/>
+    </row>
+    <row r="168" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV168"/>
+    </row>
+    <row r="169" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV169"/>
+    </row>
+    <row r="170" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV170"/>
+    </row>
+    <row r="171" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV171"/>
+    </row>
+    <row r="172" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV172"/>
+    </row>
+    <row r="173" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV173"/>
+    </row>
+    <row r="174" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV174"/>
+    </row>
+    <row r="175" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV175"/>
+    </row>
+    <row r="176" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV176"/>
+    </row>
+    <row r="177" spans="100:100" x14ac:dyDescent="0.3">
+      <c r="CV177"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6145,20 +6680,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6202,7 +6739,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>189</v>
       </c>
@@ -6238,7 +6775,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>192</v>
       </c>
@@ -6278,7 +6815,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>193</v>
       </c>
@@ -6308,7 +6845,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
@@ -6340,22 +6877,22 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="24"/>
       <c r="C6" s="2"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="2"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="24"/>
       <c r="C8" s="2"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="D9" s="23"/>
     </row>
@@ -6372,20 +6909,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" customWidth="1"/>
     <col min="19" max="19" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6444,7 +6981,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>365</v>
       </c>
@@ -6503,7 +7040,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>366</v>
       </c>
@@ -6562,7 +7099,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>368</v>
       </c>
@@ -6621,7 +7158,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>369</v>
       </c>
@@ -6680,7 +7217,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>370</v>
       </c>
@@ -6749,32 +7286,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="31"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="27" width="22.7109375" style="31" customWidth="1"/>
-    <col min="28" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="2" width="22.77734375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="31"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="22.77734375" style="31" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -6857,7 +7394,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>389</v>
       </c>
@@ -6912,7 +7449,7 @@
       <c r="Z2" s="32"/>
       <c r="AA2" s="32"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>392</v>
       </c>
@@ -6957,7 +7494,7 @@
       <c r="Z3" s="32"/>
       <c r="AA3" s="32"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>396</v>
       </c>
@@ -7002,7 +7539,7 @@
       <c r="Z4" s="32"/>
       <c r="AA4" s="32"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>399</v>
       </c>
@@ -7047,7 +7584,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>402</v>
       </c>
@@ -7092,7 +7629,7 @@
       <c r="Z6" s="32"/>
       <c r="AA6" s="32"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>403</v>
       </c>
@@ -7137,7 +7674,7 @@
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>404</v>
       </c>
@@ -7178,7 +7715,7 @@
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>405</v>
       </c>
@@ -7219,7 +7756,7 @@
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>406</v>
       </c>
@@ -7260,7 +7797,7 @@
       <c r="Z10" s="32"/>
       <c r="AA10" s="32"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>409</v>
       </c>
@@ -7303,7 +7840,7 @@
       <c r="Z11" s="32"/>
       <c r="AA11" s="32"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>411</v>
       </c>
@@ -7346,7 +7883,7 @@
       <c r="Z12" s="32"/>
       <c r="AA12" s="32"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>413</v>
       </c>
@@ -7389,7 +7926,7 @@
       <c r="Z13" s="32"/>
       <c r="AA13" s="32"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>415</v>
       </c>
@@ -7432,7 +7969,7 @@
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>417</v>
       </c>
@@ -7475,7 +8012,7 @@
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>418</v>
       </c>
@@ -7518,7 +8055,7 @@
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>420</v>
       </c>
@@ -7579,7 +8116,7 @@
       </c>
       <c r="AA17" s="32"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>426</v>
       </c>
@@ -7634,7 +8171,7 @@
       </c>
       <c r="AA18" s="32"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>430</v>
       </c>
@@ -7691,7 +8228,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>433</v>
       </c>
@@ -7748,7 +8285,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>435</v>
       </c>
@@ -7805,7 +8342,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>437</v>
       </c>
@@ -7862,6 +8399,7 @@
         <v>432</v>
       </c>
     </row>
+    <row r="23" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7869,32 +8407,31 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.7109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="31" customWidth="1"/>
+    <col min="1" max="2" width="22.77734375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="31" customWidth="1"/>
     <col min="5" max="5" width="15" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="31"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="31" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="31"/>
+    <col min="6" max="6" width="14.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="31"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="31" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7937,11 +8474,8 @@
       <c r="N1" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>447</v>
       </c>
@@ -7980,24 +8514,99 @@
       <c r="N2" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+    </row>
+    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+    </row>
+    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+    </row>
+    <row r="19" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+    </row>
+    <row r="20" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+    </row>
+    <row r="21" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+    </row>
+    <row r="22" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+    </row>
+    <row r="23" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8006,26 +8615,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8060,7 +8669,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>459</v>
       </c>
@@ -8093,6 +8702,17 @@
         <v>462</v>
       </c>
     </row>
+    <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please select from the dropdown" sqref="J2">
@@ -8105,26 +8725,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="15" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8171,7 +8791,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>465</v>
       </c>
@@ -8214,7 +8834,7 @@
       </c>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>468</v>
       </c>
@@ -8257,7 +8877,7 @@
       </c>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>470</v>
       </c>
@@ -8302,7 +8922,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>472</v>
       </c>
@@ -8345,7 +8965,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>473</v>
       </c>
@@ -8390,6 +9010,13 @@
         <v>474</v>
       </c>
     </row>
+    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8397,27 +9024,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="15" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8458,7 +9085,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
     </row>
-    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>280</v>
       </c>
@@ -8493,7 +9120,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>480</v>
       </c>
@@ -8528,7 +9155,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>482</v>
       </c>
@@ -8565,7 +9192,7 @@
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>485</v>
       </c>
@@ -8600,7 +9227,7 @@
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>486</v>
       </c>
@@ -8637,7 +9264,7 @@
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>488</v>
       </c>
@@ -8674,7 +9301,7 @@
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
     </row>
-    <row r="8" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>490</v>
       </c>
@@ -8711,7 +9338,7 @@
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>493</v>
       </c>
@@ -8746,6 +9373,10 @@
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
     </row>
+    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7725" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="QMRReporting" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H25"/>
 </workbook>
 </file>
 
@@ -2006,20 +2005,20 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:69" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2423,7 +2422,7 @@
       <c r="BP2" s="28"/>
       <c r="BQ2" s="28"/>
     </row>
-    <row r="3" spans="1:69" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
@@ -2612,27 +2611,27 @@
         <v>377</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B4" s="23"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B5" s="23"/>
       <c r="D5" s="23"/>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B6" s="23"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B7" s="23"/>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B8" s="23"/>
       <c r="D8" s="23"/>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="D9" s="23"/>
     </row>
@@ -2644,27 +2643,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2695,7 +2694,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>281</v>
       </c>
@@ -2724,7 +2723,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>283</v>
       </c>
@@ -2753,7 +2752,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>285</v>
       </c>
@@ -2782,15 +2781,6 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2798,34 +2788,34 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="68.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="52" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2884,7 +2874,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>380</v>
       </c>
@@ -2943,10 +2933,6 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -2957,27 +2943,27 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -3008,7 +2994,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>274</v>
       </c>
@@ -3039,7 +3025,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>278</v>
       </c>
@@ -3070,16 +3056,6 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3093,35 +3069,35 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3213,7 +3189,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>310</v>
       </c>
@@ -3318,12 +3294,12 @@
       <selection activeCell="B1" sqref="B1:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3380,7 +3356,7 @@
       </c>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>325</v>
       </c>
@@ -3436,7 +3412,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>339</v>
       </c>
@@ -3492,7 +3468,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>346</v>
       </c>
@@ -3548,7 +3524,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>347</v>
       </c>
@@ -3604,7 +3580,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>348</v>
       </c>
@@ -3660,7 +3636,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>355</v>
       </c>
@@ -3716,7 +3692,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>356</v>
       </c>
@@ -3772,7 +3748,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -3835,29 +3811,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV177"/>
+  <dimension ref="A1:CV8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="21.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
-    <col min="22" max="22" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="7.44140625" customWidth="1"/>
-    <col min="69" max="69" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="17.5546875" customWidth="1"/>
-    <col min="100" max="100" width="10.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7.42578125" customWidth="1"/>
+    <col min="69" max="69" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="17.5703125" customWidth="1"/>
+    <col min="100" max="100" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:100" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4159,7 +4133,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>129</v>
       </c>
@@ -4447,7 +4421,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
@@ -4731,7 +4705,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -5017,7 +4991,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
@@ -5301,7 +5275,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>161</v>
       </c>
@@ -5585,7 +5559,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
@@ -5869,7 +5843,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:100" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>173</v>
       </c>
@@ -6160,515 +6134,6 @@
       <c r="CV8" s="13" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="CV9"/>
-    </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV10"/>
-    </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV11"/>
-    </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV12"/>
-    </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV13"/>
-    </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV14"/>
-    </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV15"/>
-    </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV16"/>
-    </row>
-    <row r="17" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV17"/>
-    </row>
-    <row r="18" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV18"/>
-    </row>
-    <row r="19" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV19"/>
-    </row>
-    <row r="20" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV20"/>
-    </row>
-    <row r="21" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV21"/>
-    </row>
-    <row r="22" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV22"/>
-    </row>
-    <row r="23" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV23"/>
-    </row>
-    <row r="24" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV24"/>
-    </row>
-    <row r="25" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV25"/>
-    </row>
-    <row r="26" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV26"/>
-    </row>
-    <row r="27" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV27"/>
-    </row>
-    <row r="28" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV28"/>
-    </row>
-    <row r="29" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV29"/>
-    </row>
-    <row r="30" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV30"/>
-    </row>
-    <row r="31" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV31"/>
-    </row>
-    <row r="32" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV32"/>
-    </row>
-    <row r="33" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV33"/>
-    </row>
-    <row r="34" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV34"/>
-    </row>
-    <row r="35" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV35"/>
-    </row>
-    <row r="36" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV36"/>
-    </row>
-    <row r="37" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV37"/>
-    </row>
-    <row r="38" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV38"/>
-    </row>
-    <row r="39" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV39"/>
-    </row>
-    <row r="40" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV40"/>
-    </row>
-    <row r="41" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV41"/>
-    </row>
-    <row r="42" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV42"/>
-    </row>
-    <row r="43" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV43"/>
-    </row>
-    <row r="44" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV44"/>
-    </row>
-    <row r="45" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV45"/>
-    </row>
-    <row r="46" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV46"/>
-    </row>
-    <row r="47" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV47"/>
-    </row>
-    <row r="48" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV48"/>
-    </row>
-    <row r="49" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV49"/>
-    </row>
-    <row r="50" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV50"/>
-    </row>
-    <row r="51" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV51"/>
-    </row>
-    <row r="52" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV52"/>
-    </row>
-    <row r="53" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV53"/>
-    </row>
-    <row r="54" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV54"/>
-    </row>
-    <row r="55" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV55"/>
-    </row>
-    <row r="56" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV56"/>
-    </row>
-    <row r="57" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV57"/>
-    </row>
-    <row r="58" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV58"/>
-    </row>
-    <row r="59" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV59"/>
-    </row>
-    <row r="60" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV60"/>
-    </row>
-    <row r="61" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV61"/>
-    </row>
-    <row r="62" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV62"/>
-    </row>
-    <row r="63" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV63"/>
-    </row>
-    <row r="64" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV64"/>
-    </row>
-    <row r="65" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV65"/>
-    </row>
-    <row r="66" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV66"/>
-    </row>
-    <row r="67" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV67"/>
-    </row>
-    <row r="68" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV68"/>
-    </row>
-    <row r="69" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV69"/>
-    </row>
-    <row r="70" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV70"/>
-    </row>
-    <row r="71" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV71"/>
-    </row>
-    <row r="72" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV72"/>
-    </row>
-    <row r="73" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV73"/>
-    </row>
-    <row r="74" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV74"/>
-    </row>
-    <row r="75" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV75"/>
-    </row>
-    <row r="76" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV76"/>
-    </row>
-    <row r="77" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV77"/>
-    </row>
-    <row r="78" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV78"/>
-    </row>
-    <row r="79" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV79"/>
-    </row>
-    <row r="80" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV80"/>
-    </row>
-    <row r="81" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV81"/>
-    </row>
-    <row r="82" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV82"/>
-    </row>
-    <row r="83" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV83"/>
-    </row>
-    <row r="84" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV84"/>
-    </row>
-    <row r="85" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV85"/>
-    </row>
-    <row r="86" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV86"/>
-    </row>
-    <row r="87" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV87"/>
-    </row>
-    <row r="88" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV88"/>
-    </row>
-    <row r="89" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV89"/>
-    </row>
-    <row r="90" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV90"/>
-    </row>
-    <row r="91" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV91"/>
-    </row>
-    <row r="92" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV92"/>
-    </row>
-    <row r="93" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV93"/>
-    </row>
-    <row r="94" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV94"/>
-    </row>
-    <row r="95" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV95"/>
-    </row>
-    <row r="96" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV96"/>
-    </row>
-    <row r="97" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV97"/>
-    </row>
-    <row r="98" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV98"/>
-    </row>
-    <row r="99" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV99"/>
-    </row>
-    <row r="100" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV100"/>
-    </row>
-    <row r="101" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV101"/>
-    </row>
-    <row r="102" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV102"/>
-    </row>
-    <row r="103" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV103"/>
-    </row>
-    <row r="104" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV104"/>
-    </row>
-    <row r="105" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV105"/>
-    </row>
-    <row r="106" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV106"/>
-    </row>
-    <row r="107" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV107"/>
-    </row>
-    <row r="108" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV108"/>
-    </row>
-    <row r="109" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV109"/>
-    </row>
-    <row r="110" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV110"/>
-    </row>
-    <row r="111" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV111"/>
-    </row>
-    <row r="112" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV112"/>
-    </row>
-    <row r="113" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV113"/>
-    </row>
-    <row r="114" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV114"/>
-    </row>
-    <row r="115" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV115"/>
-    </row>
-    <row r="116" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV116"/>
-    </row>
-    <row r="117" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV117"/>
-    </row>
-    <row r="118" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV118"/>
-    </row>
-    <row r="119" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV119"/>
-    </row>
-    <row r="120" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV120"/>
-    </row>
-    <row r="121" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV121"/>
-    </row>
-    <row r="122" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV122"/>
-    </row>
-    <row r="123" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV123"/>
-    </row>
-    <row r="124" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV124"/>
-    </row>
-    <row r="125" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV125"/>
-    </row>
-    <row r="126" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV126"/>
-    </row>
-    <row r="127" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV127"/>
-    </row>
-    <row r="128" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV128"/>
-    </row>
-    <row r="129" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV129"/>
-    </row>
-    <row r="130" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV130"/>
-    </row>
-    <row r="131" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV131"/>
-    </row>
-    <row r="132" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV132"/>
-    </row>
-    <row r="133" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV133"/>
-    </row>
-    <row r="134" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV134"/>
-    </row>
-    <row r="135" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV135"/>
-    </row>
-    <row r="136" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV136"/>
-    </row>
-    <row r="137" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV137"/>
-    </row>
-    <row r="138" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV138"/>
-    </row>
-    <row r="139" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV139"/>
-    </row>
-    <row r="140" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV140"/>
-    </row>
-    <row r="141" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV141"/>
-    </row>
-    <row r="142" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV142"/>
-    </row>
-    <row r="143" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV143"/>
-    </row>
-    <row r="144" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV144"/>
-    </row>
-    <row r="145" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV145"/>
-    </row>
-    <row r="146" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV146"/>
-    </row>
-    <row r="147" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV147"/>
-    </row>
-    <row r="148" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV148"/>
-    </row>
-    <row r="149" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV149"/>
-    </row>
-    <row r="150" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV150"/>
-    </row>
-    <row r="151" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV151"/>
-    </row>
-    <row r="152" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV152"/>
-    </row>
-    <row r="153" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV153"/>
-    </row>
-    <row r="154" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV154"/>
-    </row>
-    <row r="155" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV155"/>
-    </row>
-    <row r="156" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV156"/>
-    </row>
-    <row r="157" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV157"/>
-    </row>
-    <row r="158" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV158"/>
-    </row>
-    <row r="159" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV159"/>
-    </row>
-    <row r="160" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV160"/>
-    </row>
-    <row r="161" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV161"/>
-    </row>
-    <row r="162" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV162"/>
-    </row>
-    <row r="163" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV163"/>
-    </row>
-    <row r="164" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV164"/>
-    </row>
-    <row r="165" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV165"/>
-    </row>
-    <row r="166" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV166"/>
-    </row>
-    <row r="167" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV167"/>
-    </row>
-    <row r="168" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV168"/>
-    </row>
-    <row r="169" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV169"/>
-    </row>
-    <row r="170" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV170"/>
-    </row>
-    <row r="171" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV171"/>
-    </row>
-    <row r="172" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV172"/>
-    </row>
-    <row r="173" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV173"/>
-    </row>
-    <row r="174" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV174"/>
-    </row>
-    <row r="175" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV175"/>
-    </row>
-    <row r="176" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV176"/>
-    </row>
-    <row r="177" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV177"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6680,22 +6145,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.77734375" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6739,7 +6202,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>189</v>
       </c>
@@ -6775,7 +6238,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>192</v>
       </c>
@@ -6815,7 +6278,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>193</v>
       </c>
@@ -6845,7 +6308,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
@@ -6877,22 +6340,22 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="24"/>
       <c r="C6" s="2"/>
       <c r="D6" s="24"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="24"/>
       <c r="C7" s="2"/>
       <c r="D7" s="24"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" s="24"/>
       <c r="C8" s="2"/>
       <c r="D8" s="24"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="23"/>
       <c r="D9" s="23"/>
     </row>
@@ -6909,20 +6372,20 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
     <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" customWidth="1"/>
     <col min="19" max="19" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6981,7 +6444,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>365</v>
       </c>
@@ -7040,7 +6503,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>366</v>
       </c>
@@ -7099,7 +6562,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>368</v>
       </c>
@@ -7158,7 +6621,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>369</v>
       </c>
@@ -7217,7 +6680,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>370</v>
       </c>
@@ -7286,32 +6749,32 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.77734375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="31"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="27" width="22.77734375" style="31" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="2" width="22.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="31"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="22.7109375" style="31" customWidth="1"/>
+    <col min="28" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7394,7 +6857,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>389</v>
       </c>
@@ -7449,7 +6912,7 @@
       <c r="Z2" s="32"/>
       <c r="AA2" s="32"/>
     </row>
-    <row r="3" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>392</v>
       </c>
@@ -7494,7 +6957,7 @@
       <c r="Z3" s="32"/>
       <c r="AA3" s="32"/>
     </row>
-    <row r="4" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>396</v>
       </c>
@@ -7539,7 +7002,7 @@
       <c r="Z4" s="32"/>
       <c r="AA4" s="32"/>
     </row>
-    <row r="5" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>399</v>
       </c>
@@ -7584,7 +7047,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
     </row>
-    <row r="6" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>402</v>
       </c>
@@ -7629,7 +7092,7 @@
       <c r="Z6" s="32"/>
       <c r="AA6" s="32"/>
     </row>
-    <row r="7" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>403</v>
       </c>
@@ -7674,7 +7137,7 @@
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
     </row>
-    <row r="8" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>404</v>
       </c>
@@ -7715,7 +7178,7 @@
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
     </row>
-    <row r="9" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>405</v>
       </c>
@@ -7756,7 +7219,7 @@
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
     </row>
-    <row r="10" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>406</v>
       </c>
@@ -7797,7 +7260,7 @@
       <c r="Z10" s="32"/>
       <c r="AA10" s="32"/>
     </row>
-    <row r="11" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>409</v>
       </c>
@@ -7840,7 +7303,7 @@
       <c r="Z11" s="32"/>
       <c r="AA11" s="32"/>
     </row>
-    <row r="12" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>411</v>
       </c>
@@ -7883,7 +7346,7 @@
       <c r="Z12" s="32"/>
       <c r="AA12" s="32"/>
     </row>
-    <row r="13" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>413</v>
       </c>
@@ -7926,7 +7389,7 @@
       <c r="Z13" s="32"/>
       <c r="AA13" s="32"/>
     </row>
-    <row r="14" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>415</v>
       </c>
@@ -7969,7 +7432,7 @@
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
     </row>
-    <row r="15" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>417</v>
       </c>
@@ -8012,7 +7475,7 @@
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
     </row>
-    <row r="16" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>418</v>
       </c>
@@ -8055,7 +7518,7 @@
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
     </row>
-    <row r="17" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>420</v>
       </c>
@@ -8116,7 +7579,7 @@
       </c>
       <c r="AA17" s="32"/>
     </row>
-    <row r="18" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>426</v>
       </c>
@@ -8171,7 +7634,7 @@
       </c>
       <c r="AA18" s="32"/>
     </row>
-    <row r="19" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>430</v>
       </c>
@@ -8228,7 +7691,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>433</v>
       </c>
@@ -8285,7 +7748,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>435</v>
       </c>
@@ -8342,7 +7805,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>437</v>
       </c>
@@ -8399,7 +7862,6 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8407,31 +7869,32 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.77734375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="31" customWidth="1"/>
+    <col min="1" max="2" width="22.7109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="31" customWidth="1"/>
     <col min="5" max="5" width="15" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="31"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="31"/>
+    <col min="6" max="6" width="14.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="31"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="31" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8474,8 +7937,11 @@
       <c r="N1" s="30" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>447</v>
       </c>
@@ -8514,99 +7980,24 @@
       <c r="N2" s="32" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8615,26 +8006,26 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8669,7 +8060,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>459</v>
       </c>
@@ -8702,17 +8093,6 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please select from the dropdown" sqref="J2">
@@ -8725,26 +8105,26 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="15" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="15" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8791,7 +8171,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>465</v>
       </c>
@@ -8834,7 +8214,7 @@
       </c>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>468</v>
       </c>
@@ -8877,7 +8257,7 @@
       </c>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>470</v>
       </c>
@@ -8922,7 +8302,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>472</v>
       </c>
@@ -8965,7 +8345,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>473</v>
       </c>
@@ -9010,13 +8390,6 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9024,27 +8397,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="15" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="15" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9085,7 +8458,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>280</v>
       </c>
@@ -9120,7 +8493,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>480</v>
       </c>
@@ -9155,7 +8528,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>482</v>
       </c>
@@ -9192,7 +8565,7 @@
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>485</v>
       </c>
@@ -9227,7 +8600,7 @@
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>486</v>
       </c>
@@ -9264,7 +8637,7 @@
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>488</v>
       </c>
@@ -9301,7 +8674,7 @@
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
     </row>
-    <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>490</v>
       </c>
@@ -9338,7 +8711,7 @@
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>493</v>
       </c>
@@ -9373,10 +8746,6 @@
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
     </row>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,21 @@
     <sheet name="HelpDesk" sheetId="15" r:id="rId5"/>
     <sheet name="CurrencyExchangeRates" sheetId="16" r:id="rId6"/>
     <sheet name="CurrencyExchangeRateMapping" sheetId="17" r:id="rId7"/>
-    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId8"/>
-    <sheet name="AccountHeadMapping_S205175" sheetId="18" r:id="rId9"/>
-    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId10"/>
-    <sheet name="Events Configuration" sheetId="14" r:id="rId11"/>
-    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId12"/>
-    <sheet name="Institute" sheetId="5" r:id="rId13"/>
-    <sheet name="QMRReporting" sheetId="12" r:id="rId14"/>
+    <sheet name="CardHolder" sheetId="19" r:id="rId8"/>
+    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId9"/>
+    <sheet name="AccountHeadMapping_S205175" sheetId="18" r:id="rId10"/>
+    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId11"/>
+    <sheet name="Events Configuration" sheetId="14" r:id="rId12"/>
+    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId13"/>
+    <sheet name="Institute" sheetId="5" r:id="rId14"/>
+    <sheet name="QMRReporting" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="605">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1520,6 +1520,330 @@
   </si>
   <si>
     <t>5130003313500015</t>
+  </si>
+  <si>
+    <t>TranSactionType</t>
+  </si>
+  <si>
+    <t>TransactionAmount</t>
+  </si>
+  <si>
+    <t>TransactionCurrency</t>
+  </si>
+  <si>
+    <t>ConversionRate</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>TransferAmount</t>
+  </si>
+  <si>
+    <t>CurrencyName</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>TransfererName</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>TransactionPassword</t>
+  </si>
+  <si>
+    <t>TransactionRemarks</t>
+  </si>
+  <si>
+    <t>AmountToTransferWalletToWallet</t>
+  </si>
+  <si>
+    <t>WalletTransferCurrecny</t>
+  </si>
+  <si>
+    <t>WalletNumberFromTransferMoney</t>
+  </si>
+  <si>
+    <t>WalletToWalletTransferSucessMsg</t>
+  </si>
+  <si>
+    <t>NoOfTransactionsCount</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>ReplacementResone</t>
+  </si>
+  <si>
+    <t>ReplaceConfirmMessage</t>
+  </si>
+  <si>
+    <t>BlockCardRemark</t>
+  </si>
+  <si>
+    <t>BlockConfirmationMsg</t>
+  </si>
+  <si>
+    <t>UnblockCardRemark</t>
+  </si>
+  <si>
+    <t>UnblockConfirmationMsg</t>
+  </si>
+  <si>
+    <t>WalletActivationRemark</t>
+  </si>
+  <si>
+    <t>WalletDeactivateRemark</t>
+  </si>
+  <si>
+    <t>WalletActivateConfirmMsg</t>
+  </si>
+  <si>
+    <t>WalletDeactivateConfirmMsg</t>
+  </si>
+  <si>
+    <t>eComActivationConfirmMsg</t>
+  </si>
+  <si>
+    <t>beneficiaryID</t>
+  </si>
+  <si>
+    <t>beneficiaryFirstName</t>
+  </si>
+  <si>
+    <t>beneficiaryMiddleName</t>
+  </si>
+  <si>
+    <t>beneficiaryLastName</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine1</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine2</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine3</t>
+  </si>
+  <si>
+    <t>beneficiaryCountryName</t>
+  </si>
+  <si>
+    <t>beneficiaryStateName</t>
+  </si>
+  <si>
+    <t>beneficiaryCityName</t>
+  </si>
+  <si>
+    <t>beneficiaryZIPCode</t>
+  </si>
+  <si>
+    <t>beneficiaryEmailAddress</t>
+  </si>
+  <si>
+    <t>beneficiaryMobileNumber</t>
+  </si>
+  <si>
+    <t>beneficiaryRemittanceAamount</t>
+  </si>
+  <si>
+    <t>beneficiaryRemittanceCurrency</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>CardHolderTransPassword</t>
+  </si>
+  <si>
+    <t>FirstSequrityQuestion</t>
+  </si>
+  <si>
+    <t>FirstSequrityAnswer</t>
+  </si>
+  <si>
+    <t>SecondSequrityQuestion</t>
+  </si>
+  <si>
+    <t>SecondSequrityAnswer</t>
+  </si>
+  <si>
+    <t>TC_walletToWalletTransfer</t>
+  </si>
+  <si>
+    <t>https://stage.sa.cardholder.mastercard.com/mpts/eis/app</t>
+  </si>
+  <si>
+    <t>10000172850000001</t>
+  </si>
+  <si>
+    <t>qweR@1234</t>
+  </si>
+  <si>
+    <t>Fund Transfer</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>0.016000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454564Done </t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>1000011210179768581</t>
+  </si>
+  <si>
+    <t>Your transaction is successful</t>
+  </si>
+  <si>
+    <t>TC_LoginCardholderPortal</t>
+  </si>
+  <si>
+    <t>TC_viewChargeForRefundOnWalletClosure</t>
+  </si>
+  <si>
+    <t>TC_masterCardMoneyTransfer</t>
+  </si>
+  <si>
+    <t>4564564564654654564</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>CMKO-45</t>
+  </si>
+  <si>
+    <t>TC_checkInterbankTransfer</t>
+  </si>
+  <si>
+    <t>TC_viewTransactionHistoryForWallet</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>31/10/2017</t>
+  </si>
+  <si>
+    <t>TC_deviceReplaceService</t>
+  </si>
+  <si>
+    <t>Emergency Replacement</t>
+  </si>
+  <si>
+    <t>Request is forwarded to institution</t>
+  </si>
+  <si>
+    <t>TC_deviceBlockFromCardHolder</t>
+  </si>
+  <si>
+    <t>Card need to block as it is stolne</t>
+  </si>
+  <si>
+    <t>Device Blocked Call Reference Number</t>
+  </si>
+  <si>
+    <t>Block my card</t>
+  </si>
+  <si>
+    <t>Unblock Device process successful</t>
+  </si>
+  <si>
+    <t>TC_deviceUnblockFromCardholder</t>
+  </si>
+  <si>
+    <t>TC_walletActivateFromCardHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activate Wallet </t>
+  </si>
+  <si>
+    <t>Request has been processed successfully with reference number</t>
+  </si>
+  <si>
+    <t>TC_walletDeActivateFromCardHolder</t>
+  </si>
+  <si>
+    <t>Deactivate Wallet</t>
+  </si>
+  <si>
+    <t>TC_activateEcomForLifeLong</t>
+  </si>
+  <si>
+    <t>DEVICE is already activated for life long use</t>
+  </si>
+  <si>
+    <t>TC_activationEcomForDuration</t>
+  </si>
+  <si>
+    <t>TC_activateEcomForNHours</t>
+  </si>
+  <si>
+    <t>TC_cashRemittanceBookting</t>
+  </si>
+  <si>
+    <t>10000173090000012</t>
+  </si>
+  <si>
+    <t>000000070</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Mname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>MAHARASTHRA</t>
+  </si>
+  <si>
+    <t>mastercard@mastercard.com</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>TC_signUpCardholderPortal</t>
+  </si>
+  <si>
+    <t>aBcd1234*</t>
+  </si>
+  <si>
+    <t>TC_activationForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_activationNHoursForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_activationLifeLongForInternationalUse</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1695,6 +2019,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2644,7 +2979,363 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="15" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+    </row>
+    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="32">
+        <v>4656</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+    </row>
+    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" s="32">
+        <v>4656</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+    </row>
+    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E4" s="32">
+        <v>4656</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>483</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>484</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+    </row>
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>485</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" s="32">
+        <v>4656</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+    </row>
+    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>486</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" s="32">
+        <v>4656</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>487</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+    </row>
+    <row r="7" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="32">
+        <v>4656</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>481</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32" t="s">
+        <v>489</v>
+      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+    </row>
+    <row r="8" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="32">
+        <v>4656</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>491</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+    </row>
+    <row r="9" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="32">
+        <v>4656</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -2664,7 +3355,7 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2695,7 +3386,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>281</v>
       </c>
@@ -2724,7 +3415,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>283</v>
       </c>
@@ -2753,7 +3444,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>285</v>
       </c>
@@ -2782,23 +3473,14 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -2943,10 +3625,6 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -2955,9 +3633,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2977,7 +3655,7 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -3008,7 +3686,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>274</v>
       </c>
@@ -3039,7 +3717,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>278</v>
       </c>
@@ -3070,22 +3748,12 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD2"/>
   <sheetViews>
@@ -3310,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S9"/>
   <sheetViews>
@@ -7286,7 +7954,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -7311,7 +7979,7 @@
     <col min="28" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7394,7 +8062,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>389</v>
       </c>
@@ -7449,7 +8117,7 @@
       <c r="Z2" s="32"/>
       <c r="AA2" s="32"/>
     </row>
-    <row r="3" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>392</v>
       </c>
@@ -7494,7 +8162,7 @@
       <c r="Z3" s="32"/>
       <c r="AA3" s="32"/>
     </row>
-    <row r="4" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>396</v>
       </c>
@@ -7539,7 +8207,7 @@
       <c r="Z4" s="32"/>
       <c r="AA4" s="32"/>
     </row>
-    <row r="5" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>399</v>
       </c>
@@ -7584,7 +8252,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
     </row>
-    <row r="6" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>402</v>
       </c>
@@ -7629,7 +8297,7 @@
       <c r="Z6" s="32"/>
       <c r="AA6" s="32"/>
     </row>
-    <row r="7" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>403</v>
       </c>
@@ -7674,7 +8342,7 @@
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
     </row>
-    <row r="8" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>404</v>
       </c>
@@ -7715,7 +8383,7 @@
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
     </row>
-    <row r="9" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>405</v>
       </c>
@@ -7756,7 +8424,7 @@
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
     </row>
-    <row r="10" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>406</v>
       </c>
@@ -7797,7 +8465,7 @@
       <c r="Z10" s="32"/>
       <c r="AA10" s="32"/>
     </row>
-    <row r="11" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>409</v>
       </c>
@@ -7840,7 +8508,7 @@
       <c r="Z11" s="32"/>
       <c r="AA11" s="32"/>
     </row>
-    <row r="12" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>411</v>
       </c>
@@ -7883,7 +8551,7 @@
       <c r="Z12" s="32"/>
       <c r="AA12" s="32"/>
     </row>
-    <row r="13" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>413</v>
       </c>
@@ -7926,7 +8594,7 @@
       <c r="Z13" s="32"/>
       <c r="AA13" s="32"/>
     </row>
-    <row r="14" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>415</v>
       </c>
@@ -7969,7 +8637,7 @@
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
     </row>
-    <row r="15" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>417</v>
       </c>
@@ -8012,7 +8680,7 @@
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
     </row>
-    <row r="16" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>418</v>
       </c>
@@ -8055,7 +8723,7 @@
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
     </row>
-    <row r="17" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>420</v>
       </c>
@@ -8116,7 +8784,7 @@
       </c>
       <c r="AA17" s="32"/>
     </row>
-    <row r="18" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>426</v>
       </c>
@@ -8171,7 +8839,7 @@
       </c>
       <c r="AA18" s="32"/>
     </row>
-    <row r="19" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>430</v>
       </c>
@@ -8228,7 +8896,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>433</v>
       </c>
@@ -8285,7 +8953,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>435</v>
       </c>
@@ -8342,7 +9010,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>437</v>
       </c>
@@ -8399,7 +9067,6 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8407,7 +9074,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -8431,7 +9098,7 @@
     <col min="18" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8474,8 +9141,11 @@
       <c r="N1" s="30" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>447</v>
       </c>
@@ -8514,99 +9184,24 @@
       <c r="N2" s="32" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8615,9 +9210,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -8634,7 +9229,7 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8669,7 +9264,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>459</v>
       </c>
@@ -8702,17 +9297,6 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please select from the dropdown" sqref="J2">
@@ -8725,7 +9309,2023 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:BC20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.5546875" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" style="42" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="43" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="43" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" style="43" customWidth="1"/>
+    <col min="11" max="11" width="16.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.21875" customWidth="1"/>
+    <col min="17" max="17" width="30.88671875" customWidth="1"/>
+    <col min="18" max="18" width="22.33203125" customWidth="1"/>
+    <col min="19" max="19" width="30.44140625" customWidth="1"/>
+    <col min="20" max="20" width="31.88671875" customWidth="1"/>
+    <col min="21" max="21" width="23.109375" customWidth="1"/>
+    <col min="22" max="22" width="12.21875" style="43" customWidth="1"/>
+    <col min="23" max="23" width="12.44140625" customWidth="1"/>
+    <col min="24" max="24" width="24.33203125" customWidth="1"/>
+    <col min="25" max="25" width="31.5546875" customWidth="1"/>
+    <col min="26" max="26" width="33.5546875" customWidth="1"/>
+    <col min="27" max="27" width="29.77734375" customWidth="1"/>
+    <col min="28" max="28" width="28" customWidth="1"/>
+    <col min="29" max="29" width="30.5546875" customWidth="1"/>
+    <col min="30" max="30" width="24.6640625" customWidth="1"/>
+    <col min="31" max="31" width="22.88671875" customWidth="1"/>
+    <col min="32" max="32" width="45.21875" customWidth="1"/>
+    <col min="33" max="33" width="56.6640625" customWidth="1"/>
+    <col min="34" max="34" width="41.109375" customWidth="1"/>
+    <col min="35" max="35" width="16.5546875" customWidth="1"/>
+    <col min="36" max="36" width="19.6640625" customWidth="1"/>
+    <col min="37" max="37" width="22.88671875" customWidth="1"/>
+    <col min="38" max="38" width="18.44140625" customWidth="1"/>
+    <col min="39" max="40" width="22.33203125" customWidth="1"/>
+    <col min="41" max="42" width="22.5546875" customWidth="1"/>
+    <col min="43" max="43" width="24.44140625" customWidth="1"/>
+    <col min="44" max="44" width="20.109375" customWidth="1"/>
+    <col min="45" max="45" width="19.109375" customWidth="1"/>
+    <col min="46" max="46" width="23.6640625" customWidth="1"/>
+    <col min="47" max="47" width="23.5546875" customWidth="1"/>
+    <col min="48" max="48" width="29.6640625" customWidth="1"/>
+    <col min="49" max="49" width="28.88671875" customWidth="1"/>
+    <col min="50" max="55" width="24.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>497</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>501</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>502</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>503</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>510</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ1" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" t="s">
+        <v>551</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>553</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>557</v>
+      </c>
+      <c r="T2" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="U2" s="2"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>556</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="L5" s="2">
+        <v>955689456</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="O5" t="s">
+        <v>551</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2">
+        <v>10</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2">
+        <v>10</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y8" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2">
+        <v>10</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y9" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z9" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA9" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2">
+        <v>10</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y10" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z10" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA10" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2">
+        <v>10</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y11" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z11" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA11" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2">
+        <v>10</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y12" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z12" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA12" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2">
+        <v>10</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y13" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z13" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA13" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF13" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH13" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2">
+        <v>10</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y14" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z14" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA14" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH14" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2">
+        <v>10</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y15" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="Z15" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="AA15" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AF15" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AH15" s="40" t="s">
+        <v>584</v>
+      </c>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AT16" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="AU16" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM17" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AO17" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP17" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AT17" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AT18" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AT19" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="AU19" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>549</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AT20" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B16" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B2" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B9" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B12" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="B14" r:id="rId14"/>
+    <hyperlink ref="B15" r:id="rId15"/>
+    <hyperlink ref="AT16" r:id="rId16"/>
+    <hyperlink ref="B17" r:id="rId17"/>
+    <hyperlink ref="AT17" r:id="rId18"/>
+    <hyperlink ref="B18" r:id="rId19"/>
+    <hyperlink ref="AT18" r:id="rId20"/>
+    <hyperlink ref="B19" r:id="rId21"/>
+    <hyperlink ref="AT19" r:id="rId22"/>
+    <hyperlink ref="B20" r:id="rId23"/>
+    <hyperlink ref="AT20" r:id="rId24"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -8744,7 +11344,7 @@
     <col min="11" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8791,7 +11391,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>465</v>
       </c>
@@ -8834,7 +11434,7 @@
       </c>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>468</v>
       </c>
@@ -8877,7 +11477,7 @@
       </c>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>470</v>
       </c>
@@ -8922,7 +11522,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>472</v>
       </c>
@@ -8965,7 +11565,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>473</v>
       </c>
@@ -9010,373 +11610,6 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="15" width="17.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-    </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>479</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-    </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E4" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-    </row>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-    </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E6" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E7" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId12"/>
     <sheet name="Institute" sheetId="5" r:id="rId13"/>
     <sheet name="QMRReporting" sheetId="12" r:id="rId14"/>
+    <sheet name="CreditScenarios" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:H25"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="511">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1520,6 +1520,48 @@
   </si>
   <si>
     <t>5130003313500015</t>
+  </si>
+  <si>
+    <t>TC554188</t>
+  </si>
+  <si>
+    <t>waiverPlanCode</t>
+  </si>
+  <si>
+    <t>waiverPlanDescription</t>
+  </si>
+  <si>
+    <t>waiverPlanDescriptionInvalid</t>
+  </si>
+  <si>
+    <t>ABC_2</t>
+  </si>
+  <si>
+    <t>ABC-2</t>
+  </si>
+  <si>
+    <t>!----</t>
+  </si>
+  <si>
+    <t>*Abn$$</t>
+  </si>
+  <si>
+    <t>effectiveDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>March/10/2018</t>
+  </si>
+  <si>
+    <t>March/10/2028</t>
+  </si>
+  <si>
+    <t>LAMBAT1</t>
+  </si>
+  <si>
+    <t>waiverPlanCodeInvalid</t>
   </si>
 </sst>
 </file>
@@ -2644,7 +2686,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
@@ -2664,7 +2706,7 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -2695,7 +2737,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>281</v>
       </c>
@@ -2724,7 +2766,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>283</v>
       </c>
@@ -2753,7 +2795,7 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>285</v>
       </c>
@@ -2782,15 +2824,6 @@
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
     </row>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2798,7 +2831,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -2943,10 +2976,6 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:19" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
@@ -2957,7 +2986,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -2977,7 +3006,7 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -3008,7 +3037,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="34"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>274</v>
       </c>
@@ -3039,7 +3068,7 @@
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>278</v>
       </c>
@@ -3070,16 +3099,6 @@
       <c r="J3" s="32"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3315,7 +3334,7 @@
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D9"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3826,6 +3845,101 @@
       </c>
       <c r="R9" t="s">
         <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" customWidth="1"/>
+    <col min="7" max="9" width="23.77734375" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K2" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -7286,7 +7400,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -7311,7 +7425,7 @@
     <col min="28" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -7394,7 +7508,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>389</v>
       </c>
@@ -7449,7 +7563,7 @@
       <c r="Z2" s="32"/>
       <c r="AA2" s="32"/>
     </row>
-    <row r="3" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>392</v>
       </c>
@@ -7494,7 +7608,7 @@
       <c r="Z3" s="32"/>
       <c r="AA3" s="32"/>
     </row>
-    <row r="4" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>396</v>
       </c>
@@ -7539,7 +7653,7 @@
       <c r="Z4" s="32"/>
       <c r="AA4" s="32"/>
     </row>
-    <row r="5" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>399</v>
       </c>
@@ -7584,7 +7698,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
     </row>
-    <row r="6" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>402</v>
       </c>
@@ -7629,7 +7743,7 @@
       <c r="Z6" s="32"/>
       <c r="AA6" s="32"/>
     </row>
-    <row r="7" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>403</v>
       </c>
@@ -7674,7 +7788,7 @@
       <c r="Z7" s="32"/>
       <c r="AA7" s="32"/>
     </row>
-    <row r="8" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>404</v>
       </c>
@@ -7715,7 +7829,7 @@
       <c r="Z8" s="32"/>
       <c r="AA8" s="32"/>
     </row>
-    <row r="9" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>405</v>
       </c>
@@ -7756,7 +7870,7 @@
       <c r="Z9" s="32"/>
       <c r="AA9" s="32"/>
     </row>
-    <row r="10" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>406</v>
       </c>
@@ -7797,7 +7911,7 @@
       <c r="Z10" s="32"/>
       <c r="AA10" s="32"/>
     </row>
-    <row r="11" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>409</v>
       </c>
@@ -7840,7 +7954,7 @@
       <c r="Z11" s="32"/>
       <c r="AA11" s="32"/>
     </row>
-    <row r="12" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>411</v>
       </c>
@@ -7883,7 +7997,7 @@
       <c r="Z12" s="32"/>
       <c r="AA12" s="32"/>
     </row>
-    <row r="13" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>413</v>
       </c>
@@ -7926,7 +8040,7 @@
       <c r="Z13" s="32"/>
       <c r="AA13" s="32"/>
     </row>
-    <row r="14" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>415</v>
       </c>
@@ -7969,7 +8083,7 @@
       <c r="Z14" s="32"/>
       <c r="AA14" s="32"/>
     </row>
-    <row r="15" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>417</v>
       </c>
@@ -8012,7 +8126,7 @@
       <c r="Z15" s="32"/>
       <c r="AA15" s="32"/>
     </row>
-    <row r="16" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>418</v>
       </c>
@@ -8055,7 +8169,7 @@
       <c r="Z16" s="32"/>
       <c r="AA16" s="32"/>
     </row>
-    <row r="17" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>420</v>
       </c>
@@ -8116,7 +8230,7 @@
       </c>
       <c r="AA17" s="32"/>
     </row>
-    <row r="18" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>426</v>
       </c>
@@ -8171,7 +8285,7 @@
       </c>
       <c r="AA18" s="32"/>
     </row>
-    <row r="19" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>430</v>
       </c>
@@ -8228,7 +8342,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>433</v>
       </c>
@@ -8285,7 +8399,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>435</v>
       </c>
@@ -8342,7 +8456,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>437</v>
       </c>
@@ -8399,7 +8513,6 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8407,7 +8520,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
@@ -8431,7 +8544,7 @@
     <col min="18" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8474,8 +8587,11 @@
       <c r="N1" s="30" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>447</v>
       </c>
@@ -8514,99 +8630,24 @@
       <c r="N2" s="32" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-    </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-    </row>
-    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-    </row>
-    <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-    </row>
-    <row r="9" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-    </row>
-    <row r="10" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-    </row>
-    <row r="11" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-    </row>
-    <row r="12" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-    </row>
-    <row r="13" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-    </row>
-    <row r="15" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-    </row>
-    <row r="17" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-    </row>
-    <row r="18" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-    </row>
-    <row r="19" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-    </row>
-    <row r="20" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-    </row>
-    <row r="21" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-    </row>
-    <row r="22" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-    </row>
-    <row r="23" spans="15:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8615,9 +8656,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -8634,7 +8675,7 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8669,7 +8710,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>459</v>
       </c>
@@ -8702,17 +8743,6 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please select from the dropdown" sqref="J2">
@@ -8725,7 +8755,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
@@ -8744,7 +8774,7 @@
     <col min="11" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -8791,7 +8821,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>465</v>
       </c>
@@ -8834,7 +8864,7 @@
       </c>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>468</v>
       </c>
@@ -8877,7 +8907,7 @@
       </c>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>470</v>
       </c>
@@ -8922,7 +8952,7 @@
       </c>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>472</v>
       </c>
@@ -8965,7 +8995,7 @@
       </c>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>473</v>
       </c>
@@ -9010,13 +9040,6 @@
         <v>474</v>
       </c>
     </row>
-    <row r="7" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9024,10 +9047,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9044,7 +9067,7 @@
     <col min="11" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
@@ -9085,7 +9108,7 @@
       <c r="N1" s="30"/>
       <c r="O1" s="30"/>
     </row>
-    <row r="2" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>280</v>
       </c>
@@ -9120,7 +9143,7 @@
       <c r="N2" s="32"/>
       <c r="O2" s="32"/>
     </row>
-    <row r="3" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>480</v>
       </c>
@@ -9155,7 +9178,7 @@
       <c r="N3" s="32"/>
       <c r="O3" s="32"/>
     </row>
-    <row r="4" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>482</v>
       </c>
@@ -9192,7 +9215,7 @@
       <c r="N4" s="32"/>
       <c r="O4" s="32"/>
     </row>
-    <row r="5" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>485</v>
       </c>
@@ -9227,7 +9250,7 @@
       <c r="N5" s="32"/>
       <c r="O5" s="32"/>
     </row>
-    <row r="6" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>486</v>
       </c>
@@ -9264,7 +9287,7 @@
       <c r="N6" s="32"/>
       <c r="O6" s="32"/>
     </row>
-    <row r="7" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>488</v>
       </c>
@@ -9301,7 +9324,7 @@
       <c r="N7" s="32"/>
       <c r="O7" s="32"/>
     </row>
-    <row r="8" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>490</v>
       </c>
@@ -9338,7 +9361,7 @@
       <c r="N8" s="32"/>
       <c r="O8" s="32"/>
     </row>
-    <row r="9" spans="1:17" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>493</v>
       </c>
@@ -9373,10 +9396,6 @@
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
     </row>
-    <row r="10" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:17" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="11" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="Institute" sheetId="5" r:id="rId13"/>
     <sheet name="QMRReporting" sheetId="12" r:id="rId14"/>
     <sheet name="CreditScenarios" sheetId="19" r:id="rId15"/>
+    <sheet name="LoyaltyPlan" sheetId="20" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="592">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1574,6 +1575,238 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>LoyaltyPlanCode</t>
+  </si>
+  <si>
+    <t>Currency1</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>MaximumPointsEachPeriod</t>
+  </si>
+  <si>
+    <t>PeriodUnit</t>
+  </si>
+  <si>
+    <t>PlanValidityPeriod</t>
+  </si>
+  <si>
+    <t>MinimumPointsRequiredToRedeem</t>
+  </si>
+  <si>
+    <t>GraceDaysForRedemption</t>
+  </si>
+  <si>
+    <t>PointsEarned</t>
+  </si>
+  <si>
+    <t>ValueOfPoints</t>
+  </si>
+  <si>
+    <t>MinimumPointsRequiredToRedeemAutoRedemption</t>
+  </si>
+  <si>
+    <t>AutoRedemptionDate</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>SMSIssuerBIN</t>
+  </si>
+  <si>
+    <t>DMSIssuerBIN</t>
+  </si>
+  <si>
+    <t>programDeviceRange</t>
+  </si>
+  <si>
+    <t>addressLines2</t>
+  </si>
+  <si>
+    <t>PromotionPlanDesc</t>
+  </si>
+  <si>
+    <t>transactionDate</t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>AdjustmentAmount</t>
+  </si>
+  <si>
+    <t>AdjustmentType</t>
+  </si>
+  <si>
+    <t>promotionCurrency</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>noOfTransactions</t>
+  </si>
+  <si>
+    <t>thresholdAmount</t>
+  </si>
+  <si>
+    <t>LoyaltyBatchSettlementDays</t>
+  </si>
+  <si>
+    <t>BranchCode</t>
+  </si>
+  <si>
+    <t>pointsEarned</t>
+  </si>
+  <si>
+    <t>AmountSpent</t>
+  </si>
+  <si>
+    <t>PromotionPlanCode</t>
+  </si>
+  <si>
+    <t>TC1LoyaltyPlanCreation</t>
+  </si>
+  <si>
+    <t>LOYALTYAUTOMATION</t>
+  </si>
+  <si>
+    <t>LoyaltyPlanSetup</t>
+  </si>
+  <si>
+    <t>USD [840]</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>Year [Y]</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Day of Month [0]</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Miss. [3]</t>
+  </si>
+  <si>
+    <t>ABCDDD</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>Male [M]</t>
+  </si>
+  <si>
+    <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>General purpose [GP]</t>
+  </si>
+  <si>
+    <t>Atul.Upadhyay@mastercard.com</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>promotionPlanDescription</t>
+  </si>
+  <si>
+    <t>June/27/2020</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>Miscellaneous Debit [70]</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>OfficeBranch2 [206]</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>PROMOTIONPLAN</t>
+  </si>
+  <si>
+    <t>TC264328_Embossing File Generation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://stage.sa.eis.customer.mastercard.com/mpts/eis/app/
+</t>
+  </si>
+  <si>
+    <t>1000000100000</t>
+  </si>
+  <si>
+    <t>1000000199999</t>
+  </si>
+  <si>
+    <t>111</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1678,12 +1911,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1749,6 +1993,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3868,8 +4130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3882,7 +4144,7 @@
     <col min="7" max="7" width="23.77734375" customWidth="1"/>
     <col min="8" max="8" width="26.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="23.77734375" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="30.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3973,12 +4235,811 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:ED2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:134" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM1" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="BN1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BR1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BT1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BV1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="BX1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BY1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="BZ1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="CA1" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="CB1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="CC1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CD1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CE1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="CF1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="CG1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="CI1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="CK1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="CL1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="CM1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="CN1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="CO1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="CR1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="CS1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="CT1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="CU1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="CV1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="CW1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="CX1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="CY1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="CZ1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="DA1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="DB1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="DC1" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="DD1" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="DE1" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="DF1" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DL1" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="DN1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="DO1" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="DP1" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="DQ1" s="35" t="s">
+        <v>534</v>
+      </c>
+      <c r="DR1" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="DS1" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="DT1" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="DU1" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="DV1" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="DW1" s="35" t="s">
+        <v>540</v>
+      </c>
+      <c r="DX1" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="DY1" s="35" t="s">
+        <v>542</v>
+      </c>
+      <c r="DZ1" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="EA1" s="35" t="s">
+        <v>544</v>
+      </c>
+      <c r="EB1" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="EC1" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="ED1" s="35" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:134" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="R2" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="S2" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="T2" s="11">
+        <v>50</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>562</v>
+      </c>
+      <c r="AG2" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="AH2" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="AI2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="13">
+        <v>1989</v>
+      </c>
+      <c r="AK2" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL2" s="15">
+        <v>12345678</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO2" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="AP2" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW2" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA2" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="BC2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE2" s="13">
+        <v>12</v>
+      </c>
+      <c r="BF2" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="BG2" s="13">
+        <v>2</v>
+      </c>
+      <c r="BH2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="BI2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ2" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="BK2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL2" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM2" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="BN2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BP2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ2" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="BR2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS2" s="13">
+        <v>12345678</v>
+      </c>
+      <c r="BT2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="BU2" s="13">
+        <v>12345678</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BW2" s="39"/>
+      <c r="BX2" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BY2" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="BZ2" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="CA2" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="CB2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="CC2" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="CD2" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="CE2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="CF2" s="39" t="s">
+        <v>568</v>
+      </c>
+      <c r="CG2" s="39" t="s">
+        <v>569</v>
+      </c>
+      <c r="CH2" s="13"/>
+      <c r="CI2" s="38"/>
+      <c r="CJ2" s="38"/>
+      <c r="CK2" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="CL2" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="CM2" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="CN2" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="CO2" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="CP2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="CQ2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="CR2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="CS2" s="11"/>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="CV2" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="CW2" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="CX2" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="CY2" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="CZ2" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="DA2" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="DB2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="DC2" s="13"/>
+      <c r="DD2" s="13"/>
+      <c r="DE2" s="13"/>
+      <c r="DF2" s="13"/>
+      <c r="DG2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="DH2" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="DI2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="DJ2" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="DK2" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="DL2" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="DM2" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="DN2" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="DO2" s="40" t="s">
+        <v>575</v>
+      </c>
+      <c r="DP2" s="40" t="s">
+        <v>576</v>
+      </c>
+      <c r="DQ2" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="DR2" s="41" t="s">
+        <v>578</v>
+      </c>
+      <c r="DS2" s="41" t="s">
+        <v>568</v>
+      </c>
+      <c r="DT2" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="DU2" s="40" t="s">
+        <v>580</v>
+      </c>
+      <c r="DV2" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="DW2" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="DX2" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="DY2" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="DZ2" s="41" t="s">
+        <v>556</v>
+      </c>
+      <c r="EA2" s="41" t="s">
+        <v>583</v>
+      </c>
+      <c r="EB2" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="EC2" s="41" t="s">
+        <v>585</v>
+      </c>
+      <c r="ED2" s="40" t="s">
+        <v>586</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CV177"/>
+  <dimension ref="A1:CV9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3990,6 +5051,7 @@
     <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="8" max="8" width="17.44140625" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="7.44140625" customWidth="1"/>
     <col min="69" max="69" width="14.109375" bestFit="1" customWidth="1"/>
@@ -6009,806 +7071,585 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>371</v>
+    <row r="8" spans="1:100" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>588</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>361</v>
+        <v>509</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="F8" s="2">
+        <v>495</v>
+      </c>
+      <c r="F8" s="11">
         <v>50</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O8" s="2" t="s">
+      <c r="L8" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="R8" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="13">
         <v>1989</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="V8" s="16">
+      <c r="V8" s="15">
         <v>12345678</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="X8" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="Y8" s="3" t="s">
+      <c r="Y8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" s="3" t="s">
+      <c r="Z8" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AA8" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="AB8" s="3" t="s">
+      <c r="AB8" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="AC8" s="3" t="s">
+      <c r="AC8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD8" s="2">
-        <v>777</v>
-      </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AD8" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="AE8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="AF8" s="3" t="s">
+      <c r="AF8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AG8" s="11">
         <v>1</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AH8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AI8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AJ8" s="3" t="s">
+      <c r="AJ8" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AK8" s="13">
         <v>1</v>
       </c>
-      <c r="AL8" s="3" t="s">
+      <c r="AL8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AM8" s="3" t="s">
+      <c r="AM8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AN8" s="13">
         <v>12</v>
       </c>
-      <c r="AO8" s="3" t="s">
+      <c r="AO8" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AP8" s="13">
         <v>2</v>
       </c>
-      <c r="AQ8" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AR8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AS8" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="AT8" s="3" t="s">
+      <c r="AQ8" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AR8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS8" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT8" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AU8" s="3" t="s">
+      <c r="AU8" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="AV8" s="3" t="s">
+      <c r="AV8" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="AW8" s="3" t="s">
+      <c r="AW8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AX8" s="3" t="s">
+      <c r="AX8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AY8" s="3" t="s">
+      <c r="AY8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AZ8" s="25">
-        <v>411006</v>
-      </c>
-      <c r="BA8" s="3" t="s">
+      <c r="AZ8" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="BA8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="BB8" s="3">
+      <c r="BB8" s="13">
         <v>12345678</v>
       </c>
-      <c r="BC8" s="3" t="s">
+      <c r="BC8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="BD8" s="3">
+      <c r="BD8" s="13">
         <v>12345678</v>
       </c>
-      <c r="BE8" s="3" t="s">
+      <c r="BE8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="BF8" s="3">
-        <v>777</v>
-      </c>
-      <c r="BG8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BH8" s="3" t="s">
+      <c r="BF8" s="13">
+        <v>111</v>
+      </c>
+      <c r="BG8" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="BH8" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="BI8" s="3" t="s">
+      <c r="BI8" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="BJ8" s="3" t="s">
+      <c r="BJ8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="BK8" s="3" t="s">
+      <c r="BK8" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="BL8" s="3" t="s">
+      <c r="BL8" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="BM8" s="3" t="s">
+      <c r="BM8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="BN8" s="3">
+      <c r="BN8" s="13">
         <v>12</v>
       </c>
-      <c r="BO8" s="3">
+      <c r="BO8" s="13">
         <v>26</v>
       </c>
-      <c r="BP8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="BQ8" s="12">
-        <v>1000000700000</v>
-      </c>
-      <c r="BR8" s="12">
-        <v>1000000799999</v>
-      </c>
-      <c r="BS8" s="2" t="s">
+      <c r="BP8" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="BQ8" s="38" t="s">
+        <v>589</v>
+      </c>
+      <c r="BR8" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="BS8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="BT8" s="3">
-        <v>7777</v>
-      </c>
-      <c r="BU8" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BV8" s="2" t="s">
+      <c r="BT8" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="BU8" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="BV8" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="BW8" s="2">
+      <c r="BW8" s="11">
         <v>2</v>
       </c>
-      <c r="BX8" s="2" t="s">
+      <c r="BX8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="BY8" s="2" t="s">
+      <c r="BY8" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="BZ8" s="9" t="s">
+      <c r="BZ8" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="CA8" s="9"/>
-      <c r="CB8" s="9"/>
-      <c r="CC8" s="11">
-        <v>100</v>
-      </c>
-      <c r="CD8" s="11" t="s">
+      <c r="CA8" s="11"/>
+      <c r="CB8" s="11"/>
+      <c r="CC8" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="CD8" s="13" t="s">
         <v>130</v>
       </c>
       <c r="CE8" s="11">
         <v>10000</v>
       </c>
-      <c r="CF8" s="11">
-        <v>12</v>
-      </c>
-      <c r="CG8" s="11">
-        <v>5000</v>
-      </c>
-      <c r="CH8" s="11">
-        <v>20000</v>
+      <c r="CF8" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="CG8" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="CH8" s="38" t="s">
+        <v>574</v>
       </c>
       <c r="CI8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="CJ8" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="CK8" s="13">
-        <v>10000</v>
-      </c>
-      <c r="CL8" s="13">
-        <v>50000</v>
-      </c>
-      <c r="CM8" s="13">
-        <v>12</v>
-      </c>
-      <c r="CN8" s="11">
-        <v>120345</v>
-      </c>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="13"/>
+      <c r="CL8" s="13"/>
+      <c r="CM8" s="13"/>
+      <c r="CN8" s="13"/>
       <c r="CO8" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="CP8" s="13" t="s">
+      <c r="CP8" s="11" t="s">
         <v>160</v>
       </c>
       <c r="CQ8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="CR8" s="13"/>
-      <c r="CS8" s="13"/>
+      <c r="CR8" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="CS8" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="CT8" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="CU8" s="15"/>
-      <c r="CV8" s="13" t="s">
+      <c r="CU8" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="CV8" s="11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="CV9"/>
-    </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV10"/>
-    </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV11"/>
-    </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV12"/>
-    </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV13"/>
-    </row>
-    <row r="14" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV14"/>
-    </row>
-    <row r="15" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV15"/>
-    </row>
-    <row r="16" spans="1:100" x14ac:dyDescent="0.3">
-      <c r="CV16"/>
-    </row>
-    <row r="17" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV17"/>
-    </row>
-    <row r="18" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV18"/>
-    </row>
-    <row r="19" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV19"/>
-    </row>
-    <row r="20" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV20"/>
-    </row>
-    <row r="21" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV21"/>
-    </row>
-    <row r="22" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV22"/>
-    </row>
-    <row r="23" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV23"/>
-    </row>
-    <row r="24" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV24"/>
-    </row>
-    <row r="25" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV25"/>
-    </row>
-    <row r="26" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV26"/>
-    </row>
-    <row r="27" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV27"/>
-    </row>
-    <row r="28" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV28"/>
-    </row>
-    <row r="29" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV29"/>
-    </row>
-    <row r="30" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV30"/>
-    </row>
-    <row r="31" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV31"/>
-    </row>
-    <row r="32" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV32"/>
-    </row>
-    <row r="33" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV33"/>
-    </row>
-    <row r="34" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV34"/>
-    </row>
-    <row r="35" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV35"/>
-    </row>
-    <row r="36" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV36"/>
-    </row>
-    <row r="37" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV37"/>
-    </row>
-    <row r="38" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV38"/>
-    </row>
-    <row r="39" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV39"/>
-    </row>
-    <row r="40" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV40"/>
-    </row>
-    <row r="41" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV41"/>
-    </row>
-    <row r="42" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV42"/>
-    </row>
-    <row r="43" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV43"/>
-    </row>
-    <row r="44" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV44"/>
-    </row>
-    <row r="45" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV45"/>
-    </row>
-    <row r="46" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV46"/>
-    </row>
-    <row r="47" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV47"/>
-    </row>
-    <row r="48" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV48"/>
-    </row>
-    <row r="49" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV49"/>
-    </row>
-    <row r="50" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV50"/>
-    </row>
-    <row r="51" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV51"/>
-    </row>
-    <row r="52" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV52"/>
-    </row>
-    <row r="53" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV53"/>
-    </row>
-    <row r="54" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV54"/>
-    </row>
-    <row r="55" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV55"/>
-    </row>
-    <row r="56" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV56"/>
-    </row>
-    <row r="57" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV57"/>
-    </row>
-    <row r="58" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV58"/>
-    </row>
-    <row r="59" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV59"/>
-    </row>
-    <row r="60" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV60"/>
-    </row>
-    <row r="61" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV61"/>
-    </row>
-    <row r="62" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV62"/>
-    </row>
-    <row r="63" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV63"/>
-    </row>
-    <row r="64" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV64"/>
-    </row>
-    <row r="65" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV65"/>
-    </row>
-    <row r="66" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV66"/>
-    </row>
-    <row r="67" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV67"/>
-    </row>
-    <row r="68" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV68"/>
-    </row>
-    <row r="69" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV69"/>
-    </row>
-    <row r="70" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV70"/>
-    </row>
-    <row r="71" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV71"/>
-    </row>
-    <row r="72" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV72"/>
-    </row>
-    <row r="73" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV73"/>
-    </row>
-    <row r="74" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV74"/>
-    </row>
-    <row r="75" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV75"/>
-    </row>
-    <row r="76" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV76"/>
-    </row>
-    <row r="77" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV77"/>
-    </row>
-    <row r="78" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV78"/>
-    </row>
-    <row r="79" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV79"/>
-    </row>
-    <row r="80" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV80"/>
-    </row>
-    <row r="81" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV81"/>
-    </row>
-    <row r="82" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV82"/>
-    </row>
-    <row r="83" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV83"/>
-    </row>
-    <row r="84" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV84"/>
-    </row>
-    <row r="85" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV85"/>
-    </row>
-    <row r="86" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV86"/>
-    </row>
-    <row r="87" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV87"/>
-    </row>
-    <row r="88" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV88"/>
-    </row>
-    <row r="89" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV89"/>
-    </row>
-    <row r="90" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV90"/>
-    </row>
-    <row r="91" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV91"/>
-    </row>
-    <row r="92" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV92"/>
-    </row>
-    <row r="93" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV93"/>
-    </row>
-    <row r="94" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV94"/>
-    </row>
-    <row r="95" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV95"/>
-    </row>
-    <row r="96" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV96"/>
-    </row>
-    <row r="97" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV97"/>
-    </row>
-    <row r="98" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV98"/>
-    </row>
-    <row r="99" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV99"/>
-    </row>
-    <row r="100" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV100"/>
-    </row>
-    <row r="101" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV101"/>
-    </row>
-    <row r="102" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV102"/>
-    </row>
-    <row r="103" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV103"/>
-    </row>
-    <row r="104" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV104"/>
-    </row>
-    <row r="105" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV105"/>
-    </row>
-    <row r="106" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV106"/>
-    </row>
-    <row r="107" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV107"/>
-    </row>
-    <row r="108" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV108"/>
-    </row>
-    <row r="109" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV109"/>
-    </row>
-    <row r="110" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV110"/>
-    </row>
-    <row r="111" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV111"/>
-    </row>
-    <row r="112" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV112"/>
-    </row>
-    <row r="113" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV113"/>
-    </row>
-    <row r="114" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV114"/>
-    </row>
-    <row r="115" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV115"/>
-    </row>
-    <row r="116" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV116"/>
-    </row>
-    <row r="117" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV117"/>
-    </row>
-    <row r="118" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV118"/>
-    </row>
-    <row r="119" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV119"/>
-    </row>
-    <row r="120" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV120"/>
-    </row>
-    <row r="121" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV121"/>
-    </row>
-    <row r="122" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV122"/>
-    </row>
-    <row r="123" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV123"/>
-    </row>
-    <row r="124" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV124"/>
-    </row>
-    <row r="125" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV125"/>
-    </row>
-    <row r="126" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV126"/>
-    </row>
-    <row r="127" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV127"/>
-    </row>
-    <row r="128" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV128"/>
-    </row>
-    <row r="129" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV129"/>
-    </row>
-    <row r="130" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV130"/>
-    </row>
-    <row r="131" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV131"/>
-    </row>
-    <row r="132" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV132"/>
-    </row>
-    <row r="133" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV133"/>
-    </row>
-    <row r="134" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV134"/>
-    </row>
-    <row r="135" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV135"/>
-    </row>
-    <row r="136" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV136"/>
-    </row>
-    <row r="137" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV137"/>
-    </row>
-    <row r="138" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV138"/>
-    </row>
-    <row r="139" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV139"/>
-    </row>
-    <row r="140" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV140"/>
-    </row>
-    <row r="141" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV141"/>
-    </row>
-    <row r="142" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV142"/>
-    </row>
-    <row r="143" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV143"/>
-    </row>
-    <row r="144" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV144"/>
-    </row>
-    <row r="145" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV145"/>
-    </row>
-    <row r="146" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV146"/>
-    </row>
-    <row r="147" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV147"/>
-    </row>
-    <row r="148" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV148"/>
-    </row>
-    <row r="149" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV149"/>
-    </row>
-    <row r="150" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV150"/>
-    </row>
-    <row r="151" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV151"/>
-    </row>
-    <row r="152" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV152"/>
-    </row>
-    <row r="153" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV153"/>
-    </row>
-    <row r="154" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV154"/>
-    </row>
-    <row r="155" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV155"/>
-    </row>
-    <row r="156" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV156"/>
-    </row>
-    <row r="157" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV157"/>
-    </row>
-    <row r="158" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV158"/>
-    </row>
-    <row r="159" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV159"/>
-    </row>
-    <row r="160" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV160"/>
-    </row>
-    <row r="161" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV161"/>
-    </row>
-    <row r="162" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV162"/>
-    </row>
-    <row r="163" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV163"/>
-    </row>
-    <row r="164" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV164"/>
-    </row>
-    <row r="165" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV165"/>
-    </row>
-    <row r="166" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV166"/>
-    </row>
-    <row r="167" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV167"/>
-    </row>
-    <row r="168" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV168"/>
-    </row>
-    <row r="169" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV169"/>
-    </row>
-    <row r="170" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV170"/>
-    </row>
-    <row r="171" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV171"/>
-    </row>
-    <row r="172" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV172"/>
-    </row>
-    <row r="173" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV173"/>
-    </row>
-    <row r="174" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV174"/>
-    </row>
-    <row r="175" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV175"/>
-    </row>
-    <row r="176" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV176"/>
-    </row>
-    <row r="177" spans="100:100" x14ac:dyDescent="0.3">
-      <c r="CV177"/>
+    <row r="9" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F9" s="2">
+        <v>50</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1989</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="V9" s="16">
+        <v>12345678</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>777</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN9" s="3">
+        <v>12</v>
+      </c>
+      <c r="AO9" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AQ9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS9" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AU9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV9" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ9" s="25">
+        <v>411006</v>
+      </c>
+      <c r="BA9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="BC9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BD9" s="3">
+        <v>12345678</v>
+      </c>
+      <c r="BE9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF9" s="3">
+        <v>777</v>
+      </c>
+      <c r="BG9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH9" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="BI9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BN9" s="3">
+        <v>12</v>
+      </c>
+      <c r="BO9" s="3">
+        <v>26</v>
+      </c>
+      <c r="BP9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="BQ9" s="12">
+        <v>1000000700000</v>
+      </c>
+      <c r="BR9" s="12">
+        <v>1000000799999</v>
+      </c>
+      <c r="BS9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="BT9" s="3">
+        <v>7777</v>
+      </c>
+      <c r="BU9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="BW9" s="2">
+        <v>2</v>
+      </c>
+      <c r="BX9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BY9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BZ9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="CA9" s="9"/>
+      <c r="CB9" s="9"/>
+      <c r="CC9" s="11">
+        <v>100</v>
+      </c>
+      <c r="CD9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="CE9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="CF9" s="11">
+        <v>12</v>
+      </c>
+      <c r="CG9" s="11">
+        <v>5000</v>
+      </c>
+      <c r="CH9" s="11">
+        <v>20000</v>
+      </c>
+      <c r="CI9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="CJ9" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="CK9" s="13">
+        <v>10000</v>
+      </c>
+      <c r="CL9" s="13">
+        <v>50000</v>
+      </c>
+      <c r="CM9" s="13">
+        <v>12</v>
+      </c>
+      <c r="CN9" s="11">
+        <v>120345</v>
+      </c>
+      <c r="CO9" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="CP9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="CQ9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR9" s="13"/>
+      <c r="CS9" s="13"/>
+      <c r="CT9" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="CU9" s="15"/>
+      <c r="CV9" s="13" t="s">
+        <v>255</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -1927,7 +1927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2011,6 +2011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4130,8 +4131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4185,7 +4186,7 @@
       <c r="L1" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="43" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4226,7 +4227,7 @@
       <c r="L2" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>504</v>
       </c>
     </row>
@@ -5038,7 +5039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7728" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1899" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="594">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1807,6 +1807,12 @@
   </si>
   <si>
     <t>111</t>
+  </si>
+  <si>
+    <t>ISSUING</t>
+  </si>
+  <si>
+    <t>TC1InstituteCreationDC</t>
   </si>
 </sst>
 </file>
@@ -3380,15 +3386,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -3511,7 +3517,7 @@
         <v>310</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>592</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>238</v>
@@ -3591,6 +3597,94 @@
         <v>246</v>
       </c>
       <c r="AD2">
+        <v>411006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>593</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="T3" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="U3" t="s">
+        <v>242</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3">
+        <v>1113332</v>
+      </c>
+      <c r="X3">
+        <v>23564589</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD3">
         <v>411006</v>
       </c>
     </row>
@@ -3598,6 +3692,8 @@
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="Y2" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3"/>
+    <hyperlink ref="Y3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5038,7 +5134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -24,12 +24,12 @@
     <sheet name="CreditScenarios" sheetId="19" r:id="rId15"/>
     <sheet name="LoyaltyPlan" sheetId="20" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="618">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -961,13 +961,7 @@
     <t>Collect Portal Support</t>
   </si>
   <si>
-    <t>TC1InstituteCreation</t>
-  </si>
-  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>BatchName</t>
@@ -1812,7 +1806,85 @@
     <t>ISSUING</t>
   </si>
   <si>
-    <t>TC1InstituteCreationDC</t>
+    <t>TCInstituteCreationPR</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDC</t>
+  </si>
+  <si>
+    <t>Address Line3</t>
+  </si>
+  <si>
+    <t>Address Line4</t>
+  </si>
+  <si>
+    <t>NewUserId</t>
+  </si>
+  <si>
+    <t>NewUserName</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>LanguagePreference</t>
+  </si>
+  <si>
+    <t>TimeZone</t>
+  </si>
+  <si>
+    <t>Login Allowed From</t>
+  </si>
+  <si>
+    <t>Login Allowed Till</t>
+  </si>
+  <si>
+    <t>EmailId</t>
+  </si>
+  <si>
+    <t>CountryCode</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>UserAccountExpiryDate</t>
+  </si>
+  <si>
+    <t>ConcurrentLoginAllowed</t>
+  </si>
+  <si>
+    <t>MaximumConcurrentUser</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>NewUser</t>
+  </si>
+  <si>
+    <t>Batch [ROLE000052]</t>
+  </si>
+  <si>
+    <t>English [EN]</t>
+  </si>
+  <si>
+    <t>GMT</t>
+  </si>
+  <si>
+    <t>testuser124421@gmail.com</t>
+  </si>
+  <si>
+    <t>July/2/2018</t>
+  </si>
+  <si>
+    <t>Yes [Y]</t>
+  </si>
+  <si>
+    <t>Record Added Successfully.</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCPR</t>
   </si>
 </sst>
 </file>
@@ -1861,7 +1933,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1905,15 +1977,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1976,8 +2039,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1999,7 +2060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2012,11 +2073,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2346,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2548,17 +2611,17 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>359</v>
+      <c r="B2" s="22" t="s">
+        <v>357</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>354</v>
+        <v>373</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F2" s="2">
         <v>50</v>
@@ -2597,7 +2660,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S2" s="3">
         <v>2</v>
@@ -2609,7 +2672,7 @@
         <v>79</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>29</v>
@@ -2651,10 +2714,10 @@
         <v>84</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>131</v>
@@ -2684,7 +2747,7 @@
         <v>40</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AV2" s="3">
         <v>10000</v>
@@ -2693,7 +2756,7 @@
         <v>42</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>45</v>
@@ -2739,30 +2802,30 @@
       <c r="BN2" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BO2" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="BP2" s="28"/>
-      <c r="BQ2" s="28"/>
+      <c r="BO2" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="BP2" s="26"/>
+      <c r="BQ2" s="26"/>
     </row>
     <row r="3" spans="1:69" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>360</v>
+      <c r="B3" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>354</v>
+        <v>373</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>363</v>
+        <v>377</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="G3" s="2">
         <v>200</v>
@@ -2798,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="S3" s="3">
         <v>2</v>
@@ -2852,10 +2915,10 @@
         <v>121</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AL3" s="3" t="s">
         <v>131</v>
@@ -2885,7 +2948,7 @@
         <v>40</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AV3" s="3">
         <v>10000</v>
@@ -2894,7 +2957,7 @@
         <v>42</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AY3" s="3" t="s">
         <v>45</v>
@@ -2931,32 +2994,32 @@
         <v>53</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="B4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="21"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="B8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="21"/>
+      <c r="D8" s="21"/>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2986,123 +3049,123 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="34"/>
+      <c r="E2" s="30">
+        <v>4656</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="32">
+    <row r="3" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="30">
         <v>4656</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="H2" s="32" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I3" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="30">
+        <v>4656</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-    </row>
-    <row r="4" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E4" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3146,13 +3209,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>127</v>
@@ -3199,16 +3262,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>361</v>
       </c>
       <c r="E2" s="2">
         <v>8520</v>
@@ -3286,98 +3349,98 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="J1" s="28"/>
+      <c r="K1" s="32"/>
+    </row>
+    <row r="2" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="34"/>
+      <c r="E2" s="30">
+        <v>4656</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="32">
+    <row r="3" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="30">
         <v>4656</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F3" s="30">
         <v>0</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>275</v>
-      </c>
-      <c r="H2" s="32" t="s">
+      <c r="G3" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I3" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-    </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F3" s="32">
-        <v>0</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3386,17 +3449,17 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1:CCZ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
@@ -3417,10 +3480,12 @@
     <col min="22" max="22" width="28.5546875" customWidth="1"/>
     <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3481,211 +3546,485 @@
       <c r="T1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="X1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Y1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="Z1" s="21" t="s">
+      <c r="Z1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AA1" s="21" t="s">
+      <c r="AA1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AB1" s="21" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="AE1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AF1" s="1" t="s">
         <v>237</v>
       </c>
+      <c r="AG1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>608</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>239</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="O2" s="9">
+        <v>16</v>
+      </c>
+      <c r="P2" s="9">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="R2" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="T2" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="X2" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="Y2" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF2" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AG2" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="AR2" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="AS2" s="9">
+        <v>999</v>
+      </c>
+      <c r="AT2" s="9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="D3" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="G3" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M3" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O3" s="9">
         <v>16</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P3" s="9">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q3" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R3" s="9">
         <v>1100440052</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S3" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T3" s="9">
         <v>45665456</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U3" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W2">
+      <c r="W3" s="9">
         <v>1113332</v>
       </c>
-      <c r="X2">
+      <c r="X3" s="9">
         <v>23564589</v>
       </c>
-      <c r="Y2" s="22" t="s">
+      <c r="Y3" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z3" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA3" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB3" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AE3" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="AD2">
+      <c r="AF3" s="9">
         <v>411006</v>
       </c>
+      <c r="AG3" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="AR3" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>999</v>
+      </c>
+      <c r="AT3" s="9" t="s">
+        <v>616</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>593</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="D4" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="J4" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="K4" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M4" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N4" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O4" s="9">
         <v>16</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="9">
         <v>16</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q4" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R4" s="9">
         <v>1100440052</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S4" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T4" s="9">
         <v>45665456</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U4" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="W3">
+      <c r="W4" s="9">
         <v>1113332</v>
       </c>
-      <c r="X3">
+      <c r="X4" s="9">
         <v>23564589</v>
       </c>
-      <c r="Y3" s="22" t="s">
+      <c r="Y4" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z4" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA4" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB4" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AC4" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="AD4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE4" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="AD3">
+      <c r="AF4" s="9">
         <v>411006</v>
+      </c>
+      <c r="AG4" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9"/>
+      <c r="AN4" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP4" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="AR4" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="AS4" s="9">
+        <v>999</v>
+      </c>
+      <c r="AT4" s="9" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -3694,8 +4033,11 @@
     <hyperlink ref="Y2" r:id="rId2"/>
     <hyperlink ref="S3" r:id="rId3"/>
     <hyperlink ref="Y3" r:id="rId4"/>
+    <hyperlink ref="S4" r:id="rId5"/>
+    <hyperlink ref="Y4" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3717,13 +4059,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3732,489 +4074,489 @@
         <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="C2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" t="s">
         <v>326</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" t="s">
         <v>329</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>330</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>331</v>
-      </c>
-      <c r="K2" t="s">
-        <v>332</v>
-      </c>
-      <c r="L2" t="s">
-        <v>333</v>
       </c>
       <c r="M2">
         <v>2017</v>
       </c>
       <c r="N2" t="s">
+        <v>332</v>
+      </c>
+      <c r="O2" t="s">
+        <v>333</v>
+      </c>
+      <c r="P2" t="s">
         <v>334</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>335</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>336</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>337</v>
-      </c>
-      <c r="R2" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="C3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F3" t="s">
-        <v>327</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>340</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" t="s">
         <v>341</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
-        <v>343</v>
-      </c>
-      <c r="K3" t="s">
-        <v>344</v>
-      </c>
       <c r="L3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M3">
         <v>2016</v>
       </c>
       <c r="N3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O3" t="s">
+        <v>333</v>
+      </c>
+      <c r="P3" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q3" t="s">
         <v>335</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>336</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>337</v>
-      </c>
-      <c r="R3" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>354</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" t="s">
         <v>326</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>328</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="J4" t="s">
         <v>329</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>330</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>331</v>
-      </c>
-      <c r="K4" t="s">
-        <v>332</v>
-      </c>
-      <c r="L4" t="s">
-        <v>333</v>
       </c>
       <c r="M4">
         <v>2017</v>
       </c>
       <c r="N4" t="s">
+        <v>332</v>
+      </c>
+      <c r="O4" t="s">
+        <v>333</v>
+      </c>
+      <c r="P4" t="s">
         <v>334</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>335</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>336</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>337</v>
-      </c>
-      <c r="R4" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B5" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>354</v>
-      </c>
       <c r="E5" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G5" t="s">
         <v>326</v>
       </c>
-      <c r="F5" t="s">
-        <v>327</v>
-      </c>
-      <c r="G5" t="s">
-        <v>328</v>
-      </c>
       <c r="H5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I5" t="s">
+        <v>340</v>
+      </c>
+      <c r="J5" t="s">
         <v>341</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>342</v>
       </c>
-      <c r="J5" t="s">
-        <v>343</v>
-      </c>
-      <c r="K5" t="s">
-        <v>344</v>
-      </c>
       <c r="L5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M5">
         <v>2016</v>
       </c>
       <c r="N5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O5" t="s">
+        <v>333</v>
+      </c>
+      <c r="P5" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q5" t="s">
         <v>335</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" t="s">
         <v>336</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>337</v>
-      </c>
-      <c r="R5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>348</v>
-      </c>
-      <c r="B6" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>354</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G6" t="s">
+        <v>338</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I6" t="s">
         <v>340</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="J6" t="s">
         <v>341</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>342</v>
       </c>
-      <c r="J6" t="s">
-        <v>343</v>
-      </c>
-      <c r="K6" t="s">
-        <v>344</v>
-      </c>
       <c r="L6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M6">
         <v>2016</v>
       </c>
       <c r="N6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O6" t="s">
+        <v>333</v>
+      </c>
+      <c r="P6" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q6" t="s">
         <v>335</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>336</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>337</v>
-      </c>
-      <c r="R6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B7" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>354</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I7" t="s">
         <v>340</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="J7" t="s">
         <v>341</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>342</v>
       </c>
-      <c r="J7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K7" t="s">
-        <v>344</v>
-      </c>
       <c r="L7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M7">
         <v>2016</v>
       </c>
       <c r="N7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q7" t="s">
         <v>335</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>337</v>
-      </c>
-      <c r="R7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B8" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C8" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>354</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G8" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" t="s">
         <v>340</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="J8" t="s">
         <v>341</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>342</v>
       </c>
-      <c r="J8" t="s">
-        <v>343</v>
-      </c>
-      <c r="K8" t="s">
-        <v>344</v>
-      </c>
       <c r="L8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M8">
         <v>2016</v>
       </c>
       <c r="N8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O8" t="s">
+        <v>333</v>
+      </c>
+      <c r="P8" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q8" t="s">
         <v>335</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>336</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>337</v>
-      </c>
-      <c r="R8" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>357</v>
-      </c>
-      <c r="B9" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="C9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>354</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="I9" t="s">
         <v>340</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="J9" t="s">
         <v>341</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>342</v>
       </c>
-      <c r="J9" t="s">
-        <v>343</v>
-      </c>
-      <c r="K9" t="s">
-        <v>344</v>
-      </c>
       <c r="L9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M9">
         <v>2016</v>
       </c>
       <c r="N9" t="s">
+        <v>332</v>
+      </c>
+      <c r="O9" t="s">
+        <v>356</v>
+      </c>
+      <c r="P9" t="s">
         <v>334</v>
       </c>
-      <c r="O9" t="s">
-        <v>358</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
+        <v>335</v>
+      </c>
+      <c r="R9" t="s">
         <v>336</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>337</v>
-      </c>
-      <c r="R9" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4249,81 +4591,81 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" s="23" t="s">
         <v>495</v>
       </c>
+      <c r="B2" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>493</v>
+      </c>
       <c r="F2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>510</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="M2" t="s">
         <v>502</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>512</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="K2" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="M2" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4349,58 +4691,58 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>527</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>127</v>
@@ -4421,10 +4763,10 @@
         <v>100</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>75</v>
@@ -4505,7 +4847,7 @@
         <v>12</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>13</v>
@@ -4544,7 +4886,7 @@
         <v>22</v>
       </c>
       <c r="BO1" s="4" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="BP1" s="4" t="s">
         <v>24</v>
@@ -4580,7 +4922,7 @@
         <v>132</v>
       </c>
       <c r="CA1" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="CB1" s="4" t="s">
         <v>66</v>
@@ -4699,112 +5041,112 @@
       <c r="DN1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="DO1" s="35" t="s">
+      <c r="DO1" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="DP1" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="DQ1" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="DP1" s="35" t="s">
+      <c r="DR1" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="DQ1" s="35" t="s">
+      <c r="DS1" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="DR1" s="35" t="s">
+      <c r="DT1" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="DS1" s="35" t="s">
+      <c r="DU1" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="DT1" s="35" t="s">
+      <c r="DV1" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="DU1" s="35" t="s">
+      <c r="DW1" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="DV1" s="35" t="s">
+      <c r="DX1" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="DW1" s="35" t="s">
+      <c r="DY1" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="DX1" s="35" t="s">
+      <c r="DZ1" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="DY1" s="35" t="s">
+      <c r="EA1" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="DZ1" s="35" t="s">
+      <c r="EB1" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="EA1" s="35" t="s">
+      <c r="EC1" s="33" t="s">
         <v>544</v>
       </c>
-      <c r="EB1" s="35" t="s">
+      <c r="ED1" s="33" t="s">
         <v>545</v>
-      </c>
-      <c r="EC1" s="35" t="s">
-        <v>546</v>
-      </c>
-      <c r="ED1" s="35" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="2" spans="1:134" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="34" t="s">
+        <v>550</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="J2" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="35" t="s">
         <v>553</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="L2" s="35" t="s">
         <v>554</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="M2" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="N2" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="O2" s="25" t="s">
+        <v>556</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="Q2" s="25" t="s">
         <v>558</v>
       </c>
-      <c r="O2" s="27" t="s">
-        <v>558</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>560</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>509</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>393</v>
+      <c r="R2" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>391</v>
       </c>
       <c r="T2" s="11">
         <v>50</v>
@@ -4824,24 +5166,24 @@
       <c r="Y2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="13"/>
       <c r="AC2" s="13" t="s">
         <v>45</v>
       </c>
       <c r="AD2" s="13"/>
       <c r="AE2" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>560</v>
+      </c>
+      <c r="AG2" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>562</v>
-      </c>
-      <c r="AG2" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>564</v>
       </c>
       <c r="AI2" s="13" t="s">
         <v>36</v>
@@ -4862,7 +5204,7 @@
         <v>119</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AP2" s="13" t="s">
         <v>118</v>
@@ -4899,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="BB2" s="13" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="BC2" s="13" t="s">
         <v>16</v>
@@ -4911,7 +5253,7 @@
         <v>12</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BG2" s="13">
         <v>2</v>
@@ -4943,8 +5285,8 @@
       <c r="BP2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="BQ2" s="25" t="s">
-        <v>362</v>
+      <c r="BQ2" s="23" t="s">
+        <v>360</v>
       </c>
       <c r="BR2" s="13" t="s">
         <v>31</v>
@@ -4959,20 +5301,20 @@
         <v>12345678</v>
       </c>
       <c r="BV2" t="s">
-        <v>567</v>
-      </c>
-      <c r="BW2" s="39"/>
+        <v>565</v>
+      </c>
+      <c r="BW2" s="37"/>
       <c r="BX2" s="13" t="s">
         <v>140</v>
       </c>
       <c r="BY2" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BZ2" s="13" t="s">
         <v>133</v>
       </c>
       <c r="CA2" s="13" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="CB2" s="13" t="s">
         <v>67</v>
@@ -4981,34 +5323,34 @@
         <v>131</v>
       </c>
       <c r="CD2" s="13" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="CE2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="CF2" s="39" t="s">
-        <v>568</v>
-      </c>
-      <c r="CG2" s="39" t="s">
-        <v>569</v>
+      <c r="CF2" s="37" t="s">
+        <v>566</v>
+      </c>
+      <c r="CG2" s="37" t="s">
+        <v>567</v>
       </c>
       <c r="CH2" s="13"/>
-      <c r="CI2" s="38"/>
-      <c r="CJ2" s="38"/>
+      <c r="CI2" s="36"/>
+      <c r="CJ2" s="36"/>
       <c r="CK2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="CL2" s="39" t="s">
-        <v>570</v>
+      <c r="CL2" s="37" t="s">
+        <v>568</v>
       </c>
       <c r="CM2" s="13" t="s">
         <v>142</v>
       </c>
       <c r="CN2" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="CO2" s="38" t="s">
-        <v>571</v>
+        <v>362</v>
+      </c>
+      <c r="CO2" s="36" t="s">
+        <v>569</v>
       </c>
       <c r="CP2" s="11" t="s">
         <v>48</v>
@@ -5021,23 +5363,23 @@
       </c>
       <c r="CS2" s="11"/>
       <c r="CT2" s="11"/>
-      <c r="CU2" s="38" t="s">
-        <v>558</v>
+      <c r="CU2" s="36" t="s">
+        <v>556</v>
       </c>
       <c r="CV2" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="CW2" s="38" t="s">
+      <c r="CW2" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="CX2" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="CY2" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="CZ2" s="36" t="s">
         <v>572</v>
-      </c>
-      <c r="CX2" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="CY2" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="CZ2" s="38" t="s">
-        <v>574</v>
       </c>
       <c r="DA2" s="13" t="s">
         <v>89</v>
@@ -5073,53 +5415,53 @@
       <c r="DN2" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="DO2" s="40" t="s">
+      <c r="DO2" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="DP2" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="DQ2" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="DP2" s="40" t="s">
+      <c r="DR2" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="DQ2" s="40" t="s">
+      <c r="DS2" s="39" t="s">
+        <v>566</v>
+      </c>
+      <c r="DT2" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="DR2" s="41" t="s">
+      <c r="DU2" s="38" t="s">
         <v>578</v>
       </c>
-      <c r="DS2" s="41" t="s">
-        <v>568</v>
-      </c>
-      <c r="DT2" s="41" t="s">
+      <c r="DV2" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="DW2" s="39" t="s">
+        <v>512</v>
+      </c>
+      <c r="DX2" s="39" t="s">
         <v>579</v>
       </c>
-      <c r="DU2" s="40" t="s">
+      <c r="DY2" s="39" t="s">
         <v>580</v>
       </c>
-      <c r="DV2" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="DW2" s="41" t="s">
-        <v>514</v>
-      </c>
-      <c r="DX2" s="41" t="s">
+      <c r="DZ2" s="39" t="s">
+        <v>554</v>
+      </c>
+      <c r="EA2" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="DY2" s="41" t="s">
+      <c r="EB2" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="DZ2" s="41" t="s">
-        <v>556</v>
-      </c>
-      <c r="EA2" s="41" t="s">
+      <c r="EC2" s="39" t="s">
         <v>583</v>
       </c>
-      <c r="EB2" s="41" t="s">
+      <c r="ED2" s="38" t="s">
         <v>584</v>
-      </c>
-      <c r="EC2" s="41" t="s">
-        <v>585</v>
-      </c>
-      <c r="ED2" s="40" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -5160,13 +5502,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5461,17 +5803,17 @@
       <c r="A2" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>371</v>
+      <c r="B2" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F2" s="11">
         <v>50</v>
@@ -5579,7 +5921,7 @@
         <v>12</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AP2" s="13">
         <v>2</v>
@@ -5611,8 +5953,8 @@
       <c r="AY2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AZ2" s="25" t="s">
-        <v>362</v>
+      <c r="AZ2" s="23" t="s">
+        <v>360</v>
       </c>
       <c r="BA2" s="13" t="s">
         <v>31</v>
@@ -5636,7 +5978,7 @@
         <v>140</v>
       </c>
       <c r="BH2" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BI2" s="13" t="s">
         <v>133</v>
@@ -5678,7 +6020,7 @@
         <v>142</v>
       </c>
       <c r="BV2" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BW2" s="11">
         <v>2</v>
@@ -5749,17 +6091,17 @@
       <c r="A3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>371</v>
+      <c r="B3" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F3" s="2">
         <v>50</v>
@@ -5867,7 +6209,7 @@
         <v>12</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AP3" s="3">
         <v>2</v>
@@ -5899,7 +6241,7 @@
       <c r="AY3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AZ3" s="25">
+      <c r="AZ3" s="23">
         <v>411006</v>
       </c>
       <c r="BA3" s="3" t="s">
@@ -5924,7 +6266,7 @@
         <v>141</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>133</v>
@@ -5966,7 +6308,7 @@
         <v>143</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BW3" s="2">
         <v>2</v>
@@ -6033,17 +6375,17 @@
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>371</v>
+      <c r="B4" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F4" s="2">
         <v>50</v>
@@ -6151,7 +6493,7 @@
         <v>12</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AP4" s="3">
         <v>2</v>
@@ -6183,7 +6525,7 @@
       <c r="AY4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AZ4" s="25">
+      <c r="AZ4" s="23">
         <v>411006</v>
       </c>
       <c r="BA4" s="3" t="s">
@@ -6208,7 +6550,7 @@
         <v>152</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BI4" s="3" t="s">
         <v>133</v>
@@ -6250,7 +6592,7 @@
         <v>153</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BW4" s="2">
         <v>2</v>
@@ -6319,17 +6661,17 @@
       <c r="A5" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>371</v>
+      <c r="B5" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F5" s="2">
         <v>50</v>
@@ -6437,7 +6779,7 @@
         <v>12</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AP5" s="3">
         <v>2</v>
@@ -6469,7 +6811,7 @@
       <c r="AY5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AZ5" s="25">
+      <c r="AZ5" s="23">
         <v>411006</v>
       </c>
       <c r="BA5" s="3" t="s">
@@ -6494,7 +6836,7 @@
         <v>158</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BI5" s="3" t="s">
         <v>133</v>
@@ -6536,7 +6878,7 @@
         <v>159</v>
       </c>
       <c r="BV5" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BW5" s="2">
         <v>2</v>
@@ -6603,17 +6945,17 @@
       <c r="A6" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>371</v>
+      <c r="B6" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F6" s="2">
         <v>50</v>
@@ -6721,7 +7063,7 @@
         <v>12</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AP6" s="3">
         <v>2</v>
@@ -6753,7 +7095,7 @@
       <c r="AY6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AZ6" s="25">
+      <c r="AZ6" s="23">
         <v>411006</v>
       </c>
       <c r="BA6" s="3" t="s">
@@ -6778,7 +7120,7 @@
         <v>165</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BI6" s="3" t="s">
         <v>133</v>
@@ -6820,7 +7162,7 @@
         <v>166</v>
       </c>
       <c r="BV6" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BW6" s="2">
         <v>2</v>
@@ -6887,17 +7229,17 @@
       <c r="A7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>371</v>
+      <c r="B7" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
@@ -7005,7 +7347,7 @@
         <v>12</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AP7" s="3">
         <v>2</v>
@@ -7037,7 +7379,7 @@
       <c r="AY7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AZ7" s="25">
+      <c r="AZ7" s="23">
         <v>411006</v>
       </c>
       <c r="BA7" s="3" t="s">
@@ -7062,7 +7404,7 @@
         <v>171</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BI7" s="3" t="s">
         <v>133</v>
@@ -7104,7 +7446,7 @@
         <v>172</v>
       </c>
       <c r="BV7" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BW7" s="2">
         <v>2</v>
@@ -7169,19 +7511,19 @@
     </row>
     <row r="8" spans="1:100" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>588</v>
+        <v>585</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>586</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>393</v>
+        <v>507</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>391</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F8" s="11">
         <v>50</v>
@@ -7255,8 +7597,8 @@
       <c r="AC8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AD8" s="26" t="s">
-        <v>591</v>
+      <c r="AD8" s="24" t="s">
+        <v>589</v>
       </c>
       <c r="AE8" s="11" t="s">
         <v>9</v>
@@ -7289,7 +7631,7 @@
         <v>12</v>
       </c>
       <c r="AO8" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AP8" s="13">
         <v>2</v>
@@ -7321,8 +7663,8 @@
       <c r="AY8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AZ8" s="25" t="s">
-        <v>362</v>
+      <c r="AZ8" s="23" t="s">
+        <v>360</v>
       </c>
       <c r="BA8" s="13" t="s">
         <v>31</v>
@@ -7346,7 +7688,7 @@
         <v>140</v>
       </c>
       <c r="BH8" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BI8" s="13" t="s">
         <v>133</v>
@@ -7372,23 +7714,23 @@
       <c r="BP8" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="BQ8" s="38" t="s">
-        <v>589</v>
-      </c>
-      <c r="BR8" s="38" t="s">
-        <v>590</v>
+      <c r="BQ8" s="36" t="s">
+        <v>587</v>
+      </c>
+      <c r="BR8" s="36" t="s">
+        <v>588</v>
       </c>
       <c r="BS8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="BT8" s="39" t="s">
-        <v>570</v>
+      <c r="BT8" s="37" t="s">
+        <v>568</v>
       </c>
       <c r="BU8" s="13" t="s">
         <v>142</v>
       </c>
       <c r="BV8" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BW8" s="11">
         <v>2</v>
@@ -7404,8 +7746,8 @@
       </c>
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
-      <c r="CC8" s="38" t="s">
-        <v>558</v>
+      <c r="CC8" s="36" t="s">
+        <v>556</v>
       </c>
       <c r="CD8" s="13" t="s">
         <v>130</v>
@@ -7413,14 +7755,14 @@
       <c r="CE8" s="11">
         <v>10000</v>
       </c>
-      <c r="CF8" s="38" t="s">
-        <v>568</v>
-      </c>
-      <c r="CG8" s="38" t="s">
-        <v>573</v>
-      </c>
-      <c r="CH8" s="38" t="s">
-        <v>574</v>
+      <c r="CF8" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="CG8" s="36" t="s">
+        <v>571</v>
+      </c>
+      <c r="CH8" s="36" t="s">
+        <v>572</v>
       </c>
       <c r="CI8" s="13" t="s">
         <v>89</v>
@@ -7459,17 +7801,17 @@
       <c r="A9" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>371</v>
+      <c r="B9" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F9" s="2">
         <v>50</v>
@@ -7577,7 +7919,7 @@
         <v>12</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="AP9" s="3">
         <v>2</v>
@@ -7609,7 +7951,7 @@
       <c r="AY9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AZ9" s="25">
+      <c r="AZ9" s="23">
         <v>411006</v>
       </c>
       <c r="BA9" s="3" t="s">
@@ -7634,7 +7976,7 @@
         <v>178</v>
       </c>
       <c r="BH9" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BI9" s="3" t="s">
         <v>133</v>
@@ -7676,7 +8018,7 @@
         <v>179</v>
       </c>
       <c r="BV9" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BW9" s="2">
         <v>2</v>
@@ -7777,13 +8119,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -7820,20 +8162,20 @@
       <c r="A2" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>354</v>
+      <c r="D2" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>126</v>
@@ -7845,7 +8187,7 @@
         <v>131</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -7856,20 +8198,20 @@
       <c r="A3" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>360</v>
+      <c r="B3" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>126</v>
@@ -7881,7 +8223,7 @@
         <v>131</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -7896,20 +8238,20 @@
       <c r="A4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>354</v>
+      <c r="D4" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>126</v>
@@ -7926,20 +8268,20 @@
       <c r="A5" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>360</v>
+      <c r="B5" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>354</v>
+        <v>359</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>126</v>
@@ -7955,23 +8297,23 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="24"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="24"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="24"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="21"/>
+      <c r="D9" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8007,13 +8349,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>127</v>
@@ -8060,16 +8402,16 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="B2" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>361</v>
       </c>
       <c r="E2" s="2">
         <v>8520</v>
@@ -8119,16 +8461,16 @@
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="B3" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="E3" s="2">
         <v>8520</v>
@@ -8143,7 +8485,7 @@
         <v>299</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J3" s="11" t="s">
         <v>302</v>
@@ -8178,16 +8520,16 @@
     </row>
     <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="B4" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>359</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>361</v>
       </c>
       <c r="E4" s="2">
         <v>8520</v>
@@ -8202,7 +8544,7 @@
         <v>299</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>302</v>
@@ -8237,16 +8579,16 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="E5" s="2">
         <v>8520</v>
@@ -8261,7 +8603,7 @@
         <v>299</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>301</v>
@@ -8296,16 +8638,16 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="B6" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>361</v>
+        <v>358</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="E6" s="2">
         <v>8520</v>
@@ -8371,1109 +8713,1109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.77734375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="31" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="31"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="27" width="22.77734375" style="31" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="2" width="22.77734375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="29"/>
+    <col min="10" max="10" width="9.6640625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="29" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="27" width="22.77734375" style="29" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="R1" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="O1" s="30" t="s">
+      <c r="S1" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="P1" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="R1" s="30" t="s">
+      <c r="T1" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="U1" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="X1" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="Y1" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="U1" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="W1" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" s="30" t="s">
+      <c r="Z1" s="28" t="s">
         <v>386</v>
       </c>
-      <c r="Y1" s="30" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z1" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="28" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="31">
+        <v>1888887</v>
+      </c>
+      <c r="L2" s="30">
+        <v>55554</v>
+      </c>
+      <c r="M2" s="30" t="s">
         <v>389</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="K2" s="33">
-        <v>1888887</v>
-      </c>
-      <c r="L2" s="32">
-        <v>55554</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32" t="s">
-        <v>408</v>
-      </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>392</v>
       </c>
-      <c r="B3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="32" t="s">
+      <c r="H3" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>394</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>396</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="H5" s="30" t="s">
         <v>399</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>402</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="H6" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
+      <c r="B6" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>403</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>400</v>
-      </c>
-      <c r="H7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>401</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
+      <c r="B7" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>404</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
+      <c r="A8" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" s="30" t="s">
         <v>405</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32"/>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32"/>
-      <c r="AA9" s="32"/>
+      <c r="C9" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>393</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F10" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
-      <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="32"/>
-      <c r="W10" s="32"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="32"/>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
+      <c r="A10" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>409</v>
-      </c>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="30" t="s">
         <v>407</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="32">
+      <c r="B11" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="30">
         <v>4656</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32" t="s">
-        <v>410</v>
-      </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
+      <c r="E11" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D12" s="32">
+      <c r="A12" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="30">
         <v>4656</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
+      <c r="E12" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
-        <v>413</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D13" s="32">
+      <c r="A13" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" s="30">
         <v>4656</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F13" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32" t="s">
-        <v>414</v>
-      </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
+      <c r="E13" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="32">
+      <c r="A14" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" s="30">
         <v>4656</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
+      <c r="E14" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>417</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D15" s="32">
+      <c r="A15" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D15" s="30">
         <v>4656</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F15" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32" t="s">
-        <v>416</v>
-      </c>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
+      <c r="E15" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+      <c r="V15" s="30"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
-        <v>418</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D16" s="32">
+      <c r="A16" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="30">
         <v>4656</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32" t="s">
-        <v>419</v>
-      </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
+      <c r="E16" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30" t="s">
+        <v>417</v>
+      </c>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" s="30">
+        <v>4656</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="P17" s="30" t="s">
         <v>420</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D17" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32" t="s">
+      <c r="Q17" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="R17" s="30"/>
+      <c r="S17" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="T17" s="30" t="s">
         <v>423</v>
       </c>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32" t="s">
-        <v>424</v>
-      </c>
-      <c r="T17" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="U17" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="V17" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="W17" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="Z17" s="32" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA17" s="32"/>
+      <c r="U17" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="V17" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="W17" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z17" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="AA17" s="30"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" s="30">
+        <v>4656</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D18" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F18" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32" t="s">
+      <c r="V18" s="30" t="s">
         <v>427</v>
       </c>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="V18" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="W18" s="32" t="s">
+      <c r="W18" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="X18" s="32" t="s">
+      <c r="X18" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="Y18" s="32" t="s">
+      <c r="Y18" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Z18" s="32">
+      <c r="Z18" s="30">
         <v>411057</v>
       </c>
-      <c r="AA18" s="32"/>
+      <c r="AA18" s="30"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" s="30">
+        <v>4656</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="V19" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="W19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y19" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z19" s="30">
+        <v>411057</v>
+      </c>
+      <c r="AA19" s="30" t="s">
         <v>430</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D19" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F19" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="V19" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="W19" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="X19" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y19" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z19" s="32">
-        <v>411057</v>
-      </c>
-      <c r="AA19" s="32" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D20" s="32">
+      <c r="A20" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" s="30">
         <v>4656</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="V20" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="W20" s="32" t="s">
+      <c r="E20" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="V20" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="W20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="X20" s="32" t="s">
+      <c r="X20" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="Y20" s="32" t="s">
+      <c r="Y20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Z20" s="32">
+      <c r="Z20" s="30">
         <v>411057</v>
       </c>
-      <c r="AA20" s="32" t="s">
-        <v>432</v>
+      <c r="AA20" s="30" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D21" s="32">
+      <c r="A21" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="30">
         <v>4656</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F21" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="V21" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="W21" s="32" t="s">
+      <c r="E21" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="V21" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="W21" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="X21" s="32" t="s">
+      <c r="X21" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="Y21" s="32" t="s">
+      <c r="Y21" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Z21" s="32">
+      <c r="Z21" s="30">
         <v>411057</v>
       </c>
-      <c r="AA21" s="32" t="s">
-        <v>432</v>
+      <c r="AA21" s="30" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>407</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D22" s="32">
+      <c r="A22" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D22" s="30">
         <v>4656</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F22" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32" t="s">
-        <v>438</v>
-      </c>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32" t="s">
-        <v>428</v>
-      </c>
-      <c r="V22" s="32" t="s">
-        <v>429</v>
-      </c>
-      <c r="W22" s="32" t="s">
+      <c r="E22" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30" t="s">
+        <v>436</v>
+      </c>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30" t="s">
+        <v>426</v>
+      </c>
+      <c r="V22" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="W22" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="X22" s="32" t="s">
+      <c r="X22" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="Y22" s="32" t="s">
+      <c r="Y22" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="Z22" s="32">
+      <c r="Z22" s="30">
         <v>411057</v>
       </c>
-      <c r="AA22" s="32" t="s">
-        <v>432</v>
+      <c r="AA22" s="30" t="s">
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9491,126 +9833,126 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.77734375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="15" style="31" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="31"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="31" customWidth="1"/>
-    <col min="12" max="12" width="20.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="2" width="22.77734375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="15" style="29" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="29"/>
+    <col min="10" max="10" width="9.6640625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="29" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="29" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" style="29" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="C1" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="J1" s="28" t="s">
         <v>441</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="K1" s="28" t="s">
         <v>442</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="L1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="L1" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" s="30">
+        <v>4656</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>463</v>
-      </c>
-      <c r="H2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="K2" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30" t="s">
         <v>451</v>
       </c>
-      <c r="K2" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32" t="s">
-        <v>453</v>
-      </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9638,72 +9980,72 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>455</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>456</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="K1" s="34" t="s">
+      <c r="D2" s="30">
+        <v>4656</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="G2" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="32" t="s">
+      <c r="J2" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>449</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>462</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>462</v>
+      <c r="K2" s="30" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -9737,270 +10079,270 @@
     <col min="11" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="30" t="s">
+      <c r="D2" s="30">
+        <v>4656</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G2" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="L2" s="30">
+        <v>1888887</v>
+      </c>
+      <c r="M2" s="30">
+        <v>55554</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" s="30">
+        <v>4656</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="L3" s="30">
+        <v>99999988</v>
+      </c>
+      <c r="M3" s="30">
+        <v>88887</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="O3" s="30"/>
+    </row>
+    <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" s="30">
+        <v>4656</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>273</v>
-      </c>
+      <c r="H4" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="L4" s="30">
+        <v>99999987</v>
+      </c>
+      <c r="M4" s="30">
+        <v>88884</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="O4" s="30"/>
     </row>
-    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+    <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="30">
+        <v>4656</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="H5" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="L5" s="30">
+        <v>99999977</v>
+      </c>
+      <c r="M5" s="30">
+        <v>88884</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="30">
         <v>4656</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32" t="s">
+      <c r="E6" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="K2" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="L2" s="32">
-        <v>1888887</v>
-      </c>
-      <c r="M2" s="32">
-        <v>55554</v>
-      </c>
-      <c r="N2" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="O2" s="32"/>
-    </row>
-    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D3" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>469</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="L3" s="32">
-        <v>99999988</v>
-      </c>
-      <c r="M3" s="32">
-        <v>88887</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="O3" s="32"/>
-    </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D4" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>471</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K4" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="L4" s="32">
-        <v>99999987</v>
-      </c>
-      <c r="M4" s="32">
+      <c r="K6" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="L6" s="30">
+        <v>99999989</v>
+      </c>
+      <c r="M6" s="30">
         <v>88884</v>
       </c>
-      <c r="N4" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="O4" s="32"/>
-    </row>
-    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="N6" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="O6" s="30" t="s">
         <v>472</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D5" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F5" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="L5" s="32">
-        <v>99999977</v>
-      </c>
-      <c r="M5" s="32">
-        <v>88884</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="O5" s="32"/>
-    </row>
-    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>473</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="D6" s="32">
-        <v>4656</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="F6" s="32" t="s">
-        <v>466</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="L6" s="32">
-        <v>99999989</v>
-      </c>
-      <c r="M6" s="32">
-        <v>88884</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>391</v>
-      </c>
-      <c r="O6" s="32" t="s">
-        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -10030,334 +10372,334 @@
     <col min="11" max="15" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>474</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>476</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+    </row>
+    <row r="2" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="G1" s="30" t="s">
+      <c r="E2" s="30">
+        <v>4656</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="L1" s="30" t="s">
+      <c r="J2" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+    </row>
+    <row r="3" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
+      <c r="B3" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="30">
+        <v>4656</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
     </row>
-    <row r="2" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E2" s="32">
+    <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="30">
         <v>4656</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I2" s="32" t="s">
+      <c r="F4" s="30" t="s">
+        <v>481</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+    </row>
+    <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="30">
+        <v>4656</v>
+      </c>
+      <c r="F5" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="G5" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
     </row>
-    <row r="3" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E3" s="32">
+    <row r="6" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="30">
         <v>4656</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32" t="s">
+      <c r="F6" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="J6" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
     </row>
-    <row r="4" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>482</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E4" s="32">
+    <row r="7" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="30">
         <v>4656</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>483</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="J4" s="32" t="s">
+      <c r="F7" s="30" t="s">
+        <v>479</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30" t="s">
+        <v>487</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
     </row>
-    <row r="5" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>485</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" s="32">
+    <row r="8" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="30">
         <v>4656</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32" t="s">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>489</v>
+      </c>
+      <c r="J8" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
+      <c r="K8" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
     </row>
-    <row r="6" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
-        <v>486</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E6" s="32">
+    <row r="9" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>493</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="30">
         <v>4656</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>487</v>
-      </c>
-      <c r="J6" s="32" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="J9" s="30" t="s">
         <v>276</v>
       </c>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-    </row>
-    <row r="7" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E7" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>481</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32" t="s">
-        <v>489</v>
-      </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-    </row>
-    <row r="8" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>492</v>
-      </c>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-    </row>
-    <row r="9" spans="1:15" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>493</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="32">
-        <v>4656</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32" t="s">
-        <v>467</v>
-      </c>
-      <c r="H9" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>494</v>
-      </c>
-      <c r="J9" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="647">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -749,9 +749,6 @@
   </si>
   <si>
     <t>Asia/Calcutta</t>
-  </si>
-  <si>
-    <t>SDN Verification [SDN001]</t>
   </si>
   <si>
     <t>auto12@mail.com</t>
@@ -1803,9 +1800,6 @@
     <t>111</t>
   </si>
   <si>
-    <t>ISSUING</t>
-  </si>
-  <si>
     <t>TCInstituteCreationPR</t>
   </si>
   <si>
@@ -1860,9 +1854,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>NewUser</t>
-  </si>
-  <si>
     <t>Batch [ROLE000052]</t>
   </si>
   <si>
@@ -1885,6 +1876,102 @@
   </si>
   <si>
     <t>TCInstituteCreationDCPR</t>
+  </si>
+  <si>
+    <t>Reference Currency</t>
+  </si>
+  <si>
+    <t>Financial Start Month</t>
+  </si>
+  <si>
+    <t>AdaptiveEcomm</t>
+  </si>
+  <si>
+    <t>MPIN Enabled</t>
+  </si>
+  <si>
+    <t>SMS Service Provider</t>
+  </si>
+  <si>
+    <t>CollectPortalAdminName</t>
+  </si>
+  <si>
+    <t>AgentPortalAdminName</t>
+  </si>
+  <si>
+    <t>CreatedInstitution</t>
+  </si>
+  <si>
+    <t>CreatedUser</t>
+  </si>
+  <si>
+    <t>PREISS</t>
+  </si>
+  <si>
+    <t>SDN Name Address [SDN1]</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>CollectAdm</t>
+  </si>
+  <si>
+    <t>Agentadm</t>
+  </si>
+  <si>
+    <t>ISSUINGXH</t>
+  </si>
+  <si>
+    <t>DEBISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCR</t>
+  </si>
+  <si>
+    <t>CREISS</t>
+  </si>
+  <si>
+    <t>DEBPRE</t>
+  </si>
+  <si>
+    <t>DEBPREXF</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPRCR</t>
+  </si>
+  <si>
+    <t>PRECRE</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDTCR</t>
+  </si>
+  <si>
+    <t>DEBCRE</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAll</t>
+  </si>
+  <si>
+    <t>ALLISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCWithoutAgentPortal</t>
+  </si>
+  <si>
+    <t>PREWOAGNT</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCRWithoutCollectPortal</t>
+  </si>
+  <si>
+    <t>CREWOCOLL</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAllWithoutAgentCollect</t>
+  </si>
+  <si>
+    <t>ALLWOAGCO</t>
   </si>
 </sst>
 </file>
@@ -1894,7 +1981,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1918,8 +2005,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1930,6 +2037,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1996,7 +2109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2078,8 +2191,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2409,13 +2528,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2612,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F2" s="2">
         <v>50</v>
@@ -2660,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S2" s="3">
         <v>2</v>
@@ -2672,7 +2791,7 @@
         <v>79</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>29</v>
@@ -2714,10 +2833,10 @@
         <v>84</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AL2" s="3" t="s">
         <v>131</v>
@@ -2747,7 +2866,7 @@
         <v>40</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AV2" s="3">
         <v>10000</v>
@@ -2756,7 +2875,7 @@
         <v>42</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AY2" s="3" t="s">
         <v>45</v>
@@ -2803,7 +2922,7 @@
         <v>53</v>
       </c>
       <c r="BO2" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="BP2" s="26"/>
       <c r="BQ2" s="26"/>
@@ -2813,19 +2932,19 @@
         <v>85</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G3" s="2">
         <v>200</v>
@@ -2861,7 +2980,7 @@
         <v>12</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="S3" s="3">
         <v>2</v>
@@ -2915,10 +3034,10 @@
         <v>121</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AL3" s="3" t="s">
         <v>131</v>
@@ -2948,7 +3067,7 @@
         <v>40</v>
       </c>
       <c r="AU3" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AV3" s="3">
         <v>10000</v>
@@ -2957,7 +3076,7 @@
         <v>42</v>
       </c>
       <c r="AX3" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AY3" s="3" t="s">
         <v>45</v>
@@ -2994,7 +3113,7 @@
         <v>53</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.3">
@@ -3057,112 +3176,112 @@
         <v>2</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>348</v>
-      </c>
       <c r="F1" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>273</v>
       </c>
       <c r="J1" s="28"/>
       <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E2" s="30">
         <v>4656</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E3" s="30">
         <v>4656</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H3" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>276</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>277</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E4" s="30">
         <v>4656</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
@@ -3209,69 +3328,69 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>203</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E2" s="2">
         <v>8520</v>
@@ -3280,16 +3399,16 @@
         <v>50</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>204</v>
@@ -3304,10 +3423,10 @@
         <v>11111111111</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="11">
         <v>123460</v>
@@ -3316,7 +3435,7 @@
         <v>11111111111</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3357,41 +3476,41 @@
         <v>2</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>348</v>
-      </c>
       <c r="F1" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>270</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>273</v>
       </c>
       <c r="J1" s="28"/>
       <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E2" s="30">
         <v>4656</v>
@@ -3400,29 +3519,29 @@
         <v>0</v>
       </c>
       <c r="G2" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="30" t="s">
         <v>276</v>
-      </c>
-      <c r="I2" s="30" t="s">
-        <v>277</v>
       </c>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E3" s="30">
         <v>4656</v>
@@ -3431,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H3" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>276</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>277</v>
       </c>
       <c r="J3" s="30"/>
       <c r="K3" s="30"/>
@@ -3449,10 +3568,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:BC11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:CCZ1048576"/>
+      <selection activeCell="AY15" sqref="AY15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3485,559 +3604,1800 @@
     <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:55" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="D1" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="41" t="s">
         <v>307</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>615</v>
+      </c>
+      <c r="K1" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>616</v>
+      </c>
+      <c r="N1" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="O1" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q1" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="R1" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="T1" s="41" t="s">
+        <v>617</v>
+      </c>
+      <c r="U1" s="41" t="s">
+        <v>618</v>
+      </c>
+      <c r="V1" s="41" t="s">
+        <v>619</v>
+      </c>
+      <c r="W1" s="41" t="s">
+        <v>226</v>
+      </c>
+      <c r="X1" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y1" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z1" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA1" s="41" t="s">
+        <v>230</v>
+      </c>
+      <c r="AB1" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC1" s="41" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD1" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE1" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF1" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="AG1" s="41" t="s">
+        <v>591</v>
+      </c>
+      <c r="AH1" s="41" t="s">
+        <v>592</v>
+      </c>
+      <c r="AI1" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ1" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="AK1" s="41" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL1" s="41" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM1" s="41" t="s">
+        <v>594</v>
+      </c>
+      <c r="AN1" s="41" t="s">
+        <v>595</v>
+      </c>
+      <c r="AO1" s="41" t="s">
+        <v>596</v>
+      </c>
+      <c r="AP1" s="41" t="s">
+        <v>597</v>
+      </c>
+      <c r="AQ1" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="AR1" s="41" t="s">
+        <v>599</v>
+      </c>
+      <c r="AS1" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="AT1" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="AU1" s="41" t="s">
+        <v>602</v>
+      </c>
+      <c r="AV1" s="41" t="s">
+        <v>603</v>
+      </c>
+      <c r="AW1" s="41" t="s">
+        <v>604</v>
+      </c>
+      <c r="AX1" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="AY1" s="41" t="s">
+        <v>606</v>
+      </c>
+      <c r="AZ1" s="41" t="s">
+        <v>620</v>
+      </c>
+      <c r="BA1" s="41" t="s">
+        <v>621</v>
+      </c>
+      <c r="BB1" s="41" t="s">
+        <v>622</v>
+      </c>
+      <c r="BC1" s="41" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>624</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>309</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="W1" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="AS1" s="1" t="s">
+      <c r="D2" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="M2" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q2" s="43">
+        <v>16</v>
+      </c>
+      <c r="R2" s="43">
+        <v>16</v>
+      </c>
+      <c r="S2" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="T2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="U2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="V2" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W2" s="43">
+        <v>1100440052</v>
+      </c>
+      <c r="X2" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y2" s="43">
+        <v>45665456</v>
+      </c>
+      <c r="Z2" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="43">
+        <v>1113332</v>
+      </c>
+      <c r="AC2" s="43">
+        <v>23564589</v>
+      </c>
+      <c r="AD2" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE2" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF2" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG2" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH2" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI2" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK2" s="43">
+        <v>411006</v>
+      </c>
+      <c r="AL2" s="43">
+        <v>124421</v>
+      </c>
+      <c r="AM2" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN2" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AO2" s="43" t="s">
         <v>608</v>
       </c>
+      <c r="AP2" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ2" s="43"/>
+      <c r="AR2" s="43"/>
+      <c r="AS2" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="AT2" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="43">
+        <v>5431267812</v>
+      </c>
+      <c r="AV2" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW2" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="AX2" s="43">
+        <v>999</v>
+      </c>
+      <c r="AY2" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="AZ2" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA2" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="BB2" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="BC2" s="43"/>
     </row>
-    <row r="2" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="3" spans="1:55" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>590</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B3" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="D3" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I3" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="J3" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="K3" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="L3" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="M3" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="P3" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="Q3" s="43">
+        <v>16</v>
+      </c>
+      <c r="R3" s="43">
+        <v>16</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="T3" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="U3" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="V3" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W3" s="43">
+        <v>1100440052</v>
+      </c>
+      <c r="X3" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y3" s="43">
+        <v>45665456</v>
+      </c>
+      <c r="Z3" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA3" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="43">
+        <v>1113332</v>
+      </c>
+      <c r="AC3" s="43">
+        <v>23564589</v>
+      </c>
+      <c r="AD3" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE3" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF3" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG3" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH3" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI3" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK3" s="43">
+        <v>411006</v>
+      </c>
+      <c r="AL3" s="43">
+        <v>124421</v>
+      </c>
+      <c r="AM3" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN3" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="AO3" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="AP3" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="AT3" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="43">
+        <v>5431267812</v>
+      </c>
+      <c r="AV3" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW3" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="AX3" s="43">
+        <v>999</v>
+      </c>
+      <c r="AY3" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="AZ3" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA3" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+    </row>
+    <row r="4" spans="1:55" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>632</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="M4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="34" t="s">
+      <c r="O4" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="P4" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="O2" s="9">
+      <c r="Q4" s="43">
         <v>16</v>
       </c>
-      <c r="P2" s="9">
+      <c r="R4" s="43">
         <v>16</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S4" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="T4" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="U4" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="V4" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" s="43">
+        <v>1100440052</v>
+      </c>
+      <c r="X4" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="R2" s="9">
+      <c r="Y4" s="43">
+        <v>45665456</v>
+      </c>
+      <c r="Z4" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="43">
+        <v>1113332</v>
+      </c>
+      <c r="AC4" s="43">
+        <v>23564589</v>
+      </c>
+      <c r="AD4" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE4" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF4" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG4" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH4" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI4" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK4" s="43">
+        <v>411006</v>
+      </c>
+      <c r="AL4" s="43">
+        <v>124421</v>
+      </c>
+      <c r="AM4" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN4" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="AO4" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="AP4" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="AT4" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU4" s="43">
+        <v>5431267812</v>
+      </c>
+      <c r="AV4" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW4" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="AX4" s="43">
+        <v>999</v>
+      </c>
+      <c r="AY4" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="AZ4" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA4" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="BB4" s="43"/>
+      <c r="BC4" s="43"/>
+    </row>
+    <row r="5" spans="1:55" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>633</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O5" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q5" s="43">
+        <v>16</v>
+      </c>
+      <c r="R5" s="43">
+        <v>16</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="T5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="U5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="V5" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W5" s="43">
         <v>1100440052</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="X5" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y5" s="43">
+        <v>45665456</v>
+      </c>
+      <c r="Z5" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="T2" s="9">
+      <c r="AA5" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="43">
+        <v>1113332</v>
+      </c>
+      <c r="AC5" s="43">
+        <v>23564589</v>
+      </c>
+      <c r="AD5" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE5" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF5" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG5" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH5" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI5" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK5" s="43">
+        <v>411006</v>
+      </c>
+      <c r="AL5" s="43">
+        <v>124421</v>
+      </c>
+      <c r="AM5" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN5" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="AO5" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="AP5" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="AT5" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU5" s="43">
+        <v>5431267812</v>
+      </c>
+      <c r="AV5" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW5" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="AX5" s="43">
+        <v>999</v>
+      </c>
+      <c r="AY5" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="AZ5" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA5" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="BB5" s="43" t="s">
+        <v>634</v>
+      </c>
+      <c r="BC5" s="43"/>
+    </row>
+    <row r="6" spans="1:55" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>635</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>636</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>16</v>
+      </c>
+      <c r="R6" s="43">
+        <v>16</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="T6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="U6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="V6" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W6" s="43">
+        <v>1100440052</v>
+      </c>
+      <c r="X6" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y6" s="43">
         <v>45665456</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="Z6" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA6" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="43">
+        <v>1113332</v>
+      </c>
+      <c r="AC6" s="43">
+        <v>23564589</v>
+      </c>
+      <c r="AD6" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="AE6" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF6" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG6" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH6" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI6" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK6" s="43">
+        <v>411006</v>
+      </c>
+      <c r="AL6" s="43">
+        <v>124421</v>
+      </c>
+      <c r="AM6" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN6" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="AO6" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="AP6" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="43"/>
+      <c r="AS6" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="AT6" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="W2" s="9">
+      <c r="AU6" s="43">
+        <v>5431267812</v>
+      </c>
+      <c r="AV6" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW6" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="AX6" s="43">
+        <v>999</v>
+      </c>
+      <c r="AY6" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="AZ6" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA6" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="BB6" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="BC6" s="43"/>
+    </row>
+    <row r="7" spans="1:55" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>638</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>309</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>16</v>
+      </c>
+      <c r="R7" s="43">
+        <v>16</v>
+      </c>
+      <c r="S7" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="V7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W7" s="43">
+        <v>1100440052</v>
+      </c>
+      <c r="X7" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y7" s="43">
+        <v>45665456</v>
+      </c>
+      <c r="Z7" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA7" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="43">
         <v>1113332</v>
       </c>
-      <c r="X2" s="9">
+      <c r="AC7" s="43">
         <v>23564589</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="AD7" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE7" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AF7" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AG7" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH7" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI7" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AK7" s="43">
+        <v>411006</v>
+      </c>
+      <c r="AL7" s="43">
+        <v>124421</v>
+      </c>
+      <c r="AM7" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN7" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="AO7" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="AP7" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="AT7" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="43">
+        <v>5431267812</v>
+      </c>
+      <c r="AV7" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW7" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="AX7" s="43">
+        <v>999</v>
+      </c>
+      <c r="AY7" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="AZ7" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA7" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="BB7" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="BC7" s="43"/>
+    </row>
+    <row r="8" spans="1:55" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>639</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>640</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="M8" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="P8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>16</v>
+      </c>
+      <c r="R8" s="43">
+        <v>16</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="T8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="U8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="V8" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W8" s="43">
+        <v>1100440052</v>
+      </c>
+      <c r="X8" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y8" s="43">
+        <v>45665456</v>
+      </c>
+      <c r="Z8" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA8" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="43">
+        <v>1113332</v>
+      </c>
+      <c r="AC8" s="43">
+        <v>23564589</v>
+      </c>
+      <c r="AD8" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE8" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF8" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AG8" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH8" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI8" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AK8" s="43">
+        <v>411006</v>
+      </c>
+      <c r="AL8" s="43">
+        <v>124421</v>
+      </c>
+      <c r="AM8" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN8" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="AO8" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="AP8" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="AT8" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU8" s="43">
+        <v>5431267812</v>
+      </c>
+      <c r="AV8" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW8" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="AX8" s="43">
+        <v>999</v>
+      </c>
+      <c r="AY8" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="AZ8" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA8" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="BB8" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="BC8" s="43"/>
+    </row>
+    <row r="9" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>641</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>642</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="P9" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q9" s="43">
+        <v>16</v>
+      </c>
+      <c r="R9" s="43">
+        <v>16</v>
+      </c>
+      <c r="S9" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="T9" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="U9" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="V9" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W9" s="43">
+        <v>1100440052</v>
+      </c>
+      <c r="X9" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y9" s="43">
+        <v>45665456</v>
+      </c>
+      <c r="Z9" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="43">
+        <v>1113332</v>
+      </c>
+      <c r="AC9" s="43">
+        <v>23564589</v>
+      </c>
+      <c r="AD9" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE9" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF9" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG9" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH9" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI9" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF2" s="9">
+      <c r="AJ9" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK9" s="43">
         <v>411006</v>
       </c>
-      <c r="AG2" s="9">
+      <c r="AL9" s="43">
         <v>124421</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AM9" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN9" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="AO9" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="AP9" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43" t="s">
         <v>610</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AT9" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="43">
+        <v>5431267812</v>
+      </c>
+      <c r="AV9" s="43" t="s">
         <v>611</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AW9" s="43" t="s">
         <v>612</v>
       </c>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9" t="s">
+      <c r="AX9" s="43">
+        <v>999</v>
+      </c>
+      <c r="AY9" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AZ9" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA9" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="43"/>
+    </row>
+    <row r="10" spans="1:55" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
+        <v>643</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>644</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="P10" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q10" s="43">
+        <v>16</v>
+      </c>
+      <c r="R10" s="43">
+        <v>16</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="T10" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="U10" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="V10" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W10" s="43">
+        <v>1100440052</v>
+      </c>
+      <c r="X10" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y10" s="43">
+        <v>45665456</v>
+      </c>
+      <c r="Z10" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA10" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="AP2" s="9">
+      <c r="AB10" s="43">
+        <v>1113332</v>
+      </c>
+      <c r="AC10" s="43">
+        <v>23564589</v>
+      </c>
+      <c r="AD10" s="45" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE10" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF10" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG10" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH10" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI10" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ10" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK10" s="43">
+        <v>411006</v>
+      </c>
+      <c r="AL10" s="43">
+        <v>124421</v>
+      </c>
+      <c r="AM10" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN10" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="AO10" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="AP10" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="AT10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="43">
         <v>5431267812</v>
       </c>
-      <c r="AQ2" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="AS2" s="9">
+      <c r="AV10" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="AW10" s="43" t="s">
+        <v>612</v>
+      </c>
+      <c r="AX10" s="43">
         <v>999</v>
       </c>
-      <c r="AT2" s="9" t="s">
-        <v>616</v>
-      </c>
+      <c r="AY10" s="43" t="s">
+        <v>613</v>
+      </c>
+      <c r="AZ10" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA10" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="BB10" s="43"/>
+      <c r="BC10" s="43"/>
     </row>
-    <row r="3" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    <row r="11" spans="1:55" s="46" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>645</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>646</v>
+      </c>
+      <c r="C11" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="F3" s="34" t="s">
+      <c r="D11" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9" t="s">
+      <c r="G11" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J11" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L11" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="M11" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="O11" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="P11" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="O3" s="9">
+      <c r="Q11" s="43">
         <v>16</v>
       </c>
-      <c r="P3" s="9">
+      <c r="R11" s="43">
         <v>16</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="S11" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="T11" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="U11" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="V11" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="W11" s="43">
+        <v>1100440052</v>
+      </c>
+      <c r="X11" s="43" t="s">
         <v>240</v>
       </c>
-      <c r="R3" s="9">
-        <v>1100440052</v>
-      </c>
-      <c r="S3" s="9" t="s">
+      <c r="Y11" s="43">
+        <v>45665456</v>
+      </c>
+      <c r="Z11" s="43" t="s">
         <v>241</v>
       </c>
-      <c r="T3" s="9">
-        <v>45665456</v>
-      </c>
-      <c r="U3" s="9" t="s">
+      <c r="AA11" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="43">
+        <v>1113332</v>
+      </c>
+      <c r="AC11" s="43">
+        <v>23564589</v>
+      </c>
+      <c r="AD11" s="45" t="s">
         <v>242</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="AE11" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF11" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG11" s="43" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH11" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI11" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" s="43" t="s">
+        <v>245</v>
+      </c>
+      <c r="AK11" s="43">
+        <v>411006</v>
+      </c>
+      <c r="AL11" s="43">
+        <v>124421</v>
+      </c>
+      <c r="AM11" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="AN11" s="43" t="s">
+        <v>607</v>
+      </c>
+      <c r="AO11" s="43" t="s">
+        <v>608</v>
+      </c>
+      <c r="AP11" s="43" t="s">
+        <v>609</v>
+      </c>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43" t="s">
+        <v>610</v>
+      </c>
+      <c r="AT11" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="W3" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="X3" s="9">
-        <v>23564589</v>
-      </c>
-      <c r="Y3" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF3" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AG3" s="9">
-        <v>124421</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AU11" s="43">
+        <v>5431267812</v>
+      </c>
+      <c r="AV11" s="43" t="s">
         <v>611</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AW11" s="43" t="s">
         <v>612</v>
       </c>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9" t="s">
+      <c r="AX11" s="43">
+        <v>999</v>
+      </c>
+      <c r="AY11" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="AO3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP3" s="9">
-        <v>5431267812</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="AR3" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="AS3" s="9">
-        <v>999</v>
-      </c>
-      <c r="AT3" s="9" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" s="42" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="O4" s="9">
-        <v>16</v>
-      </c>
-      <c r="P4" s="9">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="R4" s="9">
-        <v>1100440052</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="T4" s="9">
-        <v>45665456</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="9">
-        <v>1113332</v>
-      </c>
-      <c r="X4" s="9">
-        <v>23564589</v>
-      </c>
-      <c r="Y4" s="41" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="AC4" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF4" s="9">
-        <v>411006</v>
-      </c>
-      <c r="AG4" s="9">
-        <v>124421</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>611</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="9">
-        <v>5431267812</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="AR4" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="AS4" s="9">
-        <v>999</v>
-      </c>
-      <c r="AT4" s="9" t="s">
-        <v>616</v>
-      </c>
+      <c r="AZ11" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="BA11" s="43" t="s">
+        <v>628</v>
+      </c>
+      <c r="BB11" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="BC11" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="Y2" r:id="rId2"/>
-    <hyperlink ref="S3" r:id="rId3"/>
-    <hyperlink ref="Y3" r:id="rId4"/>
-    <hyperlink ref="S4" r:id="rId5"/>
-    <hyperlink ref="Y4" r:id="rId6"/>
+    <hyperlink ref="X2" r:id="rId1"/>
+    <hyperlink ref="AD2" r:id="rId2"/>
+    <hyperlink ref="X3" r:id="rId3"/>
+    <hyperlink ref="AD3" r:id="rId4"/>
+    <hyperlink ref="X5" r:id="rId5"/>
+    <hyperlink ref="AD5" r:id="rId6"/>
+    <hyperlink ref="X6" r:id="rId7"/>
+    <hyperlink ref="AD6" r:id="rId8"/>
+    <hyperlink ref="X4" r:id="rId9"/>
+    <hyperlink ref="AD4" r:id="rId10"/>
+    <hyperlink ref="X7" r:id="rId11"/>
+    <hyperlink ref="AD7" r:id="rId12"/>
+    <hyperlink ref="X8" r:id="rId13"/>
+    <hyperlink ref="AD8" r:id="rId14"/>
+    <hyperlink ref="X9" r:id="rId15"/>
+    <hyperlink ref="AD9" r:id="rId16"/>
+    <hyperlink ref="X10" r:id="rId17"/>
+    <hyperlink ref="AD10" r:id="rId18"/>
+    <hyperlink ref="X11" r:id="rId19"/>
+    <hyperlink ref="AD11" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -4059,13 +5419,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -4074,489 +5434,489 @@
         <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="C2" t="s">
-        <v>351</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" t="s">
         <v>324</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>325</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" t="s">
         <v>327</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>328</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>329</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>330</v>
-      </c>
-      <c r="L2" t="s">
-        <v>331</v>
       </c>
       <c r="M2">
         <v>2017</v>
       </c>
       <c r="N2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O2" t="s">
         <v>332</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>333</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>334</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>335</v>
-      </c>
-      <c r="R2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G3" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>350</v>
-      </c>
-      <c r="C3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>352</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" t="s">
         <v>339</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>340</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>341</v>
       </c>
-      <c r="K3" t="s">
-        <v>342</v>
-      </c>
       <c r="L3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M3">
         <v>2016</v>
       </c>
       <c r="N3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O3" t="s">
+        <v>332</v>
+      </c>
+      <c r="P3" t="s">
         <v>333</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>334</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>335</v>
-      </c>
-      <c r="R3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" t="s">
         <v>350</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>352</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" t="s">
         <v>324</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>325</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" t="s">
         <v>327</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>328</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>329</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>330</v>
-      </c>
-      <c r="L4" t="s">
-        <v>331</v>
       </c>
       <c r="M4">
         <v>2017</v>
       </c>
       <c r="N4" t="s">
+        <v>331</v>
+      </c>
+      <c r="O4" t="s">
         <v>332</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>333</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>334</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>335</v>
-      </c>
-      <c r="R4" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" t="s">
         <v>350</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>352</v>
-      </c>
       <c r="E5" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" t="s">
         <v>324</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>325</v>
       </c>
-      <c r="G5" t="s">
-        <v>326</v>
-      </c>
       <c r="H5" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5" t="s">
         <v>339</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>340</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>341</v>
       </c>
-      <c r="K5" t="s">
-        <v>342</v>
-      </c>
       <c r="L5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M5">
         <v>2016</v>
       </c>
       <c r="N5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O5" t="s">
+        <v>332</v>
+      </c>
+      <c r="P5" t="s">
         <v>333</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>334</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>335</v>
-      </c>
-      <c r="R5" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" t="s">
         <v>350</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>352</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" t="s">
         <v>324</v>
       </c>
-      <c r="F6" t="s">
-        <v>325</v>
-      </c>
       <c r="G6" t="s">
+        <v>337</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="I6" t="s">
         <v>339</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>340</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>341</v>
       </c>
-      <c r="K6" t="s">
-        <v>342</v>
-      </c>
       <c r="L6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M6">
         <v>2016</v>
       </c>
       <c r="N6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O6" t="s">
+        <v>332</v>
+      </c>
+      <c r="P6" t="s">
         <v>333</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>334</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>335</v>
-      </c>
-      <c r="R6" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B7" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" t="s">
         <v>350</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>352</v>
-      </c>
       <c r="E7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" t="s">
         <v>324</v>
       </c>
-      <c r="F7" t="s">
-        <v>325</v>
-      </c>
       <c r="G7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" t="s">
         <v>339</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>340</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>341</v>
       </c>
-      <c r="K7" t="s">
-        <v>342</v>
-      </c>
       <c r="L7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M7">
         <v>2016</v>
       </c>
       <c r="N7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P7" t="s">
         <v>333</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>334</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>335</v>
-      </c>
-      <c r="R7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" t="s">
         <v>350</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>352</v>
-      </c>
       <c r="E8" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F8" t="s">
         <v>324</v>
       </c>
-      <c r="F8" t="s">
-        <v>325</v>
-      </c>
       <c r="G8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="I8" t="s">
         <v>339</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>340</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>341</v>
       </c>
-      <c r="K8" t="s">
-        <v>342</v>
-      </c>
       <c r="L8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M8">
         <v>2016</v>
       </c>
       <c r="N8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O8" t="s">
+        <v>332</v>
+      </c>
+      <c r="P8" t="s">
         <v>333</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>334</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>335</v>
-      </c>
-      <c r="R8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" t="s">
         <v>350</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>352</v>
-      </c>
       <c r="E9" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" t="s">
         <v>324</v>
       </c>
-      <c r="F9" t="s">
-        <v>325</v>
-      </c>
       <c r="G9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" t="s">
         <v>339</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>340</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>341</v>
       </c>
-      <c r="K9" t="s">
-        <v>342</v>
-      </c>
       <c r="L9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M9">
         <v>2016</v>
       </c>
       <c r="N9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P9" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q9" t="s">
         <v>334</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>335</v>
-      </c>
-      <c r="R9" t="s">
-        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4591,81 +5951,81 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>499</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="H2" s="21" t="s">
+        <v>509</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>504</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>505</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>510</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>506</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>512</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" t="s">
         <v>501</v>
-      </c>
-      <c r="M2" t="s">
-        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -4691,58 +6051,58 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>127</v>
@@ -4763,10 +6123,10 @@
         <v>100</v>
       </c>
       <c r="Z1" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA1" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>75</v>
@@ -4847,7 +6207,7 @@
         <v>12</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="BC1" s="1" t="s">
         <v>13</v>
@@ -4886,7 +6246,7 @@
         <v>22</v>
       </c>
       <c r="BO1" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BP1" s="4" t="s">
         <v>24</v>
@@ -4922,7 +6282,7 @@
         <v>132</v>
       </c>
       <c r="CA1" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="CB1" s="4" t="s">
         <v>66</v>
@@ -5039,114 +6399,114 @@
         <v>203</v>
       </c>
       <c r="DN1" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DO1" s="33" t="s">
+        <v>529</v>
+      </c>
+      <c r="DP1" s="33" t="s">
         <v>530</v>
       </c>
-      <c r="DP1" s="33" t="s">
+      <c r="DQ1" s="33" t="s">
         <v>531</v>
       </c>
-      <c r="DQ1" s="33" t="s">
+      <c r="DR1" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="DR1" s="33" t="s">
+      <c r="DS1" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="DS1" s="33" t="s">
+      <c r="DT1" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="DT1" s="33" t="s">
+      <c r="DU1" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="DU1" s="33" t="s">
+      <c r="DV1" s="33" t="s">
         <v>536</v>
       </c>
-      <c r="DV1" s="33" t="s">
+      <c r="DW1" s="33" t="s">
         <v>537</v>
       </c>
-      <c r="DW1" s="33" t="s">
+      <c r="DX1" s="33" t="s">
         <v>538</v>
       </c>
-      <c r="DX1" s="33" t="s">
+      <c r="DY1" s="33" t="s">
         <v>539</v>
       </c>
-      <c r="DY1" s="33" t="s">
+      <c r="DZ1" s="33" t="s">
         <v>540</v>
       </c>
-      <c r="DZ1" s="33" t="s">
+      <c r="EA1" s="33" t="s">
         <v>541</v>
       </c>
-      <c r="EA1" s="33" t="s">
+      <c r="EB1" s="33" t="s">
         <v>542</v>
       </c>
-      <c r="EB1" s="33" t="s">
+      <c r="EC1" s="33" t="s">
         <v>543</v>
       </c>
-      <c r="EC1" s="33" t="s">
+      <c r="ED1" s="33" t="s">
         <v>544</v>
-      </c>
-      <c r="ED1" s="33" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:134" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>452</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>131</v>
       </c>
       <c r="H2" s="34" t="s">
+        <v>549</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="35" t="s">
         <v>551</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="K2" s="35" t="s">
         <v>552</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="L2" s="35" t="s">
         <v>553</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="M2" s="25" t="s">
         <v>554</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="N2" s="25" t="s">
         <v>555</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="O2" s="25" t="s">
+        <v>555</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="O2" s="25" t="s">
-        <v>556</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="Q2" s="25" t="s">
-        <v>558</v>
-      </c>
       <c r="R2" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="T2" s="11">
         <v>50</v>
@@ -5174,16 +6534,16 @@
       </c>
       <c r="AD2" s="13"/>
       <c r="AE2" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="AF2" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AG2" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AH2" s="13" t="s">
         <v>561</v>
-      </c>
-      <c r="AH2" s="13" t="s">
-        <v>562</v>
       </c>
       <c r="AI2" s="13" t="s">
         <v>36</v>
@@ -5204,13 +6564,13 @@
         <v>119</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AP2" s="13" t="s">
         <v>118</v>
       </c>
       <c r="AQ2" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AR2" s="13" t="s">
         <v>117</v>
@@ -5241,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="BB2" s="13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BC2" s="13" t="s">
         <v>16</v>
@@ -5253,7 +6613,7 @@
         <v>12</v>
       </c>
       <c r="BF2" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BG2" s="13">
         <v>2</v>
@@ -5286,7 +6646,7 @@
         <v>36</v>
       </c>
       <c r="BQ2" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BR2" s="13" t="s">
         <v>31</v>
@@ -5301,20 +6661,20 @@
         <v>12345678</v>
       </c>
       <c r="BV2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BW2" s="37"/>
       <c r="BX2" s="13" t="s">
         <v>140</v>
       </c>
       <c r="BY2" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BZ2" s="13" t="s">
         <v>133</v>
       </c>
       <c r="CA2" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="CB2" s="13" t="s">
         <v>67</v>
@@ -5323,16 +6683,16 @@
         <v>131</v>
       </c>
       <c r="CD2" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="CE2" s="13" t="s">
         <v>71</v>
       </c>
       <c r="CF2" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="CG2" s="37" t="s">
         <v>566</v>
-      </c>
-      <c r="CG2" s="37" t="s">
-        <v>567</v>
       </c>
       <c r="CH2" s="13"/>
       <c r="CI2" s="36"/>
@@ -5341,16 +6701,16 @@
         <v>40</v>
       </c>
       <c r="CL2" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="CM2" s="13" t="s">
         <v>142</v>
       </c>
       <c r="CN2" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="CO2" s="36" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="CP2" s="11" t="s">
         <v>48</v>
@@ -5364,22 +6724,22 @@
       <c r="CS2" s="11"/>
       <c r="CT2" s="11"/>
       <c r="CU2" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="CV2" s="13" t="s">
         <v>130</v>
       </c>
       <c r="CW2" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="CX2" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="CY2" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="CX2" s="36" t="s">
-        <v>566</v>
-      </c>
-      <c r="CY2" s="36" t="s">
+      <c r="CZ2" s="36" t="s">
         <v>571</v>
-      </c>
-      <c r="CZ2" s="36" t="s">
-        <v>572</v>
       </c>
       <c r="DA2" s="13" t="s">
         <v>89</v>
@@ -5413,55 +6773,55 @@
         <v>204</v>
       </c>
       <c r="DN2" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="DO2" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="DP2" s="38" t="s">
         <v>573</v>
       </c>
-      <c r="DP2" s="38" t="s">
+      <c r="DQ2" s="38" t="s">
         <v>574</v>
       </c>
-      <c r="DQ2" s="38" t="s">
+      <c r="DR2" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="DR2" s="39" t="s">
+      <c r="DS2" s="39" t="s">
+        <v>565</v>
+      </c>
+      <c r="DT2" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="DS2" s="39" t="s">
-        <v>566</v>
-      </c>
-      <c r="DT2" s="39" t="s">
+      <c r="DU2" s="38" t="s">
         <v>577</v>
-      </c>
-      <c r="DU2" s="38" t="s">
-        <v>578</v>
       </c>
       <c r="DV2" s="38" t="s">
         <v>131</v>
       </c>
       <c r="DW2" s="39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="DX2" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="DY2" s="39" t="s">
         <v>579</v>
       </c>
-      <c r="DY2" s="39" t="s">
+      <c r="DZ2" s="39" t="s">
+        <v>553</v>
+      </c>
+      <c r="EA2" s="39" t="s">
         <v>580</v>
       </c>
-      <c r="DZ2" s="39" t="s">
-        <v>554</v>
-      </c>
-      <c r="EA2" s="39" t="s">
+      <c r="EB2" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="EB2" s="39" t="s">
+      <c r="EC2" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="EC2" s="39" t="s">
+      <c r="ED2" s="38" t="s">
         <v>583</v>
-      </c>
-      <c r="ED2" s="38" t="s">
-        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -5502,13 +6862,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -5796,7 +7156,7 @@
         <v>203</v>
       </c>
       <c r="CV1" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
@@ -5804,16 +7164,16 @@
         <v>129</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="F2" s="11">
         <v>50</v>
@@ -5843,16 +7203,16 @@
         <v>207</v>
       </c>
       <c r="O2" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="Q2" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="S2" s="13" t="s">
         <v>36</v>
@@ -5879,7 +7239,7 @@
         <v>118</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB2" s="13" t="s">
         <v>117</v>
@@ -5921,7 +7281,7 @@
         <v>12</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AP2" s="13">
         <v>2</v>
@@ -5954,7 +7314,7 @@
         <v>36</v>
       </c>
       <c r="AZ2" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BA2" s="13" t="s">
         <v>31</v>
@@ -5978,7 +7338,7 @@
         <v>140</v>
       </c>
       <c r="BH2" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BI2" s="13" t="s">
         <v>133</v>
@@ -6020,7 +7380,7 @@
         <v>142</v>
       </c>
       <c r="BV2" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BW2" s="11">
         <v>2</v>
@@ -6084,7 +7444,7 @@
         <v>204</v>
       </c>
       <c r="CV2" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
@@ -6092,16 +7452,16 @@
         <v>137</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="F3" s="2">
         <v>50</v>
@@ -6131,16 +7491,16 @@
         <v>208</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="S3" s="3" t="s">
         <v>36</v>
@@ -6167,7 +7527,7 @@
         <v>118</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB3" s="3" t="s">
         <v>117</v>
@@ -6209,7 +7569,7 @@
         <v>12</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AP3" s="3">
         <v>2</v>
@@ -6221,7 +7581,7 @@
         <v>139</v>
       </c>
       <c r="AS3" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AT3" s="3" t="s">
         <v>29</v>
@@ -6266,7 +7626,7 @@
         <v>141</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BI3" s="3" t="s">
         <v>133</v>
@@ -6308,7 +7668,7 @@
         <v>143</v>
       </c>
       <c r="BV3" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BW3" s="2">
         <v>2</v>
@@ -6368,7 +7728,7 @@
       </c>
       <c r="CU3" s="15"/>
       <c r="CV3" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
@@ -6376,16 +7736,16 @@
         <v>148</v>
       </c>
       <c r="B4" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="F4" s="2">
         <v>50</v>
@@ -6406,7 +7766,7 @@
         <v>122</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>149</v>
@@ -6415,16 +7775,16 @@
         <v>209</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>36</v>
@@ -6451,7 +7811,7 @@
         <v>118</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>117</v>
@@ -6493,7 +7853,7 @@
         <v>12</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AP4" s="3">
         <v>2</v>
@@ -6505,7 +7865,7 @@
         <v>151</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AT4" s="3" t="s">
         <v>29</v>
@@ -6550,7 +7910,7 @@
         <v>152</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BI4" s="3" t="s">
         <v>133</v>
@@ -6592,7 +7952,7 @@
         <v>153</v>
       </c>
       <c r="BV4" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BW4" s="2">
         <v>2</v>
@@ -6654,7 +8014,7 @@
       </c>
       <c r="CU4" s="15"/>
       <c r="CV4" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
@@ -6662,16 +8022,16 @@
         <v>154</v>
       </c>
       <c r="B5" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="F5" s="2">
         <v>50</v>
@@ -6692,25 +8052,25 @@
         <v>122</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M5" s="3" t="s">
         <v>155</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P5" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>36</v>
@@ -6737,7 +8097,7 @@
         <v>118</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>117</v>
@@ -6779,7 +8139,7 @@
         <v>12</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AP5" s="3">
         <v>2</v>
@@ -6791,7 +8151,7 @@
         <v>157</v>
       </c>
       <c r="AS5" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AT5" s="3" t="s">
         <v>29</v>
@@ -6836,7 +8196,7 @@
         <v>158</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BI5" s="3" t="s">
         <v>133</v>
@@ -6860,7 +8220,7 @@
         <v>26</v>
       </c>
       <c r="BP5" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="BQ5" s="12">
         <v>1000000400000</v>
@@ -6878,7 +8238,7 @@
         <v>159</v>
       </c>
       <c r="BV5" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BW5" s="2">
         <v>2</v>
@@ -6938,7 +8298,7 @@
       </c>
       <c r="CU5" s="15"/>
       <c r="CV5" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
@@ -6946,16 +8306,16 @@
         <v>161</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="F6" s="2">
         <v>50</v>
@@ -6976,25 +8336,25 @@
         <v>122</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>162</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="S6" s="3" t="s">
         <v>36</v>
@@ -7021,7 +8381,7 @@
         <v>118</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB6" s="3" t="s">
         <v>117</v>
@@ -7063,7 +8423,7 @@
         <v>12</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AP6" s="3">
         <v>2</v>
@@ -7075,7 +8435,7 @@
         <v>164</v>
       </c>
       <c r="AS6" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AT6" s="3" t="s">
         <v>29</v>
@@ -7120,7 +8480,7 @@
         <v>165</v>
       </c>
       <c r="BH6" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BI6" s="3" t="s">
         <v>133</v>
@@ -7144,7 +8504,7 @@
         <v>26</v>
       </c>
       <c r="BP6" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BQ6" s="12">
         <v>1000000500000</v>
@@ -7162,7 +8522,7 @@
         <v>166</v>
       </c>
       <c r="BV6" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BW6" s="2">
         <v>2</v>
@@ -7222,7 +8582,7 @@
       </c>
       <c r="CU6" s="15"/>
       <c r="CV6" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
@@ -7230,16 +8590,16 @@
         <v>167</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="F7" s="2">
         <v>50</v>
@@ -7269,16 +8629,16 @@
         <v>210</v>
       </c>
       <c r="O7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P7" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>36</v>
@@ -7305,7 +8665,7 @@
         <v>118</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB7" s="3" t="s">
         <v>117</v>
@@ -7347,7 +8707,7 @@
         <v>12</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AP7" s="3">
         <v>2</v>
@@ -7359,7 +8719,7 @@
         <v>170</v>
       </c>
       <c r="AS7" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AT7" s="3" t="s">
         <v>29</v>
@@ -7404,7 +8764,7 @@
         <v>171</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BI7" s="3" t="s">
         <v>133</v>
@@ -7446,7 +8806,7 @@
         <v>172</v>
       </c>
       <c r="BV7" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BW7" s="2">
         <v>2</v>
@@ -7506,24 +8866,24 @@
       </c>
       <c r="CU7" s="15"/>
       <c r="CV7" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:100" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="B8" s="40" t="s">
         <v>585</v>
       </c>
-      <c r="B8" s="40" t="s">
-        <v>586</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F8" s="11">
         <v>50</v>
@@ -7553,16 +8913,16 @@
         <v>207</v>
       </c>
       <c r="O8" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="P8" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="Q8" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="R8" s="13" t="s">
         <v>261</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>262</v>
       </c>
       <c r="S8" s="13" t="s">
         <v>36</v>
@@ -7589,7 +8949,7 @@
         <v>118</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB8" s="13" t="s">
         <v>117</v>
@@ -7598,7 +8958,7 @@
         <v>36</v>
       </c>
       <c r="AD8" s="24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AE8" s="11" t="s">
         <v>9</v>
@@ -7631,7 +8991,7 @@
         <v>12</v>
       </c>
       <c r="AO8" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AP8" s="13">
         <v>2</v>
@@ -7664,7 +9024,7 @@
         <v>36</v>
       </c>
       <c r="AZ8" s="23" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BA8" s="13" t="s">
         <v>31</v>
@@ -7688,7 +9048,7 @@
         <v>140</v>
       </c>
       <c r="BH8" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BI8" s="13" t="s">
         <v>133</v>
@@ -7715,22 +9075,22 @@
         <v>207</v>
       </c>
       <c r="BQ8" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="BR8" s="36" t="s">
         <v>587</v>
-      </c>
-      <c r="BR8" s="36" t="s">
-        <v>588</v>
       </c>
       <c r="BS8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="BT8" s="37" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="BU8" s="13" t="s">
         <v>142</v>
       </c>
       <c r="BV8" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BW8" s="11">
         <v>2</v>
@@ -7747,7 +9107,7 @@
       <c r="CA8" s="11"/>
       <c r="CB8" s="11"/>
       <c r="CC8" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="CD8" s="13" t="s">
         <v>130</v>
@@ -7756,13 +9116,13 @@
         <v>10000</v>
       </c>
       <c r="CF8" s="36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="CG8" s="36" t="s">
+        <v>570</v>
+      </c>
+      <c r="CH8" s="36" t="s">
         <v>571</v>
-      </c>
-      <c r="CH8" s="36" t="s">
-        <v>572</v>
       </c>
       <c r="CI8" s="13" t="s">
         <v>89</v>
@@ -7794,7 +9154,7 @@
         <v>204</v>
       </c>
       <c r="CV8" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:100" ht="100.8" x14ac:dyDescent="0.3">
@@ -7802,16 +9162,16 @@
         <v>173</v>
       </c>
       <c r="B9" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>369</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>370</v>
       </c>
       <c r="F9" s="2">
         <v>50</v>
@@ -7841,16 +9201,16 @@
         <v>175</v>
       </c>
       <c r="O9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>36</v>
@@ -7877,7 +9237,7 @@
         <v>118</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AB9" s="3" t="s">
         <v>117</v>
@@ -7919,7 +9279,7 @@
         <v>12</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AP9" s="3">
         <v>2</v>
@@ -7931,7 +9291,7 @@
         <v>177</v>
       </c>
       <c r="AS9" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT9" s="3" t="s">
         <v>29</v>
@@ -7976,7 +9336,7 @@
         <v>178</v>
       </c>
       <c r="BH9" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BI9" s="3" t="s">
         <v>133</v>
@@ -8018,7 +9378,7 @@
         <v>179</v>
       </c>
       <c r="BV9" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BW9" s="2">
         <v>2</v>
@@ -8086,7 +9446,7 @@
       </c>
       <c r="CU9" s="15"/>
       <c r="CV9" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8119,13 +9479,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -8149,13 +9509,13 @@
         <v>195</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -8163,19 +9523,19 @@
         <v>189</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>126</v>
@@ -8187,7 +9547,7 @@
         <v>131</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -8199,19 +9559,19 @@
         <v>192</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="D3" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>126</v>
@@ -8223,15 +9583,15 @@
         <v>131</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -8239,19 +9599,19 @@
         <v>193</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>126</v>
@@ -8269,19 +9629,19 @@
         <v>194</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="D5" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>212</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>126</v>
@@ -8349,69 +9709,69 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="G1" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>288</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>289</v>
       </c>
       <c r="K1" s="17" t="s">
         <v>203</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>296</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E2" s="2">
         <v>8520</v>
@@ -8420,16 +9780,16 @@
         <v>50</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>204</v>
@@ -8444,10 +9804,10 @@
         <v>11111111111</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q2" s="11">
         <v>123460</v>
@@ -8456,21 +9816,21 @@
         <v>11111111111</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>358</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>359</v>
       </c>
       <c r="E3" s="2">
         <v>8520</v>
@@ -8479,16 +9839,16 @@
         <v>50</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>299</v>
-      </c>
       <c r="I3" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>204</v>
@@ -8503,10 +9863,10 @@
         <v>11111111111</v>
       </c>
       <c r="O3" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="Q3" s="11">
         <v>123461</v>
@@ -8515,21 +9875,21 @@
         <v>11111111111</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E4" s="2">
         <v>8520</v>
@@ -8538,16 +9898,16 @@
         <v>50</v>
       </c>
       <c r="G4" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>299</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>204</v>
@@ -8562,10 +9922,10 @@
         <v>11111111111</v>
       </c>
       <c r="O4" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="Q4" s="11">
         <v>123461</v>
@@ -8574,21 +9934,21 @@
         <v>11111111111</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>358</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>359</v>
       </c>
       <c r="E5" s="2">
         <v>8520</v>
@@ -8597,16 +9957,16 @@
         <v>50</v>
       </c>
       <c r="G5" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>299</v>
-      </c>
       <c r="I5" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>204</v>
@@ -8621,10 +9981,10 @@
         <v>11111111111</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="11">
         <v>123460</v>
@@ -8633,21 +9993,21 @@
         <v>11111111111</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D6" s="22" t="s">
         <v>358</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>359</v>
       </c>
       <c r="E6" s="2">
         <v>8520</v>
@@ -8656,16 +10016,16 @@
         <v>50</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="H6" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>204</v>
@@ -8680,10 +10040,10 @@
         <v>11111111111</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="11">
         <v>123460</v>
@@ -8692,7 +10052,7 @@
         <v>11111111111</v>
       </c>
       <c r="S6" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -8735,28 +10095,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>348</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G1" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>271</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>272</v>
       </c>
       <c r="J1" s="28" t="s">
         <v>213</v>
@@ -8771,10 +10131,10 @@
         <v>215</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P1" s="28" t="s">
         <v>102</v>
@@ -8783,13 +10143,13 @@
         <v>103</v>
       </c>
       <c r="R1" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="S1" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>382</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>383</v>
       </c>
       <c r="U1" s="28" t="s">
         <v>113</v>
@@ -8801,43 +10161,43 @@
         <v>112</v>
       </c>
       <c r="X1" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="Y1" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="Z1" s="28" t="s">
-        <v>386</v>
-      </c>
       <c r="AA1" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>387</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>388</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>216</v>
@@ -8849,11 +10209,11 @@
         <v>55554</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N2" s="30"/>
       <c r="O2" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
@@ -8870,28 +10230,28 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="B3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D3" s="30" t="s">
+      <c r="E3" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>391</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="H3" s="30" t="s">
         <v>392</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>393</v>
       </c>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
@@ -8915,28 +10275,28 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>394</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="H4" s="30" t="s">
         <v>395</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>396</v>
       </c>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
@@ -8960,28 +10320,28 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>493</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>397</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>494</v>
-      </c>
-      <c r="G5" s="30" t="s">
+      <c r="H5" s="30" t="s">
         <v>398</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>399</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -9005,28 +10365,28 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G6" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="H6" s="30" t="s">
         <v>398</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>399</v>
       </c>
       <c r="I6" s="31"/>
       <c r="J6" s="31"/>
@@ -9050,28 +10410,28 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G7" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>398</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>399</v>
       </c>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
@@ -9095,22 +10455,22 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
@@ -9136,22 +10496,22 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
@@ -9177,22 +10537,22 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>404</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>405</v>
-      </c>
       <c r="C10" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F10" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
@@ -9218,22 +10578,22 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D11" s="30">
         <v>4656</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
@@ -9244,7 +10604,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
       <c r="O11" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P11" s="30"/>
       <c r="Q11" s="30"/>
@@ -9261,22 +10621,22 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D12" s="30">
         <v>4656</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
@@ -9287,7 +10647,7 @@
       <c r="M12" s="30"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P12" s="30"/>
       <c r="Q12" s="30"/>
@@ -9304,22 +10664,22 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D13" s="30">
         <v>4656</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
@@ -9330,7 +10690,7 @@
       <c r="M13" s="30"/>
       <c r="N13" s="30"/>
       <c r="O13" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P13" s="30"/>
       <c r="Q13" s="30"/>
@@ -9347,22 +10707,22 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D14" s="30">
         <v>4656</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
@@ -9373,7 +10733,7 @@
       <c r="M14" s="30"/>
       <c r="N14" s="30"/>
       <c r="O14" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P14" s="30"/>
       <c r="Q14" s="30"/>
@@ -9390,22 +10750,22 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D15" s="30">
         <v>4656</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
@@ -9416,7 +10776,7 @@
       <c r="M15" s="30"/>
       <c r="N15" s="30"/>
       <c r="O15" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
@@ -9433,22 +10793,22 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D16" s="30">
         <v>4656</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F16" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
@@ -9459,7 +10819,7 @@
       <c r="M16" s="30"/>
       <c r="N16" s="30"/>
       <c r="O16" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
@@ -9476,22 +10836,22 @@
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D17" s="30">
         <v>4656</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
@@ -9502,57 +10862,57 @@
       <c r="M17" s="30"/>
       <c r="N17" s="30"/>
       <c r="O17" s="30" t="s">
+        <v>418</v>
+      </c>
+      <c r="P17" s="30" t="s">
         <v>419</v>
       </c>
-      <c r="P17" s="30" t="s">
+      <c r="Q17" s="30" t="s">
         <v>420</v>
-      </c>
-      <c r="Q17" s="30" t="s">
-        <v>421</v>
       </c>
       <c r="R17" s="30"/>
       <c r="S17" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="T17" s="30" t="s">
         <v>422</v>
       </c>
-      <c r="T17" s="30" t="s">
-        <v>423</v>
-      </c>
       <c r="U17" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="V17" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="W17" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="X17" s="30"/>
       <c r="Y17" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Z17" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA17" s="30"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D18" s="30">
         <v>4656</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F18" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -9563,7 +10923,7 @@
       <c r="M18" s="30"/>
       <c r="N18" s="30"/>
       <c r="O18" s="30" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
@@ -9571,10 +10931,10 @@
       <c r="S18" s="30"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="V18" s="30" t="s">
         <v>426</v>
-      </c>
-      <c r="V18" s="30" t="s">
-        <v>427</v>
       </c>
       <c r="W18" s="30" t="s">
         <v>36</v>
@@ -9592,22 +10952,22 @@
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D19" s="30">
         <v>4656</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
@@ -9618,7 +10978,7 @@
       <c r="M19" s="30"/>
       <c r="N19" s="30"/>
       <c r="O19" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
@@ -9626,10 +10986,10 @@
       <c r="S19" s="30"/>
       <c r="T19" s="30"/>
       <c r="U19" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="V19" s="30" t="s">
         <v>426</v>
-      </c>
-      <c r="V19" s="30" t="s">
-        <v>427</v>
       </c>
       <c r="W19" s="30" t="s">
         <v>36</v>
@@ -9644,27 +11004,27 @@
         <v>411057</v>
       </c>
       <c r="AA19" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D20" s="30">
         <v>4656</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
@@ -9675,7 +11035,7 @@
       <c r="M20" s="30"/>
       <c r="N20" s="30"/>
       <c r="O20" s="30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
@@ -9683,10 +11043,10 @@
       <c r="S20" s="30"/>
       <c r="T20" s="30"/>
       <c r="U20" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="V20" s="30" t="s">
         <v>426</v>
-      </c>
-      <c r="V20" s="30" t="s">
-        <v>427</v>
       </c>
       <c r="W20" s="30" t="s">
         <v>36</v>
@@ -9701,27 +11061,27 @@
         <v>411057</v>
       </c>
       <c r="AA20" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D21" s="30">
         <v>4656</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F21" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
@@ -9732,7 +11092,7 @@
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="30" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P21" s="30"/>
       <c r="Q21" s="30"/>
@@ -9740,10 +11100,10 @@
       <c r="S21" s="30"/>
       <c r="T21" s="30"/>
       <c r="U21" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="V21" s="30" t="s">
         <v>426</v>
-      </c>
-      <c r="V21" s="30" t="s">
-        <v>427</v>
       </c>
       <c r="W21" s="30" t="s">
         <v>36</v>
@@ -9758,27 +11118,27 @@
         <v>411057</v>
       </c>
       <c r="AA21" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D22" s="30">
         <v>4656</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
@@ -9789,7 +11149,7 @@
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
       <c r="O22" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P22" s="30"/>
       <c r="Q22" s="30"/>
@@ -9797,10 +11157,10 @@
       <c r="S22" s="30"/>
       <c r="T22" s="30"/>
       <c r="U22" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="V22" s="30" t="s">
         <v>426</v>
-      </c>
-      <c r="V22" s="30" t="s">
-        <v>427</v>
       </c>
       <c r="W22" s="30" t="s">
         <v>36</v>
@@ -9815,7 +11175,7 @@
         <v>411057</v>
       </c>
       <c r="AA22" s="30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -9854,43 +11214,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>348</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>438</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>439</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>441</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>442</v>
       </c>
       <c r="L1" s="28" t="s">
         <v>75</v>
       </c>
       <c r="M1" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="N1" s="28" t="s">
         <v>443</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>444</v>
       </c>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
@@ -9898,42 +11258,42 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" s="30">
         <v>4656</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F2" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>446</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>461</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="K2" s="31" t="s">
         <v>449</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>450</v>
       </c>
       <c r="L2" s="30"/>
       <c r="M2" s="30"/>
       <c r="N2" s="30" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O2" s="29"/>
       <c r="P2" s="29"/>
@@ -9985,67 +11345,67 @@
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>348</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H1" s="28" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>454</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="32" t="s">
         <v>455</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" s="30">
         <v>4656</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H2" s="30"/>
       <c r="I2" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>459</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>460</v>
-      </c>
       <c r="K2" s="30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -10084,31 +11444,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>347</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>348</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G1" s="28" t="s">
         <v>75</v>
       </c>
       <c r="H1" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="28" t="s">
         <v>271</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>272</v>
       </c>
       <c r="K1" s="28" t="s">
         <v>213</v>
@@ -10123,40 +11483,40 @@
         <v>215</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D2" s="30">
         <v>4656</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F2" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>465</v>
-      </c>
       <c r="H2" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I2" s="30"/>
       <c r="J2" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K2" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L2" s="30">
         <v>1888887</v>
@@ -10165,41 +11525,41 @@
         <v>55554</v>
       </c>
       <c r="N2" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O2" s="30"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D3" s="30">
         <v>4656</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F3" s="30" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K3" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L3" s="30">
         <v>99999988</v>
@@ -10208,43 +11568,43 @@
         <v>88887</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O3" s="30"/>
     </row>
     <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D4" s="30">
         <v>4656</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G4" s="30" t="s">
         <v>75</v>
       </c>
       <c r="H4" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I4" s="30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J4" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K4" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L4" s="30">
         <v>99999987</v>
@@ -10253,41 +11613,41 @@
         <v>88884</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O4" s="30"/>
     </row>
     <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D5" s="30">
         <v>4656</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F5" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>465</v>
-      </c>
       <c r="H5" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K5" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L5" s="30">
         <v>99999977</v>
@@ -10296,41 +11656,41 @@
         <v>88884</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O5" s="30"/>
     </row>
     <row r="6" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D6" s="30">
         <v>4656</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F6" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="G6" s="30" t="s">
         <v>464</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>465</v>
-      </c>
       <c r="H6" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I6" s="30"/>
       <c r="J6" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L6" s="30">
         <v>99999989</v>
@@ -10339,10 +11699,10 @@
         <v>88884</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="O6" s="30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -10380,34 +11740,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D1" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>348</v>
-      </c>
       <c r="F1" s="28" t="s">
+        <v>473</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>474</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L1" s="28" t="s">
         <v>475</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>270</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>476</v>
       </c>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
@@ -10415,32 +11775,32 @@
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E2" s="30">
         <v>4656</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H2" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
@@ -10450,32 +11810,32 @@
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E3" s="30">
         <v>4656</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I3" s="30"/>
       <c r="J3" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
@@ -10485,34 +11845,34 @@
     </row>
     <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E4" s="30">
         <v>4656</v>
       </c>
       <c r="F4" s="30" t="s">
+        <v>480</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>387</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>481</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>388</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>482</v>
-      </c>
       <c r="J4" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K4" s="30"/>
       <c r="L4" s="30"/>
@@ -10522,32 +11882,32 @@
     </row>
     <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E5" s="30">
         <v>4656</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I5" s="30"/>
       <c r="J5" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
@@ -10557,34 +11917,34 @@
     </row>
     <row r="6" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E6" s="30">
         <v>4656</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G6" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H6" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I6" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J6" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="30"/>
@@ -10594,36 +11954,36 @@
     </row>
     <row r="7" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E7" s="30">
         <v>4656</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I7" s="30"/>
       <c r="J7" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
@@ -10631,35 +11991,35 @@
     </row>
     <row r="8" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" s="30">
         <v>4656</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H8" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I8" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="K8" s="30" t="s">
         <v>489</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>490</v>
       </c>
       <c r="L8" s="30"/>
       <c r="M8" s="30"/>
@@ -10668,32 +12028,32 @@
     </row>
     <row r="9" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D9" s="30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E9" s="30">
         <v>4656</v>
       </c>
       <c r="F9" s="30"/>
       <c r="G9" s="30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H9" s="30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J9" s="30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="484">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -890,9 +890,6 @@
     <t>Collect Portal Support</t>
   </si>
   <si>
-    <t>TC1InstituteCreation</t>
-  </si>
-  <si>
     <t>TC264384_Privilege validation for RuPay Settlement Bin Configurations</t>
   </si>
   <si>
@@ -1061,9 +1058,6 @@
     <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
   <si>
-    <t>AdminBankName</t>
-  </si>
-  <si>
     <t>Reference Currency</t>
   </si>
   <si>
@@ -1118,15 +1112,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>FEMA</t>
-  </si>
-  <si>
-    <t>1100440052</t>
-  </si>
-  <si>
     <t>English [EN]</t>
   </si>
   <si>
@@ -1148,15 +1133,9 @@
     <t>Record Added Successfully.</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
     <t>Batch [ROLE000052]</t>
   </si>
   <si>
-    <t>NewUser</t>
-  </si>
-  <si>
     <t>TC417600_Additional field for Customer Master Download file</t>
   </si>
   <si>
@@ -1368,6 +1347,138 @@
   </si>
   <si>
     <t>TC264321_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>AdaptiveEcomm</t>
+  </si>
+  <si>
+    <t>MPIN Enabled</t>
+  </si>
+  <si>
+    <t>SMS Service Provider</t>
+  </si>
+  <si>
+    <t>CollectPortalAdminName</t>
+  </si>
+  <si>
+    <t>AgentPortalAdminName</t>
+  </si>
+  <si>
+    <t>CreatedInstitution</t>
+  </si>
+  <si>
+    <t>CreatedUser</t>
+  </si>
+  <si>
+    <t>ASC_Vendor</t>
+  </si>
+  <si>
+    <t>MPIN</t>
+  </si>
+  <si>
+    <t>SmsProvider</t>
+  </si>
+  <si>
+    <t>ExistingInstitutionCode</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPR</t>
+  </si>
+  <si>
+    <t>PREISS</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SDN Name Address [SDN1]</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>CollectAdm</t>
+  </si>
+  <si>
+    <t>Agentadm</t>
+  </si>
+  <si>
+    <t>ISSUINGXH</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDC</t>
+  </si>
+  <si>
+    <t>DEBISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCR</t>
+  </si>
+  <si>
+    <t>CREISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCPR</t>
+  </si>
+  <si>
+    <t>DEBPRE</t>
+  </si>
+  <si>
+    <t>DEBPREXF</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPRCR</t>
+  </si>
+  <si>
+    <t>PRECRE</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDTCR</t>
+  </si>
+  <si>
+    <t>AMEXCREDIT</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAll</t>
+  </si>
+  <si>
+    <t>AMEXBLACKE</t>
+  </si>
+  <si>
+    <t>OMR [512]</t>
+  </si>
+  <si>
+    <t>91111111111</t>
+  </si>
+  <si>
+    <t>July/2/2020</t>
+  </si>
+  <si>
+    <t>BLACKEYE</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCWithoutAgentPortal</t>
+  </si>
+  <si>
+    <t>PREWOAGNT</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCRWithoutCollectPortal</t>
+  </si>
+  <si>
+    <t>CREWOCOLL</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAllWithoutAgentCollect</t>
+  </si>
+  <si>
+    <t>ALLWOAGCO</t>
+  </si>
+  <si>
+    <t>TCEditInstitute</t>
+  </si>
+  <si>
+    <t>WIBMO [002]</t>
   </si>
 </sst>
 </file>
@@ -1888,20 +1999,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2092,7 +2203,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2468,12 +2579,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2527,9 +2638,9 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>189</v>
@@ -2580,9 +2691,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>189</v>
@@ -2633,9 +2744,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>189</v>
@@ -2686,9 +2797,9 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>189</v>
@@ -2739,9 +2850,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>189</v>
@@ -2805,29 +2916,29 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="35" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2836,144 +2947,144 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" s="9" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="C8" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>385</v>
-      </c>
       <c r="D8" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -2989,127 +3100,127 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.109375" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>300</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>301</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>302</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>303</v>
       </c>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>313</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>314</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3127,147 +3238,147 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>319</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>320</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>308</v>
       </c>
       <c r="E2" s="25">
         <v>123456</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>325</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>326</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>308</v>
       </c>
       <c r="E3" s="25">
         <v>123456</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="K3" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="L3" s="26" t="s">
         <v>325</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>326</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
@@ -3286,87 +3397,87 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="27" t="s">
+    </row>
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="B2" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>336</v>
-      </c>
       <c r="K2" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3386,37 +3497,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN7" workbookViewId="0">
+    <sheetView topLeftCell="BN7" workbookViewId="0">
       <selection activeCell="CH2" sqref="CH2:CH11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3455,10 +3566,10 @@
         <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>106</v>
@@ -3608,7 +3719,7 @@
         <v>70</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>73</v>
@@ -3617,10 +3728,10 @@
         <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="BT1" s="4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="BU1" s="4" t="s">
         <v>83</v>
@@ -3656,16 +3767,16 @@
         <v>50</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="CG1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="CH1" s="4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="CI1" s="4" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="CJ1" s="4" t="s">
         <v>94</v>
@@ -3686,10 +3797,10 @@
         <v>89</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="CQ1" s="4" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>137</v>
@@ -3719,64 +3830,64 @@
         <v>60</v>
       </c>
       <c r="DA1" s="4" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="DB1" s="4" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="DC1" s="4" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="DD1" s="4" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="DE1" s="4" t="s">
         <v>181</v>
       </c>
       <c r="DF1" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="DG1" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="DH1" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="DI1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="DJ1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="DK1" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="DL1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="DM1" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="DG1" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="DH1" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="DI1" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="DJ1" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="DK1" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="DL1" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>422</v>
-      </c>
       <c r="DN1" s="4"/>
     </row>
-    <row r="2" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -3799,16 +3910,16 @@
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P2" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q2" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R2" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S2" s="29" t="s">
         <v>232</v>
@@ -3820,13 +3931,13 @@
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -3850,7 +3961,7 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>9</v>
@@ -3859,7 +3970,7 @@
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -3871,7 +3982,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -3880,13 +3991,13 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AQ2" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR2" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS2" s="28" t="s">
         <v>147</v>
@@ -3914,19 +4025,19 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
@@ -3954,19 +4065,19 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="BQ2" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="BR2" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS2" s="9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="BT2" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU2" s="9"/>
       <c r="BV2" s="9"/>
@@ -3982,7 +4093,7 @@
         <v>183</v>
       </c>
       <c r="CB2" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC2" s="9" t="s">
         <v>48</v>
@@ -3994,27 +4105,27 @@
         <v>61</v>
       </c>
       <c r="CF2" s="28" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="CG2" s="36"/>
       <c r="CH2" s="28" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="CI2" s="38"/>
       <c r="CJ2" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK2" s="28" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CL2" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="CM2" s="9" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="CN2" s="28" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="CO2" s="9" t="s">
         <v>91</v>
@@ -4025,16 +4136,16 @@
         <v>138</v>
       </c>
       <c r="CS2" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CT2" s="36" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="CU2" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="CV2" s="37" t="s">
         <v>400</v>
-      </c>
-      <c r="CV2" s="37" t="s">
-        <v>407</v>
       </c>
       <c r="CW2" s="9" t="s">
         <v>188</v>
@@ -4046,66 +4157,66 @@
         <v>53</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="DA2" s="9" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="DB2" s="9" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="DC2" s="9" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="DD2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="DE2" s="9" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="DF2" s="9" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="DG2" s="9" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="DH2" s="9" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="DI2" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="DJ2" s="9" t="s">
         <v>192</v>
       </c>
       <c r="DK2" s="9" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="DL2" s="9" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="DM2" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -4128,16 +4239,16 @@
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q3" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R3" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S3" s="29" t="s">
         <v>232</v>
@@ -4149,13 +4260,13 @@
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -4179,7 +4290,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -4188,7 +4299,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -4200,7 +4311,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -4209,13 +4320,13 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR3" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS3" s="28" t="s">
         <v>147</v>
@@ -4243,19 +4354,19 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
@@ -4283,19 +4394,19 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="BR3" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS3" s="9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="BT3" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU3" s="9"/>
       <c r="BV3" s="9"/>
@@ -4311,7 +4422,7 @@
         <v>183</v>
       </c>
       <c r="CB3" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC3" s="9" t="s">
         <v>48</v>
@@ -4323,27 +4434,27 @@
         <v>61</v>
       </c>
       <c r="CF3" s="28" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="CG3" s="36"/>
       <c r="CH3" s="28" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="CI3" s="38"/>
       <c r="CJ3" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK3" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CL3" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="CM3" s="28" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="CN3" s="28" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="CO3" s="28" t="s">
         <v>91</v>
@@ -4354,7 +4465,7 @@
         <v>138</v>
       </c>
       <c r="CS3" s="28" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CT3" s="31">
         <v>50000</v>
@@ -4378,7 +4489,7 @@
         <v>100</v>
       </c>
       <c r="DA3" s="31" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="DB3" s="31">
         <v>5</v>
@@ -4390,16 +4501,16 @@
         <v>71</v>
       </c>
       <c r="DE3" s="31" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="DF3" s="31" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="DG3" s="31">
         <v>6</v>
       </c>
       <c r="DH3" s="31" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="DI3" s="31">
         <v>2</v>
@@ -4411,30 +4522,30 @@
         <v>1</v>
       </c>
       <c r="DL3" s="31" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="DM3" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -4457,16 +4568,16 @@
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q4" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S4" s="29" t="s">
         <v>232</v>
@@ -4478,13 +4589,13 @@
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -4508,7 +4619,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -4517,7 +4628,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -4529,7 +4640,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -4538,13 +4649,13 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AQ4" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR4" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS4" s="28" t="s">
         <v>148</v>
@@ -4572,19 +4683,19 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
@@ -4612,19 +4723,19 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="BR4" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS4" s="9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="BT4" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU4" s="9"/>
       <c r="BV4" s="9"/>
@@ -4640,7 +4751,7 @@
         <v>183</v>
       </c>
       <c r="CB4" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC4" s="9" t="s">
         <v>48</v>
@@ -4654,23 +4765,23 @@
       <c r="CF4" s="28"/>
       <c r="CG4" s="36"/>
       <c r="CH4" s="28" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="CI4" s="38"/>
       <c r="CJ4" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK4" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CL4" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="CM4" s="28" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="CN4" s="28" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="CO4" s="28" t="s">
         <v>91</v>
@@ -4681,7 +4792,7 @@
         <v>138</v>
       </c>
       <c r="CS4" s="28" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CT4" s="31">
         <v>50000</v>
@@ -4718,24 +4829,24 @@
       <c r="DL4" s="31"/>
       <c r="DM4" s="31"/>
     </row>
-    <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -4758,16 +4869,16 @@
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q5" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R5" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S5" s="29" t="s">
         <v>232</v>
@@ -4779,13 +4890,13 @@
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -4809,7 +4920,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -4818,7 +4929,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -4830,7 +4941,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -4839,13 +4950,13 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR5" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS5" s="28" t="s">
         <v>148</v>
@@ -4873,19 +4984,19 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
@@ -4913,19 +5024,19 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="BR5" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS5" s="9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU5" s="9"/>
       <c r="BV5" s="9"/>
@@ -4941,7 +5052,7 @@
         <v>183</v>
       </c>
       <c r="CB5" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC5" s="9" t="s">
         <v>48</v>
@@ -4955,23 +5066,23 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="36"/>
       <c r="CH5" s="28" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="CI5" s="38"/>
       <c r="CJ5" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK5" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CL5" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="CM5" s="28" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="CN5" s="28" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="CO5" s="28" t="s">
         <v>91</v>
@@ -4982,7 +5093,7 @@
         <v>138</v>
       </c>
       <c r="CS5" s="28" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CT5" s="31">
         <v>50000</v>
@@ -5019,24 +5130,24 @@
       <c r="DL5" s="31"/>
       <c r="DM5" s="31"/>
     </row>
-    <row r="6" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:118" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -5059,16 +5170,16 @@
       </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q6" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R6" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S6" s="29" t="s">
         <v>232</v>
@@ -5080,13 +5191,13 @@
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -5110,7 +5221,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -5119,7 +5230,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -5131,7 +5242,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -5140,13 +5251,13 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AQ6" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR6" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS6" s="28" t="s">
         <v>152</v>
@@ -5174,19 +5285,19 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
@@ -5214,19 +5325,19 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="BR6" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS6" s="9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="BT6" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU6" s="9"/>
       <c r="BV6" s="9"/>
@@ -5242,7 +5353,7 @@
         <v>183</v>
       </c>
       <c r="CB6" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC6" s="9" t="s">
         <v>48</v>
@@ -5256,23 +5367,23 @@
       <c r="CF6" s="28"/>
       <c r="CG6" s="36"/>
       <c r="CH6" s="28" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="CI6" s="38"/>
       <c r="CJ6" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK6" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CL6" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="CM6" s="28" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="CN6" s="28" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="CO6" s="28" t="s">
         <v>91</v>
@@ -5283,7 +5394,7 @@
         <v>138</v>
       </c>
       <c r="CS6" s="28" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CT6" s="31">
         <v>50000</v>
@@ -5320,24 +5431,24 @@
       <c r="DL6" s="31"/>
       <c r="DM6" s="31"/>
     </row>
-    <row r="7" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:118" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -5360,16 +5471,16 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q7" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R7" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S7" s="29" t="s">
         <v>232</v>
@@ -5381,13 +5492,13 @@
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -5411,7 +5522,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -5420,7 +5531,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -5432,7 +5543,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -5441,13 +5552,13 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR7" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS7" s="28" t="s">
         <v>152</v>
@@ -5475,19 +5586,19 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
@@ -5515,19 +5626,19 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="BR7" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS7" s="9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="BT7" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
@@ -5543,7 +5654,7 @@
         <v>183</v>
       </c>
       <c r="CB7" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC7" s="9" t="s">
         <v>48</v>
@@ -5557,23 +5668,23 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="36"/>
       <c r="CH7" s="28" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="CI7" s="38"/>
       <c r="CJ7" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK7" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CL7" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="CM7" s="28" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="CN7" s="28" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="CO7" s="28" t="s">
         <v>91</v>
@@ -5584,7 +5695,7 @@
         <v>138</v>
       </c>
       <c r="CS7" s="28" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CT7" s="31">
         <v>50000</v>
@@ -5621,24 +5732,24 @@
       <c r="DL7" s="31"/>
       <c r="DM7" s="31"/>
     </row>
-    <row r="8" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -5661,16 +5772,16 @@
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q8" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R8" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S8" s="29" t="s">
         <v>232</v>
@@ -5682,13 +5793,13 @@
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -5712,7 +5823,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -5721,7 +5832,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -5733,7 +5844,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -5742,13 +5853,13 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AQ8" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR8" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS8" s="28" t="s">
         <v>158</v>
@@ -5776,19 +5887,19 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
@@ -5816,19 +5927,19 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="BR8" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS8" s="9" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="BT8" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU8" s="9"/>
       <c r="BV8" s="9"/>
@@ -5844,7 +5955,7 @@
         <v>183</v>
       </c>
       <c r="CB8" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC8" s="9" t="s">
         <v>48</v>
@@ -5858,23 +5969,23 @@
       <c r="CF8" s="28"/>
       <c r="CG8" s="36"/>
       <c r="CH8" s="28" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="CI8" s="38"/>
       <c r="CJ8" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK8" s="9" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CL8" s="28" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="CM8" s="28" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="CN8" s="28" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="CO8" s="28" t="s">
         <v>91</v>
@@ -5885,7 +5996,7 @@
         <v>138</v>
       </c>
       <c r="CS8" s="28" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="CT8" s="31">
         <v>50000</v>
@@ -5922,12 +6033,12 @@
       <c r="DL8" s="31"/>
       <c r="DM8" s="31"/>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C9" s="31">
         <v>455854</v>
@@ -5936,7 +6047,7 @@
         <v>8520</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F9" s="31">
         <v>50</v>
@@ -5962,16 +6073,16 @@
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>231</v>
       </c>
       <c r="Q9" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="R9" s="31" t="s">
         <v>340</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>341</v>
       </c>
       <c r="S9" s="31" t="s">
         <v>232</v>
@@ -6223,12 +6334,12 @@
       <c r="DL9" s="31"/>
       <c r="DM9" s="31"/>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>163</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="31">
         <v>455854</v>
@@ -6237,7 +6348,7 @@
         <v>8520</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F10" s="31">
         <v>50</v>
@@ -6263,16 +6374,16 @@
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P10" s="31" t="s">
         <v>231</v>
       </c>
       <c r="Q10" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="R10" s="31" t="s">
         <v>340</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>341</v>
       </c>
       <c r="S10" s="31" t="s">
         <v>232</v>
@@ -6524,12 +6635,12 @@
       <c r="DL10" s="31"/>
       <c r="DM10" s="31"/>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C11" s="31">
         <v>455854</v>
@@ -6538,7 +6649,7 @@
         <v>8520</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F11" s="31">
         <v>50</v>
@@ -6564,16 +6675,16 @@
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>231</v>
       </c>
       <c r="Q11" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="R11" s="31" t="s">
         <v>340</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>341</v>
       </c>
       <c r="S11" s="31" t="s">
         <v>232</v>
@@ -6825,502 +6936,502 @@
       <c r="DL11" s="31"/>
       <c r="DM11" s="31"/>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -7337,17 +7448,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7382,7 +7493,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
@@ -7409,7 +7520,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>178</v>
       </c>
@@ -7440,7 +7551,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>179</v>
       </c>
@@ -7461,7 +7572,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>180</v>
       </c>
@@ -7497,19 +7608,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -7560,7 +7671,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>189</v>
       </c>
@@ -7611,7 +7722,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>189</v>
       </c>
@@ -7662,7 +7773,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>189</v>
       </c>
@@ -7713,7 +7824,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>189</v>
       </c>
@@ -7764,7 +7875,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>189</v>
       </c>
@@ -7826,13 +7937,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -7852,7 +7963,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>244</v>
       </c>
@@ -7872,7 +7983,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>248</v>
       </c>
@@ -7903,12 +8014,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -7937,7 +8048,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>250</v>
       </c>
@@ -7977,12 +8088,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8005,7 +8116,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>254</v>
       </c>
@@ -8028,7 +8139,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>258</v>
       </c>
@@ -8049,7 +8160,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>260</v>
       </c>
@@ -8081,14 +8192,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8108,7 +8219,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>244</v>
       </c>
@@ -8128,7 +8239,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>248</v>
       </c>
@@ -8155,157 +8266,157 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="AI1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="AN1" s="1" t="s">
         <v>349</v>
@@ -8344,36 +8455,54 @@
         <v>360</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>343</v>
+        <v>451</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>452</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D2" s="9">
-        <v>8520</v>
+        <v>453</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>453</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>364</v>
+        <v>134</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>218</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>218</v>
+        <v>453</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>218</v>
@@ -8382,60 +8511,70 @@
         <v>134</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="28"/>
+        <v>218</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>71</v>
+      </c>
       <c r="N2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>218</v>
+        <v>121</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>219</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="S2" s="9"/>
+      <c r="Q2" s="9">
+        <v>16</v>
+      </c>
+      <c r="R2" s="9">
+        <v>16</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>454</v>
+      </c>
       <c r="T2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="U2" s="9">
-        <v>16</v>
-      </c>
-      <c r="V2" s="9">
-        <v>16</v>
-      </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z2" s="33" t="s">
+      <c r="U2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W2" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="Y2" s="9">
         <v>45665456</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AB2" s="9">
         <v>1113332</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AC2" s="9">
         <v>23564589</v>
       </c>
+      <c r="AD2" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>223</v>
+      </c>
       <c r="AF2" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG2" s="9" t="s">
         <v>223</v>
@@ -8444,65 +8583,1743 @@
         <v>224</v>
       </c>
       <c r="AI2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX2" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>16</v>
+      </c>
+      <c r="R3" s="9">
+        <v>16</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD3" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AF3" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AG3" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AM2" s="9">
+      <c r="AK3" s="9">
         <v>411006</v>
       </c>
-      <c r="AN2" s="9">
+      <c r="AL3" s="9">
         <v>124421</v>
       </c>
-      <c r="AO2" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AM3" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV3" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW3" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AX3" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY3" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9" t="s">
+      <c r="AZ3" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA3" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>16</v>
+      </c>
+      <c r="R4" s="9">
+        <v>16</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W4" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC4" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD4" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK4" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL4" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN4" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AO4" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
+      <c r="AS4" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AW2" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>372</v>
+      <c r="AU4" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV4" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX4" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY4" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA4" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>16</v>
+      </c>
+      <c r="R5" s="9">
+        <v>16</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W5" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC5" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD5" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK5" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL5" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU5" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV5" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW5" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX5" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY5" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>16</v>
+      </c>
+      <c r="R6" s="9">
+        <v>16</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W6" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC6" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD6" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK6" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL6" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM6" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN6" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO6" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP6" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY6" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ6" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA6" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB6" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>16</v>
+      </c>
+      <c r="R7" s="9">
+        <v>16</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W7" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD7" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF7" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG7" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH7" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK7" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM7" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN7" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO7" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP7" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
+      <c r="AS7" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV7" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW7" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX7" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY7" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ7" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA7" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB7" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="BC7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>16</v>
+      </c>
+      <c r="R8" s="9">
+        <v>16</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W8" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z8" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="32" t="s">
+        <v>473</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD8" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE8" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG8" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH8" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK8" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL8" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM8" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN8" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO8" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP8" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ8" s="9"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU8" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="AV8" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="AW8" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX8" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY8" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ8" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA8" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB8" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>16</v>
+      </c>
+      <c r="R9" s="9">
+        <v>16</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W9" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z9" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD9" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE9" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK9" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL9" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN9" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP9" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV9" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW9" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX9" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY9" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ9" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA9" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>16</v>
+      </c>
+      <c r="R10" s="9">
+        <v>16</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W10" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z10" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD10" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG10" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH10" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK10" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL10" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM10" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN10" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO10" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP10" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ10" s="9"/>
+      <c r="AR10" s="9"/>
+      <c r="AS10" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV10" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW10" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX10" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY10" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ10" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA10" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>16</v>
+      </c>
+      <c r="R11" s="9">
+        <v>16</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="T11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W11" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z11" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD11" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG11" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH11" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK11" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL11" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM11" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN11" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO11" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP11" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ11" s="9"/>
+      <c r="AR11" s="9"/>
+      <c r="AS11" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU11" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV11" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW11" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX11" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY11" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ11" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA11" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB11" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>16</v>
+      </c>
+      <c r="R12" s="9">
+        <v>16</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="W12" s="9">
+        <v>1100440052</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>45665456</v>
+      </c>
+      <c r="Z12" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>1113332</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>23564589</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG12" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK12" s="9">
+        <v>411006</v>
+      </c>
+      <c r="AL12" s="9">
+        <v>124421</v>
+      </c>
+      <c r="AM12" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="AN12" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="AO12" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP12" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ12" s="9"/>
+      <c r="AR12" s="9"/>
+      <c r="AS12" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU12" s="9">
+        <v>5431267812</v>
+      </c>
+      <c r="AV12" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW12" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>999</v>
+      </c>
+      <c r="AY12" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AZ12" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="BA12" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="BB12" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="BC12" s="9"/>
+      <c r="BD12" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="BE12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG12" s="9">
+        <v>121212</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" display="auto@mail.com"/>
-    <hyperlink ref="S2" r:id="rId2" display="auto12@mail.com"/>
+    <hyperlink ref="X2" r:id="rId1"/>
+    <hyperlink ref="AD2" r:id="rId2"/>
+    <hyperlink ref="X3" r:id="rId3"/>
+    <hyperlink ref="AD3" r:id="rId4"/>
+    <hyperlink ref="X5" r:id="rId5"/>
+    <hyperlink ref="AD5" r:id="rId6"/>
+    <hyperlink ref="X6" r:id="rId7"/>
+    <hyperlink ref="AD6" r:id="rId8"/>
+    <hyperlink ref="X4" r:id="rId9"/>
+    <hyperlink ref="AD4" r:id="rId10"/>
+    <hyperlink ref="X7" r:id="rId11"/>
+    <hyperlink ref="AD7" r:id="rId12"/>
+    <hyperlink ref="X8" r:id="rId13"/>
+    <hyperlink ref="AD8" r:id="rId14"/>
+    <hyperlink ref="X9" r:id="rId15"/>
+    <hyperlink ref="AD9" r:id="rId16"/>
+    <hyperlink ref="X10" r:id="rId17"/>
+    <hyperlink ref="AD10" r:id="rId18"/>
+    <hyperlink ref="X11" r:id="rId19"/>
+    <hyperlink ref="AD11" r:id="rId20"/>
+    <hyperlink ref="X12" r:id="rId21"/>
+    <hyperlink ref="AD12" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="551">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1286,9 +1286,6 @@
     <t>BIN</t>
   </si>
   <si>
-    <t>Custom Code</t>
-  </si>
-  <si>
     <t>Product Currency</t>
   </si>
   <si>
@@ -1479,6 +1476,210 @@
   </si>
   <si>
     <t>WIBMO [002]</t>
+  </si>
+  <si>
+    <t>4656</t>
+  </si>
+  <si>
+    <t>iPKExpiryDate</t>
+  </si>
+  <si>
+    <t>GeneralisationMethod</t>
+  </si>
+  <si>
+    <t>PINlength</t>
+  </si>
+  <si>
+    <t>PVVOffset</t>
+  </si>
+  <si>
+    <t>PVKOffset</t>
+  </si>
+  <si>
+    <t>PINValidationData</t>
+  </si>
+  <si>
+    <t>PINVerificationKey</t>
+  </si>
+  <si>
+    <t>PINVerificationKeyCheck</t>
+  </si>
+  <si>
+    <t>CVVOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>ComponentType</t>
+  </si>
+  <si>
+    <t>CVKACryptogram</t>
+  </si>
+  <si>
+    <t>CVKAKeyCheck</t>
+  </si>
+  <si>
+    <t>CVKBCryptogram</t>
+  </si>
+  <si>
+    <t>CVKBKeyCheck</t>
+  </si>
+  <si>
+    <t>CVV3Cryptogram</t>
+  </si>
+  <si>
+    <t>CVV3KeyCheckvalue</t>
+  </si>
+  <si>
+    <t>ATCOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>UNOffsetOnTrack</t>
+  </si>
+  <si>
+    <t>CVC3OffsetOnTrack</t>
+  </si>
+  <si>
+    <t>NetworkInterface</t>
+  </si>
+  <si>
+    <t>KeyType</t>
+  </si>
+  <si>
+    <t>NetworkCryptogram</t>
+  </si>
+  <si>
+    <t>NetworkCryptogramCheckValue</t>
+  </si>
+  <si>
+    <t>MDKEncryptedUnderLMK</t>
+  </si>
+  <si>
+    <t>MDKKeyCheckValue</t>
+  </si>
+  <si>
+    <t>SMIEncryptedUnderLMKTxt</t>
+  </si>
+  <si>
+    <t>SMIKeyCheckvalues</t>
+  </si>
+  <si>
+    <t>SMCEncryptedUnderLMKTxt</t>
+  </si>
+  <si>
+    <t>SMCKeyCheckvalue</t>
+  </si>
+  <si>
+    <t>MDKKeyType</t>
+  </si>
+  <si>
+    <t>MDKInterchangeType</t>
+  </si>
+  <si>
+    <t>MDKStatus</t>
+  </si>
+  <si>
+    <t>March/10/2050</t>
+  </si>
+  <si>
+    <t>IBM Method [3]</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1234567890123456</t>
+  </si>
+  <si>
+    <t>181CFD03C3F7385FCA36BF63DDD4BD01</t>
+  </si>
+  <si>
+    <t>829DD2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1-Single Component [1]</t>
+  </si>
+  <si>
+    <t>4A43436017024880</t>
+  </si>
+  <si>
+    <t>0EBBE7</t>
+  </si>
+  <si>
+    <t>B4638CBCEC1E6E52</t>
+  </si>
+  <si>
+    <t>985BDD</t>
+  </si>
+  <si>
+    <t>7B634E89DB88BBD9BB33C702FD1C9151</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>MasterCard(CIS) [03]</t>
+  </si>
+  <si>
+    <t>ZMK [6]</t>
+  </si>
+  <si>
+    <t>80F5706D510BF6F7D54D6DA3053CAB8A</t>
+  </si>
+  <si>
+    <t>2A7944</t>
+  </si>
+  <si>
+    <t>E60699F5B9ADE145FF6B0281D6FF7A71</t>
+  </si>
+  <si>
+    <t>2BC1FE</t>
+  </si>
+  <si>
+    <t>3B84D3C46E096114BF1A505A548A88AE</t>
+  </si>
+  <si>
+    <t>55AF3C</t>
+  </si>
+  <si>
+    <t>6B9D441DA33CF04F687C085A0CD9D8F8</t>
+  </si>
+  <si>
+    <t>9855B6</t>
+  </si>
+  <si>
+    <t>MDK Key [00]</t>
+  </si>
+  <si>
+    <t>MASTERCARD [02]</t>
+  </si>
+  <si>
+    <t>Active [0]</t>
+  </si>
+  <si>
+    <t>https://stage.sa.eis.customer.mastercard.com/mpts/eis/app</t>
+  </si>
+  <si>
+    <t>NidhiS</t>
+  </si>
+  <si>
+    <t>LANKA [111777]</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Sequence number</t>
+  </si>
+  <si>
+    <t>Program Code</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1688,6 +1889,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3495,15 +3699,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DN177"/>
+  <dimension ref="A1:ES177"/>
   <sheetViews>
-    <sheetView topLeftCell="BN7" workbookViewId="0">
-      <selection activeCell="CH2" sqref="CH2:CH11"/>
+    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
+      <selection activeCell="CX2" sqref="CX2:CX3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="4" max="4" width="11.140625" customWidth="1"/>
@@ -3516,7 +3720,7 @@
     <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:149" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3719,7 +3923,7 @@
         <v>70</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>73</v>
@@ -3728,10 +3932,10 @@
         <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="BT1" s="4" t="s">
         <v>422</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>423</v>
       </c>
       <c r="BU1" s="4" t="s">
         <v>83</v>
@@ -3797,10 +4001,10 @@
         <v>89</v>
       </c>
       <c r="CP1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>137</v>
@@ -3868,23 +4072,118 @@
       <c r="DM1" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="DN1" s="4"/>
-    </row>
-    <row r="2" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DN1" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="DR1" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="DS1" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="DT1" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="DU1" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="DV1" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="DW1" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="DX1" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="DY1" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="DZ1" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="EA1" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="EB1" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="EC1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="ED1" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="EE1" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="EF1" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="EG1" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="EH1" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="EI1" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="EJ1" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="EK1" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="EL1" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="EM1" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="EN1" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="EO1" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="EP1" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="EQ1" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="ER1" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="ES1" s="4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:149" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>386</v>
+        <v>546</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>387</v>
+        <v>483</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>426</v>
+        <v>547</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>388</v>
@@ -4065,7 +4364,7 @@
         <v>71</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BQ2" s="28" t="s">
         <v>393</v>
@@ -4074,7 +4373,7 @@
         <v>341</v>
       </c>
       <c r="BS2" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BT2" s="9" t="s">
         <v>341</v>
@@ -4109,7 +4408,7 @@
       </c>
       <c r="CG2" s="36"/>
       <c r="CH2" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CI2" s="38"/>
       <c r="CJ2" s="28" t="s">
@@ -4151,19 +4450,19 @@
         <v>188</v>
       </c>
       <c r="CX2" s="9" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="CY2" s="9" t="s">
         <v>53</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="DA2" s="9" t="s">
         <v>416</v>
       </c>
       <c r="DB2" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="DC2" s="9" t="s">
         <v>393</v>
@@ -4178,33 +4477,129 @@
         <v>418</v>
       </c>
       <c r="DG2" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="DH2" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="DI2" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="DJ2" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="DK2" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="DL2" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="DM2" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="DH2" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="DI2" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="DJ2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="DK2" s="9" t="s">
+      <c r="DN2" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="DO2" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="DP2" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="DQ2" s="32" t="s">
+        <v>519</v>
+      </c>
+      <c r="DR2" s="32" t="s">
+        <v>520</v>
+      </c>
+      <c r="DS2" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="DT2" s="39" t="s">
+        <v>522</v>
+      </c>
+      <c r="DU2" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="DV2" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="DW2" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="DX2" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="DY2" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="DZ2" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="EA2" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="EB2" s="39" t="s">
+        <v>530</v>
+      </c>
+      <c r="EC2" s="39" t="s">
+        <v>531</v>
+      </c>
+      <c r="ED2" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="DL2" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="DM2" s="9" t="s">
+      <c r="EE2" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="EF2" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="EG2" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="EH2" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="EI2" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="EJ2" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="EK2" s="40" t="s">
+        <v>536</v>
+      </c>
+      <c r="EL2" s="40" t="s">
+        <v>537</v>
+      </c>
+      <c r="EM2" s="40" t="s">
+        <v>538</v>
+      </c>
+      <c r="EN2" s="40" t="s">
+        <v>539</v>
+      </c>
+      <c r="EO2" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="EP2" s="40" t="s">
+        <v>541</v>
+      </c>
+      <c r="EQ2" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="ER2" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="ES2" s="41" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:149" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="3" spans="1:118" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>434</v>
-      </c>
       <c r="B3" s="9" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>386</v>
@@ -4213,7 +4608,7 @@
         <v>387</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>388</v>
@@ -4394,7 +4789,7 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BQ3" s="28" t="s">
         <v>393</v>
@@ -4403,7 +4798,7 @@
         <v>341</v>
       </c>
       <c r="BS3" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BT3" s="9" t="s">
         <v>341</v>
@@ -4438,7 +4833,7 @@
       </c>
       <c r="CG3" s="36"/>
       <c r="CH3" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="CI3" s="38"/>
       <c r="CJ3" s="28" t="s">
@@ -4479,8 +4874,8 @@
       <c r="CW3" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="CX3" s="31" t="s">
-        <v>162</v>
+      <c r="CX3" s="9" t="s">
+        <v>221</v>
       </c>
       <c r="CY3" s="31" t="s">
         <v>53</v>
@@ -4503,37 +4898,37 @@
       <c r="DE3" s="31" t="s">
         <v>417</v>
       </c>
-      <c r="DF3" s="31" t="s">
+      <c r="DF3" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="DG3" s="31">
-        <v>6</v>
-      </c>
-      <c r="DH3" s="31" t="s">
+      <c r="DG3" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="DH3" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="DI3" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="DJ3" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="DK3" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="DL3" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="DI3" s="31">
-        <v>2</v>
-      </c>
-      <c r="DJ3" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="DK3" s="31">
-        <v>1</v>
-      </c>
-      <c r="DL3" s="31" t="s">
-        <v>420</v>
-      </c>
-      <c r="DM3" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+      <c r="DM3" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:149" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>386</v>
@@ -4542,7 +4937,7 @@
         <v>387</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>388</v>
@@ -4723,7 +5118,7 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BQ4" s="28" t="s">
         <v>393</v>
@@ -4732,7 +5127,7 @@
         <v>341</v>
       </c>
       <c r="BS4" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BT4" s="9" t="s">
         <v>341</v>
@@ -4765,7 +5160,7 @@
       <c r="CF4" s="28"/>
       <c r="CG4" s="36"/>
       <c r="CH4" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CI4" s="38"/>
       <c r="CJ4" s="28" t="s">
@@ -4829,12 +5224,12 @@
       <c r="DL4" s="31"/>
       <c r="DM4" s="31"/>
     </row>
-    <row r="5" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:149" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>386</v>
@@ -4843,7 +5238,7 @@
         <v>387</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>388</v>
@@ -5024,7 +5419,7 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BQ5" s="28" t="s">
         <v>393</v>
@@ -5033,7 +5428,7 @@
         <v>341</v>
       </c>
       <c r="BS5" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BT5" s="9" t="s">
         <v>341</v>
@@ -5066,7 +5461,7 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="36"/>
       <c r="CH5" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="CI5" s="38"/>
       <c r="CJ5" s="28" t="s">
@@ -5130,12 +5525,12 @@
       <c r="DL5" s="31"/>
       <c r="DM5" s="31"/>
     </row>
-    <row r="6" spans="1:118" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:149" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>386</v>
@@ -5144,7 +5539,7 @@
         <v>387</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>388</v>
@@ -5325,7 +5720,7 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BQ6" s="28" t="s">
         <v>393</v>
@@ -5334,7 +5729,7 @@
         <v>341</v>
       </c>
       <c r="BS6" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BT6" s="9" t="s">
         <v>341</v>
@@ -5367,7 +5762,7 @@
       <c r="CF6" s="28"/>
       <c r="CG6" s="36"/>
       <c r="CH6" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CI6" s="38"/>
       <c r="CJ6" s="28" t="s">
@@ -5431,12 +5826,12 @@
       <c r="DL6" s="31"/>
       <c r="DM6" s="31"/>
     </row>
-    <row r="7" spans="1:118" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:149" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>386</v>
@@ -5445,7 +5840,7 @@
         <v>387</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>388</v>
@@ -5626,7 +6021,7 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BQ7" s="28" t="s">
         <v>393</v>
@@ -5635,7 +6030,7 @@
         <v>341</v>
       </c>
       <c r="BS7" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BT7" s="9" t="s">
         <v>341</v>
@@ -5668,7 +6063,7 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="36"/>
       <c r="CH7" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="CI7" s="38"/>
       <c r="CJ7" s="28" t="s">
@@ -5732,12 +6127,12 @@
       <c r="DL7" s="31"/>
       <c r="DM7" s="31"/>
     </row>
-    <row r="8" spans="1:118" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:149" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>342</v>
+        <v>545</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>386</v>
@@ -5746,7 +6141,7 @@
         <v>387</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>388</v>
@@ -5927,7 +6322,7 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BQ8" s="28" t="s">
         <v>393</v>
@@ -5936,7 +6331,7 @@
         <v>341</v>
       </c>
       <c r="BS8" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BT8" s="9" t="s">
         <v>341</v>
@@ -5969,7 +6364,7 @@
       <c r="CF8" s="28"/>
       <c r="CG8" s="36"/>
       <c r="CH8" s="28" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CI8" s="38"/>
       <c r="CJ8" s="28" t="s">
@@ -6033,12 +6428,12 @@
       <c r="DL8" s="31"/>
       <c r="DM8" s="31"/>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>342</v>
+        <v>437</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>545</v>
       </c>
       <c r="C9" s="31">
         <v>455854</v>
@@ -6047,7 +6442,7 @@
         <v>8520</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F9" s="31">
         <v>50</v>
@@ -6334,12 +6729,12 @@
       <c r="DL9" s="31"/>
       <c r="DM9" s="31"/>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>342</v>
+      <c r="B10" s="9" t="s">
+        <v>545</v>
       </c>
       <c r="C10" s="31">
         <v>455854</v>
@@ -6348,7 +6743,7 @@
         <v>8520</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F10" s="31">
         <v>50</v>
@@ -6635,12 +7030,12 @@
       <c r="DL10" s="31"/>
       <c r="DM10" s="31"/>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:149" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>439</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>342</v>
+        <v>438</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>545</v>
       </c>
       <c r="C11" s="31">
         <v>455854</v>
@@ -6649,7 +7044,7 @@
         <v>8520</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F11" s="31">
         <v>50</v>
@@ -6936,19 +7331,19 @@
       <c r="DL11" s="31"/>
       <c r="DM11" s="31"/>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:149" x14ac:dyDescent="0.25">
       <c r="CS12"/>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:149" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:149" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:149" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:149" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
     <row r="17" spans="97:97" x14ac:dyDescent="0.25">
@@ -8268,7 +8663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -8359,13 +8754,13 @@
         <v>205</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>441</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>206</v>
@@ -8455,42 +8850,42 @@
         <v>360</v>
       </c>
       <c r="AZ1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>449</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:59" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>453</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>218</v>
@@ -8502,7 +8897,7 @@
         <v>218</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>218</v>
@@ -8535,7 +8930,7 @@
         <v>16</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>218</v>
@@ -8595,7 +8990,7 @@
         <v>124421</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN2" s="9" t="s">
         <v>368</v>
@@ -8630,13 +9025,13 @@
         <v>367</v>
       </c>
       <c r="AZ2" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA2" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="BB2" s="9" t="s">
-        <v>458</v>
       </c>
       <c r="BC2" s="9"/>
       <c r="BD2" s="9"/>
@@ -8646,28 +9041,28 @@
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>459</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>460</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>218</v>
@@ -8700,7 +9095,7 @@
         <v>16</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T3" s="9" t="s">
         <v>218</v>
@@ -8760,7 +9155,7 @@
         <v>124421</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN3" s="9" t="s">
         <v>368</v>
@@ -8795,10 +9190,10 @@
         <v>367</v>
       </c>
       <c r="AZ3" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA3" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="BA3" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="BB3" s="9"/>
       <c r="BC3" s="9"/>
@@ -8809,31 +9204,31 @@
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>462</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>218</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>134</v>
@@ -8863,7 +9258,7 @@
         <v>16</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T4" s="9" t="s">
         <v>218</v>
@@ -8923,7 +9318,7 @@
         <v>124421</v>
       </c>
       <c r="AM4" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN4" s="9" t="s">
         <v>368</v>
@@ -8958,10 +9353,10 @@
         <v>367</v>
       </c>
       <c r="AZ4" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA4" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="BA4" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="BB4" s="9"/>
       <c r="BC4" s="9"/>
@@ -8972,16 +9367,16 @@
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>463</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>464</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>218</v>
@@ -8993,7 +9388,7 @@
         <v>218</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>218</v>
@@ -9026,7 +9421,7 @@
         <v>16</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>218</v>
@@ -9086,7 +9481,7 @@
         <v>124421</v>
       </c>
       <c r="AM5" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN5" s="9" t="s">
         <v>368</v>
@@ -9121,13 +9516,13 @@
         <v>367</v>
       </c>
       <c r="AZ5" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA5" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="BA5" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="BB5" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="BC5" s="9"/>
       <c r="BD5" s="9"/>
@@ -9137,13 +9532,13 @@
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>467</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>218</v>
@@ -9191,7 +9586,7 @@
         <v>16</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T6" s="9" t="s">
         <v>218</v>
@@ -9251,7 +9646,7 @@
         <v>124421</v>
       </c>
       <c r="AM6" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN6" s="9" t="s">
         <v>368</v>
@@ -9286,13 +9681,13 @@
         <v>367</v>
       </c>
       <c r="AZ6" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA6" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="BA6" s="9" t="s">
+      <c r="BB6" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="BB6" s="9" t="s">
-        <v>458</v>
       </c>
       <c r="BC6" s="9"/>
       <c r="BD6" s="9"/>
@@ -9302,10 +9697,10 @@
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>469</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>218</v>
@@ -9314,13 +9709,13 @@
         <v>218</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>218</v>
@@ -9356,7 +9751,7 @@
         <v>16</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T7" s="9" t="s">
         <v>218</v>
@@ -9416,7 +9811,7 @@
         <v>124421</v>
       </c>
       <c r="AM7" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN7" s="9" t="s">
         <v>368</v>
@@ -9451,13 +9846,13 @@
         <v>367</v>
       </c>
       <c r="AZ7" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA7" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="BA7" s="9" t="s">
+      <c r="BB7" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="BB7" s="9" t="s">
-        <v>458</v>
       </c>
       <c r="BC7" s="9"/>
       <c r="BD7" s="9"/>
@@ -9467,10 +9862,10 @@
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>471</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>218</v>
@@ -9482,7 +9877,7 @@
         <v>218</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>218</v>
@@ -9494,7 +9889,7 @@
         <v>218</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>218</v>
@@ -9521,7 +9916,7 @@
         <v>16</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T8" s="9" t="s">
         <v>218</v>
@@ -9548,7 +9943,7 @@
         <v>34</v>
       </c>
       <c r="AB8" s="32" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AC8" s="9">
         <v>23564589</v>
@@ -9581,7 +9976,7 @@
         <v>124421</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN8" s="9" t="s">
         <v>368</v>
@@ -9604,7 +9999,7 @@
         <v>364</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AW8" s="9" t="s">
         <v>366</v>
@@ -9616,13 +10011,13 @@
         <v>367</v>
       </c>
       <c r="AZ8" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA8" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="BA8" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="BB8" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
@@ -9632,28 +10027,28 @@
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>476</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>477</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>218</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>218</v>
@@ -9686,7 +10081,7 @@
         <v>16</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T9" s="9" t="s">
         <v>218</v>
@@ -9746,7 +10141,7 @@
         <v>124421</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN9" s="9" t="s">
         <v>368</v>
@@ -9781,10 +10176,10 @@
         <v>367</v>
       </c>
       <c r="AZ9" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA9" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="BA9" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="BB9" s="9"/>
       <c r="BC9" s="9"/>
@@ -9795,28 +10190,28 @@
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>479</v>
-      </c>
       <c r="C10" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F10" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>218</v>
@@ -9849,7 +10244,7 @@
         <v>16</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T10" s="9" t="s">
         <v>218</v>
@@ -9909,7 +10304,7 @@
         <v>124421</v>
       </c>
       <c r="AM10" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN10" s="9" t="s">
         <v>368</v>
@@ -9944,10 +10339,10 @@
         <v>367</v>
       </c>
       <c r="AZ10" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA10" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="BA10" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="BB10" s="9"/>
       <c r="BC10" s="9"/>
@@ -9958,10 +10353,10 @@
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>480</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>481</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>218</v>
@@ -9976,10 +10371,10 @@
         <v>134</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>218</v>
@@ -10012,7 +10407,7 @@
         <v>16</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>218</v>
@@ -10072,7 +10467,7 @@
         <v>124421</v>
       </c>
       <c r="AM11" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN11" s="9" t="s">
         <v>368</v>
@@ -10107,13 +10502,13 @@
         <v>367</v>
       </c>
       <c r="AZ11" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA11" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="BA11" s="9" t="s">
+      <c r="BB11" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="BB11" s="9" t="s">
-        <v>458</v>
       </c>
       <c r="BC11" s="9"/>
       <c r="BD11" s="9"/>
@@ -10123,10 +10518,10 @@
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>218</v>
@@ -10141,10 +10536,10 @@
         <v>134</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>218</v>
@@ -10177,7 +10572,7 @@
         <v>16</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="T12" s="9" t="s">
         <v>218</v>
@@ -10237,7 +10632,7 @@
         <v>124421</v>
       </c>
       <c r="AM12" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AN12" s="9" t="s">
         <v>368</v>
@@ -10272,17 +10667,17 @@
         <v>367</v>
       </c>
       <c r="AZ12" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="BA12" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="BA12" s="9" t="s">
+      <c r="BB12" s="9" t="s">
         <v>457</v>
-      </c>
-      <c r="BB12" s="9" t="s">
-        <v>458</v>
       </c>
       <c r="BC12" s="9"/>
       <c r="BD12" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="BE12" s="9" t="s">
         <v>218</v>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -1670,9 +1670,6 @@
     <t>NidhiS</t>
   </si>
   <si>
-    <t>LANKA [111777]</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -1680,6 +1677,9 @@
   </si>
   <si>
     <t>Program Code</t>
+  </si>
+  <si>
+    <t>ISSAUTO [190525]</t>
   </si>
 </sst>
 </file>
@@ -3701,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ES177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CL1" workbookViewId="0">
-      <selection activeCell="CX2" sqref="CX2:CX3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4183,7 +4183,7 @@
         <v>483</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>388</v>
@@ -4480,13 +4480,13 @@
         <v>431</v>
       </c>
       <c r="DH2" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="DI2" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="DJ2" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="DI2" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="DJ2" s="9" t="s">
-        <v>550</v>
       </c>
       <c r="DK2" s="36" t="s">
         <v>431</v>
@@ -4905,13 +4905,13 @@
         <v>431</v>
       </c>
       <c r="DH3" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="DI3" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="DJ3" s="9" t="s">
         <v>549</v>
-      </c>
-      <c r="DI3" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="DJ3" s="9" t="s">
-        <v>550</v>
       </c>
       <c r="DK3" s="36" t="s">
         <v>431</v>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="498">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -890,9 +890,6 @@
     <t>Collect Portal Support</t>
   </si>
   <si>
-    <t>TC1InstituteCreation</t>
-  </si>
-  <si>
     <t>TC264384_Privilege validation for RuPay Settlement Bin Configurations</t>
   </si>
   <si>
@@ -1061,9 +1058,6 @@
     <t>http://ech-10-168-128-210.mastercard.int:25003/integratedIssuing-customerPortal/mpts/app/Login?0</t>
   </si>
   <si>
-    <t>AdminBankName</t>
-  </si>
-  <si>
     <t>Reference Currency</t>
   </si>
   <si>
@@ -1118,15 +1112,6 @@
     <t>Message</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>FEMA</t>
-  </si>
-  <si>
-    <t>1100440052</t>
-  </si>
-  <si>
     <t>English [EN]</t>
   </si>
   <si>
@@ -1136,9 +1121,6 @@
     <t>testuser124421@gmail.com</t>
   </si>
   <si>
-    <t>5431267812</t>
-  </si>
-  <si>
     <t>July/2/2018</t>
   </si>
   <si>
@@ -1148,15 +1130,9 @@
     <t>Record Added Successfully.</t>
   </si>
   <si>
-    <t>999</t>
-  </si>
-  <si>
     <t>Batch [ROLE000052]</t>
   </si>
   <si>
-    <t>NewUser</t>
-  </si>
-  <si>
     <t>TC417600_Additional field for Customer Master Download file</t>
   </si>
   <si>
@@ -1343,15 +1319,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>TC264306_Embossing File Generation_VISA</t>
   </si>
   <si>
@@ -1368,6 +1335,192 @@
   </si>
   <si>
     <t>TC264321_Embossing File Generation_VISA</t>
+  </si>
+  <si>
+    <t>AdaptiveEcomm</t>
+  </si>
+  <si>
+    <t>MPIN Enabled</t>
+  </si>
+  <si>
+    <t>SMS Service Provider</t>
+  </si>
+  <si>
+    <t>CollectPortalAdminName</t>
+  </si>
+  <si>
+    <t>AgentPortalAdminName</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPR</t>
+  </si>
+  <si>
+    <t>PREISS</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SDN Name Address [SDN1]</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>CollectAdm</t>
+  </si>
+  <si>
+    <t>Agentadm</t>
+  </si>
+  <si>
+    <t>CreatedInstitution</t>
+  </si>
+  <si>
+    <t>CreatedUser</t>
+  </si>
+  <si>
+    <t>ASC_Vendor</t>
+  </si>
+  <si>
+    <t>MPIN</t>
+  </si>
+  <si>
+    <t>SmsProvider</t>
+  </si>
+  <si>
+    <t>ExistingInstitutionCode</t>
+  </si>
+  <si>
+    <t>ISSUINGXH</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDC</t>
+  </si>
+  <si>
+    <t>DEBISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCR</t>
+  </si>
+  <si>
+    <t>CREISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCPR</t>
+  </si>
+  <si>
+    <t>DEBPRE</t>
+  </si>
+  <si>
+    <t>DEBPREXF</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationPRCR</t>
+  </si>
+  <si>
+    <t>PRECRE</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDTCR</t>
+  </si>
+  <si>
+    <t>DEBCRE</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAll</t>
+  </si>
+  <si>
+    <t>ALLISS</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationDCWithoutAgentPortal</t>
+  </si>
+  <si>
+    <t>PREWOAGNT</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationCRWithoutCollectPortal</t>
+  </si>
+  <si>
+    <t>CREWOCOLL</t>
+  </si>
+  <si>
+    <t>TCInstituteCreationAllWithoutAgentCollect</t>
+  </si>
+  <si>
+    <t>ALLWOAGCO</t>
+  </si>
+  <si>
+    <t>TCEditInstitute</t>
+  </si>
+  <si>
+    <t>WIBMO [002]</t>
+  </si>
+  <si>
+    <t>https://stage.sa.eis.customer.mastercard.com/mpts/eis/app</t>
+  </si>
+  <si>
+    <t>Truptii</t>
+  </si>
+  <si>
+    <t>4656</t>
+  </si>
+  <si>
+    <t>Cash Withdrawal</t>
+  </si>
+  <si>
+    <t>MagneticStripProgram [111]</t>
+  </si>
+  <si>
+    <t>Magnetic strip Device plan [1010]</t>
+  </si>
+  <si>
+    <t>PRIYANKA</t>
+  </si>
+  <si>
+    <t>BHATTT</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>RuPay [06]</t>
+  </si>
+  <si>
+    <t>AUTOEmboss [111]</t>
+  </si>
+  <si>
+    <t>AFN</t>
+  </si>
+  <si>
+    <t>Currency setup</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1000005000</t>
+  </si>
+  <si>
+    <t>1000005999</t>
+  </si>
+  <si>
+    <t>1010</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>43800</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>KKKJJ12345</t>
+  </si>
+  <si>
+    <t>RII [336699]</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1568,15 +1721,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2529,7 +2680,7 @@
     </row>
     <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>189</v>
@@ -2582,7 +2733,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>189</v>
@@ -2635,7 +2786,7 @@
     </row>
     <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>189</v>
@@ -2688,7 +2839,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>189</v>
@@ -2741,7 +2892,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>189</v>
@@ -2808,9 +2959,9 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="31"/>
@@ -2821,13 +2972,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -2838,142 +2989,142 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>307</v>
+        <v>342</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>307</v>
+      <c r="D3" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>307</v>
+        <v>342</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="B5" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>307</v>
+      <c r="C5" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>307</v>
+      <c r="C6" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>388</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>307</v>
+      <c r="C7" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>307</v>
+      <c r="C8" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>306</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3014,43 +3165,43 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>300</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>301</v>
       </c>
       <c r="L1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="M1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="N1" s="23" t="s">
         <v>302</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>303</v>
       </c>
       <c r="O1" s="24"/>
       <c r="P1" s="24"/>
@@ -3058,42 +3209,42 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
         <v>307</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="F2" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="H2" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="J2" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>313</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>314</v>
       </c>
       <c r="L2" s="25"/>
       <c r="M2" s="25"/>
       <c r="N2" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
@@ -3149,84 +3300,84 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="G1" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>319</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>320</v>
       </c>
       <c r="M1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="N1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="O1" s="23" t="s">
         <v>302</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="D2" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>308</v>
       </c>
       <c r="E2" s="25">
         <v>123456</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="K2" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="L2" s="26" t="s">
         <v>325</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>326</v>
       </c>
       <c r="M2" s="25"/>
       <c r="N2" s="25"/>
@@ -3234,40 +3385,40 @@
     </row>
     <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="D3" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>308</v>
       </c>
       <c r="E3" s="25">
         <v>123456</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="K3" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="L3" s="26" t="s">
         <v>325</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>326</v>
       </c>
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
@@ -3304,69 +3455,69 @@
         <v>1</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="23" t="s">
         <v>294</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>75</v>
       </c>
       <c r="I1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="J1" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="27" t="s">
         <v>330</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>307</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>308</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="G2" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="I2" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="J2" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>336</v>
-      </c>
       <c r="K2" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3386,8 +3537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DN177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BN7" workbookViewId="0">
-      <selection activeCell="CH2" sqref="CH2:CH11"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="CF2" sqref="CF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3410,13 +3561,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -3455,10 +3606,10 @@
         <v>105</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>106</v>
@@ -3608,7 +3759,7 @@
         <v>70</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>73</v>
@@ -3617,10 +3768,10 @@
         <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="BT1" s="4" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="BU1" s="4" t="s">
         <v>83</v>
@@ -3656,16 +3807,16 @@
         <v>50</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="CG1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="CH1" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="CI1" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="CJ1" s="4" t="s">
         <v>94</v>
@@ -3686,10 +3837,10 @@
         <v>89</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="CQ1" s="4" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>137</v>
@@ -3719,43 +3870,43 @@
         <v>60</v>
       </c>
       <c r="DA1" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="DB1" s="4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="DC1" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="DD1" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="DE1" s="4" t="s">
         <v>181</v>
       </c>
       <c r="DF1" s="4" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="DG1" s="4" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="DH1" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="DI1" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="DJ1" s="4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="DK1" s="4" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="DL1" s="4" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="DN1" s="4"/>
     </row>
@@ -3764,225 +3915,241 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>343</v>
+        <v>476</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>393</v>
+        <v>477</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>394</v>
+        <v>478</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="J2" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="L2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="9"/>
       <c r="M2" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="N2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="28"/>
       <c r="O2" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="R2" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="P2" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q2" s="28" t="s">
+      <c r="S2" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="R2" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>232</v>
-      </c>
       <c r="T2" s="28" t="s">
+        <v>483</v>
+      </c>
+      <c r="U2" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="U2" s="28" t="s">
+      <c r="V2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="28" t="s">
-        <v>396</v>
-      </c>
       <c r="W2" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="X2" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="X2" s="28" t="s">
-        <v>397</v>
-      </c>
       <c r="Y2" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z2" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="AA2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="9" t="s">
-        <v>120</v>
-      </c>
       <c r="AC2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="28" t="s">
         <v>119</v>
       </c>
-      <c r="AE2" s="28" t="s">
+      <c r="AF2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AF2" s="28" t="s">
-        <v>398</v>
-      </c>
       <c r="AG2" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="AH2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AH2" s="28" t="s">
+      <c r="AI2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AI2" s="28" t="s">
-        <v>399</v>
-      </c>
       <c r="AJ2" s="28" t="s">
-        <v>11</v>
+        <v>391</v>
       </c>
       <c r="AK2" s="28" t="s">
         <v>11</v>
       </c>
       <c r="AL2" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM2" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AM2" s="28" t="s">
-        <v>399</v>
-      </c>
       <c r="AN2" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="AO2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AO2" s="28" t="s">
+      <c r="AP2" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="AP2" s="28" t="s">
-        <v>400</v>
-      </c>
       <c r="AQ2" s="28" t="s">
-        <v>183</v>
+        <v>392</v>
       </c>
       <c r="AR2" s="28" t="s">
-        <v>342</v>
+        <v>485</v>
       </c>
       <c r="AS2" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="AT2" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="AT2" s="28" t="s">
+      <c r="AU2" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="AU2" s="28" t="s">
+      <c r="AV2" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="AV2" s="28" t="s">
+      <c r="AW2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" s="29"/>
       <c r="AX2" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="AY2" s="28" t="s">
         <v>187</v>
-      </c>
-      <c r="AY2" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="AZ2" s="28" t="s">
         <v>30</v>
       </c>
       <c r="BA2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="BB2" s="28" t="s">
-        <v>401</v>
-      </c>
       <c r="BC2" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="BD2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="BD2" s="28" t="s">
-        <v>397</v>
-      </c>
       <c r="BE2" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="BF2" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="BF2" s="28" t="s">
-        <v>397</v>
-      </c>
       <c r="BG2" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="BH2" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="BH2" s="28"/>
       <c r="BI2" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="BJ2" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="BJ2" s="28" t="s">
-        <v>183</v>
-      </c>
       <c r="BK2" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="BL2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="BL2" s="28" t="s">
+      <c r="BM2" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="BM2" s="28" t="s">
+      <c r="BN2" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="BN2" s="9" t="s">
+      <c r="BO2" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="BQ2" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="BO2" s="9" t="s">
+      <c r="BR2" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="BP2" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="BQ2" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="BR2" s="28" t="s">
-        <v>342</v>
-      </c>
       <c r="BS2" s="9" t="s">
-        <v>435</v>
+        <v>392</v>
       </c>
       <c r="BT2" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9"/>
+        <v>489</v>
+      </c>
+      <c r="BU2" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="BV2" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="BW2" s="9" t="s">
+        <v>491</v>
+      </c>
       <c r="BX2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BY2" s="9"/>
+      <c r="BY2" s="9" t="s">
+        <v>492</v>
+      </c>
       <c r="BZ2" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="CA2" s="28" t="s">
-        <v>183</v>
+      <c r="CA2" s="9" t="s">
+        <v>485</v>
       </c>
       <c r="CB2" s="9" t="s">
-        <v>342</v>
+        <v>493</v>
       </c>
       <c r="CC2" s="9" t="s">
         <v>48</v>
@@ -3991,121 +4158,91 @@
         <v>51</v>
       </c>
       <c r="CE2" s="9" t="s">
-        <v>61</v>
+        <v>494</v>
       </c>
       <c r="CF2" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="CG2" s="36"/>
+        <v>394</v>
+      </c>
+      <c r="CG2" s="34"/>
       <c r="CH2" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="CI2" s="38"/>
+        <v>429</v>
+      </c>
+      <c r="CI2" s="35" t="s">
+        <v>133</v>
+      </c>
       <c r="CJ2" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="CK2" s="28" t="s">
-        <v>403</v>
+        <v>495</v>
+      </c>
+      <c r="CK2" s="9" t="s">
+        <v>392</v>
       </c>
       <c r="CL2" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="CM2" s="9" t="s">
-        <v>404</v>
+        <v>396</v>
+      </c>
+      <c r="CM2" s="28" t="s">
+        <v>397</v>
       </c>
       <c r="CN2" s="28" t="s">
-        <v>405</v>
-      </c>
-      <c r="CO2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="CP2" s="9"/>
-      <c r="CQ2" s="28"/>
-      <c r="CR2" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="CS2" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CT2" s="36" t="s">
-        <v>406</v>
+      <c r="CO2" s="28"/>
+      <c r="CP2" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="CQ2" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="CR2" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="CS2" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="CT2" s="31" t="s">
+        <v>188</v>
       </c>
       <c r="CU2" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="CV2" s="37" t="s">
-        <v>407</v>
-      </c>
-      <c r="CW2" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="CX2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="CY2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="CZ2" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="DA2" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="DB2" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="DC2" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="DD2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="DE2" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="DF2" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="DG2" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="DH2" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="DI2" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="DJ2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="DK2" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="DL2" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="DM2" s="9" t="s">
-        <v>440</v>
-      </c>
+      <c r="CV2" s="31" t="s">
+        <v>496</v>
+      </c>
+      <c r="CW2" s="31"/>
+      <c r="CX2" s="31"/>
+      <c r="CY2" s="31"/>
+      <c r="CZ2" s="31"/>
+      <c r="DA2" s="31"/>
+      <c r="DB2" s="31"/>
+      <c r="DC2" s="31"/>
+      <c r="DD2" s="31"/>
+      <c r="DE2" s="31"/>
+      <c r="DF2" s="31"/>
+      <c r="DG2" s="31"/>
+      <c r="DH2" s="31"/>
+      <c r="DI2" s="31"/>
+      <c r="DJ2" s="31"/>
+      <c r="DK2" s="31"/>
+      <c r="DL2" s="31"/>
+      <c r="DM2" s="31"/>
     </row>
     <row r="3" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -4128,16 +4265,16 @@
       </c>
       <c r="N3" s="28"/>
       <c r="O3" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P3" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q3" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R3" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R3" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S3" s="29" t="s">
         <v>232</v>
@@ -4149,13 +4286,13 @@
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -4179,7 +4316,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -4188,7 +4325,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -4200,7 +4337,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -4209,13 +4346,13 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR3" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS3" s="28" t="s">
         <v>147</v>
@@ -4243,19 +4380,19 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
@@ -4283,19 +4420,19 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="BR3" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS3" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="BT3" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU3" s="9"/>
       <c r="BV3" s="9"/>
@@ -4311,7 +4448,7 @@
         <v>183</v>
       </c>
       <c r="CB3" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC3" s="9" t="s">
         <v>48</v>
@@ -4323,27 +4460,27 @@
         <v>61</v>
       </c>
       <c r="CF3" s="28" t="s">
-        <v>402</v>
-      </c>
-      <c r="CG3" s="36"/>
+        <v>394</v>
+      </c>
+      <c r="CG3" s="34"/>
       <c r="CH3" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="CI3" s="38"/>
+        <v>431</v>
+      </c>
+      <c r="CI3" s="35"/>
       <c r="CJ3" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK3" s="9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CL3" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="CM3" s="28" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="CN3" s="28" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="CO3" s="28" t="s">
         <v>91</v>
@@ -4354,7 +4491,7 @@
         <v>138</v>
       </c>
       <c r="CS3" s="28" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CT3" s="31">
         <v>50000</v>
@@ -4378,7 +4515,7 @@
         <v>100</v>
       </c>
       <c r="DA3" s="31" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="DB3" s="31">
         <v>5</v>
@@ -4390,16 +4527,16 @@
         <v>71</v>
       </c>
       <c r="DE3" s="31" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="DF3" s="31" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="DG3" s="31">
         <v>6</v>
       </c>
       <c r="DH3" s="31" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="DI3" s="31">
         <v>2</v>
@@ -4411,7 +4548,7 @@
         <v>1</v>
       </c>
       <c r="DL3" s="31" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="DM3" s="31">
         <v>3</v>
@@ -4422,19 +4559,19 @@
         <v>140</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -4457,16 +4594,16 @@
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P4" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q4" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R4" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R4" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S4" s="29" t="s">
         <v>232</v>
@@ -4478,13 +4615,13 @@
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -4508,7 +4645,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -4517,7 +4654,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -4529,7 +4666,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -4538,13 +4675,13 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AQ4" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR4" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS4" s="28" t="s">
         <v>148</v>
@@ -4572,19 +4709,19 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
@@ -4612,19 +4749,19 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="BR4" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS4" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="BT4" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU4" s="9"/>
       <c r="BV4" s="9"/>
@@ -4640,7 +4777,7 @@
         <v>183</v>
       </c>
       <c r="CB4" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC4" s="9" t="s">
         <v>48</v>
@@ -4652,25 +4789,25 @@
         <v>61</v>
       </c>
       <c r="CF4" s="28"/>
-      <c r="CG4" s="36"/>
+      <c r="CG4" s="34"/>
       <c r="CH4" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="CI4" s="38"/>
+        <v>428</v>
+      </c>
+      <c r="CI4" s="35"/>
       <c r="CJ4" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK4" s="9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CL4" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="CM4" s="28" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="CN4" s="28" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="CO4" s="28" t="s">
         <v>91</v>
@@ -4681,7 +4818,7 @@
         <v>138</v>
       </c>
       <c r="CS4" s="28" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CT4" s="31">
         <v>50000</v>
@@ -4720,22 +4857,22 @@
     </row>
     <row r="5" spans="1:118" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -4758,16 +4895,16 @@
       </c>
       <c r="N5" s="28"/>
       <c r="O5" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P5" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q5" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R5" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S5" s="29" t="s">
         <v>232</v>
@@ -4779,13 +4916,13 @@
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -4809,7 +4946,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -4818,7 +4955,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -4830,7 +4967,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -4839,13 +4976,13 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR5" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS5" s="28" t="s">
         <v>148</v>
@@ -4873,19 +5010,19 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
@@ -4913,19 +5050,19 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="BR5" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS5" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="BT5" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU5" s="9"/>
       <c r="BV5" s="9"/>
@@ -4941,7 +5078,7 @@
         <v>183</v>
       </c>
       <c r="CB5" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC5" s="9" t="s">
         <v>48</v>
@@ -4953,25 +5090,25 @@
         <v>61</v>
       </c>
       <c r="CF5" s="28"/>
-      <c r="CG5" s="36"/>
+      <c r="CG5" s="34"/>
       <c r="CH5" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="CI5" s="38"/>
+        <v>431</v>
+      </c>
+      <c r="CI5" s="35"/>
       <c r="CJ5" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK5" s="9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CL5" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="CM5" s="28" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="CN5" s="28" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="CO5" s="28" t="s">
         <v>91</v>
@@ -4982,7 +5119,7 @@
         <v>138</v>
       </c>
       <c r="CS5" s="28" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CT5" s="31">
         <v>50000</v>
@@ -5024,19 +5161,19 @@
         <v>150</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -5059,16 +5196,16 @@
       </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P6" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q6" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R6" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R6" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S6" s="29" t="s">
         <v>232</v>
@@ -5080,13 +5217,13 @@
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -5110,7 +5247,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -5119,7 +5256,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -5131,7 +5268,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -5140,13 +5277,13 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AQ6" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR6" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS6" s="28" t="s">
         <v>152</v>
@@ -5174,19 +5311,19 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
@@ -5214,19 +5351,19 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="BR6" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS6" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="BT6" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU6" s="9"/>
       <c r="BV6" s="9"/>
@@ -5242,7 +5379,7 @@
         <v>183</v>
       </c>
       <c r="CB6" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC6" s="9" t="s">
         <v>48</v>
@@ -5254,25 +5391,25 @@
         <v>61</v>
       </c>
       <c r="CF6" s="28"/>
-      <c r="CG6" s="36"/>
+      <c r="CG6" s="34"/>
       <c r="CH6" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="CI6" s="38"/>
+        <v>428</v>
+      </c>
+      <c r="CI6" s="35"/>
       <c r="CJ6" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK6" s="9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CL6" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="CM6" s="28" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="CN6" s="28" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="CO6" s="28" t="s">
         <v>91</v>
@@ -5283,7 +5420,7 @@
         <v>138</v>
       </c>
       <c r="CS6" s="28" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CT6" s="31">
         <v>50000</v>
@@ -5322,22 +5459,22 @@
     </row>
     <row r="7" spans="1:118" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -5360,16 +5497,16 @@
       </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P7" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q7" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R7" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R7" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S7" s="29" t="s">
         <v>232</v>
@@ -5381,13 +5518,13 @@
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -5411,7 +5548,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -5420,7 +5557,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -5432,7 +5569,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -5441,13 +5578,13 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR7" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS7" s="28" t="s">
         <v>152</v>
@@ -5475,19 +5612,19 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
@@ -5515,19 +5652,19 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="BR7" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS7" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="BT7" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU7" s="9"/>
       <c r="BV7" s="9"/>
@@ -5543,7 +5680,7 @@
         <v>183</v>
       </c>
       <c r="CB7" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC7" s="9" t="s">
         <v>48</v>
@@ -5555,25 +5692,25 @@
         <v>61</v>
       </c>
       <c r="CF7" s="28"/>
-      <c r="CG7" s="36"/>
+      <c r="CG7" s="34"/>
       <c r="CH7" s="28" t="s">
-        <v>442</v>
-      </c>
-      <c r="CI7" s="38"/>
+        <v>431</v>
+      </c>
+      <c r="CI7" s="35"/>
       <c r="CJ7" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK7" s="9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CL7" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="CM7" s="28" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="CN7" s="28" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="CO7" s="28" t="s">
         <v>91</v>
@@ -5584,7 +5721,7 @@
         <v>138</v>
       </c>
       <c r="CS7" s="28" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CT7" s="31">
         <v>50000</v>
@@ -5626,19 +5763,19 @@
         <v>156</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -5661,16 +5798,16 @@
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P8" s="28" t="s">
         <v>231</v>
       </c>
       <c r="Q8" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="R8" s="28" t="s">
         <v>340</v>
-      </c>
-      <c r="R8" s="28" t="s">
-        <v>341</v>
       </c>
       <c r="S8" s="29" t="s">
         <v>232</v>
@@ -5682,13 +5819,13 @@
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -5712,7 +5849,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -5721,7 +5858,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -5733,7 +5870,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -5742,13 +5879,13 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AQ8" s="28" t="s">
         <v>183</v>
       </c>
       <c r="AR8" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS8" s="28" t="s">
         <v>158</v>
@@ -5776,19 +5913,19 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
@@ -5816,19 +5953,19 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="BR8" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BS8" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="BT8" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="BU8" s="9"/>
       <c r="BV8" s="9"/>
@@ -5844,7 +5981,7 @@
         <v>183</v>
       </c>
       <c r="CB8" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="CC8" s="9" t="s">
         <v>48</v>
@@ -5856,25 +5993,25 @@
         <v>61</v>
       </c>
       <c r="CF8" s="28"/>
-      <c r="CG8" s="36"/>
+      <c r="CG8" s="34"/>
       <c r="CH8" s="28" t="s">
-        <v>436</v>
-      </c>
-      <c r="CI8" s="38"/>
+        <v>428</v>
+      </c>
+      <c r="CI8" s="35"/>
       <c r="CJ8" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK8" s="9" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CL8" s="28" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="CM8" s="28" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="CN8" s="28" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="CO8" s="28" t="s">
         <v>91</v>
@@ -5885,7 +6022,7 @@
         <v>138</v>
       </c>
       <c r="CS8" s="28" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="CT8" s="31">
         <v>50000</v>
@@ -5924,10 +6061,10 @@
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C9" s="31">
         <v>455854</v>
@@ -5936,7 +6073,7 @@
         <v>8520</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F9" s="31">
         <v>50</v>
@@ -5962,16 +6099,16 @@
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>231</v>
       </c>
       <c r="Q9" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="R9" s="31" t="s">
         <v>340</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>341</v>
       </c>
       <c r="S9" s="31" t="s">
         <v>232</v>
@@ -6228,7 +6365,7 @@
         <v>163</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="31">
         <v>455854</v>
@@ -6237,7 +6374,7 @@
         <v>8520</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F10" s="31">
         <v>50</v>
@@ -6263,16 +6400,16 @@
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P10" s="31" t="s">
         <v>231</v>
       </c>
       <c r="Q10" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="R10" s="31" t="s">
         <v>340</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>341</v>
       </c>
       <c r="S10" s="31" t="s">
         <v>232</v>
@@ -6526,10 +6663,10 @@
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C11" s="31">
         <v>455854</v>
@@ -6538,7 +6675,7 @@
         <v>8520</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F11" s="31">
         <v>50</v>
@@ -6564,16 +6701,16 @@
       </c>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>231</v>
       </c>
       <c r="Q11" s="31" t="s">
+        <v>339</v>
+      </c>
+      <c r="R11" s="31" t="s">
         <v>340</v>
-      </c>
-      <c r="R11" s="31" t="s">
-        <v>341</v>
       </c>
       <c r="S11" s="31" t="s">
         <v>232</v>
@@ -8155,10 +8292,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA2"/>
+  <dimension ref="A1:BH12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:BG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8189,320 +8326,2004 @@
     <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG1" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="AH1" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL1" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="BB1" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="BE1" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="BF1" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="BG1" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH1" s="36"/>
+    </row>
+    <row r="2" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="AP2" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="2" spans="1:53" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="D2" s="9">
-        <v>8520</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="AT2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="AW2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2"/>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="G3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="K3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="O3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="U2" s="9">
+      <c r="P3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="2">
         <v>16</v>
       </c>
-      <c r="V2" s="9">
+      <c r="R3" s="2">
         <v>16</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="32" t="s">
+      <c r="S3" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW3" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="AX3" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2">
+        <v>16</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="Y4" s="2">
         <v>45665456</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="Z4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AA4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AD2" s="9">
+      <c r="AB4" s="2">
         <v>1113332</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AC4" s="2">
         <v>23564589</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AD4" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AE4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AF4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AG4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AH4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AI4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AM2" s="9">
+      <c r="AK4" s="2">
         <v>411006</v>
       </c>
-      <c r="AN2" s="9">
+      <c r="AL4" s="2">
         <v>124421</v>
       </c>
-      <c r="AO2" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AM4" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY4" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AZ4" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>16</v>
+      </c>
+      <c r="R5" s="2">
+        <v>16</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN5" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AO5" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AW2" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>372</v>
+      <c r="AU5" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2">
+        <v>16</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>16</v>
+      </c>
+      <c r="R7" s="2">
+        <v>16</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>16</v>
+      </c>
+      <c r="R8" s="2">
+        <v>16</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>16</v>
+      </c>
+      <c r="R9" s="2">
+        <v>16</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>16</v>
+      </c>
+      <c r="R10" s="2">
+        <v>16</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>16</v>
+      </c>
+      <c r="R11" s="2">
+        <v>16</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>16</v>
+      </c>
+      <c r="R12" s="2">
+        <v>16</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>121212</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="Y2" r:id="rId1" display="auto@mail.com"/>
-    <hyperlink ref="S2" r:id="rId2" display="auto12@mail.com"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,30 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
     <sheet name="S205014" sheetId="2" r:id="rId2"/>
-    <sheet name="S205000" sheetId="3" r:id="rId3"/>
-    <sheet name="S205009" sheetId="6" r:id="rId4"/>
-    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId5"/>
-    <sheet name="AccounHeadMapping_S205175" sheetId="8" r:id="rId6"/>
-    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId7"/>
-    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId8"/>
-    <sheet name="Institute" sheetId="5" r:id="rId9"/>
-    <sheet name="ApplicationUpload" sheetId="11" r:id="rId10"/>
-    <sheet name="AmlockDownloads" sheetId="15" r:id="rId11"/>
-    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId12"/>
-    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
-    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
+    <sheet name="CardHolder" sheetId="16" r:id="rId3"/>
+    <sheet name="S205000" sheetId="3" r:id="rId4"/>
+    <sheet name="S205009" sheetId="6" r:id="rId5"/>
+    <sheet name="AccountMaster_S205195" sheetId="7" r:id="rId6"/>
+    <sheet name="AccounHeadMapping_S205175" sheetId="8" r:id="rId7"/>
+    <sheet name="AccountHead_S205168" sheetId="9" r:id="rId8"/>
+    <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId9"/>
+    <sheet name="Institute" sheetId="5" r:id="rId10"/>
+    <sheet name="ApplicationUpload" sheetId="11" r:id="rId11"/>
+    <sheet name="AmlockDownloads" sheetId="15" r:id="rId12"/>
+    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId13"/>
+    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId14"/>
+    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="663">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1665,6 +1666,357 @@
   </si>
   <si>
     <t>MDKStatus</t>
+  </si>
+  <si>
+    <t>TranSactionType</t>
+  </si>
+  <si>
+    <t>TransactionAmount</t>
+  </si>
+  <si>
+    <t>TransactionCurrency</t>
+  </si>
+  <si>
+    <t>ConversionRate</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>TransferAmount</t>
+  </si>
+  <si>
+    <t>CurrencyName</t>
+  </si>
+  <si>
+    <t>ContactNumber</t>
+  </si>
+  <si>
+    <t>TransfererName</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
+    <t>TransactionPassword</t>
+  </si>
+  <si>
+    <t>TransactionRemarks</t>
+  </si>
+  <si>
+    <t>AmountToTransferWalletToWallet</t>
+  </si>
+  <si>
+    <t>WalletTransferCurrecny</t>
+  </si>
+  <si>
+    <t>WalletNumberFromTransferMoney</t>
+  </si>
+  <si>
+    <t>WalletToAmountTransfer</t>
+  </si>
+  <si>
+    <t>WalletToWalletTransferSucessMsg</t>
+  </si>
+  <si>
+    <t>NoOfTransactionsCount</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>ToDate</t>
+  </si>
+  <si>
+    <t>ReplacementResone</t>
+  </si>
+  <si>
+    <t>ReplaceConfirmMessage</t>
+  </si>
+  <si>
+    <t>BlockCardRemark</t>
+  </si>
+  <si>
+    <t>BlockConfirmationMsg</t>
+  </si>
+  <si>
+    <t>UnblockCardRemark</t>
+  </si>
+  <si>
+    <t>UnblockConfirmationMsg</t>
+  </si>
+  <si>
+    <t>WalletActivationRemark</t>
+  </si>
+  <si>
+    <t>WalletDeactivateRemark</t>
+  </si>
+  <si>
+    <t>WalletActivateConfirmMsg</t>
+  </si>
+  <si>
+    <t>WalletDeactivateConfirmMsg</t>
+  </si>
+  <si>
+    <t>eComActivationConfirmMsg</t>
+  </si>
+  <si>
+    <t>beneficiaryID</t>
+  </si>
+  <si>
+    <t>beneficiaryFirstName</t>
+  </si>
+  <si>
+    <t>beneficiaryMiddleName</t>
+  </si>
+  <si>
+    <t>beneficiaryLastName</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine1</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine2</t>
+  </si>
+  <si>
+    <t>beneficiaryAddressLine3</t>
+  </si>
+  <si>
+    <t>beneficiaryCountryName</t>
+  </si>
+  <si>
+    <t>beneficiaryStateName</t>
+  </si>
+  <si>
+    <t>beneficiaryCityName</t>
+  </si>
+  <si>
+    <t>beneficiaryZIPCode</t>
+  </si>
+  <si>
+    <t>beneficiaryEmailAddress</t>
+  </si>
+  <si>
+    <t>beneficiaryMobileNumber</t>
+  </si>
+  <si>
+    <t>beneficiaryRemittanceAamount</t>
+  </si>
+  <si>
+    <t>beneficiaryRemittanceCurrency</t>
+  </si>
+  <si>
+    <t>newPassword</t>
+  </si>
+  <si>
+    <t>CardHolderTransPassword</t>
+  </si>
+  <si>
+    <t>FirstSequrityQuestion</t>
+  </si>
+  <si>
+    <t>FirstSequrityAnswer</t>
+  </si>
+  <si>
+    <t>SecondSequrityQuestion</t>
+  </si>
+  <si>
+    <t>SecondSequrityAnswer</t>
+  </si>
+  <si>
+    <t>TC_walletToWalletTransfer</t>
+  </si>
+  <si>
+    <t>12121218044000192</t>
+  </si>
+  <si>
+    <t>Fund Transfer</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>0.016000</t>
+  </si>
+  <si>
+    <t>5887659200346112</t>
+  </si>
+  <si>
+    <t>aBcd1234*</t>
+  </si>
+  <si>
+    <t>Wallet to wallet fund transfer</t>
+  </si>
+  <si>
+    <t>1802131212120070068</t>
+  </si>
+  <si>
+    <t>1802131212120070067</t>
+  </si>
+  <si>
+    <t>Your transaction is successful</t>
+  </si>
+  <si>
+    <t>TC_LoginCardholderPortal</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForFundTransfer</t>
+  </si>
+  <si>
+    <t>12121218036000463</t>
+  </si>
+  <si>
+    <t>TC_masterCardMoneyTransfer</t>
+  </si>
+  <si>
+    <t>10000117311000005</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>CMKO-45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">454564Done </t>
+  </si>
+  <si>
+    <t>TC_checkInterbankTransfer</t>
+  </si>
+  <si>
+    <t>TC_viewTransactionHistoryForWallet</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>31/10/2017</t>
+  </si>
+  <si>
+    <t>TC_deviceReplaceService</t>
+  </si>
+  <si>
+    <t>Emergency Replacement</t>
+  </si>
+  <si>
+    <t>Request is forwarded to institution</t>
+  </si>
+  <si>
+    <t>TC_deviceBlockFromCardHolder</t>
+  </si>
+  <si>
+    <t>Card need to block as it is stolne</t>
+  </si>
+  <si>
+    <t>Device Blocked Call Reference Number</t>
+  </si>
+  <si>
+    <t>Block my card</t>
+  </si>
+  <si>
+    <t>Unblock Device process successful</t>
+  </si>
+  <si>
+    <t>TC_deviceUnblockFromCardholder</t>
+  </si>
+  <si>
+    <t>TC_walletActivateFromCardHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activate Wallet </t>
+  </si>
+  <si>
+    <t>Request has been processed successfully with reference number</t>
+  </si>
+  <si>
+    <t>TC_walletDeActivateFromCardHolder</t>
+  </si>
+  <si>
+    <t>Deactivate Wallet</t>
+  </si>
+  <si>
+    <t>TC_activateEcomForLifeLong</t>
+  </si>
+  <si>
+    <t>DEVICE is already activated for life long use</t>
+  </si>
+  <si>
+    <t>TC_activationEcomForDuration</t>
+  </si>
+  <si>
+    <t>TC_activateEcomForNHours</t>
+  </si>
+  <si>
+    <t>TC_cashRemittanceBookting</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Mname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>MAHARASTHRA</t>
+  </si>
+  <si>
+    <t>mastercard@mastercard.com</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>TC_signUpCardholderPortal</t>
+  </si>
+  <si>
+    <t>TC_activationForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_activationNHoursForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_activationLifeLongForInternationalUse</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForWalletToWalletDebit</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForWalletClosure</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForVisaMoneyTransferDebit</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForIntraBnkWalletToWalletTransferDebit</t>
+  </si>
+  <si>
+    <t>TC_ViewChargeForMasterCardMoneySend</t>
+  </si>
+  <si>
+    <t>TC_RequestVirtualPrepaidCard</t>
+  </si>
+  <si>
+    <t>TC_createPinSetRquest</t>
+  </si>
+  <si>
+    <t>TC_visaMoneyTransfer</t>
+  </si>
+  <si>
+    <t>https://stage.sa.cardholder.mastercard.com/mpts/eis/app</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +2026,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1698,8 +2050,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1712,8 +2072,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1784,12 +2156,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1855,8 +2237,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2166,20 +2566,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2370,7 +2770,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2557,7 +2957,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2740,18 +3140,2056 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BH12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:BG12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ1" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="AR1" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS1" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="AT1" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="AU1" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="AV1" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="AW1" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="AX1" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AY1" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ1" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="BB1" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="BE1" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="BF1" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="BG1" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH1" s="34"/>
+    </row>
+    <row r="2" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2"/>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2">
+        <v>16</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>16</v>
+      </c>
+      <c r="R5" s="2">
+        <v>16</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2">
+        <v>16</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>16</v>
+      </c>
+      <c r="R7" s="2">
+        <v>16</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>16</v>
+      </c>
+      <c r="R8" s="2">
+        <v>16</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>16</v>
+      </c>
+      <c r="R9" s="2">
+        <v>16</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>16</v>
+      </c>
+      <c r="R10" s="2">
+        <v>16</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>16</v>
+      </c>
+      <c r="R11" s="2">
+        <v>16</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>16</v>
+      </c>
+      <c r="R12" s="2">
+        <v>16</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>121212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2805,7 +5243,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>287</v>
       </c>
@@ -2858,7 +5296,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>288</v>
       </c>
@@ -2911,7 +5349,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -2964,7 +5402,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -3017,7 +5455,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>291</v>
       </c>
@@ -3075,7 +5513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3083,18 +5521,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3114,7 +5552,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>368</v>
       </c>
@@ -3134,7 +5572,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>369</v>
       </c>
@@ -3154,7 +5592,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>376</v>
       </c>
@@ -3174,7 +5612,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>370</v>
       </c>
@@ -3194,7 +5632,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>371</v>
       </c>
@@ -3214,7 +5652,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>372</v>
       </c>
@@ -3234,7 +5672,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>373</v>
       </c>
@@ -3259,7 +5697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -3267,27 +5705,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.109375" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3334,7 +5772,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>303</v>
       </c>
@@ -3377,17 +5815,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3397,7 +5835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -3405,24 +5843,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3469,7 +5907,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>320</v>
       </c>
@@ -3510,7 +5948,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>326</v>
       </c>
@@ -3556,7 +5994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -3564,20 +6002,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3612,7 +6050,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>331</v>
       </c>
@@ -3664,26 +6102,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
+    <sheetView topLeftCell="DD1" workbookViewId="0">
       <selection activeCell="DU3" sqref="DU3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:147" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4126,7 +6564,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:147" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -4543,7 +6981,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:147" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>430</v>
       </c>
@@ -4902,7 +7340,7 @@
       <c r="EP3" s="9"/>
       <c r="EQ3" s="9"/>
     </row>
-    <row r="4" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:147" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
@@ -5233,7 +7671,7 @@
       <c r="EP4" s="9"/>
       <c r="EQ4" s="9"/>
     </row>
-    <row r="5" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:147" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>432</v>
       </c>
@@ -5564,7 +8002,7 @@
       <c r="EP5" s="9"/>
       <c r="EQ5" s="9"/>
     </row>
-    <row r="6" spans="1:147" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:147" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>150</v>
       </c>
@@ -5895,7 +8333,7 @@
       <c r="EP6" s="9"/>
       <c r="EQ6" s="9"/>
     </row>
-    <row r="7" spans="1:147" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:147" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>433</v>
       </c>
@@ -6226,7 +8664,7 @@
       <c r="EP7" s="9"/>
       <c r="EQ7" s="9"/>
     </row>
-    <row r="8" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:147" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>156</v>
       </c>
@@ -6557,7 +8995,7 @@
       <c r="EP8" s="9"/>
       <c r="EQ8" s="9"/>
     </row>
-    <row r="9" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>434</v>
       </c>
@@ -6888,7 +9326,7 @@
       <c r="EP9" s="9"/>
       <c r="EQ9" s="9"/>
     </row>
-    <row r="10" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>163</v>
       </c>
@@ -7219,7 +9657,7 @@
       <c r="EP10" s="9"/>
       <c r="EQ10" s="9"/>
     </row>
-    <row r="11" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>435</v>
       </c>
@@ -7550,7 +9988,7 @@
       <c r="EP11" s="9"/>
       <c r="EQ11" s="9"/>
     </row>
-    <row r="12" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>511</v>
       </c>
@@ -7965,499 +10403,499 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:147" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:147" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:147" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:147" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -8468,23 +10906,2614 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>547</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>549</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>552</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>553</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>554</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>555</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>559</v>
+      </c>
+      <c r="S1" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA1" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="AK1" s="40" t="s">
+        <v>578</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>599</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>599</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="F2" s="41">
+        <v>10</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>602</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>603</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41">
+        <v>9021723007</v>
+      </c>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="46" t="s">
+        <v>604</v>
+      </c>
+      <c r="P2" s="41" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>5</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>607</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>608</v>
+      </c>
+      <c r="V2" s="41"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="41"/>
+      <c r="AS2" s="41"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="41"/>
+      <c r="BB2" s="41"/>
+      <c r="BC2" s="41"/>
+      <c r="BD2" s="41"/>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>599</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>599</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="L5" s="2">
+        <v>955689456</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="O5" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2">
+        <v>10</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+    </row>
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2">
+        <v>10</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z8" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+    </row>
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F9" s="2">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2">
+        <v>10</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z9" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA9" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB9" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+    </row>
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2">
+        <v>10</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z10" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA10" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB10" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F11" s="2">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2">
+        <v>10</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z11" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA11" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB11" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+    </row>
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2">
+        <v>10</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z12" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA12" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB12" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2">
+        <v>10</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z13" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA13" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB13" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AH13" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AI13" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+    </row>
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2">
+        <v>10</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z14" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA14" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB14" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AI14" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2">
+        <v>10</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="Z15" s="49" t="s">
+        <v>623</v>
+      </c>
+      <c r="AA15" s="49" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB15" s="49" t="s">
+        <v>626</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AH15" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AI15" s="49" t="s">
+        <v>636</v>
+      </c>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+    </row>
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F16" s="2">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU16" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+    </row>
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>650</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>600</v>
+      </c>
+      <c r="F17" s="41">
+        <v>5</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>601</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>602</v>
+      </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="41"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="41"/>
+      <c r="AI17" s="41"/>
+      <c r="AJ17" s="41" t="s">
+        <v>640</v>
+      </c>
+      <c r="AK17" s="41" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL17" s="41" t="s">
+        <v>642</v>
+      </c>
+      <c r="AM17" s="41" t="s">
+        <v>643</v>
+      </c>
+      <c r="AN17" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="AO17" s="41" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP17" s="41" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ17" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR17" s="41" t="s">
+        <v>647</v>
+      </c>
+      <c r="AS17" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT17" s="41">
+        <v>411033</v>
+      </c>
+      <c r="AU17" s="51" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV17" s="41">
+        <v>7896543215</v>
+      </c>
+      <c r="AW17" s="41">
+        <v>5000</v>
+      </c>
+      <c r="AX17" s="41" t="s">
+        <v>649</v>
+      </c>
+      <c r="AY17" s="41" t="s">
+        <v>604</v>
+      </c>
+      <c r="AZ17" s="41" t="s">
+        <v>604</v>
+      </c>
+      <c r="BA17" s="41"/>
+      <c r="BB17" s="41"/>
+      <c r="BC17" s="41"/>
+      <c r="BD17" s="41"/>
+    </row>
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AO18" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP18" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR18" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="AS18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU18" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL19" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="AM19" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU19" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AY19" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AZ19" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F20" s="2">
+        <v>5</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="AM20" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP20" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR20" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="AS20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>411033</v>
+      </c>
+      <c r="AU20" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>7896543215</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>5000</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D22" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F23" s="2">
+        <v>5</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F25" s="2">
+        <v>5</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D27" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F27" s="2">
+        <v>5</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>661</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="D28" s="43" t="s">
+        <v>611</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F28" s="2">
+        <v>5</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="L28" s="2">
+        <v>955689456</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="O28" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AU16" r:id="rId1"/>
+    <hyperlink ref="AU17" r:id="rId2"/>
+    <hyperlink ref="AU18" r:id="rId3"/>
+    <hyperlink ref="AU19" r:id="rId4"/>
+    <hyperlink ref="AU20" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8519,7 +13548,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
@@ -8546,7 +13575,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>178</v>
       </c>
@@ -8577,7 +13606,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>179</v>
       </c>
@@ -8598,7 +13627,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>180</v>
       </c>
@@ -8626,7 +13655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R6"/>
   <sheetViews>
@@ -8634,19 +13663,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8697,7 +13726,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>189</v>
       </c>
@@ -8748,7 +13777,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>189</v>
       </c>
@@ -8799,7 +13828,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>189</v>
       </c>
@@ -8850,7 +13879,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>189</v>
       </c>
@@ -8901,7 +13930,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>189</v>
       </c>
@@ -8951,83 +13980,6 @@
         <v>280</v>
       </c>
       <c r="R6" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="11">
-        <v>0</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>247</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9036,16 +13988,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9053,54 +14006,56 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>63</v>
+        <v>241</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="C2" s="11">
         <v>0</v>
       </c>
+      <c r="D2" s="11" t="s">
+        <v>245</v>
+      </c>
       <c r="E2" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" s="11">
-        <v>1888887</v>
-      </c>
-      <c r="H2" s="11">
-        <v>55554</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>252</v>
+        <v>246</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -9110,16 +14065,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9127,84 +14082,54 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>241</v>
+        <v>63</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="2">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="2">
-        <v>30</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="2">
-        <v>30</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3" t="s">
-        <v>257</v>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="11">
+        <v>1888887</v>
+      </c>
+      <c r="H2" s="11">
+        <v>55554</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -9214,18 +14139,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9242,47 +14165,75 @@
         <v>242</v>
       </c>
       <c r="F1" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="3" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="2">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -9292,41 +14243,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH12"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BG12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9334,1996 +14262,59 @@
         <v>2</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>281</v>
+        <v>240</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>282</v>
+        <v>241</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="X1" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z1" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA1" s="15" t="s">
-        <v>210</v>
-      </c>
-      <c r="AB1" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC1" s="15" t="s">
-        <v>212</v>
-      </c>
-      <c r="AD1" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG1" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="AH1" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK1" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL1" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="AM1" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="AN1" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="AO1" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="AP1" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="AQ1" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="AR1" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="AS1" s="15" t="s">
-        <v>354</v>
-      </c>
-      <c r="AT1" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="AU1" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="AV1" s="15" t="s">
-        <v>357</v>
-      </c>
-      <c r="AW1" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="AX1" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="AY1" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="AZ1" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="BA1" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="BB1" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="BC1" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="BD1" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="BE1" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="BF1" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="BG1" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="BH1" s="34"/>
-    </row>
-    <row r="2" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>441</v>
+        <v>244</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>443</v>
+        <v>195</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>16</v>
-      </c>
-      <c r="R2" s="2">
-        <v>16</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W2" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK2" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU2" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW2" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY2" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ2" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB2" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2"/>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>455</v>
+        <v>248</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>195</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>443</v>
+        <v>249</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>16</v>
-      </c>
-      <c r="R3" s="2">
-        <v>16</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK3" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM3" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN3" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO3" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP3" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW3" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY3" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ3" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>16</v>
-      </c>
-      <c r="R4" s="2">
-        <v>16</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W4" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK4" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM4" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO4" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP4" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU4" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW4" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX4" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY4" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ4" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>16</v>
-      </c>
-      <c r="R5" s="2">
-        <v>16</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF5" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK5" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM5" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO5" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP5" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU5" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX5" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY5" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB5" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>16</v>
-      </c>
-      <c r="R6" s="2">
-        <v>16</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK6" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX6" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY6" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB6" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>16</v>
-      </c>
-      <c r="R7" s="2">
-        <v>16</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W7" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK7" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV7" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW7" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY7" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB7" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>16</v>
-      </c>
-      <c r="R8" s="2">
-        <v>16</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W8" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD8" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN8" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO8" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP8" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV8" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW8" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX8" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA8" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB8" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>16</v>
-      </c>
-      <c r="R9" s="2">
-        <v>16</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W9" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM9" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN9" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP9" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU9" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV9" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX9" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY9" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ9" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA9" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>16</v>
-      </c>
-      <c r="R10" s="2">
-        <v>16</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W10" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK10" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL10" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM10" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN10" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV10" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW10" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX10" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY10" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA10" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>16</v>
-      </c>
-      <c r="R11" s="2">
-        <v>16</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W11" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF11" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK11" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL11" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM11" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN11" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO11" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP11" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU11" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV11" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW11" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX11" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY11" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB11" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>16</v>
-      </c>
-      <c r="R12" s="2">
-        <v>16</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="W12" s="2">
-        <v>1100440052</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>45665456</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>23564589</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF12" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ12" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="AK12" s="2">
-        <v>411006</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>124421</v>
-      </c>
-      <c r="AM12" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="AN12" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO12" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP12" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AT12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AV12" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AW12" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="AX12" s="2">
-        <v>999</v>
-      </c>
-      <c r="AY12" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="AZ12" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="BA12" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BB12" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="BE12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BF12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BG12" s="2">
-        <v>121212</v>
+        <v>246</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
     <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -3664,8 +3664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
-      <selection activeCell="DU3" sqref="DU3"/>
+    <sheetView topLeftCell="DD1" workbookViewId="0">
+      <selection activeCell="DM1" sqref="DM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9294,13 +9294,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BG12"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BV8" sqref="BV8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -9565,7 +9565,7 @@
         <v>444</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>218</v>
@@ -9731,7 +9731,7 @@
         <v>444</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U3" s="2" t="s">
         <v>218</v>
@@ -9894,7 +9894,7 @@
         <v>444</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>218</v>
@@ -10057,7 +10057,7 @@
         <v>444</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>218</v>
@@ -10222,7 +10222,7 @@
         <v>444</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>218</v>
@@ -10387,7 +10387,7 @@
         <v>444</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>218</v>
@@ -10552,7 +10552,7 @@
         <v>444</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>218</v>
@@ -10717,7 +10717,7 @@
         <v>444</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>218</v>
@@ -10880,7 +10880,7 @@
         <v>444</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>218</v>
@@ -11043,7 +11043,7 @@
         <v>444</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>218</v>
@@ -11208,7 +11208,7 @@
         <v>444</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>218</v>
+        <v>475</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>218</v>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Prepaid_Application_Upload" sheetId="16" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId14"/>
     <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="647">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1954,6 +1954,21 @@
   </si>
   <si>
     <t>010103</t>
+  </si>
+  <si>
+    <t>HighRiskCountry</t>
+  </si>
+  <si>
+    <t>TaxOnIncomeFeeType</t>
+  </si>
+  <si>
+    <t>TaxOnIncomeStatus</t>
+  </si>
+  <si>
+    <t>CANADA [124]</t>
+  </si>
+  <si>
+    <t>Loan Processing Fee [44]</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2154,7 +2169,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2482,22 +2496,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EM4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:143" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2855,80 +2869,80 @@
       <c r="DO1" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="DP1" s="35" t="s">
+      <c r="DP1" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="DQ1" s="35" t="s">
+      <c r="DQ1" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="DR1" s="35" t="s">
+      <c r="DR1" s="34" t="s">
         <v>569</v>
       </c>
-      <c r="DS1" s="35" t="s">
+      <c r="DS1" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="DT1" s="35" t="s">
+      <c r="DT1" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="DU1" s="35" t="s">
+      <c r="DU1" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="DV1" s="35" t="s">
+      <c r="DV1" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="DW1" s="35" t="s">
+      <c r="DW1" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="DX1" s="35" t="s">
+      <c r="DX1" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="DY1" s="35" t="s">
+      <c r="DY1" s="34" t="s">
         <v>576</v>
       </c>
-      <c r="DZ1" s="35" t="s">
+      <c r="DZ1" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="EA1" s="35" t="s">
+      <c r="EA1" s="34" t="s">
         <v>578</v>
       </c>
-      <c r="EB1" s="35" t="s">
+      <c r="EB1" s="34" t="s">
         <v>579</v>
       </c>
-      <c r="EC1" s="35" t="s">
+      <c r="EC1" s="34" t="s">
         <v>580</v>
       </c>
-      <c r="ED1" s="35" t="s">
+      <c r="ED1" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="EE1" s="35" t="s">
+      <c r="EE1" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="EF1" s="35" t="s">
+      <c r="EF1" s="34" t="s">
         <v>581</v>
       </c>
-      <c r="EG1" s="35" t="s">
+      <c r="EG1" s="34" t="s">
         <v>582</v>
       </c>
-      <c r="EH1" s="35" t="s">
+      <c r="EH1" s="34" t="s">
         <v>583</v>
       </c>
-      <c r="EI1" s="35" t="s">
+      <c r="EI1" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="EJ1" s="35" t="s">
+      <c r="EJ1" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="EK1" s="35" t="s">
+      <c r="EK1" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="EL1" s="35" t="s">
+      <c r="EL1" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="EM1" s="35" t="s">
+      <c r="EM1" s="34" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>589</v>
       </c>
@@ -2938,7 +2952,7 @@
       <c r="C2" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="35" t="s">
         <v>592</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -2959,34 +2973,34 @@
       <c r="J2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="37" t="s">
         <v>600</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="37" t="s">
         <v>429</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="S2" s="37" t="s">
         <v>602</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="37" t="s">
         <v>603</v>
       </c>
       <c r="U2" s="11">
@@ -3007,8 +3021,8 @@
       <c r="Z2" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
+      <c r="AA2" s="38"/>
+      <c r="AB2" s="38"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12" t="s">
         <v>45</v>
@@ -3126,7 +3140,7 @@
       <c r="BQ2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BR2" s="40" t="s">
+      <c r="BR2" s="39" t="s">
         <v>393</v>
       </c>
       <c r="BS2" s="12" t="s">
@@ -3144,7 +3158,7 @@
       <c r="BW2" t="s">
         <v>612</v>
       </c>
-      <c r="BX2" s="41"/>
+      <c r="BX2" s="40"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
@@ -3170,18 +3184,18 @@
         <v>71</v>
       </c>
       <c r="CG2" s="12"/>
-      <c r="CH2" s="41" t="s">
+      <c r="CH2" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="CI2" s="41" t="s">
+      <c r="CI2" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="CJ2" s="39"/>
-      <c r="CK2" s="39"/>
+      <c r="CJ2" s="38"/>
+      <c r="CK2" s="38"/>
       <c r="CL2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="CM2" s="41" t="s">
+      <c r="CM2" s="40" t="s">
         <v>613</v>
       </c>
       <c r="CN2" s="12" t="s">
@@ -3190,7 +3204,7 @@
       <c r="CO2" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="CP2" s="39" t="s">
+      <c r="CP2" s="38" t="s">
         <v>341</v>
       </c>
       <c r="CQ2" s="11" t="s">
@@ -3204,22 +3218,22 @@
       </c>
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
-      <c r="CV2" s="39" t="s">
+      <c r="CV2" s="38" t="s">
         <v>429</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CX2" s="39" t="s">
+      <c r="CX2" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="CY2" s="39" t="s">
+      <c r="CY2" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="CZ2" s="39" t="s">
+      <c r="CZ2" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="DA2" s="39" t="s">
+      <c r="DA2" s="38" t="s">
         <v>397</v>
       </c>
       <c r="DB2" s="12" t="s">
@@ -3256,64 +3270,64 @@
       <c r="DO2" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="DP2" s="42" t="s">
+      <c r="DP2" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="DQ2" s="42" t="s">
+      <c r="DQ2" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="DR2" s="42" t="s">
+      <c r="DR2" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="DS2" s="43" t="s">
+      <c r="DS2" s="42" t="s">
         <v>621</v>
       </c>
-      <c r="DT2" s="43" t="s">
+      <c r="DT2" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="DU2" s="43" t="s">
+      <c r="DU2" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="DV2" s="42" t="s">
+      <c r="DV2" s="41" t="s">
         <v>623</v>
       </c>
-      <c r="DW2" s="42" t="s">
+      <c r="DW2" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="DX2" s="43" t="s">
+      <c r="DX2" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="DY2" s="43" t="s">
+      <c r="DY2" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="DZ2" s="43" t="s">
+      <c r="DZ2" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="EA2" s="43" t="s">
+      <c r="EA2" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="EB2" s="43" t="s">
+      <c r="EB2" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="EC2" s="43" t="s">
+      <c r="EC2" s="42" t="s">
         <v>625</v>
       </c>
-      <c r="ED2" s="43"/>
-      <c r="EE2" s="43"/>
-      <c r="EF2" s="43" t="s">
+      <c r="ED2" s="42"/>
+      <c r="EE2" s="42"/>
+      <c r="EF2" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="EG2" s="43"/>
-      <c r="EH2" s="43"/>
-      <c r="EI2" s="43"/>
-      <c r="EJ2" s="43"/>
-      <c r="EK2" s="43"/>
-      <c r="EL2" s="43"/>
-      <c r="EM2" s="42" t="s">
+      <c r="EG2" s="42"/>
+      <c r="EH2" s="42"/>
+      <c r="EI2" s="42"/>
+      <c r="EJ2" s="42"/>
+      <c r="EK2" s="42"/>
+      <c r="EL2" s="42"/>
+      <c r="EM2" s="41" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>628</v>
       </c>
@@ -3323,7 +3337,7 @@
       <c r="C3" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>630</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3344,34 +3358,34 @@
       <c r="J3" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="M3" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="N3" s="38" t="s">
+      <c r="N3" s="37" t="s">
         <v>600</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="P3" s="38" t="s">
+      <c r="P3" s="37" t="s">
         <v>429</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="R3" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="S3" s="38" t="s">
+      <c r="S3" s="37" t="s">
         <v>602</v>
       </c>
-      <c r="T3" s="38" t="s">
+      <c r="T3" s="37" t="s">
         <v>603</v>
       </c>
       <c r="U3" s="11">
@@ -3392,8 +3406,8 @@
       <c r="Z3" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12" t="s">
         <v>45</v>
@@ -3511,7 +3525,7 @@
       <c r="BQ3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BR3" s="40" t="s">
+      <c r="BR3" s="39" t="s">
         <v>393</v>
       </c>
       <c r="BS3" s="12" t="s">
@@ -3529,7 +3543,7 @@
       <c r="BW3" t="s">
         <v>612</v>
       </c>
-      <c r="BX3" s="41"/>
+      <c r="BX3" s="40"/>
       <c r="BY3" s="12" t="s">
         <v>143</v>
       </c>
@@ -3555,18 +3569,18 @@
         <v>71</v>
       </c>
       <c r="CG3" s="12"/>
-      <c r="CH3" s="41" t="s">
+      <c r="CH3" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="CI3" s="41" t="s">
+      <c r="CI3" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="CJ3" s="39"/>
-      <c r="CK3" s="39"/>
+      <c r="CJ3" s="38"/>
+      <c r="CK3" s="38"/>
       <c r="CL3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="CM3" s="41" t="s">
+      <c r="CM3" s="40" t="s">
         <v>613</v>
       </c>
       <c r="CN3" s="12" t="s">
@@ -3575,7 +3589,7 @@
       <c r="CO3" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="CP3" s="39" t="s">
+      <c r="CP3" s="38" t="s">
         <v>341</v>
       </c>
       <c r="CQ3" s="11" t="s">
@@ -3584,27 +3598,27 @@
       <c r="CR3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="CS3" s="44" t="s">
+      <c r="CS3" s="43" t="s">
         <v>632</v>
       </c>
       <c r="CT3" s="11"/>
       <c r="CU3" s="11"/>
-      <c r="CV3" s="39" t="s">
+      <c r="CV3" s="38" t="s">
         <v>429</v>
       </c>
       <c r="CW3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CX3" s="39" t="s">
+      <c r="CX3" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="CY3" s="39" t="s">
+      <c r="CY3" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="CZ3" s="39" t="s">
+      <c r="CZ3" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="DA3" s="39" t="s">
+      <c r="DA3" s="38" t="s">
         <v>397</v>
       </c>
       <c r="DB3" s="12" t="s">
@@ -3641,76 +3655,76 @@
       <c r="DO3" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="DP3" s="42" t="s">
+      <c r="DP3" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="DQ3" s="42" t="s">
+      <c r="DQ3" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="DR3" s="42" t="s">
+      <c r="DR3" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="DS3" s="43" t="s">
+      <c r="DS3" s="42" t="s">
         <v>621</v>
       </c>
-      <c r="DT3" s="43" t="s">
+      <c r="DT3" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="DU3" s="43" t="s">
+      <c r="DU3" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="DV3" s="42" t="s">
+      <c r="DV3" s="41" t="s">
         <v>623</v>
       </c>
-      <c r="DW3" s="42" t="s">
+      <c r="DW3" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="DX3" s="43" t="s">
+      <c r="DX3" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="DY3" s="43" t="s">
+      <c r="DY3" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="DZ3" s="43" t="s">
+      <c r="DZ3" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="EA3" s="43" t="s">
+      <c r="EA3" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="EB3" s="43" t="s">
+      <c r="EB3" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="EC3" s="43" t="s">
+      <c r="EC3" s="42" t="s">
         <v>625</v>
       </c>
-      <c r="ED3" s="43"/>
-      <c r="EE3" s="43"/>
-      <c r="EF3" s="43" t="s">
+      <c r="ED3" s="42"/>
+      <c r="EE3" s="42"/>
+      <c r="EF3" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="EG3" s="43" t="s">
+      <c r="EG3" s="42" t="s">
         <v>396</v>
       </c>
-      <c r="EH3" s="43" t="s">
+      <c r="EH3" s="42" t="s">
         <v>634</v>
       </c>
-      <c r="EI3" s="43" t="s">
+      <c r="EI3" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="EJ3" s="43" t="s">
+      <c r="EJ3" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="EK3" s="43" t="s">
+      <c r="EK3" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="EL3" s="43" t="s">
+      <c r="EL3" s="42" t="s">
         <v>636</v>
       </c>
-      <c r="EM3" s="42" t="s">
+      <c r="EM3" s="41" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="4" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>637</v>
       </c>
@@ -3720,7 +3734,7 @@
       <c r="C4" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>639</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -3741,34 +3755,34 @@
       <c r="J4" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="36" t="s">
         <v>598</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="36" t="s">
         <v>599</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="37" t="s">
         <v>600</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="37" t="s">
         <v>429</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="37" t="s">
         <v>429</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="37" t="s">
         <v>640</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="37" t="s">
         <v>603</v>
       </c>
       <c r="U4" s="11">
@@ -3789,8 +3803,8 @@
       <c r="Z4" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12" t="s">
         <v>45</v>
@@ -3908,7 +3922,7 @@
       <c r="BQ4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="BR4" s="40" t="s">
+      <c r="BR4" s="39" t="s">
         <v>393</v>
       </c>
       <c r="BS4" s="12" t="s">
@@ -3926,7 +3940,7 @@
       <c r="BW4" t="s">
         <v>612</v>
       </c>
-      <c r="BX4" s="41"/>
+      <c r="BX4" s="40"/>
       <c r="BY4" s="12" t="s">
         <v>143</v>
       </c>
@@ -3952,18 +3966,18 @@
         <v>71</v>
       </c>
       <c r="CG4" s="12"/>
-      <c r="CH4" s="41" t="s">
+      <c r="CH4" s="40" t="s">
         <v>392</v>
       </c>
-      <c r="CI4" s="41" t="s">
+      <c r="CI4" s="40" t="s">
         <v>476</v>
       </c>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="39"/>
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="38"/>
       <c r="CL4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="CM4" s="41" t="s">
+      <c r="CM4" s="40" t="s">
         <v>613</v>
       </c>
       <c r="CN4" s="12" t="s">
@@ -3972,7 +3986,7 @@
       <c r="CO4" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="CP4" s="39" t="s">
+      <c r="CP4" s="38" t="s">
         <v>341</v>
       </c>
       <c r="CQ4" s="11" t="s">
@@ -3986,22 +4000,22 @@
       </c>
       <c r="CT4" s="11"/>
       <c r="CU4" s="11"/>
-      <c r="CV4" s="39" t="s">
+      <c r="CV4" s="38" t="s">
         <v>429</v>
       </c>
       <c r="CW4" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="CX4" s="39" t="s">
+      <c r="CX4" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="CY4" s="39" t="s">
+      <c r="CY4" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="CZ4" s="39" t="s">
+      <c r="CZ4" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="DA4" s="39" t="s">
+      <c r="DA4" s="38" t="s">
         <v>397</v>
       </c>
       <c r="DB4" s="12" t="s">
@@ -4038,60 +4052,60 @@
       <c r="DO4" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="DP4" s="42" t="s">
+      <c r="DP4" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="DQ4" s="42" t="s">
+      <c r="DQ4" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="DR4" s="42" t="s">
+      <c r="DR4" s="41" t="s">
         <v>620</v>
       </c>
-      <c r="DS4" s="43" t="s">
+      <c r="DS4" s="42" t="s">
         <v>621</v>
       </c>
-      <c r="DT4" s="43" t="s">
+      <c r="DT4" s="42" t="s">
         <v>392</v>
       </c>
-      <c r="DU4" s="43" t="s">
+      <c r="DU4" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="DV4" s="42" t="s">
+      <c r="DV4" s="41" t="s">
         <v>623</v>
       </c>
-      <c r="DW4" s="42" t="s">
+      <c r="DW4" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="DX4" s="43" t="s">
+      <c r="DX4" s="42" t="s">
         <v>391</v>
       </c>
-      <c r="DY4" s="43" t="s">
+      <c r="DY4" s="42" t="s">
         <v>479</v>
       </c>
-      <c r="DZ4" s="43" t="s">
+      <c r="DZ4" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="EA4" s="43" t="s">
+      <c r="EA4" s="42" t="s">
         <v>427</v>
       </c>
-      <c r="EB4" s="43" t="s">
+      <c r="EB4" s="42" t="s">
         <v>641</v>
       </c>
-      <c r="EC4" s="43" t="s">
+      <c r="EC4" s="42" t="s">
         <v>625</v>
       </c>
-      <c r="ED4" s="43"/>
-      <c r="EE4" s="43"/>
-      <c r="EF4" s="43" t="s">
+      <c r="ED4" s="42"/>
+      <c r="EE4" s="42"/>
+      <c r="EF4" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="EG4" s="43"/>
-      <c r="EH4" s="43"/>
-      <c r="EI4" s="43"/>
-      <c r="EJ4" s="43"/>
-      <c r="EK4" s="43"/>
-      <c r="EL4" s="43"/>
-      <c r="EM4" s="42" t="s">
+      <c r="EG4" s="42"/>
+      <c r="EH4" s="42"/>
+      <c r="EI4" s="42"/>
+      <c r="EJ4" s="42"/>
+      <c r="EK4" s="42"/>
+      <c r="EL4" s="42"/>
+      <c r="EM4" s="41" t="s">
         <v>627</v>
       </c>
     </row>
@@ -4102,41 +4116,45 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH12"/>
+  <dimension ref="A1:BJ12"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BV8" sqref="BV8"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BH4" sqref="BH4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5546875" customWidth="1"/>
+    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="15" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="18.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -4314,9 +4332,17 @@
       <c r="BG1" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="BH1" s="34"/>
-    </row>
-    <row r="2" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="BH1" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>441</v>
       </c>
@@ -4480,9 +4506,17 @@
       <c r="BE2" s="2"/>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
-      <c r="BH2"/>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH2" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>455</v>
       </c>
@@ -4644,8 +4678,17 @@
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH3" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>457</v>
       </c>
@@ -4807,8 +4850,17 @@
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH4" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>459</v>
       </c>
@@ -4972,8 +5024,17 @@
       <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH5" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>462</v>
       </c>
@@ -5137,8 +5198,17 @@
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH6" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI6" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>464</v>
       </c>
@@ -5302,8 +5372,17 @@
       <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH7" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI7" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ7" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>466</v>
       </c>
@@ -5467,8 +5546,17 @@
       <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH8" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ8" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>468</v>
       </c>
@@ -5630,8 +5718,17 @@
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH9" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI9" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ9" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>470</v>
       </c>
@@ -5793,8 +5890,17 @@
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH10" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI10" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ10" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>472</v>
       </c>
@@ -5958,8 +6064,17 @@
       <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BH11" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI11" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ11" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>474</v>
       </c>
@@ -6130,6 +6245,15 @@
       </c>
       <c r="BG12" s="2">
         <v>121212</v>
+      </c>
+      <c r="BH12" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="BI12" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="BJ12" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -6146,12 +6270,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6205,7 +6329,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>287</v>
       </c>
@@ -6258,7 +6382,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>288</v>
       </c>
@@ -6311,7 +6435,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -6364,7 +6488,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -6417,7 +6541,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>291</v>
       </c>
@@ -6483,18 +6607,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="31"/>
+    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6514,7 +6638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>368</v>
       </c>
@@ -6534,7 +6658,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>369</v>
       </c>
@@ -6554,7 +6678,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>376</v>
       </c>
@@ -6574,7 +6698,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>370</v>
       </c>
@@ -6594,7 +6718,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>371</v>
       </c>
@@ -6614,7 +6738,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>372</v>
       </c>
@@ -6634,7 +6758,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>373</v>
       </c>
@@ -6667,27 +6791,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="24"/>
-    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.140625" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="24"/>
+    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="24"/>
+    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.109375" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -6734,7 +6858,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>303</v>
       </c>
@@ -6777,17 +6901,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -6805,24 +6929,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="24"/>
+    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -6869,7 +6993,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>320</v>
       </c>
@@ -6910,7 +7034,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>326</v>
       </c>
@@ -6964,20 +7088,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -7012,7 +7136,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>331</v>
       </c>
@@ -7068,20 +7192,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.28515625" customWidth="1"/>
-    <col min="12" max="13" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" customWidth="1"/>
+    <col min="12" max="13" width="15.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7272,7 +7396,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7459,7 +7583,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -7648,22 +7772,22 @@
       <selection activeCell="DM1" sqref="DM1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.42578125" customWidth="1"/>
-    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5703125" customWidth="1"/>
-    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.44140625" customWidth="1"/>
+    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:147" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8106,7 +8230,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="2" spans="1:147" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -8523,7 +8647,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:147" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>430</v>
       </c>
@@ -8882,7 +9006,7 @@
       <c r="EP3" s="9"/>
       <c r="EQ3" s="9"/>
     </row>
-    <row r="4" spans="1:147" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
@@ -9213,7 +9337,7 @@
       <c r="EP4" s="9"/>
       <c r="EQ4" s="9"/>
     </row>
-    <row r="5" spans="1:147" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>432</v>
       </c>
@@ -9544,7 +9668,7 @@
       <c r="EP5" s="9"/>
       <c r="EQ5" s="9"/>
     </row>
-    <row r="6" spans="1:147" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:147" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>150</v>
       </c>
@@ -9875,7 +9999,7 @@
       <c r="EP6" s="9"/>
       <c r="EQ6" s="9"/>
     </row>
-    <row r="7" spans="1:147" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:147" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>433</v>
       </c>
@@ -10206,7 +10330,7 @@
       <c r="EP7" s="9"/>
       <c r="EQ7" s="9"/>
     </row>
-    <row r="8" spans="1:147" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>156</v>
       </c>
@@ -10537,7 +10661,7 @@
       <c r="EP8" s="9"/>
       <c r="EQ8" s="9"/>
     </row>
-    <row r="9" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>434</v>
       </c>
@@ -10868,7 +10992,7 @@
       <c r="EP9" s="9"/>
       <c r="EQ9" s="9"/>
     </row>
-    <row r="10" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>163</v>
       </c>
@@ -11199,7 +11323,7 @@
       <c r="EP10" s="9"/>
       <c r="EQ10" s="9"/>
     </row>
-    <row r="11" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>435</v>
       </c>
@@ -11530,7 +11654,7 @@
       <c r="EP11" s="9"/>
       <c r="EQ11" s="9"/>
     </row>
-    <row r="12" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:147" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>511</v>
       </c>
@@ -11945,499 +12069,499 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:147" x14ac:dyDescent="0.3">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:147" x14ac:dyDescent="0.3">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:147" x14ac:dyDescent="0.3">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:147" x14ac:dyDescent="0.3">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -12454,17 +12578,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -12499,7 +12623,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
@@ -12526,7 +12650,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>178</v>
       </c>
@@ -12557,7 +12681,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>179</v>
       </c>
@@ -12578,7 +12702,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>180</v>
       </c>
@@ -12614,19 +12738,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.7109375" customWidth="1"/>
+    <col min="18" max="18" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12677,7 +12801,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>189</v>
       </c>
@@ -12728,7 +12852,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>189</v>
       </c>
@@ -12779,7 +12903,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>189</v>
       </c>
@@ -12830,7 +12954,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>189</v>
       </c>
@@ -12881,7 +13005,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>189</v>
       </c>
@@ -12943,13 +13067,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -12969,7 +13093,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>244</v>
       </c>
@@ -12989,7 +13113,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>248</v>
       </c>
@@ -13020,12 +13144,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13054,7 +13178,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>250</v>
       </c>
@@ -13094,12 +13218,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13122,7 +13246,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>254</v>
       </c>
@@ -13145,7 +13269,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>258</v>
       </c>
@@ -13166,7 +13290,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>260</v>
       </c>
@@ -13198,14 +13322,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13225,7 +13349,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>244</v>
       </c>
@@ -13245,7 +13369,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>248</v>
       </c>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="550">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1460,9 +1460,6 @@
     <t>26</t>
   </si>
   <si>
-    <t>http://ech-10-168-131-18.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login?0</t>
-  </si>
-  <si>
     <t>Swap</t>
   </si>
   <si>
@@ -1665,6 +1662,21 @@
   </si>
   <si>
     <t>MDKStatus</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login</t>
+  </si>
+  <si>
+    <t>Auto001</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>12-2020</t>
+  </si>
+  <si>
+    <t>April/24/2018</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1855,6 +1867,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2163,23 +2176,23 @@
   <dimension ref="A1:BK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2370,7 +2383,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2557,7 +2570,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -2746,12 +2759,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -2805,7 +2818,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>287</v>
       </c>
@@ -2858,7 +2871,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>288</v>
       </c>
@@ -2911,7 +2924,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -2964,7 +2977,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -3017,7 +3030,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>291</v>
       </c>
@@ -3083,18 +3096,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3114,7 +3127,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>368</v>
       </c>
@@ -3134,7 +3147,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>369</v>
       </c>
@@ -3154,7 +3167,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>376</v>
       </c>
@@ -3174,7 +3187,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>370</v>
       </c>
@@ -3194,7 +3207,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>371</v>
       </c>
@@ -3214,7 +3227,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>372</v>
       </c>
@@ -3234,7 +3247,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>373</v>
       </c>
@@ -3267,27 +3280,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.109375" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3334,7 +3347,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>303</v>
       </c>
@@ -3377,17 +3390,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -3405,24 +3418,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3469,7 +3482,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>320</v>
       </c>
@@ -3510,7 +3523,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>326</v>
       </c>
@@ -3564,20 +3577,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -3612,7 +3625,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>331</v>
       </c>
@@ -3664,26 +3677,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
-      <selection activeCell="DU3" sqref="DU3"/>
+    <sheetView tabSelected="1" topLeftCell="DT5" workbookViewId="0">
+      <selection activeCell="EV6" sqref="EV6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:147" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4036,108 +4049,108 @@
         <v>414</v>
       </c>
       <c r="DN1" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="DO1" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="EQ1" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:147" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>477</v>
+      <c r="B2" s="35" t="s">
+        <v>545</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>478</v>
+        <v>546</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>386</v>
+        <v>547</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>425</v>
@@ -4411,7 +4424,7 @@
         <v>415</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="DA2" s="9" t="s">
         <v>392</v>
@@ -4426,70 +4439,70 @@
         <v>417</v>
       </c>
       <c r="DE2" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="DF2" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="DF2" s="9" t="s">
+      <c r="DG2" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="DG2" s="9" t="s">
+      <c r="DH2" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="DH2" s="9" t="s">
-        <v>483</v>
-      </c>
       <c r="DI2" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="DJ2" s="9" t="s">
         <v>419</v>
       </c>
       <c r="DK2" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="DL2" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="DL2" s="9" t="s">
+      <c r="DM2" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="DM2" s="9" t="s">
+      <c r="DN2" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="DN2" s="9" t="s">
+      <c r="DO2" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="DO2" s="9" t="s">
+      <c r="DP2" s="9" t="s">
         <v>488</v>
-      </c>
-      <c r="DP2" s="9" t="s">
-        <v>489</v>
       </c>
       <c r="DQ2" s="9">
         <v>1234567890123450</v>
       </c>
       <c r="DR2" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="DS2" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="DS2" s="9" t="s">
-        <v>491</v>
       </c>
       <c r="DT2" s="9">
         <v>11</v>
       </c>
       <c r="DU2" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="DV2" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="DV2" s="9" t="s">
+      <c r="DW2" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="DW2" s="9" t="s">
+      <c r="DX2" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="DX2" s="9" t="s">
+      <c r="DY2" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="DY2" s="9" t="s">
+      <c r="DZ2" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="DZ2" s="9" t="s">
-        <v>497</v>
       </c>
       <c r="EA2" s="9">
         <v>123456</v>
@@ -4504,46 +4517,46 @@
         <v>1</v>
       </c>
       <c r="EE2" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="EF2" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="EF2" s="9" t="s">
+      <c r="EG2" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="EG2" s="9" t="s">
+      <c r="EH2" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="EH2" s="9" t="s">
+      <c r="EI2" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="EI2" s="9" t="s">
+      <c r="EJ2" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="EJ2" s="9" t="s">
+      <c r="EK2" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="EK2" s="9" t="s">
+      <c r="EL2" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="EL2" s="9" t="s">
+      <c r="EM2" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="EM2" s="9" t="s">
+      <c r="EN2" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="EN2" s="9" t="s">
+      <c r="EO2" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="EO2" s="9" t="s">
+      <c r="EP2" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="EP2" s="9" t="s">
+      <c r="EQ2" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="EQ2" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="3" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:147" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>430</v>
       </c>
@@ -4902,7 +4915,7 @@
       <c r="EP3" s="9"/>
       <c r="EQ3" s="9"/>
     </row>
-    <row r="4" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:147" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
@@ -5233,7 +5246,7 @@
       <c r="EP4" s="9"/>
       <c r="EQ4" s="9"/>
     </row>
-    <row r="5" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:147" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>432</v>
       </c>
@@ -5564,7 +5577,7 @@
       <c r="EP5" s="9"/>
       <c r="EQ5" s="9"/>
     </row>
-    <row r="6" spans="1:147" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:147" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>150</v>
       </c>
@@ -5895,7 +5908,7 @@
       <c r="EP6" s="9"/>
       <c r="EQ6" s="9"/>
     </row>
-    <row r="7" spans="1:147" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:147" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>433</v>
       </c>
@@ -6226,7 +6239,7 @@
       <c r="EP7" s="9"/>
       <c r="EQ7" s="9"/>
     </row>
-    <row r="8" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:147" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>156</v>
       </c>
@@ -6557,7 +6570,7 @@
       <c r="EP8" s="9"/>
       <c r="EQ8" s="9"/>
     </row>
-    <row r="9" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>434</v>
       </c>
@@ -6888,7 +6901,7 @@
       <c r="EP9" s="9"/>
       <c r="EQ9" s="9"/>
     </row>
-    <row r="10" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>163</v>
       </c>
@@ -7219,7 +7232,7 @@
       <c r="EP10" s="9"/>
       <c r="EQ10" s="9"/>
     </row>
-    <row r="11" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>435</v>
       </c>
@@ -7550,21 +7563,21 @@
       <c r="EP11" s="9"/>
       <c r="EQ11" s="9"/>
     </row>
-    <row r="12" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:147" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>512</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D12" s="9">
         <v>8520</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F12" s="9">
         <v>50</v>
@@ -7696,7 +7709,7 @@
         <v>187</v>
       </c>
       <c r="AY12" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>30</v>
@@ -7776,10 +7789,10 @@
         <v>51</v>
       </c>
       <c r="CE12" s="9" t="s">
-        <v>61</v>
+        <v>548</v>
       </c>
       <c r="CF12" s="9" t="s">
-        <v>394</v>
+        <v>549</v>
       </c>
       <c r="CG12" s="9"/>
       <c r="CH12" s="9"/>
@@ -7821,7 +7834,7 @@
         <v>188</v>
       </c>
       <c r="CV12" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="CW12" s="9" t="s">
         <v>53</v>
@@ -7851,13 +7864,13 @@
         <v>6</v>
       </c>
       <c r="DF12" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DG12" s="9">
         <v>9</v>
       </c>
       <c r="DH12" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="DI12" s="9">
         <v>6</v>
@@ -7869,10 +7882,10 @@
         <v>3</v>
       </c>
       <c r="DL12" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="DM12" s="9" t="s">
         <v>485</v>
-      </c>
-      <c r="DM12" s="9" t="s">
-        <v>486</v>
       </c>
       <c r="DN12" s="9">
         <v>4</v>
@@ -7887,31 +7900,31 @@
         <v>1234567890123450</v>
       </c>
       <c r="DR12" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="DS12" s="9" t="s">
         <v>490</v>
-      </c>
-      <c r="DS12" s="9" t="s">
-        <v>491</v>
       </c>
       <c r="DT12" s="9">
         <v>11</v>
       </c>
       <c r="DU12" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="DV12" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="DV12" s="9" t="s">
+      <c r="DW12" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="DW12" s="9" t="s">
+      <c r="DX12" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="DX12" s="9" t="s">
+      <c r="DY12" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="DY12" s="9" t="s">
+      <c r="DZ12" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="DZ12" s="9" t="s">
-        <v>497</v>
       </c>
       <c r="EA12" s="9">
         <v>123456</v>
@@ -7926,543 +7939,546 @@
         <v>1</v>
       </c>
       <c r="EE12" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="EF12" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="EF12" s="9" t="s">
+      <c r="EG12" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="EG12" s="9" t="s">
+      <c r="EH12" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="EH12" s="9" t="s">
+      <c r="EI12" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="EI12" s="9" t="s">
+      <c r="EJ12" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="EJ12" s="9" t="s">
+      <c r="EK12" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="EK12" s="9" t="s">
+      <c r="EL12" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="EL12" s="9" t="s">
+      <c r="EM12" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="EM12" s="9" t="s">
+      <c r="EN12" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="EN12" s="9" t="s">
+      <c r="EO12" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="EO12" s="9" t="s">
+      <c r="EP12" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="EP12" s="9" t="s">
+      <c r="EQ12" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="EQ12" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="13" spans="1:147" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:147" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:147" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:147" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:147" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8471,20 +8487,20 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8519,7 +8535,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
@@ -8546,7 +8562,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>178</v>
       </c>
@@ -8577,7 +8593,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>179</v>
       </c>
@@ -8598,7 +8614,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>180</v>
       </c>
@@ -8630,23 +8646,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection sqref="A1:Q6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8697,7 +8713,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>189</v>
       </c>
@@ -8748,7 +8764,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>189</v>
       </c>
@@ -8799,7 +8815,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>189</v>
       </c>
@@ -8850,7 +8866,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>189</v>
       </c>
@@ -8901,7 +8917,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>189</v>
       </c>
@@ -8963,13 +8979,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -8989,7 +9005,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>244</v>
       </c>
@@ -9009,7 +9025,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>248</v>
       </c>
@@ -9040,12 +9056,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9074,7 +9090,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>250</v>
       </c>
@@ -9114,12 +9130,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9142,7 +9158,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>254</v>
       </c>
@@ -9165,7 +9181,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>258</v>
       </c>
@@ -9186,7 +9202,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>260</v>
       </c>
@@ -9218,14 +9234,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9245,7 +9261,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>244</v>
       </c>
@@ -9265,7 +9281,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>248</v>
       </c>
@@ -9295,38 +9311,38 @@
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BG12"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -9506,7 +9522,7 @@
       </c>
       <c r="BH1" s="34"/>
     </row>
-    <row r="2" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>441</v>
       </c>
@@ -9672,7 +9688,7 @@
       <c r="BG2" s="2"/>
       <c r="BH2"/>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>455</v>
       </c>
@@ -9835,7 +9851,7 @@
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>457</v>
       </c>
@@ -9998,7 +10014,7 @@
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>459</v>
       </c>
@@ -10163,7 +10179,7 @@
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>462</v>
       </c>
@@ -10328,7 +10344,7 @@
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>464</v>
       </c>
@@ -10493,7 +10509,7 @@
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>466</v>
       </c>
@@ -10658,7 +10674,7 @@
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>468</v>
       </c>
@@ -10821,7 +10837,7 @@
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>470</v>
       </c>
@@ -10984,7 +11000,7 @@
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>472</v>
       </c>
@@ -11149,7 +11165,7 @@
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>474</v>
       </c>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="649">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1969,6 +1969,12 @@
   </si>
   <si>
     <t>Loan Processing Fee [44]</t>
+  </si>
+  <si>
+    <t>MccCode</t>
+  </si>
+  <si>
+    <t>Accounting, Auditing, and Bookkeeping Services [8931]</t>
   </si>
 </sst>
 </file>
@@ -4116,10 +4122,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ12"/>
+  <dimension ref="A1:BK12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BH4" sqref="BH4"/>
+      <selection activeCell="BK2" sqref="BK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4152,9 +4158,10 @@
     <col min="60" max="60" width="15" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -4341,8 +4348,11 @@
       <c r="BJ1" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="2" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BK1" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>441</v>
       </c>
@@ -4515,8 +4525,11 @@
       <c r="BJ2" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK2" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>455</v>
       </c>
@@ -4687,8 +4700,11 @@
       <c r="BJ3" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK3" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>457</v>
       </c>
@@ -4859,8 +4875,11 @@
       <c r="BJ4" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK4" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>459</v>
       </c>
@@ -5033,8 +5052,11 @@
       <c r="BJ5" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK5" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>462</v>
       </c>
@@ -5207,8 +5229,11 @@
       <c r="BJ6" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK6" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>464</v>
       </c>
@@ -5381,8 +5406,11 @@
       <c r="BJ7" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK7" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>466</v>
       </c>
@@ -5555,8 +5583,11 @@
       <c r="BJ8" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK8" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>468</v>
       </c>
@@ -5727,8 +5758,11 @@
       <c r="BJ9" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK9" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>470</v>
       </c>
@@ -5899,8 +5933,11 @@
       <c r="BJ10" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK10" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>472</v>
       </c>
@@ -6073,8 +6110,11 @@
       <c r="BJ11" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
+      <c r="BK11" s="9" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>474</v>
       </c>
@@ -6254,6 +6294,9 @@
       </c>
       <c r="BJ12" s="9" t="s">
         <v>40</v>
+      </c>
+      <c r="BK12" s="9" t="s">
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="S181372" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="562">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1665,6 +1665,54 @@
   </si>
   <si>
     <t>MDKStatus</t>
+  </si>
+  <si>
+    <t>CustCareSTD</t>
+  </si>
+  <si>
+    <t>CustCareIntl</t>
+  </si>
+  <si>
+    <t>CustCareVIP</t>
+  </si>
+  <si>
+    <t>Interchange</t>
+  </si>
+  <si>
+    <t>Transaction Code</t>
+  </si>
+  <si>
+    <t>USA,CAN [+1]</t>
+  </si>
+  <si>
+    <t>232527</t>
+  </si>
+  <si>
+    <t>7O</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Account Master</t>
+  </si>
+  <si>
+    <t>7777777777</t>
+  </si>
+  <si>
+    <t>R6677</t>
+  </si>
+  <si>
+    <t>Account Head 30</t>
+  </si>
+  <si>
+    <t>https://stage.sa.eis.customer.mastercard.com/mpts/eis/app</t>
+  </si>
+  <si>
+    <t>Truptii</t>
+  </si>
+  <si>
+    <t>4656</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1854,7 +1902,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3664,7 +3711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DD1" workbookViewId="0">
+    <sheetView topLeftCell="DD1" workbookViewId="0">
       <selection activeCell="DU3" sqref="DU3"/>
     </sheetView>
   </sheetViews>
@@ -9292,17 +9339,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH12"/>
+  <dimension ref="A1:CL20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:BG12"/>
+    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
+      <selection activeCell="CB19" sqref="CB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
@@ -9324,372 +9371,559 @@
     <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="80" width="11.5546875" customWidth="1"/>
+    <col min="81" max="81" width="12.109375" customWidth="1"/>
+    <col min="82" max="82" width="11.5546875" customWidth="1"/>
+    <col min="83" max="83" width="20.33203125" customWidth="1"/>
+    <col min="84" max="84" width="18.6640625" style="24" customWidth="1"/>
+    <col min="85" max="85" width="17" customWidth="1"/>
+    <col min="86" max="86" width="10.21875" customWidth="1"/>
+    <col min="88" max="88" width="15.33203125" customWidth="1"/>
+    <col min="89" max="89" width="12" customWidth="1"/>
+    <col min="90" max="90" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:90" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AM1" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AV1" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AX1" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AY1" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AZ1" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="BA1" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="BB1" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="BC1" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BD1" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BE1" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BF1" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BG1" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BH1" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BI1" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BJ1" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="BH1" s="34"/>
-    </row>
-    <row r="2" spans="1:60" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BK1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="BN1" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="BO1" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="BP1" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="BQ1" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="BR1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="BS1" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="BT1" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="BU1" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="BV1" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="BW1" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="BX1" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="BY1" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="BZ1" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="CA1" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="CB1" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="CC1" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="CD1" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="CE1" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="CF1" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="CG1" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="CH1" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="CI1" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="CJ1" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="CK1" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="CL1" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:90" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="T2" s="2">
         <v>16</v>
       </c>
-      <c r="R2" s="2">
+      <c r="U2" s="2">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W2" s="2">
+      <c r="Z2" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AB2" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AE2" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AF2" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AN2" s="2">
         <v>411006</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AO2" s="2">
         <v>124421</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AX2" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="BA2" s="2">
         <v>999</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
-      <c r="BH2"/>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ2" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS2" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU2" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV2" s="2"/>
+      <c r="BW2" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX2" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY2" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ2" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA2" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB2" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC2" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD2" s="25"/>
+      <c r="CE2" s="25"/>
+      <c r="CF2" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG2" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH2" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI2" s="25"/>
+      <c r="CJ2" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK2" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL2" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>455</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>443</v>
@@ -9698,489 +9932,744 @@
         <v>443</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="T3" s="2">
         <v>16</v>
       </c>
-      <c r="R3" s="2">
+      <c r="U3" s="2">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W3" s="2">
+      <c r="Z3" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AB3" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AE3" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AF3" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AN3" s="2">
         <v>411006</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AO3" s="2">
         <v>124421</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AX3" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="BA3" s="2">
         <v>999</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ3" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR3" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS3" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT3" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU3" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV3" s="2"/>
+      <c r="BW3" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX3" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY3" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ3" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA3" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB3" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC3" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD3" s="25"/>
+      <c r="CE3" s="25"/>
+      <c r="CF3" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG3" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH3" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI3" s="25"/>
+      <c r="CJ3" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK3" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL3" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>457</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>218</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="T4" s="2">
         <v>16</v>
       </c>
-      <c r="R4" s="2">
+      <c r="U4" s="2">
         <v>16</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W4" s="2">
+      <c r="Z4" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AB4" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AE4" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AF4" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AN4" s="2">
         <v>411006</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AO4" s="2">
         <v>124421</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2" t="s">
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AX4" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="BA4" s="2">
         <v>999</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="BB4" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="BC4" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA4" s="2" t="s">
+      <c r="BD4" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="BP4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR4" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS4" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT4" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU4" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX4" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY4" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ4" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA4" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB4" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC4" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD4" s="25"/>
+      <c r="CE4" s="25"/>
+      <c r="CF4" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG4" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH4" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI4" s="25"/>
+      <c r="CJ4" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK4" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL4" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>459</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="T5" s="2">
         <v>16</v>
       </c>
-      <c r="R5" s="2">
+      <c r="U5" s="2">
         <v>16</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Z5" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AB5" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AE5" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AF5" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AL5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AN5" s="2">
         <v>411006</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AO5" s="2">
         <v>124421</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AP5" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AR5" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AS5" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2" t="s">
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AW5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AX5" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AY5" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW5" s="2" t="s">
+      <c r="AZ5" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="BA5" s="2">
         <v>999</v>
       </c>
-      <c r="AY5" s="2" t="s">
+      <c r="BB5" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="BC5" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA5" s="2" t="s">
+      <c r="BD5" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB5" s="2" t="s">
+      <c r="BE5" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR5" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS5" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT5" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU5" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX5" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY5" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ5" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA5" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB5" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC5" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD5" s="25"/>
+      <c r="CE5" s="25"/>
+      <c r="CF5" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG5" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH5" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI5" s="25"/>
+      <c r="CJ5" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK5" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL5" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>462</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>218</v>
@@ -10189,10 +10678,10 @@
         <v>218</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>218</v>
@@ -10201,163 +10690,248 @@
         <v>218</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="T6" s="2">
         <v>16</v>
       </c>
-      <c r="R6" s="2">
+      <c r="U6" s="2">
         <v>16</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Z6" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AB6" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AE6" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AF6" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AL6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AM6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AN6" s="2">
         <v>411006</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AO6" s="2">
         <v>124421</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AP6" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AR6" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AS6" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2" t="s">
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AX6" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AY6" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AZ6" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="BA6" s="2">
         <v>999</v>
       </c>
-      <c r="AY6" s="2" t="s">
+      <c r="BB6" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="BC6" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA6" s="2" t="s">
+      <c r="BD6" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB6" s="2" t="s">
+      <c r="BE6" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ6" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR6" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS6" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT6" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU6" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX6" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY6" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ6" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA6" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB6" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC6" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD6" s="25"/>
+      <c r="CE6" s="25"/>
+      <c r="CF6" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG6" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH6" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI6" s="25"/>
+      <c r="CJ6" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK6" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL6" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>218</v>
@@ -10366,151 +10940,236 @@
         <v>218</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>16</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>16</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AE7" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AF7" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AM7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AN7" s="2">
         <v>411006</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AO7" s="2">
         <v>124421</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AR7" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2" t="s">
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AX7" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="BA7" s="2">
         <v>999</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="BB7" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="BC7" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA7" s="2" t="s">
+      <c r="BD7" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BE7" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM7" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN7" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO7" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ7" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR7" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS7" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT7" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU7" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV7" s="2"/>
+      <c r="BW7" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY7" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ7" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA7" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB7" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC7" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD7" s="25"/>
+      <c r="CE7" s="25"/>
+      <c r="CF7" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG7" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI7" s="25"/>
+      <c r="CJ7" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK7" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL7" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>466</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>218</v>
@@ -10519,10 +11178,10 @@
         <v>218</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>218</v>
@@ -10531,151 +11190,236 @@
         <v>218</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="T8" s="2">
         <v>16</v>
       </c>
-      <c r="R8" s="2">
+      <c r="U8" s="2">
         <v>16</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W8" s="2">
+      <c r="Z8" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AB8" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AE8" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AF8" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AN8" s="2">
         <v>411006</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AO8" s="2">
         <v>124421</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AP8" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO8" s="2" t="s">
+      <c r="AR8" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2" t="s">
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT8" s="2" t="s">
+      <c r="AW8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AX8" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AZ8" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="BA8" s="2">
         <v>999</v>
       </c>
-      <c r="AY8" s="2" t="s">
+      <c r="BB8" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ8" s="2" t="s">
+      <c r="BC8" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA8" s="2" t="s">
+      <c r="BD8" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB8" s="2" t="s">
+      <c r="BE8" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL8" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM8" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ8" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR8" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS8" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT8" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU8" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX8" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY8" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ8" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA8" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB8" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC8" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD8" s="25"/>
+      <c r="CE8" s="25"/>
+      <c r="CF8" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG8" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH8" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI8" s="25"/>
+      <c r="CJ8" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK8" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL8" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>468</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>443</v>
@@ -10684,645 +11428,993 @@
         <v>443</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="T9" s="2">
         <v>16</v>
       </c>
-      <c r="R9" s="2">
+      <c r="U9" s="2">
         <v>16</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="X9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W9" s="2">
+      <c r="Z9" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AB9" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AE9" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AF9" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AM9" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AN9" s="2">
         <v>411006</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AO9" s="2">
         <v>124421</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AP9" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AQ9" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO9" s="2" t="s">
+      <c r="AR9" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AS9" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2" t="s">
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT9" s="2" t="s">
+      <c r="AW9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AX9" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AZ9" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX9" s="2">
+      <c r="BA9" s="2">
         <v>999</v>
       </c>
-      <c r="AY9" s="2" t="s">
+      <c r="BB9" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ9" s="2" t="s">
+      <c r="BC9" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA9" s="2" t="s">
+      <c r="BD9" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL9" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM9" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN9" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP9" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ9" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR9" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS9" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT9" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU9" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV9" s="2"/>
+      <c r="BW9" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX9" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY9" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ9" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA9" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB9" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC9" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD9" s="25"/>
+      <c r="CE9" s="25"/>
+      <c r="CF9" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG9" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH9" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI9" s="25"/>
+      <c r="CJ9" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK9" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL9" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>470</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>443</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="T10" s="2">
         <v>16</v>
       </c>
-      <c r="R10" s="2">
+      <c r="U10" s="2">
         <v>16</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W10" s="2">
+      <c r="Z10" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AB10" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AE10" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AF10" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AN10" s="2">
         <v>411006</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AO10" s="2">
         <v>124421</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AP10" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AR10" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AS10" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2" t="s">
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AW10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AX10" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AY10" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW10" s="2" t="s">
+      <c r="AZ10" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX10" s="2">
+      <c r="BA10" s="2">
         <v>999</v>
       </c>
-      <c r="AY10" s="2" t="s">
+      <c r="BB10" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ10" s="2" t="s">
+      <c r="BC10" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA10" s="2" t="s">
+      <c r="BD10" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL10" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM10" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN10" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO10" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ10" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR10" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS10" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT10" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU10" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV10" s="2"/>
+      <c r="BW10" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX10" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY10" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ10" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA10" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB10" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC10" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD10" s="25"/>
+      <c r="CE10" s="25"/>
+      <c r="CF10" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG10" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH10" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI10" s="25"/>
+      <c r="CJ10" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK10" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL10" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>472</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="T11" s="2">
         <v>16</v>
       </c>
-      <c r="R11" s="2">
+      <c r="U11" s="2">
         <v>16</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W11" s="2">
+      <c r="Z11" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AB11" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AE11" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AF11" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AL11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AM11" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AN11" s="2">
         <v>411006</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AO11" s="2">
         <v>124421</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AP11" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AQ11" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO11" s="2" t="s">
+      <c r="AR11" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AS11" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2" t="s">
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AW11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AX11" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV11" s="2" t="s">
+      <c r="AY11" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW11" s="2" t="s">
+      <c r="AZ11" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="BA11" s="2">
         <v>999</v>
       </c>
-      <c r="AY11" s="2" t="s">
+      <c r="BB11" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ11" s="2" t="s">
+      <c r="BC11" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA11" s="2" t="s">
+      <c r="BD11" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB11" s="2" t="s">
+      <c r="BE11" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL11" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM11" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN11" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO11" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ11" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR11" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS11" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT11" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU11" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV11" s="2"/>
+      <c r="BW11" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX11" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY11" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ11" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA11" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB11" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC11" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD11" s="25"/>
+      <c r="CE11" s="25"/>
+      <c r="CF11" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG11" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH11" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI11" s="25"/>
+      <c r="CJ11" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK11" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL11" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="T12" s="2">
         <v>16</v>
       </c>
-      <c r="R12" s="2">
+      <c r="U12" s="2">
         <v>16</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Z12" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AB12" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AE12" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AF12" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AH12" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AK12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AL12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AM12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AN12" s="2">
         <v>411006</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AO12" s="2">
         <v>124421</v>
       </c>
-      <c r="AM12" s="2" t="s">
+      <c r="AP12" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN12" s="2" t="s">
+      <c r="AQ12" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO12" s="2" t="s">
+      <c r="AR12" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AS12" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2" t="s">
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT12" s="2" t="s">
+      <c r="AW12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AX12" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV12" s="2" t="s">
+      <c r="AY12" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW12" s="2" t="s">
+      <c r="AZ12" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="BA12" s="2">
         <v>999</v>
       </c>
-      <c r="AY12" s="2" t="s">
+      <c r="BB12" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ12" s="2" t="s">
+      <c r="BC12" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA12" s="2" t="s">
+      <c r="BD12" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB12" s="2" t="s">
+      <c r="BE12" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2" t="s">
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="BE12" s="2" t="s">
+      <c r="BH12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="BF12" s="2" t="s">
+      <c r="BI12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="BG12" s="2">
+      <c r="BJ12" s="2">
         <v>121212</v>
       </c>
+      <c r="BK12" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BL12" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BM12" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN12" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="BP12" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ12" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="BR12" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="BS12" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BT12" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BU12" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BV12" s="2"/>
+      <c r="BW12" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="BX12" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="BY12" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="BZ12" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="CA12" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="CB12" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="CC12" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="CD12" s="25"/>
+      <c r="CE12" s="25"/>
+      <c r="CF12" s="25">
+        <v>121212</v>
+      </c>
+      <c r="CG12" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="CH12" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="CI12" s="25"/>
+      <c r="CJ12" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="CK12" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="CL12" s="25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please select from the dropdown" sqref="CK2:CK12">
+      <formula1>$K$2:$K$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2652" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="657">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1975,6 +1975,30 @@
   </si>
   <si>
     <t>Accounting, Auditing, and Bookkeeping Services [8931]</t>
+  </si>
+  <si>
+    <t>HolidayType</t>
+  </si>
+  <si>
+    <t>LoanType</t>
+  </si>
+  <si>
+    <t>DraftNeeded</t>
+  </si>
+  <si>
+    <t>LoanTypeCreditLimit</t>
+  </si>
+  <si>
+    <t>LoanTypeCashLimit</t>
+  </si>
+  <si>
+    <t>Holiday [H]</t>
+  </si>
+  <si>
+    <t>Loan below credit limit [LOANCR]</t>
+  </si>
+  <si>
+    <t>Retail Transaction to Loan [LOANPUR]</t>
   </si>
 </sst>
 </file>
@@ -4122,10 +4146,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK12"/>
+  <dimension ref="A1:BP12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
-      <selection activeCell="BK2" sqref="BK2"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BO4" sqref="BO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4159,9 +4183,10 @@
     <col min="61" max="61" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="46" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:68" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -4351,8 +4376,23 @@
       <c r="BK1" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="2" spans="1:63" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BL1" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>441</v>
       </c>
@@ -4528,8 +4568,23 @@
       <c r="BK2" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL2" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>455</v>
       </c>
@@ -4703,8 +4758,23 @@
       <c r="BK3" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL3" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP3" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>457</v>
       </c>
@@ -4878,8 +4948,23 @@
       <c r="BK4" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL4" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP4" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>459</v>
       </c>
@@ -5055,8 +5140,23 @@
       <c r="BK5" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL5" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP5" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>462</v>
       </c>
@@ -5232,8 +5332,23 @@
       <c r="BK6" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL6" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP6" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>464</v>
       </c>
@@ -5409,8 +5524,23 @@
       <c r="BK7" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL7" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM7" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP7" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>466</v>
       </c>
@@ -5586,8 +5716,23 @@
       <c r="BK8" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL8" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM8" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP8" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>468</v>
       </c>
@@ -5761,8 +5906,23 @@
       <c r="BK9" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL9" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM9" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP9" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>470</v>
       </c>
@@ -5936,8 +6096,23 @@
       <c r="BK10" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL10" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM10" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP10" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>472</v>
       </c>
@@ -6113,8 +6288,23 @@
       <c r="BK11" s="9" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="BL11" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM11" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP11" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>474</v>
       </c>
@@ -6297,6 +6487,21 @@
       </c>
       <c r="BK12" s="9" t="s">
         <v>648</v>
+      </c>
+      <c r="BL12" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="BM12" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BN12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BO12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BP12" s="9" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="660">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1999,6 +1999,15 @@
   </si>
   <si>
     <t>Retail Transaction to Loan [LOANPUR]</t>
+  </si>
+  <si>
+    <t>ProgramWalletPromotion</t>
+  </si>
+  <si>
+    <t>DefaultLoanPlan</t>
+  </si>
+  <si>
+    <t>Program [0]</t>
   </si>
 </sst>
 </file>
@@ -2008,7 +2017,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2031,6 +2040,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2134,7 +2149,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2219,6 +2234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4146,10 +4162,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP12"/>
+  <dimension ref="A1:BR12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BO4" sqref="BO4"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
+      <selection activeCell="BP3" sqref="BP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4184,9 +4200,11 @@
     <col min="62" max="62" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="46" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -4391,8 +4409,14 @@
       <c r="BP1" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="2" spans="1:68" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="BQ1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" s="31" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>441</v>
       </c>
@@ -4583,8 +4607,14 @@
       <c r="BP2" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ2" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR2" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>455</v>
       </c>
@@ -4773,8 +4803,14 @@
       <c r="BP3" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ3" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR3" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>457</v>
       </c>
@@ -4963,8 +4999,14 @@
       <c r="BP4" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ4" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR4" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>459</v>
       </c>
@@ -5155,8 +5197,14 @@
       <c r="BP5" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ5" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR5" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>462</v>
       </c>
@@ -5347,8 +5395,14 @@
       <c r="BP6" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ6" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR6" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>464</v>
       </c>
@@ -5539,8 +5593,14 @@
       <c r="BP7" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ7" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR7" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>466</v>
       </c>
@@ -5731,8 +5791,14 @@
       <c r="BP8" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ8" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR8" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>468</v>
       </c>
@@ -5921,8 +5987,14 @@
       <c r="BP9" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ9" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR9" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>470</v>
       </c>
@@ -6111,8 +6183,14 @@
       <c r="BP10" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ10" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR10" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>472</v>
       </c>
@@ -6303,8 +6381,14 @@
       <c r="BP11" s="9" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="BQ11" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR11" s="44" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>474</v>
       </c>
@@ -6501,6 +6585,12 @@
         <v>218</v>
       </c>
       <c r="BP12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BQ12" s="44" t="s">
+        <v>659</v>
+      </c>
+      <c r="BR12" s="44" t="s">
         <v>218</v>
       </c>
     </row>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="582">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1637,9 +1637,6 @@
     <t>MDKStatus</t>
   </si>
   <si>
-    <t>Auto001</t>
-  </si>
-  <si>
     <t>1234</t>
   </si>
   <si>
@@ -1707,6 +1704,75 @@
   </si>
   <si>
     <t>https://stage.sa.eis.customer.mastercard.com/mpts/eis/app</t>
+  </si>
+  <si>
+    <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login?0</t>
+  </si>
+  <si>
+    <t>SWISS [200002]</t>
+  </si>
+  <si>
+    <t>currencyCodeTxt</t>
+  </si>
+  <si>
+    <t>monthlyLimitTxt</t>
+  </si>
+  <si>
+    <t>monthlyVelocityTxt</t>
+  </si>
+  <si>
+    <t>yearlyVelocityTxt</t>
+  </si>
+  <si>
+    <t>100000000</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>10000000000000000000</t>
+  </si>
+  <si>
+    <t>comparisonOperator</t>
+  </si>
+  <si>
+    <t>ruleCode</t>
+  </si>
+  <si>
+    <t>ruleValue</t>
+  </si>
+  <si>
+    <t>= [=]</t>
+  </si>
+  <si>
+    <t>AccountRangeFrom</t>
+  </si>
+  <si>
+    <t>AccountRangeTo</t>
+  </si>
+  <si>
+    <t>yearlyLimitTxt</t>
+  </si>
+  <si>
+    <t>APILInkingUserID</t>
+  </si>
+  <si>
+    <t>525252523612345</t>
+  </si>
+  <si>
+    <t>525252523692345</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>100000000000000000000000</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>121212</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1826,12 +1892,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1898,6 +1977,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3705,10 +3788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EQ177"/>
+  <dimension ref="A1:FB177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="EM1" workbookViewId="0">
+      <selection activeCell="ET5" sqref="ET5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,9 +3807,10 @@
     <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="17.5703125" customWidth="1"/>
     <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
+    <col min="152" max="154" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:158" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -4165,11 +4249,44 @@
       <c r="EP1" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="EQ1" s="4" t="s">
+      <c r="EQ1" s="36" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="2" spans="1:147" ht="90" x14ac:dyDescent="0.25">
+      <c r="ER1" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="ES1" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="ET1" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="EU1" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="EV1" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="EW1" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="EX1" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="EY1" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="EZ1" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="FA1" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="FB1" s="4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:158" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -4177,13 +4294,13 @@
         <v>559</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>537</v>
-      </c>
       <c r="E2" s="9" t="s">
-        <v>419</v>
+        <v>560</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>381</v>
@@ -4582,16 +4699,49 @@
       <c r="EP2" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="EQ2" s="9" t="s">
+      <c r="EQ2" s="37" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="3" spans="1:147" ht="90" x14ac:dyDescent="0.25">
+      <c r="ER2" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="ES2" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="ET2" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="EU2" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="EV2" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="EW2" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="EX2" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="EY2" s="35" t="s">
+        <v>571</v>
+      </c>
+      <c r="EZ2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="FA2" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="FB2" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:158" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>424</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>379</v>
@@ -4943,14 +5093,25 @@
       <c r="EN3" s="9"/>
       <c r="EO3" s="9"/>
       <c r="EP3" s="9"/>
-      <c r="EQ3" s="9"/>
-    </row>
-    <row r="4" spans="1:147" ht="90" x14ac:dyDescent="0.25">
+      <c r="EQ3" s="37"/>
+      <c r="ER3" s="9"/>
+      <c r="ES3" s="9"/>
+      <c r="ET3" s="9"/>
+      <c r="EU3" s="9"/>
+      <c r="EV3" s="9"/>
+      <c r="EW3" s="9"/>
+      <c r="EX3" s="9"/>
+      <c r="EY3" s="2"/>
+      <c r="EZ3" s="2"/>
+      <c r="FA3" s="2"/>
+      <c r="FB3" s="2"/>
+    </row>
+    <row r="4" spans="1:158" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>379</v>
@@ -5274,14 +5435,25 @@
       <c r="EN4" s="9"/>
       <c r="EO4" s="9"/>
       <c r="EP4" s="9"/>
-      <c r="EQ4" s="9"/>
-    </row>
-    <row r="5" spans="1:147" ht="90" x14ac:dyDescent="0.25">
+      <c r="EQ4" s="37"/>
+      <c r="ER4" s="9"/>
+      <c r="ES4" s="9"/>
+      <c r="ET4" s="9"/>
+      <c r="EU4" s="9"/>
+      <c r="EV4" s="9"/>
+      <c r="EW4" s="9"/>
+      <c r="EX4" s="9"/>
+      <c r="EY4" s="2"/>
+      <c r="EZ4" s="2"/>
+      <c r="FA4" s="2"/>
+      <c r="FB4" s="2"/>
+    </row>
+    <row r="5" spans="1:158" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>426</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>379</v>
@@ -5605,14 +5777,25 @@
       <c r="EN5" s="9"/>
       <c r="EO5" s="9"/>
       <c r="EP5" s="9"/>
-      <c r="EQ5" s="9"/>
-    </row>
-    <row r="6" spans="1:147" ht="105" x14ac:dyDescent="0.25">
+      <c r="EQ5" s="37"/>
+      <c r="ER5" s="9"/>
+      <c r="ES5" s="9"/>
+      <c r="ET5" s="9"/>
+      <c r="EU5" s="9"/>
+      <c r="EV5" s="9"/>
+      <c r="EW5" s="9"/>
+      <c r="EX5" s="9"/>
+      <c r="EY5" s="2"/>
+      <c r="EZ5" s="2"/>
+      <c r="FA5" s="2"/>
+      <c r="FB5" s="2"/>
+    </row>
+    <row r="6" spans="1:158" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>150</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>379</v>
@@ -5936,14 +6119,25 @@
       <c r="EN6" s="9"/>
       <c r="EO6" s="9"/>
       <c r="EP6" s="9"/>
-      <c r="EQ6" s="9"/>
-    </row>
-    <row r="7" spans="1:147" ht="105" x14ac:dyDescent="0.25">
+      <c r="EQ6" s="37"/>
+      <c r="ER6" s="9"/>
+      <c r="ES6" s="9"/>
+      <c r="ET6" s="9"/>
+      <c r="EU6" s="9"/>
+      <c r="EV6" s="9"/>
+      <c r="EW6" s="9"/>
+      <c r="EX6" s="9"/>
+      <c r="EY6" s="2"/>
+      <c r="EZ6" s="2"/>
+      <c r="FA6" s="2"/>
+      <c r="FB6" s="2"/>
+    </row>
+    <row r="7" spans="1:158" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>427</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>379</v>
@@ -6267,14 +6461,25 @@
       <c r="EN7" s="9"/>
       <c r="EO7" s="9"/>
       <c r="EP7" s="9"/>
-      <c r="EQ7" s="9"/>
-    </row>
-    <row r="8" spans="1:147" ht="90" x14ac:dyDescent="0.25">
+      <c r="EQ7" s="37"/>
+      <c r="ER7" s="9"/>
+      <c r="ES7" s="9"/>
+      <c r="ET7" s="9"/>
+      <c r="EU7" s="9"/>
+      <c r="EV7" s="9"/>
+      <c r="EW7" s="9"/>
+      <c r="EX7" s="9"/>
+      <c r="EY7" s="2"/>
+      <c r="EZ7" s="2"/>
+      <c r="FA7" s="2"/>
+      <c r="FB7" s="2"/>
+    </row>
+    <row r="8" spans="1:158" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>156</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>379</v>
@@ -6598,14 +6803,25 @@
       <c r="EN8" s="9"/>
       <c r="EO8" s="9"/>
       <c r="EP8" s="9"/>
-      <c r="EQ8" s="9"/>
-    </row>
-    <row r="9" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="EQ8" s="37"/>
+      <c r="ER8" s="9"/>
+      <c r="ES8" s="9"/>
+      <c r="ET8" s="9"/>
+      <c r="EU8" s="9"/>
+      <c r="EV8" s="9"/>
+      <c r="EW8" s="9"/>
+      <c r="EX8" s="9"/>
+      <c r="EY8" s="2"/>
+      <c r="EZ8" s="2"/>
+      <c r="FA8" s="2"/>
+      <c r="FB8" s="2"/>
+    </row>
+    <row r="9" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>428</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C9" s="9">
         <v>455854</v>
@@ -6929,14 +7145,25 @@
       <c r="EN9" s="9"/>
       <c r="EO9" s="9"/>
       <c r="EP9" s="9"/>
-      <c r="EQ9" s="9"/>
-    </row>
-    <row r="10" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="EQ9" s="37"/>
+      <c r="ER9" s="9"/>
+      <c r="ES9" s="9"/>
+      <c r="ET9" s="9"/>
+      <c r="EU9" s="9"/>
+      <c r="EV9" s="9"/>
+      <c r="EW9" s="9"/>
+      <c r="EX9" s="9"/>
+      <c r="EY9" s="2"/>
+      <c r="EZ9" s="2"/>
+      <c r="FA9" s="2"/>
+      <c r="FB9" s="2"/>
+    </row>
+    <row r="10" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C10" s="9">
         <v>455854</v>
@@ -7260,14 +7487,25 @@
       <c r="EN10" s="9"/>
       <c r="EO10" s="9"/>
       <c r="EP10" s="9"/>
-      <c r="EQ10" s="9"/>
-    </row>
-    <row r="11" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="EQ10" s="37"/>
+      <c r="ER10" s="9"/>
+      <c r="ES10" s="9"/>
+      <c r="ET10" s="9"/>
+      <c r="EU10" s="9"/>
+      <c r="EV10" s="9"/>
+      <c r="EW10" s="9"/>
+      <c r="EX10" s="9"/>
+      <c r="EY10" s="2"/>
+      <c r="EZ10" s="2"/>
+      <c r="FA10" s="2"/>
+      <c r="FB10" s="2"/>
+    </row>
+    <row r="11" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>429</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C11" s="9">
         <v>455854</v>
@@ -7591,14 +7829,25 @@
       <c r="EN11" s="9"/>
       <c r="EO11" s="9"/>
       <c r="EP11" s="9"/>
-      <c r="EQ11" s="9"/>
-    </row>
-    <row r="12" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="EQ11" s="37"/>
+      <c r="ER11" s="9"/>
+      <c r="ES11" s="9"/>
+      <c r="ET11" s="9"/>
+      <c r="EU11" s="9"/>
+      <c r="EV11" s="9"/>
+      <c r="EW11" s="9"/>
+      <c r="EX11" s="9"/>
+      <c r="EY11" s="2"/>
+      <c r="EZ11" s="2"/>
+      <c r="FA11" s="2"/>
+      <c r="FB11" s="2"/>
+    </row>
+    <row r="12" spans="1:158" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>502</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>469</v>
@@ -7819,10 +8068,10 @@
         <v>51</v>
       </c>
       <c r="CE12" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="CF12" s="9" t="s">
         <v>538</v>
-      </c>
-      <c r="CF12" s="9" t="s">
-        <v>539</v>
       </c>
       <c r="CG12" s="9"/>
       <c r="CH12" s="9"/>
@@ -8004,20 +8253,67 @@
       <c r="EP12" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="EQ12" s="9" t="s">
+      <c r="EQ12" s="37" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="13" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="ER12" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="ES12" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="ET12" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="EU12" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="EV12" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="EW12" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="EX12" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="EY12" s="2"/>
+      <c r="EZ12" s="2"/>
+      <c r="FA12" s="2"/>
+      <c r="FB12" s="2"/>
+    </row>
+    <row r="13" spans="1:158" x14ac:dyDescent="0.25">
       <c r="CS13"/>
-    </row>
-    <row r="14" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="ER13" s="2"/>
+      <c r="ES13" s="2"/>
+      <c r="ET13" s="2"/>
+      <c r="EU13" s="2"/>
+      <c r="EV13" s="2"/>
+      <c r="EW13" s="2"/>
+      <c r="EX13" s="2"/>
+      <c r="EY13" s="2"/>
+      <c r="EZ13" s="2"/>
+      <c r="FA13" s="2"/>
+      <c r="FB13" s="2"/>
+    </row>
+    <row r="14" spans="1:158" x14ac:dyDescent="0.25">
       <c r="CS14"/>
-    </row>
-    <row r="15" spans="1:147" x14ac:dyDescent="0.25">
+      <c r="ER14" s="2"/>
+      <c r="ES14" s="2"/>
+      <c r="ET14" s="2"/>
+      <c r="EU14" s="2"/>
+      <c r="EV14" s="2"/>
+      <c r="EW14" s="2"/>
+      <c r="EX14" s="2"/>
+      <c r="EY14" s="2"/>
+      <c r="EZ14" s="2"/>
+      <c r="FA14" s="2"/>
+      <c r="FB14" s="2"/>
+    </row>
+    <row r="15" spans="1:158" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:147" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:158" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
     <row r="17" spans="97:97" x14ac:dyDescent="0.25">
@@ -9393,16 +9689,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>280</v>
@@ -9567,13 +9863,13 @@
         <v>447</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -9581,7 +9877,7 @@
         <v>435</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>436</v>
@@ -9643,7 +9939,7 @@
         <v>1100440052</v>
       </c>
       <c r="X2" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y2" s="9">
         <v>45665456</v>
@@ -9661,7 +9957,7 @@
         <v>23564589</v>
       </c>
       <c r="AD2" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>221</v>
@@ -9702,16 +9998,16 @@
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
       <c r="AS2" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU2" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV2" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>549</v>
       </c>
       <c r="AW2" s="9" t="s">
         <v>359</v>
@@ -9737,13 +10033,13 @@
       <c r="BF2" s="9"/>
       <c r="BG2" s="9"/>
       <c r="BH2" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI2" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI2" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ2" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -9813,7 +10109,7 @@
         <v>1100440052</v>
       </c>
       <c r="X3" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y3" s="9">
         <v>45665456</v>
@@ -9831,7 +10127,7 @@
         <v>23564589</v>
       </c>
       <c r="AD3" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>221</v>
@@ -9872,16 +10168,16 @@
       <c r="AQ3" s="9"/>
       <c r="AR3" s="9"/>
       <c r="AS3" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT3" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU3" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV3" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="AV3" s="9" t="s">
-        <v>549</v>
       </c>
       <c r="AW3" s="9" t="s">
         <v>359</v>
@@ -9905,13 +10201,13 @@
       <c r="BF3" s="9"/>
       <c r="BG3" s="9"/>
       <c r="BH3" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI3" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI3" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ3" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -9981,7 +10277,7 @@
         <v>1100440052</v>
       </c>
       <c r="X4" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y4" s="9">
         <v>45665456</v>
@@ -9999,7 +10295,7 @@
         <v>23564589</v>
       </c>
       <c r="AD4" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE4" s="9" t="s">
         <v>221</v>
@@ -10040,7 +10336,7 @@
       <c r="AQ4" s="9"/>
       <c r="AR4" s="9"/>
       <c r="AS4" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT4" s="9" t="s">
         <v>34</v>
@@ -10049,7 +10345,7 @@
         <v>5431267812</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AW4" s="9" t="s">
         <v>359</v>
@@ -10073,13 +10369,13 @@
       <c r="BF4" s="9"/>
       <c r="BG4" s="9"/>
       <c r="BH4" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI4" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI4" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ4" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -10149,7 +10445,7 @@
         <v>1100440052</v>
       </c>
       <c r="X5" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y5" s="9">
         <v>45665456</v>
@@ -10167,7 +10463,7 @@
         <v>23564589</v>
       </c>
       <c r="AD5" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE5" s="9" t="s">
         <v>221</v>
@@ -10208,7 +10504,7 @@
       <c r="AQ5" s="9"/>
       <c r="AR5" s="9"/>
       <c r="AS5" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT5" s="9" t="s">
         <v>34</v>
@@ -10217,7 +10513,7 @@
         <v>5431267812</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AW5" s="9" t="s">
         <v>359</v>
@@ -10243,13 +10539,13 @@
       <c r="BF5" s="9"/>
       <c r="BG5" s="9"/>
       <c r="BH5" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI5" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI5" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ5" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -10319,7 +10615,7 @@
         <v>1100440052</v>
       </c>
       <c r="X6" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y6" s="9">
         <v>45665456</v>
@@ -10337,7 +10633,7 @@
         <v>23564589</v>
       </c>
       <c r="AD6" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE6" s="9" t="s">
         <v>221</v>
@@ -10378,7 +10674,7 @@
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT6" s="9" t="s">
         <v>34</v>
@@ -10387,7 +10683,7 @@
         <v>5431267812</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AW6" s="9" t="s">
         <v>359</v>
@@ -10413,13 +10709,13 @@
       <c r="BF6" s="9"/>
       <c r="BG6" s="9"/>
       <c r="BH6" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI6" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI6" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ6" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -10430,7 +10726,7 @@
         <v>471</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -10489,7 +10785,7 @@
         <v>1100440052</v>
       </c>
       <c r="X7" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y7" s="9">
         <v>45665456</v>
@@ -10507,7 +10803,7 @@
         <v>23564589</v>
       </c>
       <c r="AD7" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE7" s="9" t="s">
         <v>221</v>
@@ -10548,7 +10844,7 @@
       <c r="AQ7" s="9"/>
       <c r="AR7" s="9"/>
       <c r="AS7" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT7" s="9" t="s">
         <v>34</v>
@@ -10557,7 +10853,7 @@
         <v>5431267812</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AW7" s="9" t="s">
         <v>359</v>
@@ -10583,13 +10879,13 @@
       <c r="BF7" s="9"/>
       <c r="BG7" s="9"/>
       <c r="BH7" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI7" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI7" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ7" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -10600,13 +10896,13 @@
         <v>471</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>554</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>555</v>
       </c>
       <c r="F8" s="28" t="s">
         <v>134</v>
@@ -10621,7 +10917,7 @@
         <v>218</v>
       </c>
       <c r="J8" s="28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>218</v>
@@ -10663,7 +10959,7 @@
         <v>1100440052</v>
       </c>
       <c r="X8" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y8" s="9">
         <v>45665456</v>
@@ -10675,13 +10971,13 @@
         <v>34</v>
       </c>
       <c r="AB8" s="35" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AC8" s="9">
         <v>23564589</v>
       </c>
       <c r="AD8" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE8" s="9" t="s">
         <v>221</v>
@@ -10722,16 +11018,16 @@
       <c r="AQ8" s="9"/>
       <c r="AR8" s="9"/>
       <c r="AS8" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AU8" s="9" t="s">
+        <v>547</v>
+      </c>
+      <c r="AV8" s="9" t="s">
         <v>548</v>
-      </c>
-      <c r="AV8" s="9" t="s">
-        <v>549</v>
       </c>
       <c r="AW8" s="9" t="s">
         <v>359</v>
@@ -10749,7 +11045,7 @@
         <v>441</v>
       </c>
       <c r="BB8" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="BC8" s="9"/>
       <c r="BD8" s="9"/>
@@ -10757,13 +11053,13 @@
       <c r="BF8" s="9"/>
       <c r="BG8" s="9"/>
       <c r="BH8" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI8" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI8" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ8" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
@@ -10833,7 +11129,7 @@
         <v>1100440052</v>
       </c>
       <c r="X9" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y9" s="9">
         <v>45665456</v>
@@ -10851,7 +11147,7 @@
         <v>23564589</v>
       </c>
       <c r="AD9" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE9" s="9" t="s">
         <v>221</v>
@@ -10892,7 +11188,7 @@
       <c r="AQ9" s="9"/>
       <c r="AR9" s="9"/>
       <c r="AS9" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT9" s="9" t="s">
         <v>34</v>
@@ -10901,7 +11197,7 @@
         <v>5431267812</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AW9" s="9" t="s">
         <v>359</v>
@@ -10925,13 +11221,13 @@
       <c r="BF9" s="9"/>
       <c r="BG9" s="9"/>
       <c r="BH9" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI9" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI9" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ9" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -11001,7 +11297,7 @@
         <v>1100440052</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y10" s="9">
         <v>45665456</v>
@@ -11019,7 +11315,7 @@
         <v>23564589</v>
       </c>
       <c r="AD10" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE10" s="9" t="s">
         <v>221</v>
@@ -11060,7 +11356,7 @@
       <c r="AQ10" s="9"/>
       <c r="AR10" s="9"/>
       <c r="AS10" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT10" s="9" t="s">
         <v>34</v>
@@ -11069,7 +11365,7 @@
         <v>5431267812</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AW10" s="9" t="s">
         <v>359</v>
@@ -11093,13 +11389,13 @@
       <c r="BF10" s="9"/>
       <c r="BG10" s="9"/>
       <c r="BH10" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI10" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI10" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ10" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
@@ -11169,7 +11465,7 @@
         <v>1100440052</v>
       </c>
       <c r="X11" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y11" s="9">
         <v>45665456</v>
@@ -11187,7 +11483,7 @@
         <v>23564589</v>
       </c>
       <c r="AD11" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE11" s="9" t="s">
         <v>221</v>
@@ -11228,7 +11524,7 @@
       <c r="AQ11" s="9"/>
       <c r="AR11" s="9"/>
       <c r="AS11" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT11" s="9" t="s">
         <v>34</v>
@@ -11237,7 +11533,7 @@
         <v>5431267812</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AW11" s="9" t="s">
         <v>359</v>
@@ -11263,13 +11559,13 @@
       <c r="BF11" s="9"/>
       <c r="BG11" s="9"/>
       <c r="BH11" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI11" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI11" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ11" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12" spans="1:62" s="31" customFormat="1" x14ac:dyDescent="0.25">
@@ -11339,7 +11635,7 @@
         <v>1100440052</v>
       </c>
       <c r="X12" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="Y12" s="9">
         <v>45665456</v>
@@ -11357,7 +11653,7 @@
         <v>23564589</v>
       </c>
       <c r="AD12" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AE12" s="9" t="s">
         <v>221</v>
@@ -11398,7 +11694,7 @@
       <c r="AQ12" s="9"/>
       <c r="AR12" s="9"/>
       <c r="AS12" s="34" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AT12" s="9" t="s">
         <v>34</v>
@@ -11407,7 +11703,7 @@
         <v>5431267812</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AW12" s="9" t="s">
         <v>359</v>
@@ -11441,13 +11737,13 @@
         <v>121212</v>
       </c>
       <c r="BH12" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="BI12" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="BI12" s="9" t="s">
-        <v>551</v>
-      </c>
       <c r="BJ12" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -15,19 +15,20 @@
     <sheet name="AccounHeadMapping_S205175" sheetId="8" r:id="rId6"/>
     <sheet name="AccountHead_S205168" sheetId="9" r:id="rId7"/>
     <sheet name="SuspenseAccount_S205193" sheetId="10" r:id="rId8"/>
-    <sheet name="Institute" sheetId="5" r:id="rId9"/>
-    <sheet name="ApplicationUpload" sheetId="11" r:id="rId10"/>
-    <sheet name="AmlockDownloads" sheetId="15" r:id="rId11"/>
-    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId12"/>
-    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId13"/>
-    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId14"/>
+    <sheet name="InstituteSetup" sheetId="5" r:id="rId9"/>
+    <sheet name="Institute" sheetId="16" r:id="rId10"/>
+    <sheet name="ApplicationUpload" sheetId="11" r:id="rId11"/>
+    <sheet name="AmlockDownloads" sheetId="15" r:id="rId12"/>
+    <sheet name="CurrencyExchangeRates" sheetId="12" r:id="rId13"/>
+    <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId14"/>
+    <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="583">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1706,13 +1707,76 @@
     <t>Account Head 30</t>
   </si>
   <si>
+    <t>UPLOAD_PATH_CER</t>
+  </si>
+  <si>
+    <t>HighRiskCountry</t>
+  </si>
+  <si>
+    <t>TaxOnIncomeFeeType</t>
+  </si>
+  <si>
+    <t>TaxOnIncomeStatus</t>
+  </si>
+  <si>
+    <t>MccCode</t>
+  </si>
+  <si>
+    <t>CANADA [124]</t>
+  </si>
+  <si>
+    <t>Loan Processing Fee [44]</t>
+  </si>
+  <si>
+    <t>Accounting, Auditing, and Bookkeeping Services [8931]</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>ChecksumSupport</t>
+  </si>
+  <si>
+    <t>GenerateAckReport</t>
+  </si>
+  <si>
+    <t>RSA [001]</t>
+  </si>
+  <si>
+    <t>/home/dc-user/integrated/elt_bo/data/CURR_EXCHANGE_UPLOAD</t>
+  </si>
+  <si>
+    <t>uncheck</t>
+  </si>
+  <si>
+    <t>AMEXCREDIT</t>
+  </si>
+  <si>
+    <t>AMEXBLACKE</t>
+  </si>
+  <si>
+    <t>OMR [512]</t>
+  </si>
+  <si>
+    <t>91111111111</t>
+  </si>
+  <si>
+    <t>5431267812</t>
+  </si>
+  <si>
+    <t>July/2/2020</t>
+  </si>
+  <si>
+    <t>BLACKEYE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>https://stage.sa.eis.customer.mastercard.com/mpts/eis/app</t>
   </si>
   <si>
     <t>Truptii</t>
-  </si>
-  <si>
-    <t>4656</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1786,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm\-yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1746,8 +1810,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1758,6 +1835,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1837,7 +1920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1902,6 +1985,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2787,6 +2876,2312 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BN12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="23.5546875" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="14.44140625" customWidth="1"/>
+    <col min="26" max="26" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.5546875" customWidth="1"/>
+    <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.88671875" customWidth="1"/>
+    <col min="57" max="57" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.88671875" customWidth="1"/>
+    <col min="59" max="59" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:66" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK1" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL1" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM1" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN1" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="AO1" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="AP1" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="AQ1" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="AR1" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="AS1" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="AT1" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="AU1" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="AV1" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="AW1" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="AX1" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="AY1" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ1" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="BA1" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="BB1" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="BC1" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="BD1" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="BE1" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="BF1" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="BG1" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>16</v>
+      </c>
+      <c r="R2" s="2">
+        <v>16</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W2" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY2" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>16</v>
+      </c>
+      <c r="R3" s="2">
+        <v>16</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN3" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP3" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2">
+        <v>16</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN4" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO4" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP4" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK4" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>16</v>
+      </c>
+      <c r="R5" s="2">
+        <v>16</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP5" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY5" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>16</v>
+      </c>
+      <c r="R6" s="2">
+        <v>16</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN6" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY6" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI6" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK6" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL6" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM6" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN6" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>16</v>
+      </c>
+      <c r="R7" s="2">
+        <v>16</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM7" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN7" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO7" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY7" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ7" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI7" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK7" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL7" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM7" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN7" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>16</v>
+      </c>
+      <c r="R8" s="2">
+        <v>16</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM8" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN8" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO8" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW8" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI8" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK8" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL8" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM8" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN8" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>16</v>
+      </c>
+      <c r="R9" s="2">
+        <v>16</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W9" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH9" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM9" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN9" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI9" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK9" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL9" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM9" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN9" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>16</v>
+      </c>
+      <c r="R10" s="2">
+        <v>16</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY10" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI10" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK10" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL10" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM10" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN10" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>16</v>
+      </c>
+      <c r="R11" s="2">
+        <v>16</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM11" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN11" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO11" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI11" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ11" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK11" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL11" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM11" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN11" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="12" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>16</v>
+      </c>
+      <c r="R12" s="2">
+        <v>16</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1100440052</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>45665456</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1113332</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>23564589</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>411006</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>124421</v>
+      </c>
+      <c r="AM12" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN12" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO12" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="AT12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>5431267812</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>999</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="BB12" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BF12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="BG12" s="2">
+        <v>121212</v>
+      </c>
+      <c r="BH12" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="BI12" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="BJ12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK12" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="BL12" s="9" t="s">
+        <v>551</v>
+      </c>
+      <c r="BM12" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="BN12" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3122,7 +5517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -3306,7 +5701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
@@ -3444,7 +5839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
@@ -3603,7 +5998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -9339,53 +11734,86 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL20"/>
+  <dimension ref="A1:CQ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BV1" workbookViewId="0">
-      <selection activeCell="CB19" sqref="CB19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="11.88671875" customWidth="1"/>
-    <col min="80" max="80" width="11.5546875" customWidth="1"/>
-    <col min="81" max="81" width="12.109375" customWidth="1"/>
-    <col min="82" max="82" width="11.5546875" customWidth="1"/>
-    <col min="83" max="83" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="23.5546875" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="14.44140625" customWidth="1"/>
+    <col min="26" max="26" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.5546875" customWidth="1"/>
+    <col min="31" max="31" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="37" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.88671875" customWidth="1"/>
+    <col min="57" max="57" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.88671875" customWidth="1"/>
+    <col min="59" max="59" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.5546875" customWidth="1"/>
+    <col min="67" max="67" width="15" customWidth="1"/>
+    <col min="69" max="69" width="19.77734375" customWidth="1"/>
+    <col min="70" max="70" width="12.88671875" customWidth="1"/>
+    <col min="71" max="71" width="16.77734375" customWidth="1"/>
+    <col min="72" max="72" width="17.109375" customWidth="1"/>
+    <col min="73" max="73" width="12.88671875" customWidth="1"/>
+    <col min="74" max="74" width="15.88671875" customWidth="1"/>
+    <col min="75" max="75" width="14.109375" style="24" customWidth="1"/>
+    <col min="76" max="76" width="15" style="24" customWidth="1"/>
+    <col min="77" max="77" width="19.33203125" style="24" customWidth="1"/>
+    <col min="78" max="78" width="15" style="24" customWidth="1"/>
+    <col min="79" max="81" width="9.33203125" style="24" customWidth="1"/>
+    <col min="82" max="82" width="8.88671875" style="24" customWidth="1"/>
+    <col min="83" max="83" width="10.5546875" style="24" customWidth="1"/>
     <col min="84" max="84" width="18.6640625" style="24" customWidth="1"/>
-    <col min="85" max="85" width="17" customWidth="1"/>
-    <col min="86" max="86" width="10.21875" customWidth="1"/>
-    <col min="88" max="88" width="15.33203125" customWidth="1"/>
-    <col min="89" max="89" width="12" customWidth="1"/>
-    <col min="90" max="90" width="16" customWidth="1"/>
+    <col min="85" max="85" width="16.88671875" style="24" customWidth="1"/>
+    <col min="86" max="86" width="10.21875" style="24" customWidth="1"/>
+    <col min="87" max="87" width="16.88671875" style="24" customWidth="1"/>
+    <col min="88" max="88" width="9.44140625" style="24" customWidth="1"/>
+    <col min="89" max="89" width="14.44140625" style="24" customWidth="1"/>
+    <col min="90" max="90" width="10.21875" style="24" customWidth="1"/>
+    <col min="91" max="91" width="17.6640625" style="24" customWidth="1"/>
+    <col min="92" max="92" width="16.109375" style="24" customWidth="1"/>
+    <col min="93" max="93" width="18.44140625" style="24" customWidth="1"/>
+    <col min="95" max="95" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:95" s="35" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -9397,178 +11825,178 @@
       <c r="D1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AR1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AS1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AT1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AU1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AW1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="AX1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BA1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BB1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BC1" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BD1" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BE1" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BF1" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BG1" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BH1" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BI1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>453</v>
       </c>
       <c r="BK1" s="1" t="s">
@@ -9644,191 +12072,206 @@
         <v>297</v>
       </c>
       <c r="CI1" s="23" t="s">
-        <v>75</v>
+        <v>328</v>
       </c>
       <c r="CJ1" s="23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="CK1" s="23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="CL1" s="23" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:90" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="CM1" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="CN1" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="CO1" s="23" t="s">
+        <v>569</v>
+      </c>
+      <c r="CP1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:95" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
         <v>441</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="J2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T2" s="2">
+      <c r="S2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T2" s="9">
         <v>16</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="9">
         <v>16</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z2" s="2">
+      <c r="W2" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z2" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AB2" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="9">
         <v>1113332</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AG2" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AH2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AK2" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AL2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AM2" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN2" s="2">
+      <c r="AN2" s="9">
         <v>411006</v>
       </c>
-      <c r="AO2" s="2">
+      <c r="AO2" s="9">
         <v>124421</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AP2" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR2" s="2" t="s">
+      <c r="AR2" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AS2" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2" t="s">
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AW2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="AX2" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AY2" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA2" s="2">
+      <c r="BA2" s="9">
         <v>999</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BB2" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC2" s="2" t="s">
+      <c r="BC2" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD2" s="2" t="s">
+      <c r="BD2" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE2" s="2" t="s">
+      <c r="BE2" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
       <c r="BK2" s="9" t="s">
         <v>551</v>
       </c>
@@ -9895,188 +12338,203 @@
       <c r="CH2" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI2" s="25"/>
+      <c r="CI2" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ2" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK2" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL2" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="CL2" s="25"/>
+      <c r="CM2" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN2" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO2" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ2" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:95" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36" t="s">
         <v>455</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="N3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T3" s="2">
+      <c r="S3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T3" s="9">
         <v>16</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U3" s="9">
         <v>16</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z3" s="2">
+      <c r="W3" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z3" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AB3" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AC3" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="9">
         <v>1113332</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AG3" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AH3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="AK3" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AM3" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN3" s="2">
+      <c r="AN3" s="9">
         <v>411006</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AO3" s="9">
         <v>124421</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AP3" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AQ3" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR3" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS3" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-      <c r="AV3" s="2" t="s">
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AW3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="AX3" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY3" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="AZ3" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BA3" s="9">
         <v>999</v>
       </c>
-      <c r="BB3" s="2" t="s">
+      <c r="BB3" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BC3" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BD3" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
       <c r="BK3" s="9" t="s">
         <v>551</v>
       </c>
@@ -10143,188 +12601,203 @@
       <c r="CH3" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI3" s="25"/>
+      <c r="CI3" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ3" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK3" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL3" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="CL3" s="25"/>
+      <c r="CM3" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN3" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO3" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP3" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ3" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:95" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>457</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L4" s="2" t="s">
+      <c r="K4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="N4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T4" s="2">
+      <c r="S4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T4" s="9">
         <v>16</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="9">
         <v>16</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="V4" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z4" s="2">
+      <c r="W4" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z4" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC4" s="2" t="s">
+      <c r="AC4" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="9">
         <v>1113332</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AG4" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AH4" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AI4" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AK4" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL4" s="2" t="s">
+      <c r="AL4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AM4" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4" s="9">
         <v>411006</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO4" s="9">
         <v>124421</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AP4" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ4" s="2" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR4" s="2" t="s">
+      <c r="AR4" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AS4" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2" t="s">
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AW4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX4" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="AY4" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="AZ4" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BA4" s="9">
         <v>999</v>
       </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BB4" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC4" s="2" t="s">
+      <c r="BC4" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD4" s="2" t="s">
+      <c r="BD4" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
       <c r="BK4" s="9" t="s">
         <v>551</v>
       </c>
@@ -10391,190 +12864,205 @@
       <c r="CH4" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI4" s="25"/>
+      <c r="CI4" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ4" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK4" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL4" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="CL4" s="25"/>
+      <c r="CM4" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN4" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO4" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP4" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ4" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:95" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
         <v>459</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="2" t="s">
+      <c r="J5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P5" s="2" t="s">
+      <c r="N5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T5" s="2">
+      <c r="S5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T5" s="9">
         <v>16</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="9">
         <v>16</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="V5" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z5" s="2">
+      <c r="W5" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z5" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AC5" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AD5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="9">
         <v>1113332</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AG5" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AI5" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AJ5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AK5" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AL5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AM5" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5" s="9">
         <v>411006</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5" s="9">
         <v>124421</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AP5" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ5" s="2" t="s">
+      <c r="AQ5" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR5" s="2" t="s">
+      <c r="AR5" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AS5" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2" t="s">
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW5" s="2" t="s">
+      <c r="AW5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="AX5" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AY5" s="2" t="s">
+      <c r="AY5" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="AZ5" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA5" s="2">
+      <c r="BA5" s="9">
         <v>999</v>
       </c>
-      <c r="BB5" s="2" t="s">
+      <c r="BB5" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC5" s="2" t="s">
+      <c r="BC5" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD5" s="2" t="s">
+      <c r="BD5" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE5" s="2" t="s">
+      <c r="BE5" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="BF5" s="2"/>
-      <c r="BG5" s="2"/>
-      <c r="BH5" s="2"/>
-      <c r="BI5" s="2"/>
-      <c r="BJ5" s="2"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
       <c r="BK5" s="9" t="s">
         <v>551</v>
       </c>
@@ -10641,190 +13129,205 @@
       <c r="CH5" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI5" s="25"/>
+      <c r="CI5" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ5" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK5" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL5" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="CL5" s="25"/>
+      <c r="CM5" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN5" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO5" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP5" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ5" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:95" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>462</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E6" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="G6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="J6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="N6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="R6" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T6" s="2">
+      <c r="S6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T6" s="9">
         <v>16</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="9">
         <v>16</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z6" s="2">
+      <c r="W6" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z6" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AA6" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AC6" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AD6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="9">
         <v>1113332</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AG6" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AH6" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AI6" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AJ6" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AK6" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AL6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AM6" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN6" s="9">
         <v>411006</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO6" s="9">
         <v>124421</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AP6" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ6" s="2" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AR6" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AS6" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2" t="s">
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AW6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AX6" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AY6" s="2" t="s">
+      <c r="AY6" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="AZ6" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA6" s="2">
+      <c r="BA6" s="9">
         <v>999</v>
       </c>
-      <c r="BB6" s="2" t="s">
+      <c r="BB6" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC6" s="2" t="s">
+      <c r="BC6" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD6" s="2" t="s">
+      <c r="BD6" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE6" s="2" t="s">
+      <c r="BE6" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="BF6" s="2"/>
-      <c r="BG6" s="2"/>
-      <c r="BH6" s="2"/>
-      <c r="BI6" s="2"/>
-      <c r="BJ6" s="2"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
       <c r="BK6" s="9" t="s">
         <v>551</v>
       </c>
@@ -10891,190 +13394,205 @@
       <c r="CH6" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI6" s="25"/>
+      <c r="CI6" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ6" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK6" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL6" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="CL6" s="25"/>
+      <c r="CM6" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN6" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO6" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP6" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ6" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:95" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="36" t="s">
         <v>464</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="K7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P7" s="2" t="s">
+      <c r="N7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T7" s="2">
+      <c r="S7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T7" s="9">
         <v>16</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="9">
         <v>16</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z7" s="2">
+      <c r="W7" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z7" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AC7" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="9">
         <v>1113332</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AG7" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AI7" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AJ7" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AK7" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AL7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AM7" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN7" s="2">
+      <c r="AN7" s="9">
         <v>411006</v>
       </c>
-      <c r="AO7" s="2">
+      <c r="AO7" s="9">
         <v>124421</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AP7" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AQ7" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AR7" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AS7" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT7" s="2"/>
-      <c r="AU7" s="2"/>
-      <c r="AV7" s="2" t="s">
+      <c r="AT7" s="9"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AW7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="AX7" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="AY7" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="AZ7" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA7" s="2">
+      <c r="BA7" s="9">
         <v>999</v>
       </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BB7" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC7" s="2" t="s">
+      <c r="BC7" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD7" s="2" t="s">
+      <c r="BD7" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE7" s="2" t="s">
+      <c r="BE7" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="BF7" s="2"/>
-      <c r="BG7" s="2"/>
-      <c r="BH7" s="2"/>
-      <c r="BI7" s="2"/>
-      <c r="BJ7" s="2"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
       <c r="BK7" s="9" t="s">
         <v>551</v>
       </c>
@@ -11141,190 +13659,205 @@
       <c r="CH7" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI7" s="25"/>
+      <c r="CI7" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ7" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK7" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL7" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="CL7" s="25"/>
+      <c r="CM7" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN7" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO7" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP7" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ7" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:95" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="36" t="s">
         <v>466</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P8" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="R8" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T8" s="2">
+      <c r="S8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T8" s="9">
         <v>16</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="9">
         <v>16</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="V8" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z8" s="2">
+      <c r="W8" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z8" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AA8" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AB8" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AC8" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AD8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE8" s="2">
-        <v>1113332</v>
-      </c>
-      <c r="AF8" s="2">
+      <c r="AE8" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="AF8" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AG8" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AH8" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AI8" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK8" s="2" t="s">
+      <c r="AK8" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AL8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AM8" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN8" s="2">
+      <c r="AN8" s="9">
         <v>411006</v>
       </c>
-      <c r="AO8" s="2">
+      <c r="AO8" s="9">
         <v>124421</v>
       </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AP8" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AQ8" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AR8" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS8" s="2" t="s">
+      <c r="AS8" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT8" s="2"/>
-      <c r="AU8" s="2"/>
-      <c r="AV8" s="2" t="s">
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AW8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX8" s="2">
-        <v>5431267812</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
+      <c r="AX8" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="AY8" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="AZ8" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA8" s="2">
+      <c r="BA8" s="9">
         <v>999</v>
       </c>
-      <c r="BB8" s="2" t="s">
+      <c r="BB8" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC8" s="2" t="s">
+      <c r="BC8" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD8" s="2" t="s">
+      <c r="BD8" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE8" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="BF8" s="2"/>
-      <c r="BG8" s="2"/>
-      <c r="BH8" s="2"/>
-      <c r="BI8" s="2"/>
-      <c r="BJ8" s="2"/>
+      <c r="BE8" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
       <c r="BK8" s="9" t="s">
         <v>551</v>
       </c>
@@ -11391,188 +13924,203 @@
       <c r="CH8" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI8" s="25"/>
+      <c r="CI8" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ8" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK8" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL8" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="CL8" s="25"/>
+      <c r="CM8" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN8" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO8" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP8" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ8" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:95" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
         <v>468</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="N9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="R9" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="S9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T9" s="9">
         <v>16</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="9">
         <v>16</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z9" s="2">
+      <c r="W9" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z9" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AA9" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AB9" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AC9" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE9" s="9">
         <v>1113332</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AG9" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AH9" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AI9" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AJ9" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK9" s="2" t="s">
+      <c r="AK9" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL9" s="2" t="s">
+      <c r="AL9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AM9" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN9" s="2">
+      <c r="AN9" s="9">
         <v>411006</v>
       </c>
-      <c r="AO9" s="2">
+      <c r="AO9" s="9">
         <v>124421</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AP9" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ9" s="2" t="s">
+      <c r="AQ9" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AR9" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS9" s="2" t="s">
+      <c r="AS9" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT9" s="2"/>
-      <c r="AU9" s="2"/>
-      <c r="AV9" s="2" t="s">
+      <c r="AT9" s="9"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AW9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX9" s="2">
+      <c r="AX9" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AY9" s="2" t="s">
+      <c r="AY9" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ9" s="2" t="s">
+      <c r="AZ9" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA9" s="2">
+      <c r="BA9" s="9">
         <v>999</v>
       </c>
-      <c r="BB9" s="2" t="s">
+      <c r="BB9" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC9" s="2" t="s">
+      <c r="BC9" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD9" s="2" t="s">
+      <c r="BD9" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE9" s="2"/>
-      <c r="BF9" s="2"/>
-      <c r="BG9" s="2"/>
-      <c r="BH9" s="2"/>
-      <c r="BI9" s="2"/>
-      <c r="BJ9" s="2"/>
+      <c r="BE9" s="9"/>
+      <c r="BF9" s="9"/>
+      <c r="BG9" s="9"/>
+      <c r="BH9" s="9"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="9"/>
       <c r="BK9" s="9" t="s">
         <v>551</v>
       </c>
@@ -11639,188 +14187,203 @@
       <c r="CH9" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI9" s="25"/>
+      <c r="CI9" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ9" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK9" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL9" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="CL9" s="25"/>
+      <c r="CM9" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN9" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO9" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ9" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:95" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36" t="s">
         <v>470</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="G10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M10" s="2" t="s">
+      <c r="L10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P10" s="2" t="s">
+      <c r="N10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="R10" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="S10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T10" s="9">
         <v>16</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="9">
         <v>16</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="V10" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z10" s="2">
+      <c r="W10" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z10" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AC10" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AD10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="9">
         <v>1113332</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AG10" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AH10" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AI10" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AJ10" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AK10" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL10" s="2" t="s">
+      <c r="AL10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AM10" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN10" s="2">
+      <c r="AN10" s="9">
         <v>411006</v>
       </c>
-      <c r="AO10" s="2">
+      <c r="AO10" s="9">
         <v>124421</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AP10" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ10" s="2" t="s">
+      <c r="AQ10" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AR10" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS10" s="2" t="s">
+      <c r="AS10" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT10" s="2"/>
-      <c r="AU10" s="2"/>
-      <c r="AV10" s="2" t="s">
+      <c r="AT10" s="9"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW10" s="2" t="s">
+      <c r="AW10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX10" s="2">
+      <c r="AX10" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AY10" s="2" t="s">
+      <c r="AY10" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ10" s="2" t="s">
+      <c r="AZ10" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA10" s="2">
+      <c r="BA10" s="9">
         <v>999</v>
       </c>
-      <c r="BB10" s="2" t="s">
+      <c r="BB10" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC10" s="2" t="s">
+      <c r="BC10" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD10" s="2" t="s">
+      <c r="BD10" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE10" s="2"/>
-      <c r="BF10" s="2"/>
-      <c r="BG10" s="2"/>
-      <c r="BH10" s="2"/>
-      <c r="BI10" s="2"/>
-      <c r="BJ10" s="2"/>
+      <c r="BE10" s="9"/>
+      <c r="BF10" s="9"/>
+      <c r="BG10" s="9"/>
+      <c r="BH10" s="9"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="9"/>
       <c r="BK10" s="9" t="s">
         <v>551</v>
       </c>
@@ -11887,190 +14450,205 @@
       <c r="CH10" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI10" s="25"/>
+      <c r="CI10" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ10" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK10" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL10" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="CL10" s="25"/>
+      <c r="CM10" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN10" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO10" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ10" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="11" spans="1:95" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36" t="s">
         <v>472</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E11" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="F11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M11" s="2" t="s">
+      <c r="L11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="N11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P11" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="R11" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="S11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T11" s="9">
         <v>16</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="9">
         <v>16</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="V11" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z11" s="2">
+      <c r="W11" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z11" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AA11" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AB11" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AC11" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AD11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE11" s="9">
         <v>1113332</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AG11" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AH11" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AI11" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AJ11" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK11" s="2" t="s">
+      <c r="AK11" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL11" s="2" t="s">
+      <c r="AL11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AM11" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN11" s="2">
+      <c r="AN11" s="9">
         <v>411006</v>
       </c>
-      <c r="AO11" s="2">
+      <c r="AO11" s="9">
         <v>124421</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AP11" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ11" s="2" t="s">
+      <c r="AQ11" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR11" s="2" t="s">
+      <c r="AR11" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS11" s="2" t="s">
+      <c r="AS11" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT11" s="2"/>
-      <c r="AU11" s="2"/>
-      <c r="AV11" s="2" t="s">
+      <c r="AT11" s="9"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW11" s="2" t="s">
+      <c r="AW11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="AX11" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AY11" s="2" t="s">
+      <c r="AY11" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ11" s="2" t="s">
+      <c r="AZ11" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA11" s="2">
+      <c r="BA11" s="9">
         <v>999</v>
       </c>
-      <c r="BB11" s="2" t="s">
+      <c r="BB11" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC11" s="2" t="s">
+      <c r="BC11" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD11" s="2" t="s">
+      <c r="BD11" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE11" s="2" t="s">
+      <c r="BE11" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="BF11" s="2"/>
-      <c r="BG11" s="2"/>
-      <c r="BH11" s="2"/>
-      <c r="BI11" s="2"/>
-      <c r="BJ11" s="2"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="9"/>
       <c r="BK11" s="9" t="s">
         <v>551</v>
       </c>
@@ -12137,196 +14715,211 @@
       <c r="CH11" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI11" s="25"/>
+      <c r="CI11" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ11" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK11" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL11" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="CL11" s="25"/>
+      <c r="CM11" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN11" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO11" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP11" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ11" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:95" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>474</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>559</v>
+        <v>581</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>560</v>
+        <v>582</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="E12" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="F12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="M12" s="2" t="s">
+      <c r="L12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M12" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="N12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="P12" s="2" t="s">
+      <c r="N12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="P12" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="R12" s="2" t="s">
+      <c r="R12" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="T12" s="2">
+      <c r="S12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="T12" s="9">
         <v>16</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U12" s="9">
         <v>16</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="V12" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="W12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z12" s="2">
+      <c r="W12" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z12" s="9">
         <v>1100440052</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AA12" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AB12" s="9">
         <v>45665456</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AC12" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AD12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE12" s="9">
         <v>1113332</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12" s="9">
         <v>23564589</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AG12" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AH12" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AI12" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AJ12" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AK12" s="2" t="s">
+      <c r="AK12" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AL12" s="2" t="s">
+      <c r="AL12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AM12" s="2" t="s">
+      <c r="AM12" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AN12" s="2">
+      <c r="AN12" s="9">
         <v>411006</v>
       </c>
-      <c r="AO12" s="2">
+      <c r="AO12" s="9">
         <v>124421</v>
       </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AP12" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="AQ12" s="2" t="s">
+      <c r="AQ12" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="AR12" s="2" t="s">
+      <c r="AR12" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="AS12" s="2" t="s">
+      <c r="AS12" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="AT12" s="2"/>
-      <c r="AU12" s="2"/>
-      <c r="AV12" s="2" t="s">
+      <c r="AT12" s="9"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="AW12" s="2" t="s">
+      <c r="AW12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="AX12" s="9">
         <v>5431267812</v>
       </c>
-      <c r="AY12" s="2" t="s">
+      <c r="AY12" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="AZ12" s="2" t="s">
+      <c r="AZ12" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="BA12" s="2">
+      <c r="BA12" s="9">
         <v>999</v>
       </c>
-      <c r="BB12" s="2" t="s">
+      <c r="BB12" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="BC12" s="2" t="s">
+      <c r="BC12" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="BD12" s="2" t="s">
+      <c r="BD12" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="BE12" s="2" t="s">
+      <c r="BE12" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="BF12" s="2"/>
-      <c r="BG12" s="2" t="s">
+      <c r="BF12" s="9"/>
+      <c r="BG12" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="BH12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BI12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="BJ12" s="2">
+      <c r="BH12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BI12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="BJ12" s="9">
         <v>121212</v>
       </c>
       <c r="BK12" s="9" t="s">
@@ -12395,27 +14988,68 @@
       <c r="CH12" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="CI12" s="25"/>
+      <c r="CI12" s="25" t="s">
+        <v>334</v>
+      </c>
       <c r="CJ12" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="CK12" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="CL12" s="25" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+      <c r="CL12" s="25"/>
+      <c r="CM12" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="CN12" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CO12" s="25" t="s">
+        <v>572</v>
+      </c>
+      <c r="CP12" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="CQ12" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="79:79" x14ac:dyDescent="0.3">
+      <c r="CA18" s="24" t="s">
+        <v>580</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please select from the dropdown" sqref="CK2:CK12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please select from the dropdown" sqref="CJ2:CJ12">
       <formula1>$K$2:$K$4</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="AA2" r:id="rId1"/>
+    <hyperlink ref="AG2" r:id="rId2"/>
+    <hyperlink ref="AA3" r:id="rId3"/>
+    <hyperlink ref="AG3" r:id="rId4"/>
+    <hyperlink ref="AA5" r:id="rId5"/>
+    <hyperlink ref="AG5" r:id="rId6"/>
+    <hyperlink ref="AA6" r:id="rId7"/>
+    <hyperlink ref="AG6" r:id="rId8"/>
+    <hyperlink ref="AA4" r:id="rId9"/>
+    <hyperlink ref="AG4" r:id="rId10"/>
+    <hyperlink ref="AA7" r:id="rId11"/>
+    <hyperlink ref="AG7" r:id="rId12"/>
+    <hyperlink ref="AA8" r:id="rId13"/>
+    <hyperlink ref="AG8" r:id="rId14"/>
+    <hyperlink ref="AA9" r:id="rId15"/>
+    <hyperlink ref="AG9" r:id="rId16"/>
+    <hyperlink ref="AA10" r:id="rId17"/>
+    <hyperlink ref="AG10" r:id="rId18"/>
+    <hyperlink ref="AA11" r:id="rId19"/>
+    <hyperlink ref="AG11" r:id="rId20"/>
+    <hyperlink ref="AA12" r:id="rId21"/>
+    <hyperlink ref="AG12" r:id="rId22"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15108" windowHeight="8988" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Prepaid_Application_Upload" sheetId="16" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="CurrencyExchangeRateUpload" sheetId="13" r:id="rId14"/>
     <sheet name="CurrencyExchangeRateMapping" sheetId="14" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="688">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1563,9 +1563,6 @@
     <t>Active [0]</t>
   </si>
   <si>
-    <t>AmexInstituionSetup</t>
-  </si>
-  <si>
     <t>http://ech-10-168-131-92.mastercard.int:25003/integratedIssuing-customerPortal/mtps/app/Login?0</t>
   </si>
   <si>
@@ -2008,6 +2005,93 @@
   </si>
   <si>
     <t>Program [0]</t>
+  </si>
+  <si>
+    <t>Padding</t>
+  </si>
+  <si>
+    <t>InstitutionCode</t>
+  </si>
+  <si>
+    <t>Abbrevation</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>555522</t>
+  </si>
+  <si>
+    <t>AUTHREG</t>
+  </si>
+  <si>
+    <t>AccountRangeFrom</t>
+  </si>
+  <si>
+    <t>AccountRangeTo</t>
+  </si>
+  <si>
+    <t>currencyCodeTxt</t>
+  </si>
+  <si>
+    <t>monthlyLimitTxt</t>
+  </si>
+  <si>
+    <t>monthlyVelocityTxt</t>
+  </si>
+  <si>
+    <t>yearlyLimitTxt</t>
+  </si>
+  <si>
+    <t>yearlyVelocityTxt</t>
+  </si>
+  <si>
+    <t>comparisonOperator</t>
+  </si>
+  <si>
+    <t>ruleCode</t>
+  </si>
+  <si>
+    <t>ruleValue</t>
+  </si>
+  <si>
+    <t>APILInkingUserID</t>
+  </si>
+  <si>
+    <t>INR:USD:LKR</t>
+  </si>
+  <si>
+    <t>525252523612345</t>
+  </si>
+  <si>
+    <t>525252523692345</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>100000000000000000000000</t>
+  </si>
+  <si>
+    <t>10000000000000000000</t>
+  </si>
+  <si>
+    <t>= [=]</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>121212</t>
+  </si>
+  <si>
+    <t>InstitutionLoadCurrency</t>
+  </si>
+  <si>
+    <t>AmexInstitutionSetup</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2235,6 +2319,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2546,18 +2632,18 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:143" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:143" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2568,49 +2654,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>293</v>
@@ -2721,7 +2807,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -2760,7 +2846,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -2796,7 +2882,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -2901,61 +2987,61 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="DM1" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="DP1" s="34" t="s">
         <v>566</v>
       </c>
-      <c r="DP1" s="34" t="s">
+      <c r="DQ1" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="DQ1" s="34" t="s">
+      <c r="DR1" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="DR1" s="34" t="s">
+      <c r="DS1" s="34" t="s">
         <v>569</v>
       </c>
-      <c r="DS1" s="34" t="s">
+      <c r="DT1" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="DT1" s="34" t="s">
+      <c r="DU1" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="DU1" s="34" t="s">
+      <c r="DV1" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="DV1" s="34" t="s">
+      <c r="DW1" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="DW1" s="34" t="s">
+      <c r="DX1" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="DX1" s="34" t="s">
+      <c r="DY1" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="DY1" s="34" t="s">
+      <c r="DZ1" s="34" t="s">
         <v>576</v>
       </c>
-      <c r="DZ1" s="34" t="s">
+      <c r="EA1" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="EA1" s="34" t="s">
+      <c r="EB1" s="34" t="s">
         <v>578</v>
       </c>
-      <c r="EB1" s="34" t="s">
+      <c r="EC1" s="34" t="s">
         <v>579</v>
-      </c>
-      <c r="EC1" s="34" t="s">
-        <v>580</v>
       </c>
       <c r="ED1" s="34" t="s">
         <v>424</v>
@@ -2964,72 +3050,72 @@
         <v>423</v>
       </c>
       <c r="EF1" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="EG1" s="34" t="s">
         <v>581</v>
       </c>
-      <c r="EG1" s="34" t="s">
+      <c r="EH1" s="34" t="s">
         <v>582</v>
       </c>
-      <c r="EH1" s="34" t="s">
+      <c r="EI1" s="34" t="s">
         <v>583</v>
       </c>
-      <c r="EI1" s="34" t="s">
+      <c r="EJ1" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="EJ1" s="34" t="s">
+      <c r="EK1" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="EK1" s="34" t="s">
+      <c r="EL1" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="EL1" s="34" t="s">
+      <c r="EM1" s="34" t="s">
         <v>587</v>
       </c>
-      <c r="EM1" s="34" t="s">
+    </row>
+    <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="2" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
         <v>589</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="35" t="s">
         <v>591</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="E2" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="36" t="s">
         <v>598</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>599</v>
       </c>
       <c r="M2" s="36" t="s">
         <v>427</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O2" s="37" t="s">
         <v>429</v>
@@ -3038,16 +3124,16 @@
         <v>429</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R2" s="37" t="s">
         <v>488</v>
       </c>
       <c r="S2" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="T2" s="37" t="s">
         <v>602</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>603</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -3075,16 +3161,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG2" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="AG2" s="12" t="s">
+      <c r="AH2" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AI2" s="12" t="s">
         <v>606</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>607</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -3105,7 +3191,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -3142,7 +3228,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -3154,7 +3240,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -3172,7 +3258,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>187</v>
@@ -3202,14 +3288,14 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BX2" s="40"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
@@ -3242,13 +3328,13 @@
         <v>40</v>
       </c>
       <c r="CM2" s="40" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="CP2" s="38" t="s">
         <v>341</v>
@@ -3302,40 +3388,40 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="DL2" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="DL2" s="11" t="s">
+      <c r="DM2" s="12" t="s">
         <v>615</v>
-      </c>
-      <c r="DM2" s="12" t="s">
-        <v>616</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>185</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="DP2" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="DP2" s="41" t="s">
+      <c r="DQ2" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="DQ2" s="41" t="s">
+      <c r="DR2" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="DR2" s="41" t="s">
+      <c r="DS2" s="42" t="s">
         <v>620</v>
-      </c>
-      <c r="DS2" s="42" t="s">
-        <v>621</v>
       </c>
       <c r="DT2" s="42" t="s">
         <v>392</v>
       </c>
       <c r="DU2" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="DV2" s="41" t="s">
         <v>622</v>
-      </c>
-      <c r="DV2" s="41" t="s">
-        <v>623</v>
       </c>
       <c r="DW2" s="41" t="s">
         <v>134</v>
@@ -3347,21 +3433,21 @@
         <v>479</v>
       </c>
       <c r="DZ2" s="42" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="EA2" s="42" t="s">
         <v>427</v>
       </c>
       <c r="EB2" s="42" t="s">
+        <v>623</v>
+      </c>
+      <c r="EC2" s="42" t="s">
         <v>624</v>
-      </c>
-      <c r="EC2" s="42" t="s">
-        <v>625</v>
       </c>
       <c r="ED2" s="42"/>
       <c r="EE2" s="42"/>
       <c r="EF2" s="42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="EG2" s="42"/>
       <c r="EH2" s="42"/>
@@ -3370,51 +3456,51 @@
       <c r="EK2" s="42"/>
       <c r="EL2" s="42"/>
       <c r="EM2" s="41" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="3" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="B3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>630</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>598</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>599</v>
       </c>
       <c r="M3" s="36" t="s">
         <v>427</v>
       </c>
       <c r="N3" s="37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O3" s="37" t="s">
         <v>429</v>
@@ -3423,22 +3509,22 @@
         <v>429</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R3" s="37" t="s">
         <v>488</v>
       </c>
       <c r="S3" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="T3" s="37" t="s">
         <v>602</v>
-      </c>
-      <c r="T3" s="37" t="s">
-        <v>603</v>
       </c>
       <c r="U3" s="11">
         <v>50</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="W3" s="11" t="s">
         <v>128</v>
@@ -3460,16 +3546,16 @@
       </c>
       <c r="AE3" s="12"/>
       <c r="AF3" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG3" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>606</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>607</v>
       </c>
       <c r="AJ3" s="12" t="s">
         <v>36</v>
@@ -3490,7 +3576,7 @@
         <v>121</v>
       </c>
       <c r="AP3" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AQ3" s="12" t="s">
         <v>120</v>
@@ -3527,19 +3613,19 @@
         <v>1</v>
       </c>
       <c r="BC3" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BD3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="BE3" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BF3" s="12">
         <v>12</v>
       </c>
       <c r="BG3" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BH3" s="12">
         <v>2</v>
@@ -3557,7 +3643,7 @@
         <v>29</v>
       </c>
       <c r="BM3" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BN3" s="12" t="s">
         <v>187</v>
@@ -3587,14 +3673,14 @@
         <v>12345678</v>
       </c>
       <c r="BW3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BX3" s="40"/>
       <c r="BY3" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ3" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="CA3" s="12" t="s">
         <v>136</v>
@@ -3627,13 +3713,13 @@
         <v>40</v>
       </c>
       <c r="CM3" s="40" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="CN3" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO3" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="CP3" s="38" t="s">
         <v>341</v>
@@ -3645,7 +3731,7 @@
         <v>51</v>
       </c>
       <c r="CS3" s="43" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="CT3" s="11"/>
       <c r="CU3" s="11"/>
@@ -3687,40 +3773,40 @@
         <v>53</v>
       </c>
       <c r="DK3" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="DL3" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="DL3" s="11" t="s">
+      <c r="DM3" s="12" t="s">
         <v>615</v>
-      </c>
-      <c r="DM3" s="12" t="s">
-        <v>616</v>
       </c>
       <c r="DN3" s="12" t="s">
         <v>185</v>
       </c>
       <c r="DO3" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="DP3" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="DP3" s="41" t="s">
+      <c r="DQ3" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="DQ3" s="41" t="s">
+      <c r="DR3" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="DR3" s="41" t="s">
+      <c r="DS3" s="42" t="s">
         <v>620</v>
-      </c>
-      <c r="DS3" s="42" t="s">
-        <v>621</v>
       </c>
       <c r="DT3" s="42" t="s">
         <v>392</v>
       </c>
       <c r="DU3" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="DV3" s="41" t="s">
         <v>622</v>
-      </c>
-      <c r="DV3" s="41" t="s">
-        <v>623</v>
       </c>
       <c r="DW3" s="41" t="s">
         <v>134</v>
@@ -3732,86 +3818,86 @@
         <v>479</v>
       </c>
       <c r="DZ3" s="42" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="EA3" s="42" t="s">
         <v>427</v>
       </c>
       <c r="EB3" s="42" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="EC3" s="42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="ED3" s="42"/>
       <c r="EE3" s="42"/>
       <c r="EF3" s="42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="EG3" s="42" t="s">
         <v>396</v>
       </c>
       <c r="EH3" s="42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="EI3" s="42" t="s">
         <v>51</v>
       </c>
       <c r="EJ3" s="42" t="s">
+        <v>634</v>
+      </c>
+      <c r="EK3" s="42" t="s">
         <v>635</v>
       </c>
-      <c r="EK3" s="42" t="s">
+      <c r="EL3" s="42" t="s">
+        <v>635</v>
+      </c>
+      <c r="EM3" s="41" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:143" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="EL3" s="42" t="s">
-        <v>636</v>
-      </c>
-      <c r="EM3" s="41" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:143" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>589</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>639</v>
-      </c>
       <c r="E4" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I4" s="28" t="s">
+        <v>595</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="36" t="s">
         <v>597</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="L4" s="36" t="s">
         <v>598</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>599</v>
       </c>
       <c r="M4" s="36" t="s">
         <v>427</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O4" s="37" t="s">
         <v>429</v>
@@ -3820,16 +3906,16 @@
         <v>429</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R4" s="37" t="s">
         <v>488</v>
       </c>
       <c r="S4" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="T4" s="37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="U4" s="11">
         <v>50</v>
@@ -3857,16 +3943,16 @@
       </c>
       <c r="AE4" s="12"/>
       <c r="AF4" s="11" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG4" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="AG4" s="12" t="s">
+      <c r="AH4" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="AH4" s="12" t="s">
+      <c r="AI4" s="12" t="s">
         <v>606</v>
-      </c>
-      <c r="AI4" s="12" t="s">
-        <v>607</v>
       </c>
       <c r="AJ4" s="12" t="s">
         <v>36</v>
@@ -3887,7 +3973,7 @@
         <v>121</v>
       </c>
       <c r="AP4" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AQ4" s="12" t="s">
         <v>120</v>
@@ -3924,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="BC4" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="BD4" s="12" t="s">
         <v>16</v>
@@ -3936,7 +4022,7 @@
         <v>12</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="BH4" s="12">
         <v>2</v>
@@ -3954,7 +4040,7 @@
         <v>29</v>
       </c>
       <c r="BM4" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="BN4" s="12" t="s">
         <v>187</v>
@@ -3984,14 +4070,14 @@
         <v>12345678</v>
       </c>
       <c r="BW4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BX4" s="40"/>
       <c r="BY4" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ4" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="CA4" s="12" t="s">
         <v>136</v>
@@ -4024,13 +4110,13 @@
         <v>40</v>
       </c>
       <c r="CM4" s="40" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="CN4" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO4" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="CP4" s="38" t="s">
         <v>341</v>
@@ -4084,40 +4170,40 @@
         <v>53</v>
       </c>
       <c r="DK4" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="DL4" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="DL4" s="11" t="s">
+      <c r="DM4" s="12" t="s">
         <v>615</v>
-      </c>
-      <c r="DM4" s="12" t="s">
-        <v>616</v>
       </c>
       <c r="DN4" s="12" t="s">
         <v>185</v>
       </c>
       <c r="DO4" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="DP4" s="41" t="s">
         <v>617</v>
       </c>
-      <c r="DP4" s="41" t="s">
+      <c r="DQ4" s="41" t="s">
         <v>618</v>
       </c>
-      <c r="DQ4" s="41" t="s">
+      <c r="DR4" s="41" t="s">
         <v>619</v>
       </c>
-      <c r="DR4" s="41" t="s">
+      <c r="DS4" s="42" t="s">
         <v>620</v>
-      </c>
-      <c r="DS4" s="42" t="s">
-        <v>621</v>
       </c>
       <c r="DT4" s="42" t="s">
         <v>392</v>
       </c>
       <c r="DU4" s="42" t="s">
+        <v>621</v>
+      </c>
+      <c r="DV4" s="41" t="s">
         <v>622</v>
-      </c>
-      <c r="DV4" s="41" t="s">
-        <v>623</v>
       </c>
       <c r="DW4" s="41" t="s">
         <v>134</v>
@@ -4129,21 +4215,21 @@
         <v>479</v>
       </c>
       <c r="DZ4" s="42" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="EA4" s="42" t="s">
         <v>427</v>
       </c>
       <c r="EB4" s="42" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="EC4" s="42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="ED4" s="42"/>
       <c r="EE4" s="42"/>
       <c r="EF4" s="42" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="EG4" s="42"/>
       <c r="EH4" s="42"/>
@@ -4152,7 +4238,7 @@
       <c r="EK4" s="42"/>
       <c r="EL4" s="42"/>
       <c r="EM4" s="41" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -4162,476 +4248,486 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR12"/>
+  <dimension ref="A1:BU12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" workbookViewId="0">
-      <selection activeCell="BP3" sqref="BP3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="15" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="46" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.5703125" customWidth="1"/>
+    <col min="26" max="26" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="15" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="46" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:73" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>438</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="AA1" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AG1" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AH1" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AI1" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AM1" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AN1" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AO1" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AP1" s="15" t="s">
         <v>348</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AQ1" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AR1" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AS1" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AT1" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AU1" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AV1" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AW1" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AX1" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AY1" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AZ1" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="BA1" s="15" t="s">
         <v>359</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="BB1" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="BC1" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BD1" s="15" t="s">
         <v>440</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BE1" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BF1" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BG1" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BH1" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BI1" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BJ1" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="BP1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="BR1" s="1" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:73" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>441</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="T2" s="2">
         <v>16</v>
       </c>
-      <c r="R2" s="2">
+      <c r="U2" s="2">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W2" s="2">
+      <c r="Z2" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="AB2" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB2" s="2">
+      <c r="AE2" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC2" s="2">
+      <c r="AF2" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AN2" s="2">
         <v>411006</v>
       </c>
-      <c r="AL2" s="2">
+      <c r="AO2" s="2">
         <v>124421</v>
       </c>
-      <c r="AM2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2" t="s">
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AW2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AX2" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV2" s="2" t="s">
+      <c r="AY2" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW2" s="2" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX2" s="2">
+      <c r="BA2" s="2">
         <v>999</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="BB2" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ2" s="2" t="s">
+      <c r="BC2" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA2" s="2" t="s">
+      <c r="BD2" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB2" s="2" t="s">
+      <c r="BE2" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
-      <c r="BH2" s="9" t="s">
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL2" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI2" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ2" s="9" t="s">
+      <c r="BM2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK2" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL2" s="9" t="s">
+      <c r="BN2" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP2" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="BM2" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="BN2" s="9" t="s">
+      <c r="BQ2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO2" s="9" t="s">
+      <c r="BR2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP2" s="9" t="s">
+      <c r="BS2" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ2" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR2" s="44" t="s">
+      <c r="BT2" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU2" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>455</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>443</v>
@@ -4640,588 +4736,603 @@
         <v>443</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="T3" s="2">
         <v>16</v>
       </c>
-      <c r="R3" s="2">
+      <c r="U3" s="2">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W3" s="2">
+      <c r="Z3" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AB3" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB3" s="2">
+      <c r="AE3" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AF3" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AH3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AI3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG3" s="2" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH3" s="2" t="s">
+      <c r="AK3" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AL3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AM3" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AN3" s="2">
         <v>411006</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AO3" s="2">
         <v>124421</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AP3" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AQ3" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AR3" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AW3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AX3" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AY3" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AZ3" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX3" s="2">
+      <c r="BA3" s="2">
         <v>999</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="BB3" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ3" s="2" t="s">
+      <c r="BC3" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA3" s="2" t="s">
+      <c r="BD3" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
       <c r="BE3" s="2"/>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
-      <c r="BH3" s="9" t="s">
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL3" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI3" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ3" s="9" t="s">
+      <c r="BM3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK3" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL3" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="BM3" s="9" t="s">
-        <v>656</v>
-      </c>
       <c r="BN3" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP3" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="BQ3" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO3" s="9" t="s">
+      <c r="BR3" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP3" s="9" t="s">
+      <c r="BS3" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ3" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR3" s="44" t="s">
+      <c r="BT3" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU3" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>457</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>218</v>
       </c>
       <c r="L4" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="T4" s="2">
         <v>16</v>
       </c>
-      <c r="R4" s="2">
+      <c r="U4" s="2">
         <v>16</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W4" s="2">
+      <c r="Z4" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AA4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="AB4" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AE4" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AF4" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AJ4" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AK4" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI4" s="2" t="s">
+      <c r="AL4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AM4" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AN4" s="2">
         <v>411006</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AO4" s="2">
         <v>124421</v>
       </c>
-      <c r="AM4" s="2" t="s">
+      <c r="AP4" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AQ4" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AR4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AS4" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2" t="s">
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AW4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AX4" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV4" s="2" t="s">
+      <c r="AY4" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW4" s="2" t="s">
+      <c r="AZ4" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="BA4" s="2">
         <v>999</v>
       </c>
-      <c r="AY4" s="2" t="s">
+      <c r="BB4" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ4" s="2" t="s">
+      <c r="BC4" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA4" s="2" t="s">
+      <c r="BD4" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
       <c r="BE4" s="2"/>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
-      <c r="BH4" s="9" t="s">
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL4" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI4" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ4" s="9" t="s">
+      <c r="BM4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK4" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL4" s="9" t="s">
+      <c r="BN4" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP4" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="BM4" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="BN4" s="9" t="s">
+      <c r="BQ4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO4" s="9" t="s">
+      <c r="BR4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP4" s="9" t="s">
+      <c r="BS4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ4" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR4" s="44" t="s">
+      <c r="BT4" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU4" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>459</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="T5" s="2">
         <v>16</v>
       </c>
-      <c r="R5" s="2">
+      <c r="U5" s="2">
         <v>16</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W5" s="2">
+      <c r="Z5" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="AB5" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AD5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AE5" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AF5" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD5" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AH5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AI5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AK5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AL5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AN5" s="2">
         <v>411006</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AO5" s="2">
         <v>124421</v>
       </c>
-      <c r="AM5" s="2" t="s">
+      <c r="AP5" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AR5" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AS5" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2" t="s">
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AW5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU5" s="2">
+      <c r="AX5" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV5" s="2" t="s">
+      <c r="AY5" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW5" s="2" t="s">
+      <c r="AZ5" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX5" s="2">
+      <c r="BA5" s="2">
         <v>999</v>
       </c>
-      <c r="AY5" s="2" t="s">
+      <c r="BB5" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ5" s="2" t="s">
+      <c r="BC5" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA5" s="2" t="s">
+      <c r="BD5" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB5" s="2" t="s">
+      <c r="BE5" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="BC5" s="2"/>
-      <c r="BD5" s="2"/>
-      <c r="BE5" s="2"/>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
-      <c r="BH5" s="9" t="s">
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL5" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI5" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ5" s="9" t="s">
+      <c r="BM5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK5" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL5" s="9" t="s">
+      <c r="BN5" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP5" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="BM5" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="BN5" s="9" t="s">
+      <c r="BQ5" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO5" s="9" t="s">
+      <c r="BR5" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP5" s="9" t="s">
+      <c r="BS5" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ5" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR5" s="44" t="s">
+      <c r="BT5" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU5" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>462</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>218</v>
@@ -5230,10 +5341,10 @@
         <v>218</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>218</v>
@@ -5242,196 +5353,201 @@
         <v>218</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="T6" s="2">
         <v>16</v>
       </c>
-      <c r="R6" s="2">
+      <c r="U6" s="2">
         <v>16</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="W6" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="Y6" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W6" s="2">
+      <c r="Z6" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="AB6" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AE6" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AF6" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AG6" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AH6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AI6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AJ6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AK6" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AL6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AM6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AN6" s="2">
         <v>411006</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AO6" s="2">
         <v>124421</v>
       </c>
-      <c r="AM6" s="2" t="s">
+      <c r="AP6" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AQ6" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO6" s="2" t="s">
+      <c r="AR6" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AS6" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2" t="s">
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AX6" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AY6" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW6" s="2" t="s">
+      <c r="AZ6" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="BA6" s="2">
         <v>999</v>
       </c>
-      <c r="AY6" s="2" t="s">
+      <c r="BB6" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ6" s="2" t="s">
+      <c r="BC6" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA6" s="2" t="s">
+      <c r="BD6" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB6" s="2" t="s">
+      <c r="BE6" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC6" s="2"/>
-      <c r="BD6" s="2"/>
-      <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
-      <c r="BH6" s="9" t="s">
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL6" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI6" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ6" s="9" t="s">
+      <c r="BM6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK6" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL6" s="9" t="s">
+      <c r="BN6" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO6" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP6" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="BM6" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="BN6" s="9" t="s">
+      <c r="BQ6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO6" s="9" t="s">
+      <c r="BR6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP6" s="9" t="s">
+      <c r="BS6" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ6" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR6" s="44" t="s">
+      <c r="BT6" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU6" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>464</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>218</v>
@@ -5440,184 +5556,193 @@
         <v>218</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>16</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>16</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AE7" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AF7" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AM7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AN7" s="2">
         <v>411006</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AO7" s="2">
         <v>124421</v>
       </c>
-      <c r="AM7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AR7" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AS7" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ7" s="2"/>
-      <c r="AR7" s="2"/>
-      <c r="AS7" s="2" t="s">
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT7" s="2" t="s">
+      <c r="AW7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU7" s="2">
+      <c r="AX7" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW7" s="2" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX7" s="2">
+      <c r="BA7" s="2">
         <v>999</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="BB7" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="BC7" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA7" s="2" t="s">
+      <c r="BD7" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB7" s="2" t="s">
+      <c r="BE7" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC7" s="2"/>
-      <c r="BD7" s="2"/>
-      <c r="BE7" s="2"/>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
-      <c r="BH7" s="9" t="s">
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL7" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI7" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ7" s="9" t="s">
+      <c r="BM7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK7" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL7" s="9" t="s">
+      <c r="BN7" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO7" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP7" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="BM7" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="BN7" s="9" t="s">
+      <c r="BQ7" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO7" s="9" t="s">
+      <c r="BR7" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP7" s="9" t="s">
+      <c r="BS7" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ7" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR7" s="44" t="s">
+      <c r="BT7" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU7" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>466</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>218</v>
@@ -5626,10 +5751,10 @@
         <v>218</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>218</v>
@@ -5638,184 +5763,189 @@
         <v>218</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="T8" s="2">
         <v>16</v>
       </c>
-      <c r="R8" s="2">
+      <c r="U8" s="2">
         <v>16</v>
       </c>
-      <c r="S8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T8" s="2" t="s">
+      <c r="W8" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="X8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W8" s="2">
+      <c r="Z8" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="AA8" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AB8" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="AC8" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AE8" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AF8" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH8" s="2" t="s">
+      <c r="AK8" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AL8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK8" s="2">
+      <c r="AN8" s="2">
         <v>411006</v>
       </c>
-      <c r="AL8" s="2">
+      <c r="AO8" s="2">
         <v>124421</v>
       </c>
-      <c r="AM8" s="2" t="s">
+      <c r="AP8" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO8" s="2" t="s">
+      <c r="AR8" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2" t="s">
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT8" s="2" t="s">
+      <c r="AW8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AX8" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW8" s="2" t="s">
+      <c r="AZ8" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX8" s="2">
+      <c r="BA8" s="2">
         <v>999</v>
       </c>
-      <c r="AY8" s="2" t="s">
+      <c r="BB8" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ8" s="2" t="s">
+      <c r="BC8" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA8" s="2" t="s">
+      <c r="BD8" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB8" s="2" t="s">
+      <c r="BE8" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC8" s="2"/>
-      <c r="BD8" s="2"/>
-      <c r="BE8" s="2"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
-      <c r="BH8" s="9" t="s">
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL8" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI8" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ8" s="9" t="s">
+      <c r="BM8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK8" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL8" s="9" t="s">
+      <c r="BN8" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO8" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP8" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="BM8" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="BN8" s="9" t="s">
+      <c r="BQ8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO8" s="9" t="s">
+      <c r="BR8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP8" s="9" t="s">
+      <c r="BS8" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ8" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR8" s="44" t="s">
+      <c r="BT8" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU8" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>468</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>443</v>
@@ -5824,773 +5954,797 @@
         <v>443</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="T9" s="2">
         <v>16</v>
       </c>
-      <c r="R9" s="2">
+      <c r="U9" s="2">
         <v>16</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="X9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W9" s="2">
+      <c r="Z9" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="AA9" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="AB9" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="AC9" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AE9" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AF9" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AJ9" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH9" s="2" t="s">
+      <c r="AK9" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AL9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AM9" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK9" s="2">
+      <c r="AN9" s="2">
         <v>411006</v>
       </c>
-      <c r="AL9" s="2">
+      <c r="AO9" s="2">
         <v>124421</v>
       </c>
-      <c r="AM9" s="2" t="s">
+      <c r="AP9" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AQ9" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO9" s="2" t="s">
+      <c r="AR9" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AS9" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2" t="s">
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT9" s="2" t="s">
+      <c r="AW9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AX9" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AZ9" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX9" s="2">
+      <c r="BA9" s="2">
         <v>999</v>
       </c>
-      <c r="AY9" s="2" t="s">
+      <c r="BB9" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ9" s="2" t="s">
+      <c r="BC9" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA9" s="2" t="s">
+      <c r="BD9" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB9" s="2"/>
-      <c r="BC9" s="2"/>
-      <c r="BD9" s="2"/>
       <c r="BE9" s="2"/>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
-      <c r="BH9" s="9" t="s">
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL9" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI9" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ9" s="9" t="s">
+      <c r="BM9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK9" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL9" s="9" t="s">
+      <c r="BN9" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO9" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP9" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="BM9" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="BN9" s="9" t="s">
+      <c r="BQ9" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO9" s="9" t="s">
+      <c r="BR9" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP9" s="9" t="s">
+      <c r="BS9" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ9" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR9" s="44" t="s">
+      <c r="BT9" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU9" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>470</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>443</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>218</v>
+        <v>134</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="T10" s="2">
         <v>16</v>
       </c>
-      <c r="R10" s="2">
+      <c r="U10" s="2">
         <v>16</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="W10" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="X10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="Y10" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W10" s="2">
+      <c r="Z10" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="AA10" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="AB10" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="AC10" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AD10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AE10" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AF10" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AJ10" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH10" s="2" t="s">
+      <c r="AK10" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AL10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AM10" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK10" s="2">
+      <c r="AN10" s="2">
         <v>411006</v>
       </c>
-      <c r="AL10" s="2">
+      <c r="AO10" s="2">
         <v>124421</v>
       </c>
-      <c r="AM10" s="2" t="s">
+      <c r="AP10" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AQ10" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO10" s="2" t="s">
+      <c r="AR10" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AS10" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2" t="s">
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AW10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AX10" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AY10" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW10" s="2" t="s">
+      <c r="AZ10" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX10" s="2">
+      <c r="BA10" s="2">
         <v>999</v>
       </c>
-      <c r="AY10" s="2" t="s">
+      <c r="BB10" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ10" s="2" t="s">
+      <c r="BC10" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA10" s="2" t="s">
+      <c r="BD10" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB10" s="2"/>
-      <c r="BC10" s="2"/>
-      <c r="BD10" s="2"/>
       <c r="BE10" s="2"/>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
-      <c r="BH10" s="9" t="s">
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL10" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI10" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ10" s="9" t="s">
+      <c r="BM10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK10" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL10" s="9" t="s">
+      <c r="BN10" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO10" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP10" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="BM10" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="BN10" s="9" t="s">
+      <c r="BQ10" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO10" s="9" t="s">
+      <c r="BR10" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP10" s="9" t="s">
+      <c r="BS10" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ10" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR10" s="44" t="s">
+      <c r="BT10" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU10" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>472</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="T11" s="2">
         <v>16</v>
       </c>
-      <c r="R11" s="2">
+      <c r="U11" s="2">
         <v>16</v>
       </c>
-      <c r="S11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="X11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V11" s="2" t="s">
+      <c r="Y11" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W11" s="2">
+      <c r="Z11" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="AA11" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AB11" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="AC11" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AE11" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AF11" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AK11" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AL11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AM11" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK11" s="2">
+      <c r="AN11" s="2">
         <v>411006</v>
       </c>
-      <c r="AL11" s="2">
+      <c r="AO11" s="2">
         <v>124421</v>
       </c>
-      <c r="AM11" s="2" t="s">
+      <c r="AP11" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AQ11" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO11" s="2" t="s">
+      <c r="AR11" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AS11" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2" t="s">
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AW11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AX11" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV11" s="2" t="s">
+      <c r="AY11" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW11" s="2" t="s">
+      <c r="AZ11" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX11" s="2">
+      <c r="BA11" s="2">
         <v>999</v>
       </c>
-      <c r="AY11" s="2" t="s">
+      <c r="BB11" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ11" s="2" t="s">
+      <c r="BC11" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA11" s="2" t="s">
+      <c r="BD11" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB11" s="2" t="s">
+      <c r="BE11" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC11" s="2"/>
-      <c r="BD11" s="2"/>
-      <c r="BE11" s="2"/>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
-      <c r="BH11" s="9" t="s">
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL11" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI11" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ11" s="9" t="s">
+      <c r="BM11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK11" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL11" s="9" t="s">
+      <c r="BN11" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO11" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP11" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="BM11" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="BN11" s="9" t="s">
+      <c r="BQ11" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO11" s="9" t="s">
+      <c r="BR11" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP11" s="9" t="s">
+      <c r="BS11" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ11" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR11" s="44" t="s">
+      <c r="BT11" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU11" s="44" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>218</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="T12" s="2">
         <v>16</v>
       </c>
-      <c r="R12" s="2">
+      <c r="U12" s="2">
         <v>16</v>
       </c>
-      <c r="S12" s="2" t="s">
+      <c r="V12" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="W12" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="U12" s="2" t="s">
+      <c r="X12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="V12" s="2" t="s">
+      <c r="Y12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="W12" s="2">
+      <c r="Z12" s="2">
         <v>1100440052</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="AA12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AB12" s="2">
         <v>45665456</v>
       </c>
-      <c r="Z12" s="2" t="s">
+      <c r="AC12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AE12" s="2">
         <v>1113332</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AF12" s="2">
         <v>23564589</v>
       </c>
-      <c r="AD12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AH12" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AJ12" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="AH12" s="2" t="s">
+      <c r="AK12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="AI12" s="2" t="s">
+      <c r="AL12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AM12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AN12" s="2">
         <v>411006</v>
       </c>
-      <c r="AL12" s="2">
+      <c r="AO12" s="2">
         <v>124421</v>
       </c>
-      <c r="AM12" s="2" t="s">
+      <c r="AP12" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="AN12" s="2" t="s">
+      <c r="AQ12" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AO12" s="2" t="s">
+      <c r="AR12" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AS12" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2" t="s">
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="AT12" s="2" t="s">
+      <c r="AW12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AX12" s="2">
         <v>5431267812</v>
       </c>
-      <c r="AV12" s="2" t="s">
+      <c r="AY12" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="AW12" s="2" t="s">
+      <c r="AZ12" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="BA12" s="2">
         <v>999</v>
       </c>
-      <c r="AY12" s="2" t="s">
+      <c r="BB12" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AZ12" s="2" t="s">
+      <c r="BC12" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BA12" s="2" t="s">
+      <c r="BD12" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="BB12" s="2" t="s">
+      <c r="BE12" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="BC12" s="2"/>
-      <c r="BD12" s="2" t="s">
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="BE12" s="2" t="s">
+      <c r="BH12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="BF12" s="2" t="s">
+      <c r="BI12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="BG12" s="2">
+      <c r="BJ12" s="2">
         <v>121212</v>
       </c>
-      <c r="BH12" s="9" t="s">
+      <c r="BK12" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="BL12" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="BI12" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="BJ12" s="9" t="s">
+      <c r="BM12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="BK12" s="9" t="s">
-        <v>648</v>
-      </c>
-      <c r="BL12" s="9" t="s">
+      <c r="BN12" s="9" t="s">
+        <v>647</v>
+      </c>
+      <c r="BO12" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="BP12" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="BM12" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="BN12" s="9" t="s">
+      <c r="BQ12" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BO12" s="9" t="s">
+      <c r="BR12" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BP12" s="9" t="s">
+      <c r="BS12" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BQ12" s="44" t="s">
-        <v>659</v>
-      </c>
-      <c r="BR12" s="44" t="s">
+      <c r="BT12" s="44" t="s">
+        <v>658</v>
+      </c>
+      <c r="BU12" s="44" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6608,12 +6762,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -6667,7 +6821,7 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>287</v>
       </c>
@@ -6720,7 +6874,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>288</v>
       </c>
@@ -6773,7 +6927,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>289</v>
       </c>
@@ -6826,7 +6980,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -6879,7 +7033,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>291</v>
       </c>
@@ -6945,18 +7099,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.6640625" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="33" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="31"/>
+    <col min="1" max="1" width="61.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6976,7 +7130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>368</v>
       </c>
@@ -6996,7 +7150,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>369</v>
       </c>
@@ -7016,7 +7170,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>376</v>
       </c>
@@ -7036,7 +7190,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>370</v>
       </c>
@@ -7056,7 +7210,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>371</v>
       </c>
@@ -7076,7 +7230,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>372</v>
       </c>
@@ -7096,7 +7250,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>373</v>
       </c>
@@ -7129,27 +7283,27 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" style="24" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="24" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="24"/>
-    <col min="10" max="10" width="9.6640625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="24" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" style="24" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.109375" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="14.7109375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="24"/>
+    <col min="10" max="10" width="9.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="24" customWidth="1"/>
+    <col min="12" max="12" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="24" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="9.140625" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -7196,7 +7350,7 @@
       <c r="P1" s="24"/>
       <c r="Q1" s="24"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>303</v>
       </c>
@@ -7239,17 +7393,17 @@
       <c r="P2" s="24"/>
       <c r="Q2" s="24"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -7267,24 +7421,24 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="24" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="24" customWidth="1"/>
     <col min="4" max="5" width="15" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="24" customWidth="1"/>
     <col min="7" max="7" width="15" style="24" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="15" style="24" customWidth="1"/>
-    <col min="10" max="12" width="9.33203125" style="24" customWidth="1"/>
-    <col min="13" max="13" width="28.6640625" style="24" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="10" max="12" width="9.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="28.7109375" style="24" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -7331,7 +7485,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>320</v>
       </c>
@@ -7372,7 +7526,7 @@
       <c r="N2" s="25"/>
       <c r="O2" s="25"/>
     </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>326</v>
       </c>
@@ -7426,20 +7580,20 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
@@ -7474,7 +7628,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>331</v>
       </c>
@@ -7530,20 +7684,20 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
     <col min="2" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" customWidth="1"/>
-    <col min="12" max="13" width="15.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+    <col min="12" max="13" width="15.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:63" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7734,7 +7888,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -7921,7 +8075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:63" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:63" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -8104,28 +8258,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EQ177"/>
+  <dimension ref="A1:FC177"/>
   <sheetViews>
-    <sheetView topLeftCell="DD1" workbookViewId="0">
-      <selection activeCell="DM1" sqref="DM1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="19" max="19" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="97" max="97" width="10.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.42578125" customWidth="1"/>
+    <col min="66" max="66" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.5703125" customWidth="1"/>
+    <col min="97" max="97" width="10.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:147" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:159" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8478,97 +8632,133 @@
         <v>414</v>
       </c>
       <c r="DN1" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="DO1" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DP1" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DQ1" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="EO1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="EP1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="EQ1" s="4" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="ER1" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="ES1" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="ET1" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="EU1" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="EV1" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="EW1" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="EX1" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="EY1" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="EZ1" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="FA1" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="FB1" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="FC1" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="2" spans="1:159" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>132</v>
       </c>
@@ -8984,8 +9174,44 @@
       <c r="EQ2" s="9" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="3" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="ER2" s="45" t="s">
+        <v>676</v>
+      </c>
+      <c r="ES2" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="ET2" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="EU2" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="EV2" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="EW2" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="EX2" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="EY2" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="EZ2" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="FA2" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="FB2" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="FC2" s="9" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:159" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>430</v>
       </c>
@@ -9344,7 +9570,7 @@
       <c r="EP3" s="9"/>
       <c r="EQ3" s="9"/>
     </row>
-    <row r="4" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:159" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
@@ -9675,7 +9901,7 @@
       <c r="EP4" s="9"/>
       <c r="EQ4" s="9"/>
     </row>
-    <row r="5" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:159" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>432</v>
       </c>
@@ -10006,7 +10232,7 @@
       <c r="EP5" s="9"/>
       <c r="EQ5" s="9"/>
     </row>
-    <row r="6" spans="1:147" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:159" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>150</v>
       </c>
@@ -10337,7 +10563,7 @@
       <c r="EP6" s="9"/>
       <c r="EQ6" s="9"/>
     </row>
-    <row r="7" spans="1:147" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:159" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>433</v>
       </c>
@@ -10668,7 +10894,7 @@
       <c r="EP7" s="9"/>
       <c r="EQ7" s="9"/>
     </row>
-    <row r="8" spans="1:147" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:159" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>156</v>
       </c>
@@ -10999,7 +11225,7 @@
       <c r="EP8" s="9"/>
       <c r="EQ8" s="9"/>
     </row>
-    <row r="9" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>434</v>
       </c>
@@ -11330,7 +11556,7 @@
       <c r="EP9" s="9"/>
       <c r="EQ9" s="9"/>
     </row>
-    <row r="10" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>163</v>
       </c>
@@ -11661,7 +11887,7 @@
       <c r="EP10" s="9"/>
       <c r="EQ10" s="9"/>
     </row>
-    <row r="11" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>435</v>
       </c>
@@ -11992,12 +12218,12 @@
       <c r="EP11" s="9"/>
       <c r="EQ11" s="9"/>
     </row>
-    <row r="12" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>512</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>478</v>
@@ -12006,7 +12232,7 @@
         <v>8520</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F12" s="9">
         <v>50</v>
@@ -12138,7 +12364,7 @@
         <v>187</v>
       </c>
       <c r="AY12" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>30</v>
@@ -12263,7 +12489,7 @@
         <v>188</v>
       </c>
       <c r="CV12" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="CW12" s="9" t="s">
         <v>53</v>
@@ -12407,499 +12633,499 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:159" x14ac:dyDescent="0.25">
       <c r="CS13"/>
     </row>
-    <row r="14" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:159" x14ac:dyDescent="0.25">
       <c r="CS14"/>
     </row>
-    <row r="15" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:159" x14ac:dyDescent="0.25">
       <c r="CS15"/>
     </row>
-    <row r="16" spans="1:147" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:159" x14ac:dyDescent="0.25">
       <c r="CS16"/>
     </row>
-    <row r="17" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="17" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS17"/>
     </row>
-    <row r="18" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="18" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS18"/>
     </row>
-    <row r="19" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="19" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS19"/>
     </row>
-    <row r="20" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="20" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS20"/>
     </row>
-    <row r="21" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="21" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS21"/>
     </row>
-    <row r="22" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="22" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS22"/>
     </row>
-    <row r="23" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="23" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS23"/>
     </row>
-    <row r="24" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="24" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS24"/>
     </row>
-    <row r="25" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="25" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS25"/>
     </row>
-    <row r="26" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="26" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS26"/>
     </row>
-    <row r="27" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="27" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS27"/>
     </row>
-    <row r="28" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="28" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS28"/>
     </row>
-    <row r="29" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="29" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS29"/>
     </row>
-    <row r="30" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="30" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS30"/>
     </row>
-    <row r="31" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="31" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS31"/>
     </row>
-    <row r="32" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="32" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS32"/>
     </row>
-    <row r="33" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="33" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS33"/>
     </row>
-    <row r="34" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="34" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS34"/>
     </row>
-    <row r="35" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="35" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS35"/>
     </row>
-    <row r="36" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="36" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS36"/>
     </row>
-    <row r="37" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="37" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS37"/>
     </row>
-    <row r="38" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="38" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS38"/>
     </row>
-    <row r="39" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="39" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS39"/>
     </row>
-    <row r="40" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="40" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS40"/>
     </row>
-    <row r="41" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="41" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS41"/>
     </row>
-    <row r="42" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="42" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS42"/>
     </row>
-    <row r="43" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="43" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS43"/>
     </row>
-    <row r="44" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="44" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS44"/>
     </row>
-    <row r="45" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="45" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS45"/>
     </row>
-    <row r="46" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="46" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS46"/>
     </row>
-    <row r="47" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="47" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS47"/>
     </row>
-    <row r="48" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="48" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS48"/>
     </row>
-    <row r="49" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="49" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS49"/>
     </row>
-    <row r="50" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="50" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS50"/>
     </row>
-    <row r="51" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="51" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS51"/>
     </row>
-    <row r="52" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="52" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS52"/>
     </row>
-    <row r="53" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="53" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS53"/>
     </row>
-    <row r="54" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="54" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS54"/>
     </row>
-    <row r="55" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="55" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS55"/>
     </row>
-    <row r="56" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="56" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS56"/>
     </row>
-    <row r="57" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="57" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS57"/>
     </row>
-    <row r="58" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="58" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS58"/>
     </row>
-    <row r="59" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="59" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS59"/>
     </row>
-    <row r="60" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="60" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS60"/>
     </row>
-    <row r="61" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="61" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS61"/>
     </row>
-    <row r="62" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="62" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS62"/>
     </row>
-    <row r="63" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="63" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS63"/>
     </row>
-    <row r="64" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="64" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS64"/>
     </row>
-    <row r="65" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="65" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS65"/>
     </row>
-    <row r="66" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="66" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS66"/>
     </row>
-    <row r="67" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="67" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS67"/>
     </row>
-    <row r="68" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="68" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS68"/>
     </row>
-    <row r="69" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="69" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS69"/>
     </row>
-    <row r="70" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="70" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS70"/>
     </row>
-    <row r="71" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="71" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS71"/>
     </row>
-    <row r="72" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="72" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS72"/>
     </row>
-    <row r="73" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="73" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS73"/>
     </row>
-    <row r="74" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="74" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS74"/>
     </row>
-    <row r="75" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="75" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS75"/>
     </row>
-    <row r="76" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="76" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS76"/>
     </row>
-    <row r="77" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="77" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS77"/>
     </row>
-    <row r="78" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="78" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS78"/>
     </row>
-    <row r="79" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="79" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS79"/>
     </row>
-    <row r="80" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="80" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS80"/>
     </row>
-    <row r="81" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="81" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS81"/>
     </row>
-    <row r="82" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="82" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS82"/>
     </row>
-    <row r="83" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="83" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS83"/>
     </row>
-    <row r="84" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="84" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS84"/>
     </row>
-    <row r="85" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="85" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS85"/>
     </row>
-    <row r="86" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="86" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS86"/>
     </row>
-    <row r="87" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="87" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS87"/>
     </row>
-    <row r="88" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="88" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS88"/>
     </row>
-    <row r="89" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="89" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS89"/>
     </row>
-    <row r="90" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="90" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS90"/>
     </row>
-    <row r="91" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="91" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS91"/>
     </row>
-    <row r="92" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="92" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS92"/>
     </row>
-    <row r="93" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="93" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS93"/>
     </row>
-    <row r="94" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="94" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS94"/>
     </row>
-    <row r="95" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="95" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS95"/>
     </row>
-    <row r="96" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="96" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS96"/>
     </row>
-    <row r="97" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="97" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS97"/>
     </row>
-    <row r="98" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="98" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS98"/>
     </row>
-    <row r="99" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="99" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS99"/>
     </row>
-    <row r="100" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="100" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS100"/>
     </row>
-    <row r="101" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="101" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS101"/>
     </row>
-    <row r="102" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="102" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS102"/>
     </row>
-    <row r="103" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="103" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS103"/>
     </row>
-    <row r="104" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="104" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS104"/>
     </row>
-    <row r="105" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="105" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS105"/>
     </row>
-    <row r="106" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="106" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS106"/>
     </row>
-    <row r="107" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="107" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS107"/>
     </row>
-    <row r="108" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="108" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS108"/>
     </row>
-    <row r="109" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="109" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS109"/>
     </row>
-    <row r="110" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="110" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS110"/>
     </row>
-    <row r="111" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="111" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS111"/>
     </row>
-    <row r="112" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="112" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS112"/>
     </row>
-    <row r="113" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="113" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS113"/>
     </row>
-    <row r="114" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="114" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS114"/>
     </row>
-    <row r="115" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="115" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS115"/>
     </row>
-    <row r="116" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="116" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS116"/>
     </row>
-    <row r="117" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="117" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS117"/>
     </row>
-    <row r="118" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="118" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS118"/>
     </row>
-    <row r="119" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="119" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS119"/>
     </row>
-    <row r="120" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="120" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS120"/>
     </row>
-    <row r="121" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="121" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS121"/>
     </row>
-    <row r="122" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="122" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS122"/>
     </row>
-    <row r="123" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="123" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS123"/>
     </row>
-    <row r="124" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="124" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS124"/>
     </row>
-    <row r="125" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="125" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS125"/>
     </row>
-    <row r="126" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="126" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS126"/>
     </row>
-    <row r="127" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="127" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS127"/>
     </row>
-    <row r="128" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="128" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS128"/>
     </row>
-    <row r="129" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="129" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS129"/>
     </row>
-    <row r="130" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="130" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS130"/>
     </row>
-    <row r="131" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="131" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS131"/>
     </row>
-    <row r="132" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="132" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS132"/>
     </row>
-    <row r="133" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="133" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS133"/>
     </row>
-    <row r="134" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="134" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS134"/>
     </row>
-    <row r="135" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="135" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS135"/>
     </row>
-    <row r="136" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="136" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS136"/>
     </row>
-    <row r="137" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="137" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS137"/>
     </row>
-    <row r="138" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="138" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS138"/>
     </row>
-    <row r="139" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="139" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS139"/>
     </row>
-    <row r="140" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="140" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS140"/>
     </row>
-    <row r="141" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="141" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS141"/>
     </row>
-    <row r="142" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="142" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS142"/>
     </row>
-    <row r="143" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="143" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS143"/>
     </row>
-    <row r="144" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="144" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS144"/>
     </row>
-    <row r="145" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="145" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS145"/>
     </row>
-    <row r="146" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="146" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS146"/>
     </row>
-    <row r="147" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="147" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS147"/>
     </row>
-    <row r="148" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="148" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS148"/>
     </row>
-    <row r="149" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="149" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS149"/>
     </row>
-    <row r="150" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="150" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS150"/>
     </row>
-    <row r="151" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="151" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS151"/>
     </row>
-    <row r="152" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="152" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS152"/>
     </row>
-    <row r="153" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="153" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS153"/>
     </row>
-    <row r="154" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="154" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS154"/>
     </row>
-    <row r="155" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="155" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS155"/>
     </row>
-    <row r="156" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="156" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS156"/>
     </row>
-    <row r="157" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="157" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS157"/>
     </row>
-    <row r="158" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="158" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS158"/>
     </row>
-    <row r="159" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="159" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS159"/>
     </row>
-    <row r="160" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="160" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS160"/>
     </row>
-    <row r="161" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="161" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS161"/>
     </row>
-    <row r="162" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="162" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS162"/>
     </row>
-    <row r="163" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="163" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS163"/>
     </row>
-    <row r="164" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="164" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS164"/>
     </row>
-    <row r="165" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="165" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS165"/>
     </row>
-    <row r="166" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="166" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS166"/>
     </row>
-    <row r="167" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="167" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS167"/>
     </row>
-    <row r="168" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="168" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS168"/>
     </row>
-    <row r="169" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="169" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS169"/>
     </row>
-    <row r="170" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="170" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS170"/>
     </row>
-    <row r="171" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="171" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS171"/>
     </row>
-    <row r="172" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="172" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS172"/>
     </row>
-    <row r="173" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="173" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS173"/>
     </row>
-    <row r="174" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="174" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS174"/>
     </row>
-    <row r="175" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="175" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS175"/>
     </row>
-    <row r="176" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="176" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS176"/>
     </row>
-    <row r="177" spans="97:97" x14ac:dyDescent="0.3">
+    <row r="177" spans="97:97" x14ac:dyDescent="0.25">
       <c r="CS177"/>
     </row>
   </sheetData>
@@ -12916,17 +13142,17 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -12961,7 +13187,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>174</v>
       </c>
@@ -12988,7 +13214,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>178</v>
       </c>
@@ -13019,7 +13245,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>179</v>
       </c>
@@ -13040,7 +13266,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>180</v>
       </c>
@@ -13076,19 +13302,19 @@
       <selection sqref="A1:Q6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="52" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="17" max="17" width="47" customWidth="1"/>
-    <col min="18" max="18" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13139,7 +13365,7 @@
       </c>
       <c r="R1" s="20"/>
     </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>189</v>
       </c>
@@ -13190,7 +13416,7 @@
       </c>
       <c r="R2" s="18"/>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>189</v>
       </c>
@@ -13241,7 +13467,7 @@
       </c>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>189</v>
       </c>
@@ -13292,7 +13518,7 @@
       </c>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>189</v>
       </c>
@@ -13343,7 +13569,7 @@
       </c>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>189</v>
       </c>
@@ -13405,13 +13631,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13431,7 +13657,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>244</v>
       </c>
@@ -13451,7 +13677,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>248</v>
       </c>
@@ -13482,12 +13708,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13516,7 +13742,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>250</v>
       </c>
@@ -13556,12 +13782,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13584,7 +13810,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>254</v>
       </c>
@@ -13607,7 +13833,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>258</v>
       </c>
@@ -13628,7 +13854,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>260</v>
       </c>
@@ -13660,14 +13886,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
@@ -13687,7 +13913,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>244</v>
       </c>
@@ -13707,7 +13933,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>248</v>
       </c>

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15105" windowHeight="8985" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Prepaid_Application_Upload" sheetId="16" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="686">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -1131,9 +1131,6 @@
     <t>Record Added Successfully.</t>
   </si>
   <si>
-    <t>Batch [ROLE000052]</t>
-  </si>
-  <si>
     <t>TC417600_Additional field for Customer Master Download file</t>
   </si>
   <si>
@@ -1392,9 +1389,6 @@
     <t>ExistingInstitutionCode</t>
   </si>
   <si>
-    <t>ISSUINGXH</t>
-  </si>
-  <si>
     <t>TCInstituteCreationDC</t>
   </si>
   <si>
@@ -1413,9 +1407,6 @@
     <t>DEBPRE</t>
   </si>
   <si>
-    <t>DEBPREXF</t>
-  </si>
-  <si>
     <t>TCInstituteCreationPRCR</t>
   </si>
   <si>
@@ -2092,6 +2083,9 @@
   </si>
   <si>
     <t>AmexInstitutionSetup</t>
+  </si>
+  <si>
+    <t>7200022_Role [ROLE000045]</t>
   </si>
 </sst>
 </file>
@@ -2654,49 +2648,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>293</v>
@@ -2723,10 +2717,10 @@
         <v>102</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>75</v>
@@ -2807,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>13</v>
@@ -2846,7 +2840,7 @@
         <v>22</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>24</v>
@@ -2882,7 +2876,7 @@
         <v>135</v>
       </c>
       <c r="CB1" s="4" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="CC1" s="4" t="s">
         <v>66</v>
@@ -2987,153 +2981,153 @@
         <v>52</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="DL1" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="DM1" s="4" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="DN1" s="1" t="s">
         <v>184</v>
       </c>
       <c r="DO1" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="DP1" s="34" t="s">
+        <v>563</v>
+      </c>
+      <c r="DQ1" s="34" t="s">
+        <v>564</v>
+      </c>
+      <c r="DR1" s="34" t="s">
         <v>565</v>
       </c>
-      <c r="DP1" s="34" t="s">
+      <c r="DS1" s="34" t="s">
         <v>566</v>
       </c>
-      <c r="DQ1" s="34" t="s">
+      <c r="DT1" s="34" t="s">
         <v>567</v>
       </c>
-      <c r="DR1" s="34" t="s">
+      <c r="DU1" s="34" t="s">
         <v>568</v>
       </c>
-      <c r="DS1" s="34" t="s">
+      <c r="DV1" s="34" t="s">
         <v>569</v>
       </c>
-      <c r="DT1" s="34" t="s">
+      <c r="DW1" s="34" t="s">
         <v>570</v>
       </c>
-      <c r="DU1" s="34" t="s">
+      <c r="DX1" s="34" t="s">
         <v>571</v>
       </c>
-      <c r="DV1" s="34" t="s">
+      <c r="DY1" s="34" t="s">
         <v>572</v>
       </c>
-      <c r="DW1" s="34" t="s">
+      <c r="DZ1" s="34" t="s">
         <v>573</v>
       </c>
-      <c r="DX1" s="34" t="s">
+      <c r="EA1" s="34" t="s">
         <v>574</v>
       </c>
-      <c r="DY1" s="34" t="s">
+      <c r="EB1" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="DZ1" s="34" t="s">
+      <c r="EC1" s="34" t="s">
         <v>576</v>
       </c>
-      <c r="EA1" s="34" t="s">
+      <c r="ED1" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="EE1" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="EF1" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="EB1" s="34" t="s">
+      <c r="EG1" s="34" t="s">
         <v>578</v>
       </c>
-      <c r="EC1" s="34" t="s">
+      <c r="EH1" s="34" t="s">
         <v>579</v>
       </c>
-      <c r="ED1" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="EE1" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="EF1" s="34" t="s">
+      <c r="EI1" s="34" t="s">
         <v>580</v>
       </c>
-      <c r="EG1" s="34" t="s">
+      <c r="EJ1" s="34" t="s">
         <v>581</v>
       </c>
-      <c r="EH1" s="34" t="s">
+      <c r="EK1" s="34" t="s">
         <v>582</v>
       </c>
-      <c r="EI1" s="34" t="s">
+      <c r="EL1" s="34" t="s">
         <v>583</v>
       </c>
-      <c r="EJ1" s="34" t="s">
+      <c r="EM1" s="34" t="s">
         <v>584</v>
-      </c>
-      <c r="EK1" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="EL1" s="34" t="s">
-        <v>586</v>
-      </c>
-      <c r="EM1" s="34" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>588</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="G2" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I2" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="M2" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="N2" s="37" t="s">
         <v>596</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="O2" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q2" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="R2" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="S2" s="37" t="s">
         <v>598</v>
       </c>
-      <c r="M2" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="N2" s="37" t="s">
+      <c r="T2" s="37" t="s">
         <v>599</v>
-      </c>
-      <c r="O2" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="P2" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="R2" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="S2" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>602</v>
       </c>
       <c r="U2" s="11">
         <v>50</v>
@@ -3161,16 +3155,16 @@
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="AI2" s="12" t="s">
         <v>603</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>606</v>
       </c>
       <c r="AJ2" s="12" t="s">
         <v>36</v>
@@ -3191,7 +3185,7 @@
         <v>121</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AQ2" s="12" t="s">
         <v>120</v>
@@ -3228,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="BD2" s="12" t="s">
         <v>16</v>
@@ -3240,7 +3234,7 @@
         <v>12</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="BH2" s="12">
         <v>2</v>
@@ -3258,7 +3252,7 @@
         <v>29</v>
       </c>
       <c r="BM2" s="12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="BN2" s="12" t="s">
         <v>187</v>
@@ -3273,7 +3267,7 @@
         <v>36</v>
       </c>
       <c r="BR2" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BS2" s="12" t="s">
         <v>31</v>
@@ -3288,20 +3282,20 @@
         <v>12345678</v>
       </c>
       <c r="BW2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="BX2" s="40"/>
       <c r="BY2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ2" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="CA2" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB2" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="CC2" s="12" t="s">
         <v>67</v>
@@ -3317,10 +3311,10 @@
       </c>
       <c r="CG2" s="12"/>
       <c r="CH2" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CI2" s="40" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="CJ2" s="38"/>
       <c r="CK2" s="38"/>
@@ -3328,13 +3322,13 @@
         <v>40</v>
       </c>
       <c r="CM2" s="40" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="CN2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO2" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="CP2" s="38" t="s">
         <v>341</v>
@@ -3351,22 +3345,22 @@
       <c r="CT2" s="11"/>
       <c r="CU2" s="11"/>
       <c r="CV2" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CW2" s="12" t="s">
         <v>133</v>
       </c>
       <c r="CX2" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="CY2" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="CZ2" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="CY2" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="CZ2" s="38" t="s">
+      <c r="DA2" s="38" t="s">
         <v>396</v>
-      </c>
-      <c r="DA2" s="38" t="s">
-        <v>397</v>
       </c>
       <c r="DB2" s="12" t="s">
         <v>91</v>
@@ -3388,66 +3382,66 @@
         <v>53</v>
       </c>
       <c r="DK2" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="DL2" s="11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="DM2" s="12" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="DN2" s="12" t="s">
         <v>185</v>
       </c>
       <c r="DO2" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="DP2" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="DQ2" s="41" t="s">
+        <v>615</v>
+      </c>
+      <c r="DR2" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="DP2" s="41" t="s">
+      <c r="DS2" s="42" t="s">
         <v>617</v>
       </c>
-      <c r="DQ2" s="41" t="s">
+      <c r="DT2" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="DU2" s="42" t="s">
         <v>618</v>
       </c>
-      <c r="DR2" s="41" t="s">
+      <c r="DV2" s="41" t="s">
         <v>619</v>
-      </c>
-      <c r="DS2" s="42" t="s">
-        <v>620</v>
-      </c>
-      <c r="DT2" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="DU2" s="42" t="s">
-        <v>621</v>
-      </c>
-      <c r="DV2" s="41" t="s">
-        <v>622</v>
       </c>
       <c r="DW2" s="41" t="s">
         <v>134</v>
       </c>
       <c r="DX2" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="DY2" s="42" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="DZ2" s="42" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="EA2" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="EB2" s="42" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="EC2" s="42" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="ED2" s="42"/>
       <c r="EE2" s="42"/>
       <c r="EF2" s="42" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="EG2" s="42"/>
       <c r="EH2" s="42"/>
@@ -3456,75 +3450,75 @@
       <c r="EK2" s="42"/>
       <c r="EL2" s="42"/>
       <c r="EM2" s="41" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>626</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>629</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>592</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I3" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="N3" s="37" t="s">
         <v>596</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="O3" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="R3" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="S3" s="37" t="s">
         <v>598</v>
       </c>
-      <c r="M3" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="N3" s="37" t="s">
+      <c r="T3" s="37" t="s">
         <v>599</v>
-      </c>
-      <c r="O3" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="R3" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="S3" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="T3" s="37" t="s">
-        <v>602</v>
       </c>
       <c r="U3" s="11">
         <v>50</v>
       </c>
       <c r="V3" s="11" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="W3" s="11" t="s">
         <v>128</v>
@@ -3546,16 +3540,16 @@
       </c>
       <c r="AE3" s="12"/>
       <c r="AF3" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="AI3" s="12" t="s">
         <v>603</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI3" s="12" t="s">
-        <v>606</v>
       </c>
       <c r="AJ3" s="12" t="s">
         <v>36</v>
@@ -3576,7 +3570,7 @@
         <v>121</v>
       </c>
       <c r="AP3" s="12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AQ3" s="12" t="s">
         <v>120</v>
@@ -3613,19 +3607,19 @@
         <v>1</v>
       </c>
       <c r="BC3" s="12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="BD3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="BE3" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="BF3" s="12">
         <v>12</v>
       </c>
       <c r="BG3" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="BH3" s="12">
         <v>2</v>
@@ -3643,7 +3637,7 @@
         <v>29</v>
       </c>
       <c r="BM3" s="12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="BN3" s="12" t="s">
         <v>187</v>
@@ -3658,7 +3652,7 @@
         <v>36</v>
       </c>
       <c r="BR3" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BS3" s="12" t="s">
         <v>31</v>
@@ -3673,20 +3667,20 @@
         <v>12345678</v>
       </c>
       <c r="BW3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="BX3" s="40"/>
       <c r="BY3" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ3" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="CA3" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB3" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="CC3" s="12" t="s">
         <v>67</v>
@@ -3702,10 +3696,10 @@
       </c>
       <c r="CG3" s="12"/>
       <c r="CH3" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CI3" s="40" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="CJ3" s="38"/>
       <c r="CK3" s="38"/>
@@ -3713,13 +3707,13 @@
         <v>40</v>
       </c>
       <c r="CM3" s="40" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="CN3" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO3" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="CP3" s="38" t="s">
         <v>341</v>
@@ -3731,27 +3725,27 @@
         <v>51</v>
       </c>
       <c r="CS3" s="43" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="CT3" s="11"/>
       <c r="CU3" s="11"/>
       <c r="CV3" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CW3" s="12" t="s">
         <v>133</v>
       </c>
       <c r="CX3" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="CY3" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="CZ3" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="CY3" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="CZ3" s="38" t="s">
+      <c r="DA3" s="38" t="s">
         <v>396</v>
-      </c>
-      <c r="DA3" s="38" t="s">
-        <v>397</v>
       </c>
       <c r="DB3" s="12" t="s">
         <v>91</v>
@@ -3773,149 +3767,149 @@
         <v>53</v>
       </c>
       <c r="DK3" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="DL3" s="11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="DM3" s="12" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="DN3" s="12" t="s">
         <v>185</v>
       </c>
       <c r="DO3" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="DP3" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="DQ3" s="41" t="s">
+        <v>615</v>
+      </c>
+      <c r="DR3" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="DP3" s="41" t="s">
+      <c r="DS3" s="42" t="s">
         <v>617</v>
       </c>
-      <c r="DQ3" s="41" t="s">
+      <c r="DT3" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="DU3" s="42" t="s">
         <v>618</v>
       </c>
-      <c r="DR3" s="41" t="s">
+      <c r="DV3" s="41" t="s">
         <v>619</v>
-      </c>
-      <c r="DS3" s="42" t="s">
-        <v>620</v>
-      </c>
-      <c r="DT3" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="DU3" s="42" t="s">
-        <v>621</v>
-      </c>
-      <c r="DV3" s="41" t="s">
-        <v>622</v>
       </c>
       <c r="DW3" s="41" t="s">
         <v>134</v>
       </c>
       <c r="DX3" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="DY3" s="42" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="DZ3" s="42" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="EA3" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="EB3" s="42" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="EC3" s="42" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="ED3" s="42"/>
       <c r="EE3" s="42"/>
       <c r="EF3" s="42" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="EG3" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="EH3" s="42" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="EI3" s="42" t="s">
         <v>51</v>
       </c>
       <c r="EJ3" s="42" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="EK3" s="42" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="EL3" s="42" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="EM3" s="41" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4" spans="1:143" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B4" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>638</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>592</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I4" s="28" t="s">
+        <v>592</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>594</v>
+      </c>
+      <c r="L4" s="36" t="s">
         <v>595</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="M4" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="N4" s="37" t="s">
         <v>596</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="O4" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="P4" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="L4" s="36" t="s">
-        <v>598</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>427</v>
-      </c>
-      <c r="N4" s="37" t="s">
+      <c r="R4" s="37" t="s">
+        <v>485</v>
+      </c>
+      <c r="S4" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="T4" s="37" t="s">
         <v>599</v>
-      </c>
-      <c r="O4" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="P4" s="37" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="R4" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="S4" s="37" t="s">
-        <v>639</v>
-      </c>
-      <c r="T4" s="37" t="s">
-        <v>602</v>
       </c>
       <c r="U4" s="11">
         <v>50</v>
@@ -3943,16 +3937,16 @@
       </c>
       <c r="AE4" s="12"/>
       <c r="AF4" s="11" t="s">
+        <v>600</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="AI4" s="12" t="s">
         <v>603</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>605</v>
-      </c>
-      <c r="AI4" s="12" t="s">
-        <v>606</v>
       </c>
       <c r="AJ4" s="12" t="s">
         <v>36</v>
@@ -3973,7 +3967,7 @@
         <v>121</v>
       </c>
       <c r="AP4" s="12" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AQ4" s="12" t="s">
         <v>120</v>
@@ -4010,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="BC4" s="12" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="BD4" s="12" t="s">
         <v>16</v>
@@ -4022,7 +4016,7 @@
         <v>12</v>
       </c>
       <c r="BG4" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="BH4" s="12">
         <v>2</v>
@@ -4040,7 +4034,7 @@
         <v>29</v>
       </c>
       <c r="BM4" s="12" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="BN4" s="12" t="s">
         <v>187</v>
@@ -4055,7 +4049,7 @@
         <v>36</v>
       </c>
       <c r="BR4" s="39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BS4" s="12" t="s">
         <v>31</v>
@@ -4070,20 +4064,20 @@
         <v>12345678</v>
       </c>
       <c r="BW4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="BX4" s="40"/>
       <c r="BY4" s="12" t="s">
         <v>143</v>
       </c>
       <c r="BZ4" s="12" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="CA4" s="12" t="s">
         <v>136</v>
       </c>
       <c r="CB4" s="12" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="CC4" s="12" t="s">
         <v>67</v>
@@ -4099,10 +4093,10 @@
       </c>
       <c r="CG4" s="12"/>
       <c r="CH4" s="40" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="CI4" s="40" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="CJ4" s="38"/>
       <c r="CK4" s="38"/>
@@ -4110,13 +4104,13 @@
         <v>40</v>
       </c>
       <c r="CM4" s="40" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="CN4" s="12" t="s">
         <v>145</v>
       </c>
       <c r="CO4" s="11" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="CP4" s="38" t="s">
         <v>341</v>
@@ -4133,22 +4127,22 @@
       <c r="CT4" s="11"/>
       <c r="CU4" s="11"/>
       <c r="CV4" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CW4" s="12" t="s">
         <v>133</v>
       </c>
       <c r="CX4" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="CY4" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="CZ4" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="CY4" s="38" t="s">
-        <v>392</v>
-      </c>
-      <c r="CZ4" s="38" t="s">
+      <c r="DA4" s="38" t="s">
         <v>396</v>
-      </c>
-      <c r="DA4" s="38" t="s">
-        <v>397</v>
       </c>
       <c r="DB4" s="12" t="s">
         <v>91</v>
@@ -4170,66 +4164,66 @@
         <v>53</v>
       </c>
       <c r="DK4" s="11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="DL4" s="11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="DM4" s="12" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="DN4" s="12" t="s">
         <v>185</v>
       </c>
       <c r="DO4" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="DP4" s="41" t="s">
+        <v>614</v>
+      </c>
+      <c r="DQ4" s="41" t="s">
+        <v>615</v>
+      </c>
+      <c r="DR4" s="41" t="s">
         <v>616</v>
       </c>
-      <c r="DP4" s="41" t="s">
+      <c r="DS4" s="42" t="s">
         <v>617</v>
       </c>
-      <c r="DQ4" s="41" t="s">
+      <c r="DT4" s="42" t="s">
+        <v>391</v>
+      </c>
+      <c r="DU4" s="42" t="s">
         <v>618</v>
       </c>
-      <c r="DR4" s="41" t="s">
+      <c r="DV4" s="41" t="s">
         <v>619</v>
-      </c>
-      <c r="DS4" s="42" t="s">
-        <v>620</v>
-      </c>
-      <c r="DT4" s="42" t="s">
-        <v>392</v>
-      </c>
-      <c r="DU4" s="42" t="s">
-        <v>621</v>
-      </c>
-      <c r="DV4" s="41" t="s">
-        <v>622</v>
       </c>
       <c r="DW4" s="41" t="s">
         <v>134</v>
       </c>
       <c r="DX4" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="DY4" s="42" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="DZ4" s="42" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="EA4" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="EB4" s="42" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="EC4" s="42" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="ED4" s="42"/>
       <c r="EE4" s="42"/>
       <c r="EF4" s="42" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="EG4" s="42"/>
       <c r="EH4" s="42"/>
@@ -4238,7 +4232,7 @@
       <c r="EK4" s="42"/>
       <c r="EL4" s="42"/>
       <c r="EM4" s="41" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -4250,8 +4244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BH12" sqref="BH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,13 +4292,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>281</v>
@@ -4358,13 +4352,13 @@
         <v>205</v>
       </c>
       <c r="W1" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="X1" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>437</v>
-      </c>
-      <c r="Y1" s="15" t="s">
-        <v>438</v>
       </c>
       <c r="Z1" s="15" t="s">
         <v>206</v>
@@ -4454,80 +4448,80 @@
         <v>360</v>
       </c>
       <c r="BC1" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="BD1" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="BD1" s="15" t="s">
-        <v>440</v>
-      </c>
       <c r="BE1" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="BF1" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BG1" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BH1" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BI1" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BJ1" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="BJ1" s="15" t="s">
-        <v>453</v>
-      </c>
       <c r="BK1" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="BM1" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="BT1" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2" spans="1:73" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>218</v>
@@ -4539,7 +4533,7 @@
         <v>218</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>218</v>
@@ -4572,10 +4566,10 @@
         <v>16</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X2" s="2" t="s">
         <v>218</v>
@@ -4632,10 +4626,10 @@
         <v>124421</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>361</v>
@@ -4667,13 +4661,13 @@
         <v>366</v>
       </c>
       <c r="BC2" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD2" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="BE2" s="2" t="s">
-        <v>454</v>
+        <v>661</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -4681,22 +4675,22 @@
       <c r="BI2" s="2"/>
       <c r="BJ2" s="2"/>
       <c r="BK2" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL2" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN2" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO2" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP2" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BQ2" s="9" t="s">
         <v>218</v>
@@ -4708,7 +4702,7 @@
         <v>218</v>
       </c>
       <c r="BT2" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU2" s="44" t="s">
         <v>218</v>
@@ -4716,13 +4710,13 @@
     </row>
     <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -4730,19 +4724,19 @@
         <v>218</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>134</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>218</v>
@@ -4775,10 +4769,10 @@
         <v>16</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>218</v>
@@ -4835,10 +4829,10 @@
         <v>124421</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR3" s="2" t="s">
         <v>361</v>
@@ -4870,34 +4864,36 @@
         <v>366</v>
       </c>
       <c r="BC3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD3" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD3" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BE3" s="2"/>
+      <c r="BE3" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
       <c r="BH3" s="2"/>
       <c r="BI3" s="2"/>
       <c r="BJ3" s="2"/>
       <c r="BK3" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL3" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN3" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO3" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="BQ3" s="9" t="s">
         <v>218</v>
@@ -4909,7 +4905,7 @@
         <v>218</v>
       </c>
       <c r="BT3" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU3" s="44" t="s">
         <v>218</v>
@@ -4917,36 +4913,36 @@
     </row>
     <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>218</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>134</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>218</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>134</v>
@@ -4976,10 +4972,10 @@
         <v>16</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X4" s="2" t="s">
         <v>218</v>
@@ -5036,10 +5032,10 @@
         <v>124421</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR4" s="2" t="s">
         <v>361</v>
@@ -5071,34 +5067,36 @@
         <v>366</v>
       </c>
       <c r="BC4" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD4" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD4" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BE4" s="2"/>
+      <c r="BE4" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
       <c r="BK4" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL4" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM4" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN4" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO4" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BQ4" s="9" t="s">
         <v>218</v>
@@ -5110,7 +5108,7 @@
         <v>218</v>
       </c>
       <c r="BT4" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU4" s="44" t="s">
         <v>218</v>
@@ -5118,13 +5116,13 @@
     </row>
     <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5132,7 +5130,7 @@
         <v>218</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>218</v>
@@ -5144,7 +5142,7 @@
         <v>218</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>218</v>
@@ -5177,10 +5175,10 @@
         <v>16</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>218</v>
@@ -5237,10 +5235,10 @@
         <v>124421</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR5" s="2" t="s">
         <v>361</v>
@@ -5272,13 +5270,13 @@
         <v>366</v>
       </c>
       <c r="BC5" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD5" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD5" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="BE5" s="2" t="s">
-        <v>461</v>
+        <v>661</v>
       </c>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
@@ -5286,22 +5284,22 @@
       <c r="BI5" s="2"/>
       <c r="BJ5" s="2"/>
       <c r="BK5" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL5" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN5" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO5" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BQ5" s="9" t="s">
         <v>218</v>
@@ -5313,7 +5311,7 @@
         <v>218</v>
       </c>
       <c r="BT5" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU5" s="44" t="s">
         <v>218</v>
@@ -5321,18 +5319,18 @@
     </row>
     <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>218</v>
@@ -5380,10 +5378,10 @@
         <v>16</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X6" s="2" t="s">
         <v>218</v>
@@ -5440,10 +5438,10 @@
         <v>124421</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR6" s="2" t="s">
         <v>361</v>
@@ -5475,13 +5473,13 @@
         <v>366</v>
       </c>
       <c r="BC6" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD6" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD6" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="BE6" s="2" t="s">
-        <v>454</v>
+        <v>661</v>
       </c>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
@@ -5489,22 +5487,22 @@
       <c r="BI6" s="2"/>
       <c r="BJ6" s="2"/>
       <c r="BK6" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL6" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM6" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN6" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO6" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BQ6" s="9" t="s">
         <v>218</v>
@@ -5516,7 +5514,7 @@
         <v>218</v>
       </c>
       <c r="BT6" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU6" s="44" t="s">
         <v>218</v>
@@ -5524,13 +5522,13 @@
     </row>
     <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -5541,13 +5539,13 @@
         <v>218</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>134</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>218</v>
@@ -5583,10 +5581,10 @@
         <v>16</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X7" s="2" t="s">
         <v>218</v>
@@ -5643,10 +5641,10 @@
         <v>124421</v>
       </c>
       <c r="AP7" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR7" s="2" t="s">
         <v>361</v>
@@ -5678,13 +5676,13 @@
         <v>366</v>
       </c>
       <c r="BC7" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD7" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD7" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="BE7" s="2" t="s">
-        <v>454</v>
+        <v>661</v>
       </c>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
@@ -5692,22 +5690,22 @@
       <c r="BI7" s="2"/>
       <c r="BJ7" s="2"/>
       <c r="BK7" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL7" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM7" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN7" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO7" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BQ7" s="9" t="s">
         <v>218</v>
@@ -5719,7 +5717,7 @@
         <v>218</v>
       </c>
       <c r="BT7" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU7" s="44" t="s">
         <v>218</v>
@@ -5727,19 +5725,19 @@
     </row>
     <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>218</v>
@@ -5790,10 +5788,10 @@
         <v>16</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X8" s="2" t="s">
         <v>218</v>
@@ -5850,10 +5848,10 @@
         <v>124421</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR8" s="2" t="s">
         <v>361</v>
@@ -5885,13 +5883,13 @@
         <v>366</v>
       </c>
       <c r="BC8" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD8" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD8" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="BE8" s="2" t="s">
-        <v>454</v>
+        <v>661</v>
       </c>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
@@ -5899,22 +5897,22 @@
       <c r="BI8" s="2"/>
       <c r="BJ8" s="2"/>
       <c r="BK8" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL8" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM8" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN8" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO8" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BQ8" s="9" t="s">
         <v>218</v>
@@ -5926,7 +5924,7 @@
         <v>218</v>
       </c>
       <c r="BT8" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU8" s="44" t="s">
         <v>218</v>
@@ -5934,13 +5932,13 @@
     </row>
     <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -5948,19 +5946,19 @@
         <v>218</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>134</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>218</v>
@@ -5993,10 +5991,10 @@
         <v>16</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>218</v>
@@ -6053,10 +6051,10 @@
         <v>124421</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR9" s="2" t="s">
         <v>361</v>
@@ -6088,34 +6086,36 @@
         <v>366</v>
       </c>
       <c r="BC9" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD9" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD9" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BE9" s="2"/>
+      <c r="BE9" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
       <c r="BH9" s="2"/>
       <c r="BI9" s="2"/>
       <c r="BJ9" s="2"/>
       <c r="BK9" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL9" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM9" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN9" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO9" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP9" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BQ9" s="9" t="s">
         <v>218</v>
@@ -6127,7 +6127,7 @@
         <v>218</v>
       </c>
       <c r="BT9" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU9" s="44" t="s">
         <v>218</v>
@@ -6135,33 +6135,33 @@
     </row>
     <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>218</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>134</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>218</v>
@@ -6194,10 +6194,10 @@
         <v>16</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>218</v>
@@ -6254,10 +6254,10 @@
         <v>124421</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR10" s="2" t="s">
         <v>361</v>
@@ -6289,34 +6289,36 @@
         <v>366</v>
       </c>
       <c r="BC10" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD10" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD10" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="BE10" s="2"/>
+      <c r="BE10" s="2" t="s">
+        <v>661</v>
+      </c>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
       <c r="BJ10" s="2"/>
       <c r="BK10" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL10" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN10" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO10" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP10" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BQ10" s="9" t="s">
         <v>218</v>
@@ -6328,7 +6330,7 @@
         <v>218</v>
       </c>
       <c r="BT10" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU10" s="44" t="s">
         <v>218</v>
@@ -6336,13 +6338,13 @@
     </row>
     <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -6359,10 +6361,10 @@
         <v>134</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>218</v>
@@ -6395,10 +6397,10 @@
         <v>16</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>218</v>
@@ -6455,10 +6457,10 @@
         <v>124421</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR11" s="2" t="s">
         <v>361</v>
@@ -6490,13 +6492,13 @@
         <v>366</v>
       </c>
       <c r="BC11" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD11" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD11" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="BE11" s="2" t="s">
-        <v>454</v>
+        <v>661</v>
       </c>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
@@ -6504,22 +6506,22 @@
       <c r="BI11" s="2"/>
       <c r="BJ11" s="2"/>
       <c r="BK11" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL11" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM11" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN11" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO11" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP11" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BQ11" s="9" t="s">
         <v>218</v>
@@ -6531,7 +6533,7 @@
         <v>218</v>
       </c>
       <c r="BT11" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU11" s="44" t="s">
         <v>218</v>
@@ -6539,13 +6541,13 @@
     </row>
     <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -6562,10 +6564,10 @@
         <v>134</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>218</v>
@@ -6598,10 +6600,10 @@
         <v>16</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>218</v>
@@ -6658,10 +6660,10 @@
         <v>124421</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="AR12" s="2" t="s">
         <v>361</v>
@@ -6693,17 +6695,17 @@
         <v>366</v>
       </c>
       <c r="BC12" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="BD12" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="BD12" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="BE12" s="2" t="s">
-        <v>454</v>
+        <v>661</v>
       </c>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="BH12" s="2" t="s">
         <v>218</v>
@@ -6715,22 +6717,22 @@
         <v>121212</v>
       </c>
       <c r="BK12" s="9" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="BL12" s="9" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="BM12" s="9" t="s">
         <v>40</v>
       </c>
       <c r="BN12" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="BO12" s="9" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="BP12" s="9" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="BQ12" s="9" t="s">
         <v>218</v>
@@ -6742,7 +6744,7 @@
         <v>218</v>
       </c>
       <c r="BT12" s="44" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="BU12" s="44" t="s">
         <v>218</v>
@@ -7132,142 +7134,142 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>342</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>306</v>
       </c>
       <c r="E2" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>342</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>306</v>
       </c>
       <c r="E3" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>342</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D4" s="32" t="s">
         <v>306</v>
       </c>
       <c r="E4" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D5" s="32" t="s">
         <v>306</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>306</v>
       </c>
       <c r="E6" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>306</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D8" s="32" t="s">
         <v>306</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>374</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -8260,8 +8262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FC177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8482,7 +8484,7 @@
         <v>70</v>
       </c>
       <c r="BP1" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="BQ1" s="4" t="s">
         <v>73</v>
@@ -8491,10 +8493,10 @@
         <v>74</v>
       </c>
       <c r="BS1" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="BT1" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="BT1" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="BU1" s="4" t="s">
         <v>83</v>
@@ -8530,16 +8532,16 @@
         <v>50</v>
       </c>
       <c r="CF1" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CG1" s="4" t="s">
         <v>76</v>
       </c>
       <c r="CH1" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="CI1" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="CI1" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="CJ1" s="4" t="s">
         <v>94</v>
@@ -8560,10 +8562,10 @@
         <v>89</v>
       </c>
       <c r="CP1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="CQ1" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="CQ1" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>137</v>
@@ -8593,169 +8595,169 @@
         <v>60</v>
       </c>
       <c r="DA1" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="DB1" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="DB1" s="4" t="s">
+      <c r="DC1" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="DC1" s="4" t="s">
+      <c r="DD1" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="DD1" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="DE1" s="4" t="s">
         <v>181</v>
       </c>
       <c r="DF1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="DG1" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="DG1" s="4" t="s">
+      <c r="DH1" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="DH1" s="4" t="s">
+      <c r="DI1" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="DI1" s="4" t="s">
+      <c r="DJ1" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="DJ1" s="4" t="s">
+      <c r="DK1" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="DK1" s="4" t="s">
+      <c r="DL1" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="DL1" s="4" t="s">
+      <c r="DM1" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="DM1" s="4" t="s">
-        <v>414</v>
-      </c>
       <c r="DN1" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="DO1" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="DP1" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="DQ1" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="DO1" s="4" t="s">
+      <c r="DR1" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DS1" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="DQ1" s="4" t="s">
+      <c r="DT1" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="DR1" s="4" t="s">
+      <c r="DU1" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="DS1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="DT1" s="4" t="s">
+      <c r="DW1" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="DU1" s="4" t="s">
+      <c r="DX1" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="DV1" s="4" t="s">
+      <c r="DY1" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="DW1" s="4" t="s">
+      <c r="DZ1" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="DX1" s="4" t="s">
+      <c r="EA1" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="DY1" s="4" t="s">
+      <c r="EB1" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="DZ1" s="4" t="s">
+      <c r="EC1" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="EA1" s="4" t="s">
+      <c r="ED1" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="EB1" s="4" t="s">
+      <c r="EE1" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="EC1" s="4" t="s">
+      <c r="EF1" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="ED1" s="4" t="s">
+      <c r="EG1" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="EE1" s="4" t="s">
+      <c r="EH1" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="EF1" s="4" t="s">
+      <c r="EI1" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="EG1" s="4" t="s">
+      <c r="EJ1" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="EH1" s="4" t="s">
+      <c r="EK1" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="EI1" s="4" t="s">
+      <c r="EL1" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="EJ1" s="4" t="s">
+      <c r="EM1" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="EK1" s="4" t="s">
+      <c r="EN1" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="EL1" s="4" t="s">
+      <c r="EO1" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="EM1" s="4" t="s">
+      <c r="EP1" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="EN1" s="4" t="s">
+      <c r="EQ1" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="EO1" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="EP1" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="EQ1" s="4" t="s">
-        <v>544</v>
-      </c>
       <c r="ER1" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="ES1" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="ET1" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="EU1" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="EV1" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="EW1" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EX1" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="EV1" s="4" t="s">
+      <c r="EY1" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="EW1" s="4" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="EX1" s="4" t="s">
+      <c r="FA1" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="EY1" s="4" t="s">
+      <c r="FB1" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FC1" s="4" t="s">
         <v>672</v>
-      </c>
-      <c r="FA1" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="FB1" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="FC1" s="4" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:159" ht="90" x14ac:dyDescent="0.25">
@@ -8763,19 +8765,19 @@
         <v>132</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>129</v>
@@ -8819,13 +8821,13 @@
         <v>36</v>
       </c>
       <c r="V2" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X2" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y2" s="28" t="s">
         <v>139</v>
@@ -8849,7 +8851,7 @@
         <v>36</v>
       </c>
       <c r="AF2" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG2" s="28" t="s">
         <v>9</v>
@@ -8858,7 +8860,7 @@
         <v>10</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ2" s="28" t="s">
         <v>11</v>
@@ -8870,7 +8872,7 @@
         <v>56</v>
       </c>
       <c r="AM2" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN2" s="28" t="s">
         <v>16</v>
@@ -8879,7 +8881,7 @@
         <v>129</v>
       </c>
       <c r="AP2" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AQ2" s="28" t="s">
         <v>183</v>
@@ -8913,19 +8915,19 @@
         <v>36</v>
       </c>
       <c r="BB2" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BC2" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD2" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BE2" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF2" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BG2" s="28" t="s">
         <v>35</v>
@@ -8954,10 +8956,10 @@
       </c>
       <c r="BP2" s="9"/>
       <c r="BQ2" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BR2" s="28" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="BS2" s="28"/>
       <c r="BT2" s="9"/>
@@ -8987,27 +8989,27 @@
         <v>61</v>
       </c>
       <c r="CF2" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CG2" s="9"/>
       <c r="CH2" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="CI2" s="28"/>
       <c r="CJ2" s="9" t="s">
         <v>133</v>
       </c>
       <c r="CK2" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="CL2" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="CM2" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="CL2" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="CM2" s="28" t="s">
+      <c r="CN2" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="CN2" s="9" t="s">
-        <v>397</v>
       </c>
       <c r="CO2" s="28" t="s">
         <v>91</v>
@@ -9016,16 +9018,16 @@
         <v>138</v>
       </c>
       <c r="CQ2" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CR2" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="CS2" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="CT2" s="28" t="s">
         <v>398</v>
-      </c>
-      <c r="CS2" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="CT2" s="28" t="s">
-        <v>399</v>
       </c>
       <c r="CU2" s="29" t="s">
         <v>188</v>
@@ -9037,91 +9039,91 @@
         <v>53</v>
       </c>
       <c r="CX2" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="CY2" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CZ2" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="DA2" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="DB2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="DC2" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="DD2" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="DD2" s="9" t="s">
-        <v>417</v>
-      </c>
       <c r="DE2" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="DF2" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="DG2" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="DH2" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="DF2" s="9" t="s">
+      <c r="DI2" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="DJ2" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="DK2" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="DG2" s="9" t="s">
+      <c r="DL2" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="DH2" s="9" t="s">
+      <c r="DM2" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="DI2" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="DJ2" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="DK2" s="9" t="s">
+      <c r="DN2" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="DL2" s="9" t="s">
+      <c r="DO2" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="DM2" s="9" t="s">
+      <c r="DP2" s="9" t="s">
         <v>486</v>
-      </c>
-      <c r="DN2" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="DO2" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="DP2" s="9" t="s">
-        <v>489</v>
       </c>
       <c r="DQ2" s="9">
         <v>1234567890123450</v>
       </c>
       <c r="DR2" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="DS2" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="DT2" s="9">
         <v>11</v>
       </c>
       <c r="DU2" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="DV2" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="DW2" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="DX2" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="DV2" s="9" t="s">
+      <c r="DY2" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="DW2" s="9" t="s">
+      <c r="DZ2" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="DX2" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="DY2" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="DZ2" s="9" t="s">
-        <v>497</v>
       </c>
       <c r="EA2" s="9">
         <v>123456</v>
@@ -9136,99 +9138,99 @@
         <v>1</v>
       </c>
       <c r="EE2" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="EF2" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="EG2" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="EH2" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="EF2" s="9" t="s">
+      <c r="EI2" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="EG2" s="9" t="s">
+      <c r="EJ2" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="EH2" s="9" t="s">
+      <c r="EK2" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="EI2" s="9" t="s">
+      <c r="EL2" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="EJ2" s="9" t="s">
+      <c r="EM2" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="EK2" s="9" t="s">
+      <c r="EN2" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="EL2" s="9" t="s">
+      <c r="EO2" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="EM2" s="9" t="s">
+      <c r="EP2" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="EN2" s="9" t="s">
+      <c r="EQ2" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="EO2" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="EP2" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="EQ2" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="ER2" s="45" t="s">
+        <v>673</v>
+      </c>
+      <c r="ES2" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="ET2" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="EU2" s="9" t="s">
         <v>676</v>
       </c>
-      <c r="ES2" s="9" t="s">
+      <c r="EV2" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="EW2" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="ET2" s="9" t="s">
+      <c r="EX2" s="9" t="s">
         <v>678</v>
       </c>
-      <c r="EU2" s="9" t="s">
+      <c r="EY2" s="9" t="s">
         <v>679</v>
       </c>
-      <c r="EV2" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="EW2" s="9" t="s">
+      <c r="EZ2" s="46" t="s">
         <v>680</v>
-      </c>
-      <c r="EX2" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="EY2" s="9" t="s">
-        <v>682</v>
-      </c>
-      <c r="EZ2" s="46" t="s">
-        <v>683</v>
       </c>
       <c r="FA2" s="9" t="s">
         <v>107</v>
       </c>
       <c r="FB2" s="9" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="FC2" s="9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:159" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>342</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="G3" s="28" t="s">
         <v>129</v>
@@ -9272,13 +9274,13 @@
         <v>36</v>
       </c>
       <c r="V3" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W3" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X3" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y3" s="28" t="s">
         <v>139</v>
@@ -9302,7 +9304,7 @@
         <v>36</v>
       </c>
       <c r="AF3" s="28" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AG3" s="28" t="s">
         <v>9</v>
@@ -9311,7 +9313,7 @@
         <v>10</v>
       </c>
       <c r="AI3" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ3" s="28" t="s">
         <v>11</v>
@@ -9323,7 +9325,7 @@
         <v>56</v>
       </c>
       <c r="AM3" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN3" s="28" t="s">
         <v>16</v>
@@ -9332,7 +9334,7 @@
         <v>129</v>
       </c>
       <c r="AP3" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AQ3" s="28" t="s">
         <v>183</v>
@@ -9366,19 +9368,19 @@
         <v>36</v>
       </c>
       <c r="BB3" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BC3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD3" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BE3" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF3" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BG3" s="28" t="s">
         <v>35</v>
@@ -9406,16 +9408,16 @@
         <v>71</v>
       </c>
       <c r="BP3" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BQ3" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BR3" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS3" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BT3" s="9" t="s">
         <v>341</v>
@@ -9446,27 +9448,27 @@
         <v>61</v>
       </c>
       <c r="CF3" s="28" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CG3" s="9"/>
       <c r="CH3" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CI3" s="28"/>
       <c r="CJ3" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK3" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="CL3" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="CM3" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="CL3" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="CM3" s="28" t="s">
+      <c r="CN3" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="CN3" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="CO3" s="28" t="s">
         <v>91</v>
@@ -9477,7 +9479,7 @@
         <v>138</v>
       </c>
       <c r="CS3" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CT3" s="9">
         <v>50000</v>
@@ -9501,7 +9503,7 @@
         <v>100</v>
       </c>
       <c r="DA3" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="DB3" s="9">
         <v>5</v>
@@ -9513,16 +9515,16 @@
         <v>71</v>
       </c>
       <c r="DE3" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="DF3" s="9" t="s">
         <v>416</v>
-      </c>
-      <c r="DF3" s="9" t="s">
-        <v>417</v>
       </c>
       <c r="DG3" s="9">
         <v>6</v>
       </c>
       <c r="DH3" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="DI3" s="9">
         <v>2</v>
@@ -9534,7 +9536,7 @@
         <v>1</v>
       </c>
       <c r="DL3" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DM3" s="9">
         <v>3</v>
@@ -9578,16 +9580,16 @@
         <v>342</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="G4" s="28" t="s">
         <v>129</v>
@@ -9631,13 +9633,13 @@
         <v>36</v>
       </c>
       <c r="V4" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W4" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y4" s="28" t="s">
         <v>139</v>
@@ -9661,7 +9663,7 @@
         <v>36</v>
       </c>
       <c r="AF4" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG4" s="28" t="s">
         <v>9</v>
@@ -9670,7 +9672,7 @@
         <v>10</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ4" s="28" t="s">
         <v>11</v>
@@ -9682,7 +9684,7 @@
         <v>56</v>
       </c>
       <c r="AM4" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN4" s="28" t="s">
         <v>16</v>
@@ -9691,7 +9693,7 @@
         <v>129</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AQ4" s="28" t="s">
         <v>183</v>
@@ -9725,19 +9727,19 @@
         <v>36</v>
       </c>
       <c r="BB4" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BC4" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BE4" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF4" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BG4" s="28" t="s">
         <v>35</v>
@@ -9765,16 +9767,16 @@
         <v>71</v>
       </c>
       <c r="BP4" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BQ4" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BR4" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS4" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BT4" s="9" t="s">
         <v>341</v>
@@ -9807,23 +9809,23 @@
       <c r="CF4" s="28"/>
       <c r="CG4" s="9"/>
       <c r="CH4" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="CI4" s="28"/>
       <c r="CJ4" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK4" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="CL4" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="CM4" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="CL4" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="CM4" s="28" t="s">
+      <c r="CN4" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="CN4" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="CO4" s="28" t="s">
         <v>91</v>
@@ -9834,7 +9836,7 @@
         <v>138</v>
       </c>
       <c r="CS4" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CT4" s="9">
         <v>50000</v>
@@ -9903,22 +9905,22 @@
     </row>
     <row r="5" spans="1:159" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>342</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>129</v>
@@ -9962,13 +9964,13 @@
         <v>36</v>
       </c>
       <c r="V5" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W5" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y5" s="28" t="s">
         <v>139</v>
@@ -9992,7 +9994,7 @@
         <v>36</v>
       </c>
       <c r="AF5" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AG5" s="28" t="s">
         <v>9</v>
@@ -10001,7 +10003,7 @@
         <v>10</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ5" s="28" t="s">
         <v>11</v>
@@ -10013,7 +10015,7 @@
         <v>56</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN5" s="28" t="s">
         <v>16</v>
@@ -10022,7 +10024,7 @@
         <v>129</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AQ5" s="28" t="s">
         <v>183</v>
@@ -10056,19 +10058,19 @@
         <v>36</v>
       </c>
       <c r="BB5" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BC5" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD5" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BE5" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF5" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BG5" s="28" t="s">
         <v>35</v>
@@ -10096,16 +10098,16 @@
         <v>71</v>
       </c>
       <c r="BP5" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BQ5" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BR5" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS5" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BT5" s="9" t="s">
         <v>341</v>
@@ -10138,23 +10140,23 @@
       <c r="CF5" s="28"/>
       <c r="CG5" s="9"/>
       <c r="CH5" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CI5" s="28"/>
       <c r="CJ5" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK5" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="CL5" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="CM5" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="CL5" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="CM5" s="28" t="s">
+      <c r="CN5" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="CN5" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="CO5" s="28" t="s">
         <v>91</v>
@@ -10165,7 +10167,7 @@
         <v>138</v>
       </c>
       <c r="CS5" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CT5" s="9">
         <v>50000</v>
@@ -10240,16 +10242,16 @@
         <v>342</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="G6" s="28" t="s">
         <v>129</v>
@@ -10293,13 +10295,13 @@
         <v>36</v>
       </c>
       <c r="V6" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y6" s="28" t="s">
         <v>139</v>
@@ -10323,7 +10325,7 @@
         <v>36</v>
       </c>
       <c r="AF6" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG6" s="28" t="s">
         <v>9</v>
@@ -10332,7 +10334,7 @@
         <v>10</v>
       </c>
       <c r="AI6" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ6" s="28" t="s">
         <v>11</v>
@@ -10344,7 +10346,7 @@
         <v>56</v>
       </c>
       <c r="AM6" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN6" s="28" t="s">
         <v>16</v>
@@ -10353,7 +10355,7 @@
         <v>129</v>
       </c>
       <c r="AP6" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AQ6" s="28" t="s">
         <v>183</v>
@@ -10387,19 +10389,19 @@
         <v>36</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BC6" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD6" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BE6" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF6" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BG6" s="28" t="s">
         <v>35</v>
@@ -10427,16 +10429,16 @@
         <v>71</v>
       </c>
       <c r="BP6" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BQ6" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BR6" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS6" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BT6" s="9" t="s">
         <v>341</v>
@@ -10469,23 +10471,23 @@
       <c r="CF6" s="28"/>
       <c r="CG6" s="9"/>
       <c r="CH6" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="CI6" s="28"/>
       <c r="CJ6" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK6" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="CL6" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="CM6" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="CL6" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="CM6" s="28" t="s">
+      <c r="CN6" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="CN6" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="CO6" s="28" t="s">
         <v>91</v>
@@ -10496,7 +10498,7 @@
         <v>138</v>
       </c>
       <c r="CS6" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CT6" s="9">
         <v>50000</v>
@@ -10565,22 +10567,22 @@
     </row>
     <row r="7" spans="1:159" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>342</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>129</v>
@@ -10624,13 +10626,13 @@
         <v>36</v>
       </c>
       <c r="V7" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W7" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y7" s="28" t="s">
         <v>139</v>
@@ -10654,7 +10656,7 @@
         <v>36</v>
       </c>
       <c r="AF7" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG7" s="28" t="s">
         <v>9</v>
@@ -10663,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="AI7" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ7" s="28" t="s">
         <v>11</v>
@@ -10675,7 +10677,7 @@
         <v>56</v>
       </c>
       <c r="AM7" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN7" s="28" t="s">
         <v>16</v>
@@ -10684,7 +10686,7 @@
         <v>129</v>
       </c>
       <c r="AP7" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AQ7" s="28" t="s">
         <v>183</v>
@@ -10718,19 +10720,19 @@
         <v>36</v>
       </c>
       <c r="BB7" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BC7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD7" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BE7" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF7" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BG7" s="28" t="s">
         <v>35</v>
@@ -10758,16 +10760,16 @@
         <v>71</v>
       </c>
       <c r="BP7" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BQ7" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BR7" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS7" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BT7" s="9" t="s">
         <v>341</v>
@@ -10800,23 +10802,23 @@
       <c r="CF7" s="28"/>
       <c r="CG7" s="9"/>
       <c r="CH7" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="CI7" s="28"/>
       <c r="CJ7" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK7" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="CL7" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="CM7" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="CL7" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="CM7" s="28" t="s">
+      <c r="CN7" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="CN7" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="CO7" s="28" t="s">
         <v>91</v>
@@ -10827,7 +10829,7 @@
         <v>138</v>
       </c>
       <c r="CS7" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CT7" s="9">
         <v>50000</v>
@@ -10902,16 +10904,16 @@
         <v>342</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>386</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="G8" s="28" t="s">
         <v>129</v>
@@ -10955,13 +10957,13 @@
         <v>36</v>
       </c>
       <c r="V8" s="28" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W8" s="28" t="s">
         <v>122</v>
       </c>
       <c r="X8" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Y8" s="28" t="s">
         <v>139</v>
@@ -10985,7 +10987,7 @@
         <v>36</v>
       </c>
       <c r="AF8" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG8" s="28" t="s">
         <v>9</v>
@@ -10994,7 +10996,7 @@
         <v>10</v>
       </c>
       <c r="AI8" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AJ8" s="28" t="s">
         <v>11</v>
@@ -11006,7 +11008,7 @@
         <v>56</v>
       </c>
       <c r="AM8" s="28" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AN8" s="28" t="s">
         <v>16</v>
@@ -11015,7 +11017,7 @@
         <v>129</v>
       </c>
       <c r="AP8" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AQ8" s="28" t="s">
         <v>183</v>
@@ -11049,19 +11051,19 @@
         <v>36</v>
       </c>
       <c r="BB8" s="28" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BC8" s="28" t="s">
         <v>31</v>
       </c>
       <c r="BD8" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BE8" s="28" t="s">
         <v>34</v>
       </c>
       <c r="BF8" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BG8" s="28" t="s">
         <v>35</v>
@@ -11089,16 +11091,16 @@
         <v>71</v>
       </c>
       <c r="BP8" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BQ8" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BR8" s="28" t="s">
         <v>341</v>
       </c>
       <c r="BS8" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BT8" s="9" t="s">
         <v>341</v>
@@ -11131,23 +11133,23 @@
       <c r="CF8" s="28"/>
       <c r="CG8" s="9"/>
       <c r="CH8" s="28" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="CI8" s="28"/>
       <c r="CJ8" s="28" t="s">
         <v>133</v>
       </c>
       <c r="CK8" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="CL8" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="CM8" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="CL8" s="28" t="s">
-        <v>392</v>
-      </c>
-      <c r="CM8" s="28" t="s">
+      <c r="CN8" s="28" t="s">
         <v>396</v>
-      </c>
-      <c r="CN8" s="28" t="s">
-        <v>397</v>
       </c>
       <c r="CO8" s="28" t="s">
         <v>91</v>
@@ -11158,7 +11160,7 @@
         <v>138</v>
       </c>
       <c r="CS8" s="28" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CT8" s="9">
         <v>50000</v>
@@ -11227,7 +11229,7 @@
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>342</v>
@@ -11239,7 +11241,7 @@
         <v>8520</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F9" s="9">
         <v>50</v>
@@ -11570,7 +11572,7 @@
         <v>8520</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F10" s="9">
         <v>50</v>
@@ -11889,7 +11891,7 @@
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>342</v>
@@ -11901,7 +11903,7 @@
         <v>8520</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F11" s="9">
         <v>50</v>
@@ -12220,19 +12222,19 @@
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D12" s="9">
         <v>8520</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F12" s="9">
         <v>50</v>
@@ -12364,7 +12366,7 @@
         <v>187</v>
       </c>
       <c r="AY12" s="9" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="AZ12" s="9" t="s">
         <v>30</v>
@@ -12447,7 +12449,7 @@
         <v>61</v>
       </c>
       <c r="CF12" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="CG12" s="9"/>
       <c r="CH12" s="9"/>
@@ -12489,7 +12491,7 @@
         <v>188</v>
       </c>
       <c r="CV12" s="9" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="CW12" s="9" t="s">
         <v>53</v>
@@ -12498,7 +12500,7 @@
         <v>100</v>
       </c>
       <c r="CY12" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CZ12" s="9">
         <v>5</v>
@@ -12510,37 +12512,37 @@
         <v>71</v>
       </c>
       <c r="DC12" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="DD12" s="9" t="s">
         <v>416</v>
-      </c>
-      <c r="DD12" s="9" t="s">
-        <v>417</v>
       </c>
       <c r="DE12" s="9">
         <v>6</v>
       </c>
       <c r="DF12" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="DG12" s="9">
         <v>9</v>
       </c>
       <c r="DH12" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="DI12" s="9">
         <v>6</v>
       </c>
       <c r="DJ12" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="DK12" s="9">
         <v>3</v>
       </c>
       <c r="DL12" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="DM12" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="DN12" s="9">
         <v>4</v>
@@ -12555,31 +12557,31 @@
         <v>1234567890123450</v>
       </c>
       <c r="DR12" s="9" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="DS12" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="DT12" s="9">
         <v>11</v>
       </c>
       <c r="DU12" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="DV12" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="DW12" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="DX12" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="DV12" s="9" t="s">
+      <c r="DY12" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="DW12" s="9" t="s">
+      <c r="DZ12" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="DX12" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="DY12" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="DZ12" s="9" t="s">
-        <v>497</v>
       </c>
       <c r="EA12" s="9">
         <v>123456</v>
@@ -12594,43 +12596,43 @@
         <v>1</v>
       </c>
       <c r="EE12" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="EF12" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="EG12" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="EH12" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="EF12" s="9" t="s">
+      <c r="EI12" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="EG12" s="9" t="s">
+      <c r="EJ12" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="EH12" s="9" t="s">
+      <c r="EK12" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="EI12" s="9" t="s">
+      <c r="EL12" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="EJ12" s="9" t="s">
+      <c r="EM12" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="EK12" s="9" t="s">
+      <c r="EN12" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="EL12" s="9" t="s">
+      <c r="EO12" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="EM12" s="9" t="s">
+      <c r="EP12" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="EN12" s="9" t="s">
+      <c r="EQ12" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="EO12" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="EP12" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="EQ12" s="9" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.25">

--- a/src/main/resources/config/stageSA/TestData/TestData.xlsx
+++ b/src/main/resources/config/stageSA/TestData/TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="685">
   <si>
     <t>TC01_MI-ISS-Embossing File-Additional Parameters in Embossing File Template</t>
   </si>
@@ -2005,9 +2005,6 @@
   </si>
   <si>
     <t>Abbrevation</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>555522</t>
@@ -4244,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BH12" sqref="BH12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4513,7 +4510,7 @@
         <v>441</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>659</v>
+        <v>481</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -4629,7 +4626,7 @@
         <v>444</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR2" s="2" t="s">
         <v>361</v>
@@ -4667,7 +4664,7 @@
         <v>446</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF2" s="2"/>
       <c r="BG2" s="2"/>
@@ -4716,7 +4713,7 @@
         <v>454</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -4832,7 +4829,7 @@
         <v>444</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR3" s="2" t="s">
         <v>361</v>
@@ -4870,7 +4867,7 @@
         <v>446</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF3" s="2"/>
       <c r="BG3" s="2"/>
@@ -4919,7 +4916,7 @@
         <v>456</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -5035,7 +5032,7 @@
         <v>444</v>
       </c>
       <c r="AQ4" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR4" s="2" t="s">
         <v>361</v>
@@ -5073,7 +5070,7 @@
         <v>446</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF4" s="2"/>
       <c r="BG4" s="2"/>
@@ -5122,7 +5119,7 @@
         <v>458</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -5238,7 +5235,7 @@
         <v>444</v>
       </c>
       <c r="AQ5" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR5" s="2" t="s">
         <v>361</v>
@@ -5276,7 +5273,7 @@
         <v>446</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF5" s="2"/>
       <c r="BG5" s="2"/>
@@ -5325,7 +5322,7 @@
         <v>460</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -5441,7 +5438,7 @@
         <v>444</v>
       </c>
       <c r="AQ6" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR6" s="2" t="s">
         <v>361</v>
@@ -5479,7 +5476,7 @@
         <v>446</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
@@ -5528,7 +5525,7 @@
         <v>462</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -5644,7 +5641,7 @@
         <v>444</v>
       </c>
       <c r="AQ7" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR7" s="2" t="s">
         <v>361</v>
@@ -5682,7 +5679,7 @@
         <v>446</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF7" s="2"/>
       <c r="BG7" s="2"/>
@@ -5731,13 +5728,13 @@
         <v>464</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>218</v>
@@ -5851,7 +5848,7 @@
         <v>444</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR8" s="2" t="s">
         <v>361</v>
@@ -5889,7 +5886,7 @@
         <v>446</v>
       </c>
       <c r="BE8" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF8" s="2"/>
       <c r="BG8" s="2"/>
@@ -5938,7 +5935,7 @@
         <v>466</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -6054,7 +6051,7 @@
         <v>444</v>
       </c>
       <c r="AQ9" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR9" s="2" t="s">
         <v>361</v>
@@ -6092,7 +6089,7 @@
         <v>446</v>
       </c>
       <c r="BE9" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF9" s="2"/>
       <c r="BG9" s="2"/>
@@ -6141,7 +6138,7 @@
         <v>468</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -6257,7 +6254,7 @@
         <v>444</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR10" s="2" t="s">
         <v>361</v>
@@ -6295,7 +6292,7 @@
         <v>446</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF10" s="2"/>
       <c r="BG10" s="2"/>
@@ -6344,7 +6341,7 @@
         <v>470</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -6460,7 +6457,7 @@
         <v>444</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR11" s="2" t="s">
         <v>361</v>
@@ -6498,7 +6495,7 @@
         <v>446</v>
       </c>
       <c r="BE11" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF11" s="2"/>
       <c r="BG11" s="2"/>
@@ -6547,7 +6544,7 @@
         <v>470</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -6663,7 +6660,7 @@
         <v>444</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AR12" s="2" t="s">
         <v>361</v>
@@ -6701,7 +6698,7 @@
         <v>446</v>
       </c>
       <c r="BE12" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="BF12" s="2"/>
       <c r="BG12" s="2" t="s">
@@ -8724,40 +8721,40 @@
         <v>541</v>
       </c>
       <c r="ER1" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="ES1" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="ET1" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="ET1" s="4" t="s">
+      <c r="EU1" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="EU1" s="4" t="s">
+      <c r="EV1" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="EV1" s="4" t="s">
+      <c r="EW1" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="EW1" s="4" t="s">
+      <c r="EX1" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="EX1" s="4" t="s">
+      <c r="EY1" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="EY1" s="4" t="s">
+      <c r="EZ1" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="EZ1" s="4" t="s">
+      <c r="FA1" s="4